--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\MediaMain\Satisfactory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38DA77-1B12-4102-BB15-7A16590FDF0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759E2CD-76E9-4BFE-A961-3C286F0D3DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="TierLocationOrganization" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
-    <sheet name="DiagramLayout" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="MinerOutputValues" sheetId="5" r:id="rId5"/>
-    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId6"/>
-    <sheet name="GrasslandSWSub" sheetId="7" r:id="rId7"/>
+    <sheet name="DiagramLayout" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="MinerOutputValues" sheetId="5" r:id="rId4"/>
+    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId5"/>
+    <sheet name="GrasslandSWSub" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="193">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -162,9 +161,6 @@
     <t>Alclad Aluminum Sheets</t>
   </si>
   <si>
-    <t xml:space="preserve">Current Ore Production </t>
-  </si>
-  <si>
     <t>Iron</t>
   </si>
   <si>
@@ -174,9 +170,6 @@
     <t>Quartz</t>
   </si>
   <si>
-    <t>240(480)</t>
-  </si>
-  <si>
     <t>Steel Ingots (Solid Steel Ingots)</t>
   </si>
   <si>
@@ -273,90 +266,6 @@
     <t xml:space="preserve">5. Caterium Ore to Fused Wire, Quickwire </t>
   </si>
   <si>
-    <t>Solid Steel Ingot = 2 Coal, 2 Iron Ingot (2 Ore), Consumes 40/min, Produces 60/min</t>
-  </si>
-  <si>
-    <t>Copper Alloy Ingot = 10 copper, 5 iron, Consumes 50:25/min, Produces 100/ min</t>
-  </si>
-  <si>
-    <t>Concrete = 3 Limestone, Consumes 45/min, Produces 15/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480 Coal @ 40 / min consumption = 12 Steel Foundries </t>
-  </si>
-  <si>
-    <t>480 copper @ 50/min consumption = 10 Foundries</t>
-  </si>
-  <si>
-    <t>-240 Iron = 1440'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> '- 480 Iron = 960'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960 Iron = 960 Ingot / Min Leftover Currently </t>
-  </si>
-  <si>
-    <t>2 Copper Lines, 1 Iron Line @ 240 Lines</t>
-  </si>
-  <si>
-    <t>1440 Iron Ingot / Min Production . 30/min con = 48 Constructors(max)</t>
-  </si>
-  <si>
-    <t>(Route 480 Ingots to Steel Above)</t>
-  </si>
-  <si>
-    <t>Plates = 30/Min , Produces 20/min</t>
-  </si>
-  <si>
-    <t>Rods = 15/min, produces 15/min</t>
-  </si>
-  <si>
-    <t>Cast Screws = 12.5/min , produces 50/min</t>
-  </si>
-  <si>
-    <t>save half</t>
-  </si>
-  <si>
-    <t>480 :   1/2 Plates, 1/4 rods, 1/4 screws</t>
-  </si>
-  <si>
-    <t>240 : 120 : 120</t>
-  </si>
-  <si>
-    <t>Rods = 8 Constructors</t>
-  </si>
-  <si>
-    <t>Plates = 8 Constructors</t>
-  </si>
-  <si>
-    <t>Screws = 9 Constructors</t>
-  </si>
-  <si>
-    <t>480 Sent to Below Parts, Rest sent to Steel Here After</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>WWWWWWWWWWWWWWWWWW</t>
-  </si>
-  <si>
     <t>Multiplier</t>
   </si>
   <si>
@@ -570,57 +479,6 @@
     <t>Circuit Board</t>
   </si>
   <si>
-    <t>Materials to Build the Sites:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electric Locomotives </t>
-  </si>
-  <si>
-    <t>Signals</t>
-  </si>
-  <si>
-    <t>Stations</t>
-  </si>
-  <si>
-    <t>Assemblers</t>
-  </si>
-  <si>
-    <t>Freight Cars</t>
-  </si>
-  <si>
-    <t>Freight Stations</t>
-  </si>
-  <si>
-    <t>Disassemble Alluminum = Parts</t>
-  </si>
-  <si>
-    <t>Motors, Heavy Frames, Pipes, Computers (need)</t>
-  </si>
-  <si>
-    <t>Heavy Frames</t>
-  </si>
-  <si>
-    <t>Computers, Heacvy Frames, Motors</t>
-  </si>
-  <si>
-    <t>Computers, Heavy Frames</t>
-  </si>
-  <si>
-    <t>Circuit Board, Computers</t>
-  </si>
-  <si>
-    <t>^^^</t>
-  </si>
-  <si>
-    <t>Rotors, Rein Plates (Making Next)</t>
-  </si>
-  <si>
-    <t>Build a Computer Stockpile on Smelting Site, Temporary</t>
-  </si>
-  <si>
-    <t>Caterium Computers Recipie = Boards, Quickwire, Rubber</t>
-  </si>
-  <si>
     <t>Motors (Stator + Rotor)</t>
   </si>
   <si>
@@ -654,36 +512,6 @@
     <t>Quartz Crystals (Smelter Start)</t>
   </si>
   <si>
-    <t>1. Disassemble Aluminum Production = Get Parts Back</t>
-  </si>
-  <si>
-    <t>2. StockPile Computers for Build</t>
-  </si>
-  <si>
-    <t>3. Maybe Storage while Computers Build</t>
-  </si>
-  <si>
-    <t>4. Build Train to Intermediate Production Site</t>
-  </si>
-  <si>
-    <t>Outbound : Iron | Steel | Copper | Caterium | Concrete</t>
-  </si>
-  <si>
-    <t>3. Caterium Smelting Build under Train, Pipe Up</t>
-  </si>
-  <si>
-    <t>5. Reinforced Plate Site</t>
-  </si>
-  <si>
-    <t>6. Fused Wire / Quickwire Site</t>
-  </si>
-  <si>
-    <t>7. Copper Sheet Site</t>
-  </si>
-  <si>
-    <t>8 Steel Site - 90% Pipes , 10 % Beams</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sites to Build , Intermediate Production Center: </t>
   </si>
   <si>
@@ -723,62 +551,110 @@
     <t>Pickup Intermediate High</t>
   </si>
   <si>
-    <t>9. Stator Site</t>
-  </si>
-  <si>
-    <t>10. Rotor Site</t>
-  </si>
-  <si>
     <t>11. Steeled Frame Site</t>
   </si>
   <si>
     <t>12. Encased Industrial Pipes Site</t>
   </si>
   <si>
-    <t>13. Motors Site</t>
-  </si>
-  <si>
     <t>14. Heavy Frames Site</t>
   </si>
   <si>
-    <t>Pickup 1a</t>
-  </si>
-  <si>
-    <t>Pickup 2a &amp; 3a</t>
-  </si>
-  <si>
-    <t>Pickup 4a</t>
-  </si>
-  <si>
-    <t>Pickup 5a &amp; 6a</t>
-  </si>
-  <si>
-    <t>Pickup 2b</t>
-  </si>
-  <si>
-    <t>Pickup 3b</t>
-  </si>
-  <si>
-    <t>Pickup 1b</t>
-  </si>
-  <si>
-    <t>Pickup 4b</t>
-  </si>
-  <si>
-    <t>Pickup 5b</t>
-  </si>
-  <si>
-    <t>Pickup 6b</t>
-  </si>
-  <si>
-    <t>15. Figure out Incoming Splitting from Int to Out Stations</t>
+    <t>Steel Inogt Module</t>
+  </si>
+  <si>
+    <t>Copper Ingot Module</t>
+  </si>
+  <si>
+    <t>Iron Rod Module</t>
+  </si>
+  <si>
+    <t>Cable Module</t>
+  </si>
+  <si>
+    <t>Iron Plate Module</t>
+  </si>
+  <si>
+    <t>Screws Production</t>
+  </si>
+  <si>
+    <t>Reinforced Plate Production</t>
+  </si>
+  <si>
+    <t>Steel Pipe Production</t>
+  </si>
+  <si>
+    <t>Steel Beam Production</t>
+  </si>
+  <si>
+    <t>Copper Sheet Production</t>
+  </si>
+  <si>
+    <t>Wire Production</t>
+  </si>
+  <si>
+    <t>Quickwire Production</t>
+  </si>
+  <si>
+    <t>Processing Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input </t>
+  </si>
+  <si>
+    <t>Input 2</t>
+  </si>
+  <si>
+    <t>Total Output</t>
+  </si>
+  <si>
+    <t>OutputPer</t>
+  </si>
+  <si>
+    <t>Production#</t>
+  </si>
+  <si>
+    <t>480 Copper</t>
+  </si>
+  <si>
+    <t>180 Steel</t>
+  </si>
+  <si>
+    <t>360 Steel</t>
+  </si>
+  <si>
+    <t>192 Copper</t>
+  </si>
+  <si>
+    <t>525 Copper</t>
+  </si>
+  <si>
+    <t>48 Caterium</t>
+  </si>
+  <si>
+    <t>105 Caterium</t>
+  </si>
+  <si>
+    <t>480 Iron</t>
+  </si>
+  <si>
+    <t>15. Design Train Sorting Station</t>
+  </si>
+  <si>
+    <t>16. Oil Site, Rubber Production focus</t>
+  </si>
+  <si>
+    <t>17. Computer Production</t>
+  </si>
+  <si>
+    <t>18. Turbofuel Powerplant, extend train to it.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,27 +680,6 @@
       <sz val="11"/>
       <color rgb="FF1A1A1B"/>
       <name val="Inherit"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3A3A3A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3A3A3A"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -959,7 +814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1155,58 +1010,6 @@
       <top/>
       <bottom style="thick">
         <color rgb="FFEEEEEE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,18 +1033,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,73 +1107,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -1364,6 +1150,27 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1960,8 +1767,8 @@
   </sheetPr>
   <dimension ref="C1:H79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:R32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2003,8 +1810,8 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>35</v>
+      <c r="D4" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>7</v>
@@ -2016,15 +1823,15 @@
         <v>7</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="51" thickTop="1" thickBot="1">
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>36</v>
+      <c r="D5" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>7</v>
@@ -2036,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
@@ -2044,34 +1851,34 @@
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="51" thickTop="1" thickBot="1">
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="51" thickTop="1" thickBot="1">
+      <c r="F8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="51" thickTop="1" thickBot="1">
+      <c r="F9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="51" thickTop="1" thickBot="1">
-      <c r="F8" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="51" thickTop="1" thickBot="1">
-      <c r="F9" s="42" t="s">
-        <v>44</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="51" thickTop="1" thickBot="1">
@@ -2079,12 +1886,12 @@
         <v>27</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="F11" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -2096,7 +1903,7 @@
     </row>
     <row r="13" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
       <c r="F13" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -2104,14 +1911,14 @@
       <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>37</v>
+      <c r="D14" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>7</v>
@@ -2131,19 +1938,19 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="15.75" thickBot="1">
       <c r="F18" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="18" thickTop="1" thickBot="1">
@@ -2157,23 +1964,23 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="17.25" thickBot="1">
-      <c r="F20" s="43" t="s">
-        <v>161</v>
+      <c r="F20" s="31" t="s">
+        <v>131</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="F21" s="42" t="s">
-        <v>160</v>
+      <c r="F21" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="15.75" thickBot="1"/>
@@ -2182,12 +1989,12 @@
         <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="29" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -2196,12 +2003,12 @@
     </row>
     <row r="24" spans="3:7" ht="18" thickTop="1" thickBot="1">
       <c r="D24" s="4" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="29" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -2215,7 +2022,7 @@
     </row>
     <row r="26" spans="3:7" ht="34.5" thickTop="1" thickBot="1">
       <c r="F26" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="18" thickTop="1" thickBot="1">
@@ -2249,13 +2056,13 @@
     </row>
     <row r="29" spans="3:7" ht="34.5" thickTop="1" thickBot="1">
       <c r="D29" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>7</v>
@@ -2263,22 +2070,22 @@
     </row>
     <row r="30" spans="3:7" ht="18" thickTop="1" thickBot="1">
       <c r="F30" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="18" thickTop="1" thickBot="1">
       <c r="F31" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="3:7" ht="18" thickTop="1" thickBot="1">
       <c r="F32" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="F33" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="18" thickTop="1" thickBot="1">
@@ -2291,10 +2098,10 @@
         <v>23</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="18" thickTop="1" thickBot="1">
@@ -2305,27 +2112,27 @@
     </row>
     <row r="40" spans="3:8">
       <c r="D40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="3:8">
       <c r="D41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="3:8">
       <c r="D42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="3:8">
       <c r="D43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="3:8">
       <c r="D44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="5:7" ht="15.75" thickBot="1"/>
@@ -2376,414 +2183,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83AA758-A5B7-4FA8-94DC-BA3EAA457D3D}">
-  <dimension ref="C1:L37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H32:H33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:12" ht="15.75" thickBot="1"/>
-    <row r="2" spans="3:12" ht="44.25" thickTop="1" thickBot="1">
-      <c r="C2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" ht="15.75" thickTop="1">
-      <c r="E3" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12">
-      <c r="C4" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
-      <c r="C5" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="I6" s="45" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="15.75" thickBot="1">
-      <c r="C9" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="F10" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C11" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" ht="17.25" thickBot="1">
-      <c r="D12" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="15.75" thickTop="1">
-      <c r="D13" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="K13" s="44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="I15" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="K15" s="44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="I16" s="45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C17" s="47" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C18" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" ht="15.75" thickTop="1">
-      <c r="C19" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C20" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C21" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>224</v>
-      </c>
-      <c r="I21" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="46" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" ht="15.75" thickTop="1">
-      <c r="C22" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="C23" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="I23" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11">
-      <c r="C24" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="I24" s="44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C25" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="17.25" thickBot="1">
-      <c r="C26" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" ht="15.75" thickTop="1">
-      <c r="C27" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="I27" s="44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11">
-      <c r="C28" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11">
-      <c r="C29" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11">
-      <c r="C30" s="47" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11">
-      <c r="F31" s="46" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" ht="15.75" thickBot="1">
-      <c r="F32" s="46" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="D33" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" ht="18" thickTop="1" thickBot="1">
-      <c r="D34" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" ht="18" thickTop="1" thickBot="1">
-      <c r="D35" s="48" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" ht="18" thickTop="1" thickBot="1">
-      <c r="D36" s="48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" ht="18" thickTop="1" thickBot="1">
-      <c r="D37" s="48" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A19:A39"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2802,259 +2205,281 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986D5E19-A499-4871-A495-47C3DCF8567F}">
-  <dimension ref="B2:H30"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83AA758-A5B7-4FA8-94DC-BA3EAA457D3D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="H3" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B4" s="17" t="s">
+    <row r="1" spans="3:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="3:12" ht="44.25" thickTop="1" thickBot="1">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" ht="15.75" thickTop="1">
+      <c r="E3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="17">
-        <v>1680</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="H4" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="17">
-        <v>480</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="H5" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="17">
-        <v>1200</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="H6" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="17">
-        <v>480</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="H7" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="17">
-        <v>240</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="2:8" ht="16.5" thickBot="1">
-      <c r="B9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="H9" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="H10" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="H13" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="H14" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="H16" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="H17" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="H22" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="H23" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="H24" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="H25" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="H26" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="H27" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="H28" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="H29" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="H30" s="19" t="s">
-        <v>86</v>
+      <c r="F5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C9" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C10" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="12" spans="3:12" ht="17.25" thickBot="1">
+      <c r="E12" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="15.75" thickTop="1">
+      <c r="F13" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="15.75" thickBot="1">
+      <c r="F15" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="18" thickTop="1" thickBot="1">
+      <c r="C17" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="18" thickTop="1" thickBot="1">
+      <c r="C18" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="18" thickTop="1" thickBot="1">
+      <c r="C19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="15.75" thickBot="1"/>
+    <row r="21" spans="3:11" ht="17.25" thickBot="1">
+      <c r="I21" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="15.75" thickTop="1">
+      <c r="I22" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="I23" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="15.75" thickBot="1">
+      <c r="I24" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="18" thickTop="1" thickBot="1">
+      <c r="C25" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="17.25" thickBot="1">
+      <c r="I26" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="15.75" thickTop="1">
+      <c r="I27" s="32" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="37" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A4D7D-2B40-4F26-A6BD-214006A713CE}">
   <dimension ref="C3:H21"/>
   <sheetViews>
@@ -3067,68 +2492,68 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8" ht="20.25" thickBot="1">
-      <c r="C3" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="33"/>
+      <c r="C3" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="3:8" ht="15.75" thickTop="1">
-      <c r="C4" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="34"/>
+      <c r="C4" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>103</v>
+      <c r="C5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="C6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="18">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="22">
+      <c r="C7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="18">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="18">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="34"/>
+      <c r="C10" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>95</v>
+      <c r="C11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="22">
+      <c r="C12" s="18">
         <v>0</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="17">
         <v>1</v>
       </c>
       <c r="H12">
@@ -3136,64 +2561,64 @@
       </c>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="22">
+      <c r="C13" s="18">
         <v>1</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="17">
         <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="22">
+      <c r="C14" s="18">
         <v>2</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="22">
+      <c r="C15" s="18">
         <v>3</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="17">
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="34"/>
+      <c r="C17" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="42"/>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>95</v>
+      <c r="C18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="22">
+      <c r="C19" s="18">
         <v>1</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="22">
+      <c r="C20" s="18">
         <v>2</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="22">
+      <c r="C21" s="18">
         <v>3</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="17">
         <v>4</v>
       </c>
     </row>
@@ -3209,20 +2634,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
-  <dimension ref="C3:R34"/>
+  <dimension ref="C3:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
@@ -3235,114 +2663,114 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:18" ht="23.25">
-      <c r="C3" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
+      <c r="C3" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="5" spans="3:18">
-      <c r="C5" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
+      <c r="J5" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
     </row>
     <row r="6" spans="3:18">
-      <c r="C6" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="25">
+      <c r="C6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="38">
         <v>10</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="38">
         <v>0</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="38">
         <v>4</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="38">
         <v>0</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q6" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>139</v>
+      <c r="J6" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="3:18">
-      <c r="C7" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="C7" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="38">
         <v>9</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="38">
         <v>4</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="38">
         <v>6</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="38">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="K7">
         <v>120</v>
@@ -3355,10 +2783,10 @@
         <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="P7">
         <v>360</v>
@@ -3371,23 +2799,23 @@
       </c>
     </row>
     <row r="8" spans="3:18">
-      <c r="C8" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="C8" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="38">
         <v>0</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="38">
         <v>0</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="38">
         <v>1</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="38">
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="K8">
         <v>240</v>
@@ -3411,192 +2839,198 @@
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="3:18">
-      <c r="C9" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="25">
+      <c r="C9" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="38">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D12*MinerOutputValues!D20) + (D7*MinerOutputValues!D7*MinerOutputValues!D12*MinerOutputValues!D20) + (D8*MinerOutputValues!D8*MinerOutputValues!D12*MinerOutputValues!D20) )</f>
         <v>1680</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="38">
         <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D12*MinerOutputValues!D20) + (E7*MinerOutputValues!D7*MinerOutputValues!D12*MinerOutputValues!D20) + (E8*MinerOutputValues!D8*MinerOutputValues!D12*MinerOutputValues!D20) )</f>
         <v>480</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="38">
         <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D12*MinerOutputValues!D20) + (F7*MinerOutputValues!D7*MinerOutputValues!D12*MinerOutputValues!D20) + (F8*MinerOutputValues!D8*MinerOutputValues!D12*MinerOutputValues!D20) )</f>
         <v>1200</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="38">
         <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D12*MinerOutputValues!D20) + (G7*MinerOutputValues!D7*MinerOutputValues!D12*MinerOutputValues!D20) + (G8*MinerOutputValues!D8*MinerOutputValues!D12*MinerOutputValues!D20) )</f>
         <v>480</v>
       </c>
+      <c r="J9" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="10" spans="3:18">
-      <c r="C10" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="C10" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="38">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
         <v>8400</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="38">
         <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (E7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (E8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
         <v>2400</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="38">
         <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (F8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
         <v>6000</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="38">
         <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (G8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
         <v>2400</v>
       </c>
+      <c r="J10" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="11" spans="3:18">
-      <c r="C11" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="25">
+      <c r="C11" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="38">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D21*MinerOutputValues!D13) )</f>
         <v>8400</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="38">
         <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (E7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (E8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>2400</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="38">
         <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (F8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>5520</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="38">
         <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (G8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>1440</v>
       </c>
     </row>
     <row r="14" spans="3:18">
-      <c r="C14" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="C14" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
     </row>
     <row r="15" spans="3:18">
-      <c r="C15" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="C15" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="3:18">
-      <c r="C16" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="25">
+      <c r="C16" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="38">
         <f>GrasslandSWSub!D15</f>
         <v>960</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="38">
         <f>SUM(((F11+D16)/45)*15)</f>
         <v>2160</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="3:13">
-      <c r="C18" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="25">
+      <c r="C18" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="38">
         <f>SUM((E11/50)*100)</f>
         <v>4800</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25">
+      <c r="E18" s="38"/>
+      <c r="F18" s="38">
         <f>SUM((E11/50)*25)</f>
         <v>1200</v>
       </c>
-      <c r="G18" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="25"/>
+      <c r="G18" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="38"/>
     </row>
     <row r="19" spans="3:13">
-      <c r="C19" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="25">
+      <c r="C19" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="38">
         <f>SUM(D11-F18)</f>
         <v>7200</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
     </row>
     <row r="20" spans="3:13">
-      <c r="C20" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="25">
+      <c r="C20" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="38">
         <f>SUM((D19/30)*30)</f>
         <v>7200</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="3:13">
-      <c r="C21" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="25">
+      <c r="C21" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="38">
         <f>SUM((G11/40)*60)</f>
         <v>2160</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="3:13">
       <c r="J22" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="M22">
         <v>9</v>
@@ -3604,94 +3038,269 @@
     </row>
     <row r="23" spans="3:13">
       <c r="K23" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="3:13">
       <c r="K24" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="3:13">
       <c r="C25" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="3:13">
       <c r="J26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K26" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="M26">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="3:13">
+      <c r="C28" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K28" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M28">
         <v>4</v>
       </c>
     </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>178</v>
+      </c>
+    </row>
     <row r="30" spans="3:13">
+      <c r="C30" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
       <c r="J30" t="s">
         <v>12</v>
       </c>
       <c r="K30" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M30">
         <v>2</v>
       </c>
     </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+    </row>
     <row r="32" spans="3:13">
+      <c r="C32" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K32" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="M32">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="10:13">
+    <row r="33" spans="3:13">
+      <c r="C33" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="3:13">
+      <c r="C34" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38">
+        <v>5.625</v>
+      </c>
+      <c r="G34" s="38">
+        <v>5</v>
+      </c>
+      <c r="H34" s="38">
+        <v>28.125</v>
+      </c>
       <c r="J34" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="3:13">
+      <c r="C35" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38">
+        <v>20</v>
+      </c>
+      <c r="G35" s="38">
+        <v>12</v>
+      </c>
+      <c r="H35" s="38">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38">
+        <v>15</v>
+      </c>
+      <c r="G36" s="38">
+        <v>3</v>
+      </c>
+      <c r="H36" s="38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38">
+        <v>20</v>
+      </c>
+      <c r="G37" s="38">
+        <v>24</v>
+      </c>
+      <c r="H37" s="38">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" s="38">
+        <v>90</v>
+      </c>
+      <c r="G38" s="38">
+        <v>16</v>
+      </c>
+      <c r="H38" s="38">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="38">
+        <v>90</v>
+      </c>
+      <c r="G39" s="38">
+        <v>14</v>
+      </c>
+      <c r="H39" s="38">
+        <v>1260</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C3:Q3"/>
     <mergeCell ref="J5:R5"/>
+    <mergeCell ref="C28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD34C67A-DADE-4394-9B60-355DE7336371}">
   <dimension ref="C3:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3703,72 +3312,72 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="25">
+      <c r="C5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="21">
         <v>8</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="21">
         <v>2</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="25">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="25" t="s">
-        <v>131</v>
       </c>
       <c r="D8">
         <f>SUM((D5*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D6*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
@@ -3784,79 +3393,79 @@
       </c>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="C10" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="3:7">
-      <c r="C11" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="26"/>
+      <c r="C11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="3:7">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="21">
         <f>SUM((F8/45)*15)</f>
         <v>400</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="24"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="3:7">
-      <c r="C13" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="25">
+      <c r="C13" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="21">
         <f>SUM((E8/50)*100)</f>
         <v>1200</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21">
         <v>300</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>152</v>
+      <c r="G13" s="20" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="25">
+      <c r="C14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="21">
         <f>SUM(D8-F13)</f>
         <v>2100</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24" t="s">
-        <v>151</v>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="3:7">
-      <c r="C15" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="C15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="20">
         <v>960</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\MediaMain\Satisfactory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759E2CD-76E9-4BFE-A961-3C286F0D3DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73303310-A350-4331-B264-9C897C0C413C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="3" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
-    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId1"/>
-    <sheet name="DiagramLayout" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
-    <sheet name="MinerOutputValues" sheetId="5" r:id="rId4"/>
-    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId5"/>
-    <sheet name="GrasslandSWSub" sheetId="7" r:id="rId6"/>
+    <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
+    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId2"/>
+    <sheet name="DiagramLayout" sheetId="2" r:id="rId3"/>
+    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId4"/>
+    <sheet name="MinerOutputValues" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="178">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -167,9 +166,6 @@
     <t>Copper</t>
   </si>
   <si>
-    <t>Quartz</t>
-  </si>
-  <si>
     <t>Steel Ingots (Solid Steel Ingots)</t>
   </si>
   <si>
@@ -302,123 +298,39 @@
     <t>Miner Output Values and Multipliers</t>
   </si>
   <si>
-    <t>1 600 Line</t>
-  </si>
-  <si>
-    <t>Sulfer</t>
-  </si>
-  <si>
-    <t>2 600 Lines</t>
-  </si>
-  <si>
-    <t>2 720 Lines</t>
-  </si>
-  <si>
-    <t>4 600 Lines</t>
-  </si>
-  <si>
-    <t>Split/Merge to 11 720, 1 480</t>
-  </si>
-  <si>
-    <t>14 600 Lines</t>
-  </si>
-  <si>
-    <t>Limestone = 9 Lines</t>
-  </si>
-  <si>
-    <t>8 600 Lines</t>
-  </si>
-  <si>
-    <t>960 from offsite</t>
-  </si>
-  <si>
-    <t>Split/Merge to 9 720 Lines</t>
-  </si>
-  <si>
-    <t>1 Pure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limestone </t>
-  </si>
-  <si>
-    <t>5760 Iron Excess, Send Lake</t>
-  </si>
-  <si>
     <t>Steel Ingot</t>
   </si>
   <si>
-    <t>1440 Ignots go to Steel</t>
-  </si>
-  <si>
     <t>Iron Ingot from Excess</t>
   </si>
   <si>
     <t>Remainder Iron Ore</t>
   </si>
   <si>
-    <t>Iron Ore Used</t>
-  </si>
-  <si>
     <t>Copper Ingot</t>
   </si>
   <si>
-    <t xml:space="preserve">Concrete adding Offsite </t>
-  </si>
-  <si>
-    <t>Iron Removed</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Real Max Belt Limited Output</t>
-  </si>
-  <si>
-    <t>Real Max (Belt Limited)</t>
-  </si>
-  <si>
-    <t>Possible Max</t>
-  </si>
-  <si>
     <t>Current Output</t>
   </si>
   <si>
-    <t>10(2 for Steel)</t>
-  </si>
-  <si>
     <t>Iron Ignot Modules</t>
   </si>
   <si>
-    <t>6(3 Floors Each)</t>
-  </si>
-  <si>
-    <t>2 (1.5 Line/Bldg)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Concrete Modules </t>
   </si>
   <si>
-    <t>Total 720 Lines</t>
-  </si>
-  <si>
-    <t>BuildingsFor720</t>
-  </si>
-  <si>
     <t>Building Output</t>
   </si>
   <si>
     <t>BuildingsForMax</t>
   </si>
   <si>
-    <t>FloorsPerLine</t>
-  </si>
-  <si>
     <t>FloorsForMax</t>
   </si>
   <si>
-    <t>Max Production</t>
-  </si>
-  <si>
     <t>Floor Output</t>
   </si>
   <si>
@@ -428,24 +340,6 @@
     <t>Production Amounts</t>
   </si>
   <si>
-    <t>Grassland Regional Raw Resource Production</t>
-  </si>
-  <si>
-    <t>Real Limestone Rerouted</t>
-  </si>
-  <si>
-    <t>Send to Steel Foundry at Lake, Send 240 to Main</t>
-  </si>
-  <si>
-    <t>Copper Smelted on Site, sent to Main Copper Ingot Line</t>
-  </si>
-  <si>
-    <t>Real Max Belt Limited Output West Site Addition</t>
-  </si>
-  <si>
-    <t>Nearby West Site Addition</t>
-  </si>
-  <si>
     <t>Stitched Plates</t>
   </si>
   <si>
@@ -648,6 +542,66 @@
   </si>
   <si>
     <t>18. Turbofuel Powerplant, extend train to it.</t>
+  </si>
+  <si>
+    <t>Grassland Regional Production</t>
+  </si>
+  <si>
+    <t>Current Max</t>
+  </si>
+  <si>
+    <t>Max w/ Mk3 Miners</t>
+  </si>
+  <si>
+    <t>Add to Line:</t>
+  </si>
+  <si>
+    <t>1 Copper</t>
+  </si>
+  <si>
+    <t>2 LS Lines</t>
+  </si>
+  <si>
+    <t>Upgrade 1 Copper to Mk2</t>
+  </si>
+  <si>
+    <t>Smelting Output Potential</t>
+  </si>
+  <si>
+    <t>CurrentMax</t>
+  </si>
+  <si>
+    <t>Mk3Max</t>
+  </si>
+  <si>
+    <t>Current Miner Production</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Shard Multiplyer</t>
+  </si>
+  <si>
+    <t>Output Total</t>
+  </si>
+  <si>
+    <t>Current Production</t>
+  </si>
+  <si>
+    <t>3 Floors Per Building</t>
+  </si>
+  <si>
+    <t>Total OutputMax</t>
+  </si>
+  <si>
+    <t>FloorsForCurrent</t>
+  </si>
+  <si>
+    <t>FloorsPerLineCurrent</t>
+  </si>
+  <si>
+    <t>FloorsPer600Line</t>
   </si>
 </sst>
 </file>
@@ -814,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1037,6 +991,43 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1059,7 +1050,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1117,14 +1108,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1169,7 +1152,30 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1761,14 +1767,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83AA758-A5B7-4FA8-94DC-BA3EAA457D3D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="C1:L27"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="3:12" ht="44.25" thickTop="1" thickBot="1">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" ht="15.75" thickTop="1">
+      <c r="E3" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C9" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C10" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="16.5" thickTop="1" thickBot="1"/>
+    <row r="12" spans="3:12" ht="17.25" thickBot="1">
+      <c r="E12" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="15.75" thickTop="1">
+      <c r="F13" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="15.75" thickBot="1">
+      <c r="F15" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="18" thickTop="1" thickBot="1">
+      <c r="C17" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="18" thickTop="1" thickBot="1">
+      <c r="C18" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="18" thickTop="1" thickBot="1">
+      <c r="C19" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="15.75" thickBot="1"/>
+    <row r="21" spans="3:11" ht="17.25" thickBot="1">
+      <c r="I21" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="15.75" thickTop="1">
+      <c r="I22" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="I23" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="15.75" thickBot="1">
+      <c r="I24" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="18" thickTop="1" thickBot="1">
+      <c r="C25" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="17.25" thickBot="1">
+      <c r="I26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="15.75" thickTop="1">
+      <c r="I27" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="37" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882FF9CB-C54B-4DF7-BCB6-6C966AE969A7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1810,8 +2090,8 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>33</v>
+      <c r="D4" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>7</v>
@@ -1823,15 +2103,15 @@
         <v>7</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="51" thickTop="1" thickBot="1">
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>34</v>
+      <c r="D5" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>7</v>
@@ -1843,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
@@ -1851,34 +2131,34 @@
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="51" thickTop="1" thickBot="1">
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="51" thickTop="1" thickBot="1">
+      <c r="F8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H8" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="51" thickTop="1" thickBot="1">
-      <c r="F8" s="30" t="s">
+    <row r="9" spans="3:8" ht="51" thickTop="1" thickBot="1">
+      <c r="F9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="51" thickTop="1" thickBot="1">
-      <c r="F9" s="30" t="s">
-        <v>42</v>
-      </c>
       <c r="H9" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="51" thickTop="1" thickBot="1">
@@ -1886,12 +2166,12 @@
         <v>27</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="F11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -1903,7 +2183,7 @@
     </row>
     <row r="13" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
       <c r="F13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -1911,14 +2191,14 @@
       <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>35</v>
+      <c r="D14" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>7</v>
@@ -1938,19 +2218,19 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="15.75" thickBot="1">
       <c r="F18" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="18" thickTop="1" thickBot="1">
@@ -1964,23 +2244,23 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="17.25" thickBot="1">
-      <c r="F20" s="31" t="s">
-        <v>131</v>
+      <c r="F20" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="F21" s="30" t="s">
-        <v>130</v>
+      <c r="F21" s="26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="15.75" thickBot="1"/>
@@ -1989,12 +2269,12 @@
         <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -2003,12 +2283,12 @@
     </row>
     <row r="24" spans="3:7" ht="18" thickTop="1" thickBot="1">
       <c r="D24" s="4" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -2022,7 +2302,7 @@
     </row>
     <row r="26" spans="3:7" ht="34.5" thickTop="1" thickBot="1">
       <c r="F26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="18" thickTop="1" thickBot="1">
@@ -2056,13 +2336,13 @@
     </row>
     <row r="29" spans="3:7" ht="34.5" thickTop="1" thickBot="1">
       <c r="D29" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>7</v>
@@ -2070,22 +2350,22 @@
     </row>
     <row r="30" spans="3:7" ht="18" thickTop="1" thickBot="1">
       <c r="F30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="18" thickTop="1" thickBot="1">
       <c r="F31" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="3:7" ht="18" thickTop="1" thickBot="1">
       <c r="F32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="F33" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="18" thickTop="1" thickBot="1">
@@ -2098,10 +2378,10 @@
         <v>23</v>
       </c>
       <c r="F35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="18" thickTop="1" thickBot="1">
@@ -2112,27 +2392,27 @@
     </row>
     <row r="40" spans="3:8">
       <c r="D40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="3:8">
       <c r="D41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="3:8">
       <c r="D42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="3:8">
       <c r="D43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="3:8">
       <c r="D44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="5:7" ht="15.75" thickBot="1"/>
@@ -2182,7 +2462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A19:A39"/>
   <sheetViews>
@@ -2205,285 +2485,1395 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83AA758-A5B7-4FA8-94DC-BA3EAA457D3D}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="C1:L27"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
+  <dimension ref="C3:S72"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="15.75" thickBot="1"/>
-    <row r="2" spans="3:12" ht="44.25" thickTop="1" thickBot="1">
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+    <row r="3" spans="3:19" ht="23.25">
+      <c r="C3" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+    </row>
+    <row r="4" spans="3:19">
+      <c r="O4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19">
+      <c r="C5" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+    </row>
+    <row r="6" spans="3:19">
+      <c r="C6" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="34">
+        <v>10</v>
+      </c>
+      <c r="E6" s="34">
+        <v>2</v>
+      </c>
+      <c r="F6" s="34">
+        <v>6</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="S6" s="50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="C7" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="34">
+        <v>9</v>
+      </c>
+      <c r="E7" s="34">
+        <v>4</v>
+      </c>
+      <c r="F7" s="34">
+        <v>6</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="47">
+        <v>120</v>
+      </c>
+      <c r="K7" s="47">
+        <f>D16</f>
+        <v>440</v>
+      </c>
+      <c r="L7" s="47">
+        <f>E16</f>
+        <v>1100</v>
+      </c>
+      <c r="M7" s="47">
+        <f>ROUNDDOWN(L7/J7,0)</f>
+        <v>9</v>
+      </c>
+      <c r="N7" s="47">
+        <f>ROUNDDOWN(600/J7,0)</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="48">
+        <f>M7/3</f>
+        <v>3</v>
+      </c>
+      <c r="P7" s="47">
+        <f>J7*3</f>
+        <v>360</v>
+      </c>
+      <c r="Q7" s="47">
+        <f>P7*O7</f>
+        <v>1080</v>
+      </c>
+      <c r="R7" s="46"/>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="34">
+        <v>0</v>
+      </c>
+      <c r="E8" s="34">
+        <v>0</v>
+      </c>
+      <c r="F8" s="34">
+        <v>1</v>
+      </c>
+      <c r="G8" s="34">
+        <v>2</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="47">
+        <v>240</v>
+      </c>
+      <c r="K8" s="47">
+        <f>D9</f>
+        <v>1680</v>
+      </c>
+      <c r="L8" s="47">
+        <f>D10</f>
+        <v>4200</v>
+      </c>
+      <c r="M8" s="47">
+        <f>ROUNDDOWN(L8/J8,0)</f>
+        <v>17</v>
+      </c>
+      <c r="N8" s="47">
+        <f>ROUNDDOWN(L8/J8,0)</f>
+        <v>17</v>
+      </c>
+      <c r="O8" s="47">
+        <v>10</v>
+      </c>
+      <c r="P8" s="47">
+        <v>720</v>
+      </c>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="46"/>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="C9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="34">
+        <f>E44</f>
+        <v>1680</v>
+      </c>
+      <c r="E9" s="34">
+        <f>E51</f>
+        <v>600</v>
+      </c>
+      <c r="F9" s="34">
+        <f>E67</f>
+        <v>1320</v>
+      </c>
+      <c r="G9" s="34">
+        <f>E72</f>
+        <v>480</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="C10" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="34">
+        <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (D8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
+        <v>4200</v>
+      </c>
+      <c r="E10" s="34">
+        <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (E7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (E8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
+        <v>1500</v>
+      </c>
+      <c r="F10" s="34">
+        <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (F8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
+        <v>3300</v>
+      </c>
+      <c r="G10" s="34">
+        <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (G8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
+        <v>1200</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="C11" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="34">
+        <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
+        <v>8400</v>
+      </c>
+      <c r="E11" s="34">
+        <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (E7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (E8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
+        <v>3000</v>
+      </c>
+      <c r="F11" s="34">
+        <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (F8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
+        <v>6120</v>
+      </c>
+      <c r="G11" s="34">
+        <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (G8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
+        <v>1440</v>
+      </c>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="C14" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="C16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="34">
+        <f>SUM((F9/45)*15)</f>
+        <v>440</v>
+      </c>
+      <c r="E16" s="34">
+        <f>SUM((F10/45)*15)</f>
+        <v>1100</v>
+      </c>
+      <c r="F16" s="34">
+        <f>SUM((F11/45)*15)</f>
+        <v>2040</v>
+      </c>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+    </row>
+    <row r="17" spans="3:18">
+      <c r="C17" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="34">
+        <f>SUM((E9/50)*100)</f>
+        <v>1200</v>
+      </c>
+      <c r="E17" s="34">
+        <f>SUM((E10/50)*100)</f>
+        <v>3000</v>
+      </c>
+      <c r="F17" s="34">
+        <f>SUM((E11/50)*100)</f>
+        <v>6000</v>
+      </c>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+    </row>
+    <row r="18" spans="3:18">
+      <c r="C18" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="34">
+        <f>SUM((G9/40)*60)</f>
+        <v>720</v>
+      </c>
+      <c r="E18" s="34">
+        <f>SUM((G10/40)*60)</f>
+        <v>1800</v>
+      </c>
+      <c r="F18" s="34">
+        <f>SUM((G11/40)*60)</f>
+        <v>2160</v>
+      </c>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="C19" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="34">
+        <f>SUM(D9-(E9/2)-G9)</f>
+        <v>900</v>
+      </c>
+      <c r="E19" s="34">
+        <f>SUM(D10-(E10/2)-G10)</f>
+        <v>2250</v>
+      </c>
+      <c r="F19" s="36">
+        <f>SUM(D11-(E11/2)-G11)</f>
+        <v>5460</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+    </row>
+    <row r="20" spans="3:18">
+      <c r="C20" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="34">
+        <f>SUM((D19/30)*30)</f>
+        <v>900</v>
+      </c>
+      <c r="E20" s="34">
+        <f>SUM((E19/30)*30)</f>
+        <v>2250</v>
+      </c>
+      <c r="F20" s="36">
+        <f>SUM((F19/30)*30)</f>
+        <v>5460</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+    </row>
+    <row r="21" spans="3:18">
+      <c r="I21" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+    </row>
+    <row r="22" spans="3:18">
+      <c r="C22" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="I22" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+    </row>
+    <row r="23" spans="3:18">
+      <c r="C23" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+    </row>
+    <row r="24" spans="3:18">
+      <c r="C24" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="3:18">
+      <c r="C25" s="34">
+        <v>60</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1</v>
+      </c>
+      <c r="E25" s="34">
+        <f>C25*D25</f>
+        <v>60</v>
+      </c>
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" spans="3:18">
+      <c r="C26" s="34">
+        <v>60</v>
+      </c>
+      <c r="D26" s="34">
+        <v>1</v>
+      </c>
+      <c r="E26" s="34">
+        <f t="shared" ref="E26:E43" si="0">C26*D26</f>
+        <v>60</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="I26" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+    </row>
+    <row r="27" spans="3:18">
+      <c r="C27" s="34">
+        <v>60</v>
+      </c>
+      <c r="D27" s="34">
+        <v>1</v>
+      </c>
+      <c r="E27" s="34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="I27" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="O27" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18">
+      <c r="C28" s="34">
+        <v>60</v>
+      </c>
+      <c r="D28" s="34">
+        <v>1</v>
+      </c>
+      <c r="E28" s="34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="I28" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+    </row>
+    <row r="29" spans="3:18">
+      <c r="C29" s="34">
+        <v>60</v>
+      </c>
+      <c r="D29" s="34">
+        <v>1</v>
+      </c>
+      <c r="E29" s="34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="I29" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+    </row>
+    <row r="30" spans="3:18">
+      <c r="C30" s="34">
+        <v>60</v>
+      </c>
+      <c r="D30" s="34">
+        <v>1</v>
+      </c>
+      <c r="E30" s="34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="I30" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+    </row>
+    <row r="31" spans="3:18">
+      <c r="C31" s="34">
+        <v>60</v>
+      </c>
+      <c r="D31" s="34">
+        <v>1</v>
+      </c>
+      <c r="E31" s="34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="I31" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+    </row>
+    <row r="32" spans="3:18">
+      <c r="C32" s="34">
+        <v>60</v>
+      </c>
+      <c r="D32" s="34">
+        <v>1</v>
+      </c>
+      <c r="E32" s="34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="I32" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34">
+        <v>5.625</v>
+      </c>
+      <c r="N32" s="34">
+        <v>5</v>
+      </c>
+      <c r="O32" s="34">
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
+      <c r="C33" s="34">
+        <v>60</v>
+      </c>
+      <c r="D33" s="34">
+        <v>1</v>
+      </c>
+      <c r="E33" s="34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="I33" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34">
+        <v>20</v>
+      </c>
+      <c r="N33" s="34">
+        <v>12</v>
+      </c>
+      <c r="O33" s="34">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
+      <c r="C34" s="34">
+        <v>60</v>
+      </c>
+      <c r="D34" s="34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="34">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="I34" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34">
+        <v>15</v>
+      </c>
+      <c r="N34" s="34">
+        <v>3</v>
+      </c>
+      <c r="O34" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15">
+      <c r="C35" s="34">
+        <v>120</v>
+      </c>
+      <c r="D35" s="34">
+        <v>1</v>
+      </c>
+      <c r="E35" s="34">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="I35" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34">
+        <v>20</v>
+      </c>
+      <c r="N35" s="34">
+        <v>24</v>
+      </c>
+      <c r="O35" s="34">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15">
+      <c r="C36" s="34">
+        <v>120</v>
+      </c>
+      <c r="D36" s="34">
+        <v>1</v>
+      </c>
+      <c r="E36" s="34">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="I36" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" ht="15.75" thickTop="1">
-      <c r="E3" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12">
-      <c r="C4" s="32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
-      <c r="C5" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="M36" s="34">
+        <v>90</v>
+      </c>
+      <c r="N36" s="34">
+        <v>16</v>
+      </c>
+      <c r="O36" s="34">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15">
+      <c r="C37" s="34">
+        <v>120</v>
+      </c>
+      <c r="D37" s="34">
+        <v>1</v>
+      </c>
+      <c r="E37" s="34">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="I37" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="M37" s="34">
+        <v>90</v>
+      </c>
+      <c r="N37" s="34">
+        <v>14</v>
+      </c>
+      <c r="O37" s="34">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15">
+      <c r="C38" s="34">
+        <v>120</v>
+      </c>
+      <c r="D38" s="34">
+        <v>1</v>
+      </c>
+      <c r="E38" s="34">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" spans="3:15">
+      <c r="C39" s="34">
+        <v>120</v>
+      </c>
+      <c r="D39" s="34">
+        <v>1</v>
+      </c>
+      <c r="E39" s="34">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F39" s="34"/>
+    </row>
+    <row r="40" spans="3:15">
+      <c r="C40" s="34">
+        <v>120</v>
+      </c>
+      <c r="D40" s="34">
+        <v>1</v>
+      </c>
+      <c r="E40" s="34">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F40" s="34"/>
+    </row>
+    <row r="41" spans="3:15">
+      <c r="C41" s="34">
+        <v>120</v>
+      </c>
+      <c r="D41" s="34">
+        <v>1</v>
+      </c>
+      <c r="E41" s="34">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F41" s="34"/>
+    </row>
+    <row r="42" spans="3:15">
+      <c r="C42" s="34">
+        <v>120</v>
+      </c>
+      <c r="D42" s="34">
+        <v>1</v>
+      </c>
+      <c r="E42" s="34">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F42" s="34"/>
+    </row>
+    <row r="43" spans="3:15">
+      <c r="C43" s="34">
+        <v>120</v>
+      </c>
+      <c r="D43" s="34">
+        <v>1</v>
+      </c>
+      <c r="E43" s="34">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F43" s="34"/>
+    </row>
+    <row r="44" spans="3:15">
+      <c r="C44" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34">
+        <f>SUM(E25:E43)</f>
+        <v>1680</v>
+      </c>
+      <c r="F44" s="34"/>
+    </row>
+    <row r="45" spans="3:15">
+      <c r="C45" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="15.75" thickBot="1">
-      <c r="C9" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C10" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" s="33" t="s">
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
+    </row>
+    <row r="46" spans="3:15">
+      <c r="C46" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="34"/>
+    </row>
+    <row r="47" spans="3:15">
+      <c r="C47" s="34">
+        <v>120</v>
+      </c>
+      <c r="D47" s="34">
+        <v>1</v>
+      </c>
+      <c r="E47" s="34">
+        <f>C47*D47</f>
+        <v>120</v>
+      </c>
+      <c r="F47" s="34"/>
+    </row>
+    <row r="48" spans="3:15">
+      <c r="C48" s="34">
+        <v>120</v>
+      </c>
+      <c r="D48" s="34">
+        <v>1</v>
+      </c>
+      <c r="E48" s="34">
+        <f t="shared" ref="E48:E50" si="1">C48*D48</f>
+        <v>120</v>
+      </c>
+      <c r="F48" s="34"/>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="34">
+        <v>120</v>
+      </c>
+      <c r="D49" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="E49" s="34">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F49" s="34"/>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="34">
+        <v>120</v>
+      </c>
+      <c r="D50" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="E50" s="34">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F50" s="34"/>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="12" spans="3:12" ht="17.25" thickBot="1">
-      <c r="E12" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="15.75" thickTop="1">
-      <c r="F13" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" ht="15.75" thickBot="1">
-      <c r="F15" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C17" s="36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C18" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C19" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" ht="15.75" thickBot="1"/>
-    <row r="21" spans="3:11" ht="17.25" thickBot="1">
-      <c r="I21" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" ht="15.75" thickTop="1">
-      <c r="I22" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="I23" s="35" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" ht="15.75" thickBot="1">
-      <c r="I24" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C25" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="17.25" thickBot="1">
-      <c r="I26" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" ht="15.75" thickTop="1">
-      <c r="I27" s="32" t="s">
-        <v>139</v>
-      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34">
+        <f>SUM(E47:E50)</f>
+        <v>600</v>
+      </c>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="34"/>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="34">
+        <v>60</v>
+      </c>
+      <c r="D54" s="34">
+        <v>1</v>
+      </c>
+      <c r="E54" s="34">
+        <f>C54*D54</f>
+        <v>60</v>
+      </c>
+      <c r="F54" s="34"/>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="34">
+        <v>60</v>
+      </c>
+      <c r="D55" s="34">
+        <v>1</v>
+      </c>
+      <c r="E55" s="34">
+        <f t="shared" ref="E55:E57" si="2">C55*D55</f>
+        <v>60</v>
+      </c>
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="34">
+        <v>60</v>
+      </c>
+      <c r="D56" s="34">
+        <v>1</v>
+      </c>
+      <c r="E56" s="34">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="34">
+        <v>60</v>
+      </c>
+      <c r="D57" s="34">
+        <v>1</v>
+      </c>
+      <c r="E57" s="34">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F57" s="34"/>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="34">
+        <v>60</v>
+      </c>
+      <c r="D58" s="34">
+        <v>1</v>
+      </c>
+      <c r="E58" s="34">
+        <f>C58*D58</f>
+        <v>60</v>
+      </c>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" s="34">
+        <v>60</v>
+      </c>
+      <c r="D59" s="34">
+        <v>1</v>
+      </c>
+      <c r="E59" s="34">
+        <f t="shared" ref="E59:E61" si="3">C59*D59</f>
+        <v>60</v>
+      </c>
+      <c r="F59" s="34"/>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" s="34">
+        <v>120</v>
+      </c>
+      <c r="D60" s="34">
+        <v>1</v>
+      </c>
+      <c r="E60" s="34">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="C61" s="34">
+        <v>120</v>
+      </c>
+      <c r="D61" s="34">
+        <v>1</v>
+      </c>
+      <c r="E61" s="34">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="F61" s="34"/>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="C62" s="34">
+        <v>120</v>
+      </c>
+      <c r="D62" s="34">
+        <v>1</v>
+      </c>
+      <c r="E62" s="34">
+        <f>C62*D62</f>
+        <v>120</v>
+      </c>
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="C63" s="34">
+        <v>120</v>
+      </c>
+      <c r="D63" s="34">
+        <v>1</v>
+      </c>
+      <c r="E63" s="34">
+        <f t="shared" ref="E63:E65" si="4">C63*D63</f>
+        <v>120</v>
+      </c>
+      <c r="F63" s="34"/>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="C64" s="34">
+        <v>120</v>
+      </c>
+      <c r="D64" s="34">
+        <v>1</v>
+      </c>
+      <c r="E64" s="34">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="F64" s="34"/>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65" s="34">
+        <v>120</v>
+      </c>
+      <c r="D65" s="34">
+        <v>1</v>
+      </c>
+      <c r="E65" s="34">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="F65" s="34"/>
+    </row>
+    <row r="66" spans="3:6">
+      <c r="C66" s="34">
+        <v>240</v>
+      </c>
+      <c r="D66" s="34">
+        <v>1</v>
+      </c>
+      <c r="E66" s="34">
+        <f t="shared" ref="E66" si="5">C66*D66</f>
+        <v>240</v>
+      </c>
+      <c r="F66" s="34"/>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34">
+        <f>SUM(E54:E66)</f>
+        <v>1320</v>
+      </c>
+      <c r="F67" s="34"/>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="45"/>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="C69" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" s="34"/>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" s="34">
+        <v>240</v>
+      </c>
+      <c r="D70" s="34">
+        <v>1</v>
+      </c>
+      <c r="E70" s="34">
+        <f>C70*D70</f>
+        <v>240</v>
+      </c>
+      <c r="F70" s="34"/>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" s="34">
+        <v>240</v>
+      </c>
+      <c r="D71" s="34">
+        <v>1</v>
+      </c>
+      <c r="E71" s="34">
+        <f t="shared" ref="E71" si="6">C71*D71</f>
+        <v>240</v>
+      </c>
+      <c r="F71" s="34"/>
+    </row>
+    <row r="72" spans="3:6">
+      <c r="C72" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34">
+        <f>SUM(E70:E71)</f>
+        <v>480</v>
+      </c>
+      <c r="F72" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="37" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A4D7D-2B40-4F26-A6BD-214006A713CE}">
-  <dimension ref="C3:H21"/>
+  <dimension ref="C3:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2491,76 +3881,73 @@
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="20.25" thickBot="1">
-      <c r="C3" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="41"/>
-    </row>
-    <row r="4" spans="3:8" ht="15.75" thickTop="1">
-      <c r="C4" s="42" t="s">
+    <row r="3" spans="3:4" ht="20.25" thickBot="1">
+      <c r="C3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="3:8">
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="3:4" ht="15.75" thickTop="1">
+      <c r="C4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="3:4">
       <c r="C5" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
       <c r="C6" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="18">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:4">
       <c r="C7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:4">
       <c r="C8" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="18">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="42"/>
-    </row>
-    <row r="11" spans="3:8">
+    <row r="10" spans="3:4">
+      <c r="C10" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="3:4">
       <c r="C11" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
       <c r="C12" s="18">
         <v>0</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8">
+    </row>
+    <row r="13" spans="3:4">
       <c r="C13" s="18">
         <v>1</v>
       </c>
@@ -2568,7 +3955,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="3:8">
+    <row r="14" spans="3:4">
       <c r="C14" s="18">
         <v>2</v>
       </c>
@@ -2576,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="3:8">
+    <row r="15" spans="3:4">
       <c r="C15" s="18">
         <v>3</v>
       </c>
@@ -2585,17 +3972,17 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="42"/>
+      <c r="C17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="3:4">
@@ -2632,847 +4019,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
-  <dimension ref="C3:R39"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:18" ht="23.25">
-      <c r="C3" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-    </row>
-    <row r="5" spans="3:18">
-      <c r="C5" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-    </row>
-    <row r="6" spans="3:18">
-      <c r="C6" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="38">
-        <v>10</v>
-      </c>
-      <c r="E6" s="38">
-        <v>0</v>
-      </c>
-      <c r="F6" s="38">
-        <v>4</v>
-      </c>
-      <c r="G6" s="38">
-        <v>0</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="R6" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="3:18">
-      <c r="C7" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="38">
-        <v>9</v>
-      </c>
-      <c r="E7" s="38">
-        <v>4</v>
-      </c>
-      <c r="F7" s="38">
-        <v>6</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7">
-        <v>120</v>
-      </c>
-      <c r="L7">
-        <f>D17</f>
-        <v>2160</v>
-      </c>
-      <c r="M7">
-        <v>18</v>
-      </c>
-      <c r="N7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7">
-        <v>360</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:18">
-      <c r="C8" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="38">
-        <v>0</v>
-      </c>
-      <c r="E8" s="38">
-        <v>0</v>
-      </c>
-      <c r="F8" s="38">
-        <v>1</v>
-      </c>
-      <c r="G8" s="38">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8">
-        <v>240</v>
-      </c>
-      <c r="L8">
-        <v>7200</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>10</v>
-      </c>
-      <c r="P8">
-        <v>720</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="3:18">
-      <c r="C9" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="38">
-        <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D12*MinerOutputValues!D20) + (D7*MinerOutputValues!D7*MinerOutputValues!D12*MinerOutputValues!D20) + (D8*MinerOutputValues!D8*MinerOutputValues!D12*MinerOutputValues!D20) )</f>
-        <v>1680</v>
-      </c>
-      <c r="E9" s="38">
-        <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D12*MinerOutputValues!D20) + (E7*MinerOutputValues!D7*MinerOutputValues!D12*MinerOutputValues!D20) + (E8*MinerOutputValues!D8*MinerOutputValues!D12*MinerOutputValues!D20) )</f>
-        <v>480</v>
-      </c>
-      <c r="F9" s="38">
-        <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D12*MinerOutputValues!D20) + (F7*MinerOutputValues!D7*MinerOutputValues!D12*MinerOutputValues!D20) + (F8*MinerOutputValues!D8*MinerOutputValues!D12*MinerOutputValues!D20) )</f>
-        <v>1200</v>
-      </c>
-      <c r="G9" s="38">
-        <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D12*MinerOutputValues!D20) + (G7*MinerOutputValues!D7*MinerOutputValues!D12*MinerOutputValues!D20) + (G8*MinerOutputValues!D8*MinerOutputValues!D12*MinerOutputValues!D20) )</f>
-        <v>480</v>
-      </c>
-      <c r="J9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="3:18">
-      <c r="C10" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="38">
-        <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
-        <v>8400</v>
-      </c>
-      <c r="E10" s="38">
-        <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (E7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (E8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
-        <v>2400</v>
-      </c>
-      <c r="F10" s="38">
-        <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (F8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
-        <v>6000</v>
-      </c>
-      <c r="G10" s="38">
-        <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (G8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
-        <v>2400</v>
-      </c>
-      <c r="J10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18">
-      <c r="C11" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="38">
-        <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D21*MinerOutputValues!D13) )</f>
-        <v>8400</v>
-      </c>
-      <c r="E11" s="38">
-        <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (E7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (E8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
-        <v>2400</v>
-      </c>
-      <c r="F11" s="38">
-        <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (F8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
-        <v>5520</v>
-      </c>
-      <c r="G11" s="38">
-        <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (G8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="14" spans="3:18">
-      <c r="C14" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="3:18">
-      <c r="C15" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="3:18">
-      <c r="C16" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="38">
-        <f>GrasslandSWSub!D15</f>
-        <v>960</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="38">
-        <f>SUM(((F11+D16)/45)*15)</f>
-        <v>2160</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="38">
-        <f>SUM((E11/50)*100)</f>
-        <v>4800</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38">
-        <f>SUM((E11/50)*25)</f>
-        <v>1200</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="38">
-        <f>SUM(D11-F18)</f>
-        <v>7200</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="38">
-        <f>SUM((D19/30)*30)</f>
-        <v>7200</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="38">
-        <f>SUM((G11/40)*60)</f>
-        <v>2160</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="J22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" t="s">
-        <v>87</v>
-      </c>
-      <c r="M22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="K23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="K24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13">
-      <c r="J26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" t="s">
-        <v>83</v>
-      </c>
-      <c r="L26" t="s">
-        <v>82</v>
-      </c>
-      <c r="M26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="J28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" t="s">
-        <v>81</v>
-      </c>
-      <c r="M28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13">
-      <c r="C29" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13">
-      <c r="C30" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="J30" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13">
-      <c r="C31" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="3:13">
-      <c r="C32" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="J32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" t="s">
-        <v>79</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13">
-      <c r="C33" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-    </row>
-    <row r="34" spans="3:13">
-      <c r="C34" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38">
-        <v>5.625</v>
-      </c>
-      <c r="G34" s="38">
-        <v>5</v>
-      </c>
-      <c r="H34" s="38">
-        <v>28.125</v>
-      </c>
-      <c r="J34" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:13">
-      <c r="C35" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38">
-        <v>20</v>
-      </c>
-      <c r="G35" s="38">
-        <v>12</v>
-      </c>
-      <c r="H35" s="38">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="3:13">
-      <c r="C36" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38">
-        <v>15</v>
-      </c>
-      <c r="G36" s="38">
-        <v>3</v>
-      </c>
-      <c r="H36" s="38">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="3:13">
-      <c r="C37" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38">
-        <v>20</v>
-      </c>
-      <c r="G37" s="38">
-        <v>24</v>
-      </c>
-      <c r="H37" s="38">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13">
-      <c r="C38" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="F38" s="38">
-        <v>90</v>
-      </c>
-      <c r="G38" s="38">
-        <v>16</v>
-      </c>
-      <c r="H38" s="38">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13">
-      <c r="C39" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="F39" s="38">
-        <v>90</v>
-      </c>
-      <c r="G39" s="38">
-        <v>14</v>
-      </c>
-      <c r="H39" s="38">
-        <v>1260</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="J5:R5"/>
-    <mergeCell ref="C28:H28"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD34C67A-DADE-4394-9B60-355DE7336371}">
-  <dimension ref="C3:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="21">
-        <v>8</v>
-      </c>
-      <c r="E5" s="21">
-        <v>2</v>
-      </c>
-      <c r="F5" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8">
-        <f>SUM((D5*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D6*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
-        <v>2400</v>
-      </c>
-      <c r="E8">
-        <f>SUM((E5*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (E6*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (E7*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
-        <v>600</v>
-      </c>
-      <c r="F8">
-        <f>SUM((F5*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (F6*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (F7*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D21) )</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="21">
-        <f>SUM((F8/45)*15)</f>
-        <v>400</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="21">
-        <f>SUM((E8/50)*100)</f>
-        <v>1200</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21">
-        <v>300</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="21">
-        <f>SUM(D8-F13)</f>
-        <v>2100</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="20">
-        <v>960</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C10:G10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73303310-A350-4331-B264-9C897C0C413C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A89919-39E3-4CA2-9A79-2D9B21B83374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="3" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
     <sheet name="TierLocationOrganization" sheetId="1" r:id="rId2"/>
     <sheet name="DiagramLayout" sheetId="2" r:id="rId3"/>
     <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId4"/>
-    <sheet name="MinerOutputValues" sheetId="5" r:id="rId5"/>
+    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId5"/>
+    <sheet name="MinerOutputValues" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="238">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -364,9 +365,6 @@
     <t>Steeled Frame</t>
   </si>
   <si>
-    <t>Heavy Modular Frame</t>
-  </si>
-  <si>
     <t>Computers</t>
   </si>
   <si>
@@ -412,9 +410,6 @@
     <t xml:space="preserve">Sites to Build , Oil Production Center: </t>
   </si>
   <si>
-    <t>H. Frames</t>
-  </si>
-  <si>
     <t>Copper Sheet</t>
   </si>
   <si>
@@ -451,9 +446,6 @@
     <t>12. Encased Industrial Pipes Site</t>
   </si>
   <si>
-    <t>14. Heavy Frames Site</t>
-  </si>
-  <si>
     <t>Steel Inogt Module</t>
   </si>
   <si>
@@ -532,9 +524,6 @@
     <t>480 Iron</t>
   </si>
   <si>
-    <t>15. Design Train Sorting Station</t>
-  </si>
-  <si>
     <t>16. Oil Site, Rubber Production focus</t>
   </si>
   <si>
@@ -602,6 +591,198 @@
   </si>
   <si>
     <t>FloorsPer600Line</t>
+  </si>
+  <si>
+    <t>IronIngot</t>
+  </si>
+  <si>
+    <t>CopperIngot</t>
+  </si>
+  <si>
+    <t>CateriumIngot</t>
+  </si>
+  <si>
+    <t>SteelIngot</t>
+  </si>
+  <si>
+    <t>Quartz</t>
+  </si>
+  <si>
+    <t>Fabric</t>
+  </si>
+  <si>
+    <t>CopperSheet</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Quickwire</t>
+  </si>
+  <si>
+    <t>R.Plate</t>
+  </si>
+  <si>
+    <t>SteelPipes</t>
+  </si>
+  <si>
+    <t>SteelBeams</t>
+  </si>
+  <si>
+    <t>EncasedBeams</t>
+  </si>
+  <si>
+    <t>ModFrames</t>
+  </si>
+  <si>
+    <t>CircuitBoards</t>
+  </si>
+  <si>
+    <t>Supercomputers</t>
+  </si>
+  <si>
+    <t>High-Speed Connectors</t>
+  </si>
+  <si>
+    <t>Electromagnetic Connection Rod</t>
+  </si>
+  <si>
+    <t>Radio Connection Unit</t>
+  </si>
+  <si>
+    <t>Heat Exchanger</t>
+  </si>
+  <si>
+    <t>Sulfiric Acid</t>
+  </si>
+  <si>
+    <t>Aluminum Scrap</t>
+  </si>
+  <si>
+    <t>Aluminum Ingot</t>
+  </si>
+  <si>
+    <t>SloppyAlumina</t>
+  </si>
+  <si>
+    <t>Fused Frame</t>
+  </si>
+  <si>
+    <t>PackagedNitrogen</t>
+  </si>
+  <si>
+    <t>CoolingDevice</t>
+  </si>
+  <si>
+    <t>ConversionCube</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>----&gt;</t>
+  </si>
+  <si>
+    <t>Station 1</t>
+  </si>
+  <si>
+    <t>Station 2</t>
+  </si>
+  <si>
+    <t>Station 3</t>
+  </si>
+  <si>
+    <t>Station 4</t>
+  </si>
+  <si>
+    <t>Station 5</t>
+  </si>
+  <si>
+    <t>Station 6</t>
+  </si>
+  <si>
+    <t>Station 7</t>
+  </si>
+  <si>
+    <t>Station 8</t>
+  </si>
+  <si>
+    <t>TurboMotor</t>
+  </si>
+  <si>
+    <t>Station 9</t>
+  </si>
+  <si>
+    <t>Station 10</t>
+  </si>
+  <si>
+    <t>Station 11</t>
+  </si>
+  <si>
+    <t>Station 12</t>
+  </si>
+  <si>
+    <t>Station 13</t>
+  </si>
+  <si>
+    <t>Station 14</t>
+  </si>
+  <si>
+    <t>Every In Stations 5-14 Overflow to Storage</t>
+  </si>
+  <si>
+    <t>Overflow to Storage wont Exist in other Regional Train Hubs</t>
+  </si>
+  <si>
+    <t>AI-Limiters</t>
+  </si>
+  <si>
+    <t>In From Oil Site</t>
+  </si>
+  <si>
+    <t>Station 15</t>
+  </si>
+  <si>
+    <t>Aluminum Eventually at Oil Fields</t>
+  </si>
+  <si>
+    <t>Boards</t>
+  </si>
+  <si>
+    <t>Computer Out</t>
+  </si>
+  <si>
+    <t>H.Frame Out</t>
+  </si>
+  <si>
+    <t>13. Circuit Boards Site</t>
+  </si>
+  <si>
+    <t>Circuit Boards</t>
+  </si>
+  <si>
+    <t>15. Heavy Frames Site</t>
+  </si>
+  <si>
+    <t>Split from Above into Specialty Sites</t>
+  </si>
+  <si>
+    <t>Modular Frames</t>
+  </si>
+  <si>
+    <t>Encased Beam</t>
+  </si>
+  <si>
+    <t>Pipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Speed Connector Out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In </t>
   </si>
 </sst>
 </file>
@@ -687,7 +868,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,8 +948,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -952,17 +1139,6 @@
         <color rgb="FFEEEEEE"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFEEEEEE"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFEEEEEE"/>
-      </right>
-      <top/>
-      <bottom style="thick">
         <color rgb="FFEEEEEE"/>
       </bottom>
       <diagonal/>
@@ -1042,7 +1218,7 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1050,7 +1226,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1088,7 +1264,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1124,7 +1299,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -1134,28 +1309,21 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1164,20 +1332,30 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -1771,10 +1949,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:L27"/>
+  <dimension ref="C1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1793,10 +1971,10 @@
     <row r="2" spans="3:12" ht="44.25" thickTop="1" thickBot="1">
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>7</v>
@@ -1805,115 +1983,115 @@
         <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" ht="15.75" thickTop="1">
+      <c r="E3" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="3" t="s">
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="27" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="3:12" ht="15.75" thickTop="1">
-      <c r="E3" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12">
-      <c r="C4" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
-      <c r="C5" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>115</v>
+      <c r="I5" s="28" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="3:12">
-      <c r="C6" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="C6" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="29" t="s">
+    <row r="8" spans="3:12">
+      <c r="C8" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="15.75" thickBot="1">
+      <c r="C9" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C10" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="15.75" thickBot="1">
-      <c r="C9" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C10" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="12" spans="3:12" ht="17.25" thickBot="1">
-      <c r="E12" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>106</v>
+      <c r="E12" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="27" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="9" t="s">
@@ -1921,117 +2099,110 @@
       </c>
     </row>
     <row r="13" spans="3:12" ht="15.75" thickTop="1">
-      <c r="F13" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="29" t="s">
+      <c r="F13" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="15.75" thickBot="1">
+      <c r="F15" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="27" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" ht="15.75" thickBot="1">
-      <c r="F15" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="C16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="28" t="s">
         <v>94</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C19" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="31" t="s">
+      <c r="K18" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="I19" s="30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="15.75" thickBot="1"/>
+    <row r="20" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E20" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
     <row r="21" spans="3:11" ht="17.25" thickBot="1">
-      <c r="I21" s="28" t="s">
-        <v>105</v>
+      <c r="I21" s="27" t="s">
+        <v>26</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="30" t="s">
-        <v>114</v>
+      <c r="K21" s="27" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="15.75" thickTop="1">
-      <c r="I22" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
-      <c r="I23" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" ht="15.75" thickBot="1">
-      <c r="I24" s="28" t="s">
-        <v>109</v>
+      <c r="I22" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="15.75" thickBot="1"/>
+    <row r="24" spans="3:11" ht="18" thickTop="1" thickBot="1">
+      <c r="C24" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C25" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="17.25" thickBot="1">
-      <c r="I26" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" ht="15.75" thickTop="1">
-      <c r="I27" s="28" t="s">
-        <v>104</v>
+      <c r="C25" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2047,8 +2218,8 @@
   </sheetPr>
   <dimension ref="C1:H79"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2056,7 +2227,7 @@
     <col min="1" max="2" width="1.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
@@ -2090,7 +2261,7 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -2107,10 +2278,10 @@
       </c>
     </row>
     <row r="5" spans="3:8" ht="51" thickTop="1" thickBot="1">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -2123,22 +2294,19 @@
         <v>7</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="7" spans="3:8" ht="51" thickTop="1" thickBot="1">
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -2146,34 +2314,33 @@
       </c>
     </row>
     <row r="8" spans="3:8" ht="51" thickTop="1" thickBot="1">
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="51" thickTop="1" thickBot="1">
-      <c r="F9" s="26" t="s">
+      <c r="H8" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
+      <c r="F9" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="51" thickTop="1" thickBot="1">
+      <c r="H9" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="18" thickTop="1" thickBot="1">
+    </row>
+    <row r="11" spans="3:8" ht="51" thickTop="1" thickBot="1">
       <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="F12" s="6" t="s">
@@ -2181,20 +2348,22 @@
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
+    <row r="13" spans="3:8" ht="51" thickTop="1" thickBot="1">
       <c r="F13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -2214,11 +2383,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="34.5" thickTop="1" thickBot="1">
+    <row r="17" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -2228,12 +2397,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="15.75" thickBot="1">
-      <c r="F18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="18" thickTop="1" thickBot="1">
+    <row r="18" spans="3:8" ht="15.75" thickBot="1"/>
+    <row r="19" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
@@ -2246,66 +2411,66 @@
       <c r="F19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="17.25" thickBot="1">
-      <c r="F20" s="27" t="s">
+    <row r="20" spans="3:8" ht="17.25" thickBot="1">
+      <c r="F20" s="26" t="s">
         <v>96</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="F21" s="26" t="s">
+    <row r="21" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="F21" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="15.75" thickBot="1"/>
-    <row r="23" spans="3:7" ht="18" thickTop="1" thickBot="1">
+    <row r="22" spans="3:8" ht="15.75" thickBot="1"/>
+    <row r="23" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>24</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="18" thickTop="1" thickBot="1">
+    <row r="24" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="D24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="18" thickTop="1" thickBot="1">
+    <row r="25" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="F25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="34.5" thickTop="1" thickBot="1">
+    <row r="26" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
       <c r="F26" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="18" thickTop="1" thickBot="1">
+    <row r="27" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="C27" s="8" t="s">
         <v>15</v>
       </c>
@@ -2322,7 +2487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="18" thickTop="1" thickBot="1">
+    <row r="28" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -2334,126 +2499,127 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="34.5" thickTop="1" thickBot="1">
+    <row r="29" spans="3:8" ht="18" thickTop="1" thickBot="1">
       <c r="D29" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="G29" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="18" thickTop="1" thickBot="1">
-      <c r="F30" s="6" t="s">
+    <row r="30" spans="3:8" ht="15.75" thickBot="1"/>
+    <row r="31" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
+      <c r="C31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="18" thickTop="1" thickBot="1">
+      <c r="C32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="3:7" ht="18" thickTop="1" thickBot="1">
-      <c r="F31" s="6" t="s">
+    <row r="33" spans="4:6" ht="18" thickTop="1" thickBot="1">
+      <c r="F33" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="18" thickTop="1" thickBot="1">
-      <c r="F32" s="6" t="s">
+    <row r="34" spans="4:6" ht="18" thickTop="1" thickBot="1">
+      <c r="F34" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="18" thickTop="1" thickBot="1">
-      <c r="F33" s="6" t="s">
+    <row r="35" spans="4:6" ht="18" thickTop="1" thickBot="1">
+      <c r="F35" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="18" thickTop="1" thickBot="1">
-      <c r="F34" s="6" t="s">
+    <row r="36" spans="4:6" ht="18" thickTop="1" thickBot="1">
+      <c r="F36" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="18" thickTop="1" thickBot="1">
-      <c r="C35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="9" t="s">
+    <row r="37" spans="4:6" ht="17.25" thickBot="1">
+      <c r="F37" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="18" thickTop="1" thickBot="1">
-      <c r="C36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="40" spans="3:8">
+    </row>
+    <row r="38" spans="4:6" ht="15.75" thickTop="1"/>
+    <row r="40" spans="4:6">
       <c r="D40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="3:8">
+    <row r="41" spans="4:6">
       <c r="D41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="3:8">
+    <row r="42" spans="4:6">
       <c r="D42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="3:8">
+    <row r="43" spans="4:6">
       <c r="D43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="3:8">
+    <row r="44" spans="4:6">
       <c r="D44" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="5:7" ht="15.75" thickBot="1"/>
     <row r="69" spans="5:7" ht="18" thickTop="1" thickBot="1">
-      <c r="E69" s="14"/>
-      <c r="G69" s="16"/>
+      <c r="E69" s="13"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" spans="5:7" ht="18" thickTop="1" thickBot="1">
-      <c r="E70" s="14"/>
-      <c r="G70" s="16"/>
+      <c r="E70" s="13"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" spans="5:7" ht="18" thickTop="1" thickBot="1">
-      <c r="E71" s="14"/>
-      <c r="G71" s="16"/>
+      <c r="E71" s="13"/>
+      <c r="G71" s="15"/>
     </row>
     <row r="72" spans="5:7" ht="18" thickTop="1" thickBot="1">
-      <c r="E72" s="14"/>
-      <c r="G72" s="16"/>
+      <c r="E72" s="13"/>
+      <c r="G72" s="15"/>
     </row>
     <row r="73" spans="5:7" ht="18" thickTop="1" thickBot="1">
-      <c r="E73" s="14"/>
-      <c r="G73" s="16"/>
+      <c r="E73" s="13"/>
+      <c r="G73" s="15"/>
     </row>
     <row r="74" spans="5:7" ht="18" thickTop="1" thickBot="1">
-      <c r="E74" s="14"/>
-      <c r="G74" s="16"/>
+      <c r="E74" s="13"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" spans="5:7" ht="18" thickTop="1" thickBot="1">
-      <c r="E75" s="14"/>
-      <c r="G75" s="16"/>
+      <c r="E75" s="13"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" spans="5:7" ht="18" thickTop="1" thickBot="1">
-      <c r="E76" s="14"/>
-      <c r="G76" s="16"/>
+      <c r="E76" s="13"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="5:7" ht="18" thickTop="1" thickBot="1">
-      <c r="E77" s="14"/>
-      <c r="G77" s="16"/>
+      <c r="E77" s="13"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78" spans="5:7" ht="18" thickTop="1" thickBot="1">
-      <c r="E78" s="14"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="5:7" ht="15.75" thickTop="1"/>
   </sheetData>
@@ -2466,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A19:A39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2489,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
   <dimension ref="C3:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2515,1340 +2681,1340 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="23.25">
-      <c r="C3" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
+      <c r="C3" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="3:19">
       <c r="O4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19">
+      <c r="C5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+    </row>
+    <row r="6" spans="3:19">
+      <c r="C6" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="33">
+        <v>10</v>
+      </c>
+      <c r="E6" s="33">
+        <v>2</v>
+      </c>
+      <c r="F6" s="33">
+        <v>6</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="39" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="5" spans="3:19">
-      <c r="C5" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-    </row>
-    <row r="6" spans="3:19">
-      <c r="C6" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="34">
-        <v>10</v>
-      </c>
-      <c r="E6" s="34">
-        <v>2</v>
-      </c>
-      <c r="F6" s="34">
+      <c r="O6" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="S6" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="C7" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="33">
+        <v>9</v>
+      </c>
+      <c r="E7" s="33">
+        <v>4</v>
+      </c>
+      <c r="F7" s="33">
         <v>6</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G7" s="33">
         <v>0</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="L6" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="M6" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="O6" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="R6" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="S6" s="50" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="3:19">
-      <c r="C7" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="34">
-        <v>9</v>
-      </c>
-      <c r="E7" s="34">
-        <v>4</v>
-      </c>
-      <c r="F7" s="34">
-        <v>6</v>
-      </c>
-      <c r="G7" s="34">
-        <v>0</v>
-      </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="37">
         <v>120</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="37">
         <f>D16</f>
         <v>440</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="37">
         <f>E16</f>
         <v>1100</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="37">
         <f>ROUNDDOWN(L7/J7,0)</f>
         <v>9</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="37">
         <f>ROUNDDOWN(600/J7,0)</f>
         <v>5</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="38">
         <f>M7/3</f>
         <v>3</v>
       </c>
-      <c r="P7" s="47">
+      <c r="P7" s="37">
         <f>J7*3</f>
         <v>360</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="37">
         <f>P7*O7</f>
         <v>1080</v>
       </c>
-      <c r="R7" s="46"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <v>0</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <v>0</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="33">
         <v>1</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="33">
         <v>2</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="47">
+      <c r="J8" s="37">
         <v>240</v>
       </c>
-      <c r="K8" s="47">
+      <c r="K8" s="37">
         <f>D9</f>
         <v>1680</v>
       </c>
-      <c r="L8" s="47">
+      <c r="L8" s="37">
         <f>D10</f>
         <v>4200</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="37">
         <f>ROUNDDOWN(L8/J8,0)</f>
         <v>17</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="37">
         <f>ROUNDDOWN(L8/J8,0)</f>
         <v>17</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="37">
         <v>10</v>
       </c>
-      <c r="P8" s="47">
+      <c r="P8" s="37">
         <v>720</v>
       </c>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="46"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f>E44</f>
         <v>1680</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <f>E51</f>
         <v>600</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <f>E67</f>
         <v>1320</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <f>E72</f>
         <v>480</v>
       </c>
-      <c r="I9" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
+      <c r="I9" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="3:19">
-      <c r="C10" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="34">
+      <c r="C10" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="33">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (D8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
         <v>4200</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (E7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (E8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
         <v>1500</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (F8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
         <v>3300</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="33">
         <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (G8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
         <v>1200</v>
       </c>
-      <c r="I10" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
+      <c r="I10" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="34">
+      <c r="C11" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="33">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>8400</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (E7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (E8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>3000</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (F8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>6120</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="33">
         <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (G8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>1440</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="3:19">
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="3:19">
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
+      <c r="C14" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
+      <c r="E15" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="3:19">
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="33">
         <f>SUM((F9/45)*15)</f>
         <v>440</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="33">
         <f>SUM((F10/45)*15)</f>
         <v>1100</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="33">
         <f>SUM((F11/45)*15)</f>
         <v>2040</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <f>SUM((E9/50)*100)</f>
         <v>1200</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <f>SUM((E10/50)*100)</f>
         <v>3000</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="33">
         <f>SUM((E11/50)*100)</f>
         <v>6000</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <f>SUM((G9/40)*60)</f>
         <v>720</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <f>SUM((G10/40)*60)</f>
         <v>1800</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="33">
         <f>SUM((G11/40)*60)</f>
         <v>2160</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="33">
         <f>SUM(D9-(E9/2)-G9)</f>
         <v>900</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <f>SUM(D10-(E10/2)-G10)</f>
         <v>2250</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <f>SUM(D11-(E11/2)-G11)</f>
         <v>5460</v>
       </c>
-      <c r="I19" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
+      <c r="I19" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
     </row>
     <row r="20" spans="3:18">
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="33">
         <f>SUM((D19/30)*30)</f>
         <v>900</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <f>SUM((E19/30)*30)</f>
         <v>2250</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="35">
         <f>SUM((F19/30)*30)</f>
         <v>5460</v>
       </c>
-      <c r="I20" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
+      <c r="I20" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
     </row>
     <row r="21" spans="3:18">
-      <c r="I21" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="46"/>
+      <c r="I21" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
     </row>
     <row r="22" spans="3:18">
-      <c r="C22" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="I22" s="46" t="s">
+      <c r="C22" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="I22" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
     </row>
     <row r="24" spans="3:18">
-      <c r="C24" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="34"/>
+      <c r="C24" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="3:18">
-      <c r="C25" s="34">
+      <c r="C25" s="33">
         <v>60</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <v>1</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <f>C25*D25</f>
         <v>60</v>
       </c>
-      <c r="F25" s="34"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="34">
+      <c r="C26" s="33">
         <v>60</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="33">
         <v>1</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <f t="shared" ref="E26:E43" si="0">C26*D26</f>
         <v>60</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="I26" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
+      <c r="F26" s="33"/>
+      <c r="I26" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
     </row>
     <row r="27" spans="3:18">
-      <c r="C27" s="34">
+      <c r="C27" s="33">
         <v>60</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="33">
         <v>1</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="I27" s="35" t="s">
+      <c r="F27" s="33"/>
+      <c r="I27" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="M27" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35" t="s">
+      <c r="N27" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="M27" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="N27" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="O27" s="35" t="s">
-        <v>143</v>
+      <c r="O27" s="34" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="3:18">
-      <c r="C28" s="34">
+      <c r="C28" s="33">
         <v>60</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="33">
         <v>1</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="33">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="I28" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
+      <c r="F28" s="33"/>
+      <c r="I28" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
     </row>
     <row r="29" spans="3:18">
-      <c r="C29" s="34">
+      <c r="C29" s="33">
         <v>60</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="33">
         <v>1</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="33">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="I29" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
+      <c r="F29" s="33"/>
+      <c r="I29" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
     </row>
     <row r="30" spans="3:18">
-      <c r="C30" s="34">
+      <c r="C30" s="33">
         <v>60</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="33">
         <v>1</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="33">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="I30" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
+      <c r="F30" s="33"/>
+      <c r="I30" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
     </row>
     <row r="31" spans="3:18">
-      <c r="C31" s="34">
+      <c r="C31" s="33">
         <v>60</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="33">
         <v>1</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="33">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="I31" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
+      <c r="F31" s="33"/>
+      <c r="I31" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
     </row>
     <row r="32" spans="3:18">
-      <c r="C32" s="34">
+      <c r="C32" s="33">
         <v>60</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="33">
         <v>1</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="33">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="I32" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34">
+      <c r="F32" s="33"/>
+      <c r="I32" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33">
         <v>5.625</v>
       </c>
-      <c r="N32" s="34">
+      <c r="N32" s="33">
         <v>5</v>
       </c>
-      <c r="O32" s="34">
+      <c r="O32" s="33">
         <v>28.125</v>
       </c>
     </row>
     <row r="33" spans="3:15">
-      <c r="C33" s="34">
+      <c r="C33" s="33">
         <v>60</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="33">
         <v>1</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="33">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="I33" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34">
+      <c r="F33" s="33"/>
+      <c r="I33" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33">
         <v>20</v>
       </c>
-      <c r="N33" s="34">
+      <c r="N33" s="33">
         <v>12</v>
       </c>
-      <c r="O33" s="34">
+      <c r="O33" s="33">
         <v>240</v>
       </c>
     </row>
     <row r="34" spans="3:15">
-      <c r="C34" s="34">
+      <c r="C34" s="33">
         <v>60</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="33">
         <v>1</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="33">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="I34" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34">
+      <c r="F34" s="33"/>
+      <c r="I34" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33">
         <v>15</v>
       </c>
-      <c r="N34" s="34">
+      <c r="N34" s="33">
         <v>3</v>
       </c>
-      <c r="O34" s="34">
+      <c r="O34" s="33">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="3:15">
-      <c r="C35" s="34">
+      <c r="C35" s="33">
         <v>120</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="33">
         <v>1</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="33">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="I35" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34">
+      <c r="F35" s="33"/>
+      <c r="I35" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33">
         <v>20</v>
       </c>
-      <c r="N35" s="34">
+      <c r="N35" s="33">
         <v>24</v>
       </c>
-      <c r="O35" s="34">
+      <c r="O35" s="33">
         <v>480</v>
       </c>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="34">
+      <c r="C36" s="33">
         <v>120</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="33">
         <v>1</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="33">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="I36" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="J36" s="34" t="s">
+      <c r="F36" s="33"/>
+      <c r="I36" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="M36" s="34">
+      <c r="M36" s="33">
         <v>90</v>
       </c>
-      <c r="N36" s="34">
+      <c r="N36" s="33">
         <v>16</v>
       </c>
-      <c r="O36" s="34">
+      <c r="O36" s="33">
         <v>1440</v>
       </c>
     </row>
     <row r="37" spans="3:15">
-      <c r="C37" s="34">
+      <c r="C37" s="33">
         <v>120</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="33">
         <v>1</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="33">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="I37" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="M37" s="34">
+      <c r="F37" s="33"/>
+      <c r="I37" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="M37" s="33">
         <v>90</v>
       </c>
-      <c r="N37" s="34">
+      <c r="N37" s="33">
         <v>14</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="33">
         <v>1260</v>
       </c>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="34">
+      <c r="C38" s="33">
         <v>120</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="33">
         <v>1</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="33">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F38" s="34"/>
+      <c r="F38" s="33"/>
     </row>
     <row r="39" spans="3:15">
-      <c r="C39" s="34">
+      <c r="C39" s="33">
         <v>120</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="33">
         <v>1</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="33">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F39" s="34"/>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="3:15">
-      <c r="C40" s="34">
+      <c r="C40" s="33">
         <v>120</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="33">
         <v>1</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="33">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F40" s="34"/>
+      <c r="F40" s="33"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="C41" s="34">
+      <c r="C41" s="33">
         <v>120</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="33">
         <v>1</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="33">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F41" s="34"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="3:15">
-      <c r="C42" s="34">
+      <c r="C42" s="33">
         <v>120</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="33">
         <v>1</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="33">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F42" s="34"/>
+      <c r="F42" s="33"/>
     </row>
     <row r="43" spans="3:15">
-      <c r="C43" s="34">
+      <c r="C43" s="33">
         <v>120</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="33">
         <v>1</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="33">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F43" s="34"/>
+      <c r="F43" s="33"/>
     </row>
     <row r="44" spans="3:15">
-      <c r="C44" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34">
+      <c r="C44" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33">
         <f>SUM(E25:E43)</f>
         <v>1680</v>
       </c>
-      <c r="F44" s="34"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="3:15">
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
     </row>
     <row r="46" spans="3:15">
-      <c r="C46" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" s="34"/>
+      <c r="C46" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="3:15">
-      <c r="C47" s="34">
+      <c r="C47" s="33">
         <v>120</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="33">
         <v>1</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="33">
         <f>C47*D47</f>
         <v>120</v>
       </c>
-      <c r="F47" s="34"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="3:15">
-      <c r="C48" s="34">
+      <c r="C48" s="33">
         <v>120</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="33">
         <v>1</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="33">
         <f t="shared" ref="E48:E50" si="1">C48*D48</f>
         <v>120</v>
       </c>
-      <c r="F48" s="34"/>
+      <c r="F48" s="33"/>
     </row>
     <row r="49" spans="3:6">
-      <c r="C49" s="34">
+      <c r="C49" s="33">
         <v>120</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="33">
         <v>1.5</v>
       </c>
-      <c r="E49" s="34">
+      <c r="E49" s="33">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F49" s="34"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="3:6">
-      <c r="C50" s="34">
+      <c r="C50" s="33">
         <v>120</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="33">
         <v>1.5</v>
       </c>
-      <c r="E50" s="34">
+      <c r="E50" s="33">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F50" s="34"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="3:6">
-      <c r="C51" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34">
+      <c r="C51" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33">
         <f>SUM(E47:E50)</f>
         <v>600</v>
       </c>
-      <c r="F51" s="34"/>
+      <c r="F51" s="33"/>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="42"/>
     </row>
     <row r="53" spans="3:6">
-      <c r="C53" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F53" s="34"/>
+      <c r="C53" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" s="33"/>
     </row>
     <row r="54" spans="3:6">
-      <c r="C54" s="34">
+      <c r="C54" s="33">
         <v>60</v>
       </c>
-      <c r="D54" s="34">
+      <c r="D54" s="33">
         <v>1</v>
       </c>
-      <c r="E54" s="34">
+      <c r="E54" s="33">
         <f>C54*D54</f>
         <v>60</v>
       </c>
-      <c r="F54" s="34"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="3:6">
-      <c r="C55" s="34">
+      <c r="C55" s="33">
         <v>60</v>
       </c>
-      <c r="D55" s="34">
+      <c r="D55" s="33">
         <v>1</v>
       </c>
-      <c r="E55" s="34">
+      <c r="E55" s="33">
         <f t="shared" ref="E55:E57" si="2">C55*D55</f>
         <v>60</v>
       </c>
-      <c r="F55" s="34"/>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="3:6">
-      <c r="C56" s="34">
+      <c r="C56" s="33">
         <v>60</v>
       </c>
-      <c r="D56" s="34">
+      <c r="D56" s="33">
         <v>1</v>
       </c>
-      <c r="E56" s="34">
+      <c r="E56" s="33">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F56" s="34"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="3:6">
-      <c r="C57" s="34">
+      <c r="C57" s="33">
         <v>60</v>
       </c>
-      <c r="D57" s="34">
+      <c r="D57" s="33">
         <v>1</v>
       </c>
-      <c r="E57" s="34">
+      <c r="E57" s="33">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F57" s="34"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="3:6">
-      <c r="C58" s="34">
+      <c r="C58" s="33">
         <v>60</v>
       </c>
-      <c r="D58" s="34">
+      <c r="D58" s="33">
         <v>1</v>
       </c>
-      <c r="E58" s="34">
+      <c r="E58" s="33">
         <f>C58*D58</f>
         <v>60</v>
       </c>
-      <c r="F58" s="34"/>
+      <c r="F58" s="33"/>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="34">
+      <c r="C59" s="33">
         <v>60</v>
       </c>
-      <c r="D59" s="34">
+      <c r="D59" s="33">
         <v>1</v>
       </c>
-      <c r="E59" s="34">
+      <c r="E59" s="33">
         <f t="shared" ref="E59:E61" si="3">C59*D59</f>
         <v>60</v>
       </c>
-      <c r="F59" s="34"/>
+      <c r="F59" s="33"/>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="34">
+      <c r="C60" s="33">
         <v>120</v>
       </c>
-      <c r="D60" s="34">
+      <c r="D60" s="33">
         <v>1</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60" s="33">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F60" s="34"/>
+      <c r="F60" s="33"/>
     </row>
     <row r="61" spans="3:6">
-      <c r="C61" s="34">
+      <c r="C61" s="33">
         <v>120</v>
       </c>
-      <c r="D61" s="34">
+      <c r="D61" s="33">
         <v>1</v>
       </c>
-      <c r="E61" s="34">
+      <c r="E61" s="33">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F61" s="34"/>
+      <c r="F61" s="33"/>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="34">
+      <c r="C62" s="33">
         <v>120</v>
       </c>
-      <c r="D62" s="34">
+      <c r="D62" s="33">
         <v>1</v>
       </c>
-      <c r="E62" s="34">
+      <c r="E62" s="33">
         <f>C62*D62</f>
         <v>120</v>
       </c>
-      <c r="F62" s="34"/>
+      <c r="F62" s="33"/>
     </row>
     <row r="63" spans="3:6">
-      <c r="C63" s="34">
+      <c r="C63" s="33">
         <v>120</v>
       </c>
-      <c r="D63" s="34">
+      <c r="D63" s="33">
         <v>1</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="33">
         <f t="shared" ref="E63:E65" si="4">C63*D63</f>
         <v>120</v>
       </c>
-      <c r="F63" s="34"/>
+      <c r="F63" s="33"/>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="34">
+      <c r="C64" s="33">
         <v>120</v>
       </c>
-      <c r="D64" s="34">
+      <c r="D64" s="33">
         <v>1</v>
       </c>
-      <c r="E64" s="34">
+      <c r="E64" s="33">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="F64" s="34"/>
+      <c r="F64" s="33"/>
     </row>
     <row r="65" spans="3:6">
-      <c r="C65" s="34">
+      <c r="C65" s="33">
         <v>120</v>
       </c>
-      <c r="D65" s="34">
+      <c r="D65" s="33">
         <v>1</v>
       </c>
-      <c r="E65" s="34">
+      <c r="E65" s="33">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="F65" s="34"/>
+      <c r="F65" s="33"/>
     </row>
     <row r="66" spans="3:6">
-      <c r="C66" s="34">
+      <c r="C66" s="33">
         <v>240</v>
       </c>
-      <c r="D66" s="34">
+      <c r="D66" s="33">
         <v>1</v>
       </c>
-      <c r="E66" s="34">
+      <c r="E66" s="33">
         <f t="shared" ref="E66" si="5">C66*D66</f>
         <v>240</v>
       </c>
-      <c r="F66" s="34"/>
+      <c r="F66" s="33"/>
     </row>
     <row r="67" spans="3:6">
-      <c r="C67" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34">
+      <c r="C67" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33">
         <f>SUM(E54:E66)</f>
         <v>1320</v>
       </c>
-      <c r="F67" s="34"/>
+      <c r="F67" s="33"/>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="45"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="42"/>
     </row>
     <row r="69" spans="3:6">
-      <c r="C69" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F69" s="34"/>
+      <c r="C69" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F69" s="33"/>
     </row>
     <row r="70" spans="3:6">
-      <c r="C70" s="34">
+      <c r="C70" s="33">
         <v>240</v>
       </c>
-      <c r="D70" s="34">
+      <c r="D70" s="33">
         <v>1</v>
       </c>
-      <c r="E70" s="34">
+      <c r="E70" s="33">
         <f>C70*D70</f>
         <v>240</v>
       </c>
-      <c r="F70" s="34"/>
+      <c r="F70" s="33"/>
     </row>
     <row r="71" spans="3:6">
-      <c r="C71" s="34">
+      <c r="C71" s="33">
         <v>240</v>
       </c>
-      <c r="D71" s="34">
+      <c r="D71" s="33">
         <v>1</v>
       </c>
-      <c r="E71" s="34">
+      <c r="E71" s="33">
         <f t="shared" ref="E71" si="6">C71*D71</f>
         <v>240</v>
       </c>
-      <c r="F71" s="34"/>
+      <c r="F71" s="33"/>
     </row>
     <row r="72" spans="3:6">
-      <c r="C72" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34">
+      <c r="C72" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33">
         <f>SUM(E70:E71)</f>
         <v>480</v>
       </c>
-      <c r="F72" s="34"/>
+      <c r="F72" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3868,6 +4034,620 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2FA3DA-A5F3-411F-AB6B-7EB05B935F88}">
+  <dimension ref="C2:R39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:17">
+      <c r="C2" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17">
+      <c r="C4" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17">
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="M6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17">
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="M7" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17">
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17">
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="M9" t="s">
+        <v>183</v>
+      </c>
+      <c r="O9" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" t="s">
+        <v>187</v>
+      </c>
+      <c r="P10" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="M11" t="s">
+        <v>185</v>
+      </c>
+      <c r="O11" t="s">
+        <v>188</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17">
+      <c r="C14" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="K14" s="51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17">
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" t="s">
+        <v>236</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18">
+      <c r="C18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18">
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" t="s">
+        <v>226</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18">
+      <c r="C24" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18">
+      <c r="C26" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="R26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18">
+      <c r="R27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18">
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18">
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18">
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18">
+      <c r="C32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I32" t="s">
+        <v>201</v>
+      </c>
+      <c r="L32" s="50"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="50"/>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A4D7D-2B40-4F26-A6BD-214006A713CE}">
   <dimension ref="C3:D21"/>
   <sheetViews>
@@ -3882,130 +4662,130 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="48"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="3:4">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="3:4">
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:4">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="49"/>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="3:4">
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>0</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:4">
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>1</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>3</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="49"/>
     </row>
     <row r="18" spans="3:4">
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19" spans="3:4">
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>1</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>2</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>3</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>4</v>
       </c>
     </row>

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A89919-39E3-4CA2-9A79-2D9B21B83374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980E3B37-868D-4ECD-86ED-74068E4E3791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="235">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -440,12 +440,6 @@
     <t>Pickup Intermediate High</t>
   </si>
   <si>
-    <t>11. Steeled Frame Site</t>
-  </si>
-  <si>
-    <t>12. Encased Industrial Pipes Site</t>
-  </si>
-  <si>
     <t>Steel Inogt Module</t>
   </si>
   <si>
@@ -756,9 +750,6 @@
   </si>
   <si>
     <t>H.Frame Out</t>
-  </si>
-  <si>
-    <t>13. Circuit Boards Site</t>
   </si>
   <si>
     <t>Circuit Boards</t>
@@ -1323,6 +1314,9 @@
     <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1353,9 +1347,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -1952,7 +1943,7 @@
   <dimension ref="C1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1990,6 +1981,9 @@
       </c>
     </row>
     <row r="3" spans="3:12" ht="15.75" thickTop="1">
+      <c r="C3" s="30" t="s">
+        <v>151</v>
+      </c>
       <c r="E3" s="30" t="s">
         <v>118</v>
       </c>
@@ -2001,13 +1995,13 @@
       </c>
     </row>
     <row r="4" spans="3:12">
-      <c r="C4" s="27" t="s">
-        <v>123</v>
+      <c r="C4" s="29" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="27" t="s">
-        <v>124</v>
+      <c r="C5" s="30" t="s">
+        <v>149</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>31</v>
@@ -2020,8 +2014,8 @@
       </c>
     </row>
     <row r="6" spans="3:12">
-      <c r="C6" s="27" t="s">
-        <v>229</v>
+      <c r="C6" s="30" t="s">
+        <v>150</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>119</v>
@@ -2034,9 +2028,6 @@
       </c>
     </row>
     <row r="7" spans="3:12">
-      <c r="C7" s="29" t="s">
-        <v>231</v>
-      </c>
       <c r="F7" s="28" t="s">
         <v>92</v>
       </c>
@@ -2044,15 +2035,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="9" spans="3:12" ht="15.75" thickBot="1">
-      <c r="C9" s="30" t="s">
-        <v>152</v>
-      </c>
       <c r="E9" s="30" t="s">
         <v>117</v>
       </c>
@@ -2064,9 +2047,6 @@
       </c>
     </row>
     <row r="10" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C10" s="30" t="s">
-        <v>153</v>
-      </c>
       <c r="F10" s="28" t="s">
         <v>107</v>
       </c>
@@ -2138,7 +2118,7 @@
     </row>
     <row r="18" spans="3:11" ht="18" thickTop="1" thickBot="1">
       <c r="C18" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>100</v>
@@ -2163,7 +2143,7 @@
         <v>24</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="3:11" ht="17.25" thickBot="1">
@@ -2174,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="15.75" thickTop="1">
@@ -2681,27 +2661,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="23.25">
-      <c r="C3" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
+      <c r="C3" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
     </row>
     <row r="4" spans="3:19">
       <c r="O4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="3:19">
@@ -2720,18 +2700,18 @@
       <c r="G5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
     </row>
     <row r="6" spans="3:19">
       <c r="C6" s="33" t="s">
@@ -2756,16 +2736,16 @@
         <v>87</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M6" s="39" t="s">
         <v>86</v>
       </c>
       <c r="N6" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O6" s="39" t="s">
         <v>85</v>
@@ -2774,13 +2754,13 @@
         <v>84</v>
       </c>
       <c r="Q6" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="S6" s="39" t="s">
         <v>170</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="3:19">
@@ -2903,7 +2883,7 @@
         <v>480</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
@@ -2917,7 +2897,7 @@
     </row>
     <row r="10" spans="3:19">
       <c r="C10" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D10" s="33">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (D8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
@@ -2936,7 +2916,7 @@
         <v>1200</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -2950,7 +2930,7 @@
     </row>
     <row r="11" spans="3:19">
       <c r="C11" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D11" s="33">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
@@ -3004,12 +2984,12 @@
       <c r="R13" s="36"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="C14" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
@@ -3029,10 +3009,10 @@
         <v>80</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
@@ -3143,7 +3123,7 @@
         <v>5460</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -3172,7 +3152,7 @@
         <v>5460</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
@@ -3186,7 +3166,7 @@
     </row>
     <row r="21" spans="3:18">
       <c r="I21" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
@@ -3199,14 +3179,14 @@
       <c r="R21" s="36"/>
     </row>
     <row r="22" spans="3:18">
-      <c r="C22" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="C22" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
       <c r="I22" s="36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
@@ -3219,12 +3199,12 @@
       <c r="R22" s="36"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
@@ -3238,13 +3218,13 @@
     </row>
     <row r="24" spans="3:18">
       <c r="C24" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="33" t="s">
         <v>165</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>167</v>
       </c>
       <c r="F24" s="33"/>
     </row>
@@ -3273,15 +3253,15 @@
         <v>60</v>
       </c>
       <c r="F26" s="33"/>
-      <c r="I26" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
+      <c r="I26" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
     </row>
     <row r="27" spans="3:18">
       <c r="C27" s="33">
@@ -3299,20 +3279,20 @@
         <v>73</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K27" s="34"/>
       <c r="L27" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="M27" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="M27" s="34" t="s">
-        <v>141</v>
-      </c>
       <c r="N27" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="3:18">
@@ -3328,7 +3308,7 @@
       </c>
       <c r="F28" s="33"/>
       <c r="I28" s="33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
@@ -3350,7 +3330,7 @@
       </c>
       <c r="F29" s="33"/>
       <c r="I29" s="33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
@@ -3372,7 +3352,7 @@
       </c>
       <c r="F30" s="33"/>
       <c r="I30" s="33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
@@ -3394,7 +3374,7 @@
       </c>
       <c r="F31" s="33"/>
       <c r="I31" s="33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
@@ -3416,10 +3396,10 @@
       </c>
       <c r="F32" s="33"/>
       <c r="I32" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J32" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K32" s="33"/>
       <c r="L32" s="33"/>
@@ -3446,10 +3426,10 @@
       </c>
       <c r="F33" s="33"/>
       <c r="I33" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J33" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="33"/>
@@ -3476,10 +3456,10 @@
       </c>
       <c r="F34" s="33"/>
       <c r="I34" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="33"/>
@@ -3506,10 +3486,10 @@
       </c>
       <c r="F35" s="33"/>
       <c r="I35" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J35" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
@@ -3536,14 +3516,14 @@
       </c>
       <c r="F36" s="33"/>
       <c r="I36" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J36" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K36" s="33"/>
       <c r="L36" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M36" s="33">
         <v>90</v>
@@ -3568,14 +3548,14 @@
       </c>
       <c r="F37" s="33"/>
       <c r="I37" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J37" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K37" s="33"/>
       <c r="L37" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M37" s="33">
         <v>90</v>
@@ -3667,7 +3647,7 @@
     </row>
     <row r="44" spans="3:15">
       <c r="C44" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="33"/>
       <c r="E44" s="33">
@@ -3677,22 +3657,22 @@
       <c r="F44" s="33"/>
     </row>
     <row r="45" spans="3:15">
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
     </row>
     <row r="46" spans="3:15">
       <c r="C46" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="33" t="s">
         <v>165</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>167</v>
       </c>
       <c r="F46" s="33"/>
     </row>
@@ -3750,7 +3730,7 @@
     </row>
     <row r="51" spans="3:6">
       <c r="C51" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="33">
@@ -3760,22 +3740,22 @@
       <c r="F51" s="33"/>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
     </row>
     <row r="53" spans="3:6">
       <c r="C53" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="33" t="s">
         <v>165</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>167</v>
       </c>
       <c r="F53" s="33"/>
     </row>
@@ -3950,7 +3930,7 @@
     </row>
     <row r="67" spans="3:6">
       <c r="C67" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D67" s="33"/>
       <c r="E67" s="33">
@@ -3960,22 +3940,22 @@
       <c r="F67" s="33"/>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="40" t="s">
+      <c r="C68" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="42"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="45"/>
     </row>
     <row r="69" spans="3:6">
       <c r="C69" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" s="33" t="s">
         <v>165</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>167</v>
       </c>
       <c r="F69" s="33"/>
     </row>
@@ -4007,7 +3987,7 @@
     </row>
     <row r="72" spans="3:6">
       <c r="C72" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="33">
@@ -4059,90 +4039,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17">
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="I2" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="K2" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="M2" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="O2" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="Q2" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="O2" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q2" s="51" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="4" spans="3:17">
-      <c r="C4" s="52" t="s">
-        <v>202</v>
+      <c r="C4" s="42" t="s">
+        <v>200</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>223</v>
+        <v>201</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>221</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>200</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="O4" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="O4" s="42" t="s">
+        <v>200</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="3:17">
       <c r="C6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>204</v>
+        <v>172</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="50" t="s">
-        <v>204</v>
+      <c r="H6" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>180</v>
-      </c>
-      <c r="L6" s="50" t="s">
-        <v>204</v>
+        <v>178</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="M6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O6" t="s">
         <v>103</v>
       </c>
-      <c r="P6" s="50" t="s">
-        <v>204</v>
+      <c r="P6" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="Q6" t="s">
         <v>103</v>
@@ -4150,37 +4130,37 @@
     </row>
     <row r="7" spans="3:17">
       <c r="C7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>204</v>
+        <v>173</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>204</v>
+        <v>176</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>204</v>
+        <v>179</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="M7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="50" t="s">
-        <v>204</v>
+      <c r="P7" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -4188,37 +4168,37 @@
     </row>
     <row r="8" spans="3:17">
       <c r="C8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>204</v>
+        <v>174</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="50" t="s">
-        <v>204</v>
+      <c r="H8" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>182</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>204</v>
+        <v>180</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="M8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O8" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="50" t="s">
-        <v>204</v>
+      <c r="P8" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="Q8" t="s">
         <v>18</v>
@@ -4226,163 +4206,163 @@
     </row>
     <row r="9" spans="3:17">
       <c r="C9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>204</v>
+        <v>175</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>204</v>
+      <c r="H9" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
-      </c>
-      <c r="L9" s="50" t="s">
-        <v>204</v>
+        <v>181</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="M9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O9" t="s">
-        <v>186</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>204</v>
+        <v>184</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="Q9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="3:17">
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>204</v>
+      <c r="D10" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>204</v>
+        <v>193</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="50" t="s">
-        <v>204</v>
+        <v>182</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="M10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O10" t="s">
-        <v>187</v>
-      </c>
-      <c r="P10" s="50" t="s">
-        <v>204</v>
+        <v>185</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="Q10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="3:17">
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>204</v>
+      <c r="D11" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="50" t="s">
-        <v>204</v>
+        <v>177</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K11" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="50" t="s">
-        <v>204</v>
+        <v>183</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="M11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O11" t="s">
-        <v>188</v>
-      </c>
-      <c r="P11" s="50" t="s">
-        <v>204</v>
+        <v>186</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="Q11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="3:17">
       <c r="C13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="I14" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="K14" s="41" t="s">
         <v>216</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="16" spans="3:17">
       <c r="C16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G16" t="s">
-        <v>236</v>
-      </c>
-      <c r="I16" s="52" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>234</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="3:18">
       <c r="C18" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
@@ -4390,8 +4370,8 @@
       <c r="I18" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="50" t="s">
-        <v>204</v>
+      <c r="J18" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="K18" t="s">
         <v>116</v>
@@ -4402,16 +4382,16 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I19" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="50" t="s">
-        <v>204</v>
+      <c r="J19" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="K19" t="s">
         <v>98</v>
@@ -4419,22 +4399,22 @@
     </row>
     <row r="20" spans="3:18">
       <c r="C20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>204</v>
+        <v>188</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="3:18">
@@ -4443,202 +4423,202 @@
       </c>
     </row>
     <row r="24" spans="3:18">
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="E24" s="51" t="s">
+      <c r="I24" s="41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18">
+      <c r="C26" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="R26" t="s">
         <v>218</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="I24" s="51" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18">
-      <c r="C26" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="R26" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="27" spans="3:18">
       <c r="R27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="3:18">
       <c r="C28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>204</v>
+        <v>191</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>204</v>
+        <v>195</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="3:18">
       <c r="C29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>204</v>
+        <v>192</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="3:18">
       <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="50" t="s">
-        <v>204</v>
+      <c r="D30" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E30" t="s">
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>204</v>
+        <v>197</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="3:18">
       <c r="C31" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="50" t="s">
-        <v>204</v>
+      <c r="D31" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E31" t="s">
         <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>200</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="3:18">
       <c r="C32" t="s">
-        <v>222</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>204</v>
+        <v>220</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
-        <v>201</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>204</v>
+        <v>199</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
-      </c>
-      <c r="L32" s="50"/>
+        <v>199</v>
+      </c>
+      <c r="L32" s="40"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>204</v>
+        <v>194</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G33" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="I33" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="H33" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="I33" t="s">
-        <v>213</v>
-      </c>
-      <c r="L33" s="50"/>
-    </row>
-    <row r="36" spans="3:12">
-      <c r="C36" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>216</v>
+      <c r="E36" s="41" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="3:12">
       <c r="C37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>204</v>
+        <v>187</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="C38" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>204</v>
+        <v>189</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="3:12">
       <c r="C39" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>204</v>
+        <v>190</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4662,16 +4642,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="18" t="s">
@@ -4706,10 +4686,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="17" t="s">
@@ -4752,10 +4732,10 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="17" t="s">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980E3B37-868D-4ECD-86ED-74068E4E3791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6116B3-EBF3-4131-B687-2ED28D3C06CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="1" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
-    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId2"/>
-    <sheet name="DiagramLayout" sheetId="2" r:id="rId3"/>
-    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId4"/>
-    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId5"/>
-    <sheet name="MinerOutputValues" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId2"/>
+    <sheet name="TurboFuelPowerProject" sheetId="10" r:id="rId3"/>
+    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId4"/>
+    <sheet name="DiagramLayout" sheetId="2" r:id="rId5"/>
+    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId6"/>
+    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId7"/>
+    <sheet name="MinerOutputValues" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="316">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -368,9 +370,6 @@
     <t>Computers</t>
   </si>
   <si>
-    <t>Circuit Board</t>
-  </si>
-  <si>
     <t>Motors (Stator + Rotor)</t>
   </si>
   <si>
@@ -518,15 +517,6 @@
     <t>480 Iron</t>
   </si>
   <si>
-    <t>16. Oil Site, Rubber Production focus</t>
-  </si>
-  <si>
-    <t>17. Computer Production</t>
-  </si>
-  <si>
-    <t>18. Turbofuel Powerplant, extend train to it.</t>
-  </si>
-  <si>
     <t>Grassland Regional Production</t>
   </si>
   <si>
@@ -725,12 +715,6 @@
     <t>Station 14</t>
   </si>
   <si>
-    <t>Every In Stations 5-14 Overflow to Storage</t>
-  </si>
-  <si>
-    <t>Overflow to Storage wont Exist in other Regional Train Hubs</t>
-  </si>
-  <si>
     <t>AI-Limiters</t>
   </si>
   <si>
@@ -740,9 +724,6 @@
     <t>Station 15</t>
   </si>
   <si>
-    <t>Aluminum Eventually at Oil Fields</t>
-  </si>
-  <si>
     <t>Boards</t>
   </si>
   <si>
@@ -755,9 +736,6 @@
     <t>Circuit Boards</t>
   </si>
   <si>
-    <t>15. Heavy Frames Site</t>
-  </si>
-  <si>
     <t>Split from Above into Specialty Sites</t>
   </si>
   <si>
@@ -774,13 +752,280 @@
   </si>
   <si>
     <t xml:space="preserve">In </t>
+  </si>
+  <si>
+    <t>Aluminum Eventually at Oil Fields, Soon, Almost out of Belts</t>
+  </si>
+  <si>
+    <t>Requirements to Build:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Compact Coal, 550/Minute </t>
+  </si>
+  <si>
+    <t>b.550/M Coal, 2 Normals Brought in @ Mk2 w/3 Shards Each = 6 shards</t>
+  </si>
+  <si>
+    <t>a. 550/M Sulfer, 2 Normals Brought In @ Mk2 w/3 Shards Each = 6 Shards. Far north one will be spaghetti.</t>
+  </si>
+  <si>
+    <t>Bring Train Track over to Site Location .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c. 22 Assemblers to create the Coal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 300 ml/M Oil. 1 Extractor with a single Shard nearby site. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">b.550/M Coal, 2 Normals Brought in @ Mk2 w/3 Shards Each = 6 shards, Maybe 4 Normal at 100%. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level 1 </t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil Comes in here. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Refineries , making Heavy Oil Residue.  1 Awesome sink for resin, Heavy up middle to lvl 3. </t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavy Residue In. Water In this level. </t>
+  </si>
+  <si>
+    <t>48 Power Storage</t>
+  </si>
+  <si>
+    <t>8 Blenders, Residue + Water in, Diluted Fuel Out up to Levels 4 &amp; 5</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Diluted Fuel into this Level. Compacted Coal into this Level</t>
+  </si>
+  <si>
+    <t>8 Water Extractors Level 1 , Mk1 Pipes, pipe to Level 3, Send Coal to Level 5</t>
+  </si>
+  <si>
+    <t>18 Refineries, Coal + Fuel in, Turbofuel out. Pipe Fuel up to level 6+</t>
+  </si>
+  <si>
+    <t>Diluted Fuel into this Level. Compacted Coal into this Level, Compacted Coal split up to level 5</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Level 6 - 15</t>
+  </si>
+  <si>
+    <t>16 Fuel Generators, 150MW per Generator, 2400MW per Floor</t>
+  </si>
+  <si>
+    <t>x9 = 150 Fuel Generators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assemblers </t>
+  </si>
+  <si>
+    <t>Water Extractors</t>
+  </si>
+  <si>
+    <t>Refineries</t>
+  </si>
+  <si>
+    <t>Blenders</t>
+  </si>
+  <si>
+    <t>Oil Extractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbofuel into these levels. Mk2 pipes carry Turbofuel </t>
+  </si>
+  <si>
+    <t>ReinforcedIronPlates</t>
+  </si>
+  <si>
+    <t>Cables</t>
+  </si>
+  <si>
+    <t>HeavyFrames</t>
+  </si>
+  <si>
+    <t>RadioControlUnit</t>
+  </si>
+  <si>
+    <t>Fuel Generators(PerFloor)</t>
+  </si>
+  <si>
+    <t>Totals w/ All Floors</t>
+  </si>
+  <si>
+    <t>Totals w/1 Floor</t>
+  </si>
+  <si>
+    <t>Shopping List To Start</t>
+  </si>
+  <si>
+    <t>40 Radio Control Units</t>
+  </si>
+  <si>
+    <t>Heavy Frames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Focus: </t>
+  </si>
+  <si>
+    <t>CrystalOscilator</t>
+  </si>
+  <si>
+    <t>AluminumCasing</t>
+  </si>
+  <si>
+    <t>Each Added Floor</t>
+  </si>
+  <si>
+    <t>Adding Computer + Heavy Sites will Feed Growing This</t>
+  </si>
+  <si>
+    <t>Special Tier 3 Sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computers </t>
+  </si>
+  <si>
+    <t>Modular Frame</t>
+  </si>
+  <si>
+    <t>Special Train Dropoff</t>
+  </si>
+  <si>
+    <t>2. Heavy Frame Temp Manufacturer at Train Hub</t>
+  </si>
+  <si>
+    <t>2b. Computer Temp Manufacturer at Train Hub</t>
+  </si>
+  <si>
+    <t>4. Turbofuel Powerplant, extend train to it.</t>
+  </si>
+  <si>
+    <t>5. Heavy Frames Site</t>
+  </si>
+  <si>
+    <t>6. Computer Production</t>
+  </si>
+  <si>
+    <t>Stations Need Add Soon:</t>
+  </si>
+  <si>
+    <t>Locomotive</t>
+  </si>
+  <si>
+    <t>Frieght  Car</t>
+  </si>
+  <si>
+    <t>Train Stations</t>
+  </si>
+  <si>
+    <t>Freight Stations</t>
+  </si>
+  <si>
+    <t>Beacons</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Totals for Train Expansions</t>
+  </si>
+  <si>
+    <t>Rubber Outbound</t>
+  </si>
+  <si>
+    <t>TurboFuel Station Site</t>
+  </si>
+  <si>
+    <t>Shopping List To Start Turbofuel</t>
+  </si>
+  <si>
+    <t>Shopping List for Train Stations</t>
+  </si>
+  <si>
+    <t>Start Making H Frames</t>
+  </si>
+  <si>
+    <t>Shopping List for Aluminum Mini Setup</t>
+  </si>
+  <si>
+    <t>1a. Need Mini Aluminum Site at Bauxite Node, Belts + Casing</t>
+  </si>
+  <si>
+    <t>1. Get Materials for Train Station Expansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Oil Site, Rubber Production , w /Aluminum Scrap Too </t>
+  </si>
+  <si>
+    <t>0. Extend Train to Oil Site</t>
+  </si>
+  <si>
+    <t>2 Refineries</t>
+  </si>
+  <si>
+    <t>480 Solution Out</t>
+  </si>
+  <si>
+    <t>12 Rubber Refineries</t>
+  </si>
+  <si>
+    <t>2 Plastic Refineries</t>
+  </si>
+  <si>
+    <t>300 Residue Out</t>
+  </si>
+  <si>
+    <t>240 Coke made by 2 Refineries using 80 Heavy Residue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 Refineries gets to 1200 Scrap </t>
+  </si>
+  <si>
+    <t>Produces 420 Water Out</t>
+  </si>
+  <si>
+    <t>220 Residue Remaining</t>
+  </si>
+  <si>
+    <t>420 Water Remaining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Blenders? 20 Residue and 20 Water Remaining, </t>
+  </si>
+  <si>
+    <t>2 Scrap Refineries, uses 120 Coke</t>
+  </si>
+  <si>
+    <t>1 Mk2 , 2 shards</t>
+  </si>
+  <si>
+    <t>4 Water Extractors</t>
+  </si>
+  <si>
+    <t>80 Excess Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,8 +1103,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF1A1A1B"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF1A1A1B"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,8 +1220,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1206,6 +1493,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1217,7 +1524,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1294,12 +1601,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1347,6 +1648,36 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -1940,250 +2271,662 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:L25"/>
+  <dimension ref="C1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="54"/>
+    <col min="3" max="3" width="70.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="54" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" style="54" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="54" customWidth="1"/>
+    <col min="15" max="15" width="24" style="54" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="15.75" thickBot="1"/>
-    <row r="2" spans="3:12" ht="44.25" thickTop="1" thickBot="1">
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="3" t="s">
+    <row r="1" spans="3:15" ht="19.5" thickBot="1"/>
+    <row r="2" spans="3:15" ht="20.25" thickTop="1" thickBot="1">
+      <c r="D2" s="55"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="3:15" ht="19.5" thickTop="1">
+      <c r="E3" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15">
+      <c r="C4" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="67">
+        <v>3</v>
+      </c>
+      <c r="G4" s="67">
+        <f>F4*5</f>
+        <v>15</v>
+      </c>
+      <c r="H4" s="67">
+        <f>F4*10</f>
+        <v>30</v>
+      </c>
+      <c r="I4" s="67">
+        <f>F4*15</f>
+        <v>45</v>
+      </c>
+      <c r="J4" s="67">
+        <f>F4*5</f>
+        <v>15</v>
+      </c>
+      <c r="K4" s="67">
+        <f>F4*5</f>
+        <v>15</v>
+      </c>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="C5" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="67">
+        <v>12</v>
+      </c>
+      <c r="G5" s="67">
+        <f>F5*4</f>
+        <v>48</v>
+      </c>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67">
+        <f>F5*10</f>
+        <v>120</v>
+      </c>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" s="57" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="C9" s="57" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="C10" s="57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="C13" s="57" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="C14" s="61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="C15" s="57" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" ht="19.5" thickBot="1"/>
+    <row r="17" spans="3:15" ht="20.25" thickTop="1" thickBot="1">
+      <c r="C17" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="9" t="s">
+    </row>
+    <row r="18" spans="3:15" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C18" s="63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" ht="43.5" thickTop="1" thickBot="1">
+      <c r="C19" s="63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C20" s="63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C21" s="63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23" s="64" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="C24" s="65">
+        <v>3</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="L24" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="M24" s="66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="C25" s="65">
+        <v>4</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" s="67">
+        <v>3</v>
+      </c>
+      <c r="G25" s="67">
+        <f>F25*5</f>
+        <v>15</v>
+      </c>
+      <c r="H25" s="67">
+        <f>F25*10</f>
+        <v>30</v>
+      </c>
+      <c r="I25" s="67">
+        <f>F25*15</f>
+        <v>45</v>
+      </c>
+      <c r="J25" s="67">
+        <f>F25*5</f>
+        <v>15</v>
+      </c>
+      <c r="K25" s="67">
+        <f>F25*5</f>
+        <v>15</v>
+      </c>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+    </row>
+    <row r="26" spans="3:15">
+      <c r="C26" s="65">
+        <v>5</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="67">
+        <v>12</v>
+      </c>
+      <c r="G26" s="67">
+        <f>F26*4</f>
+        <v>48</v>
+      </c>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67">
+        <f>F26*10</f>
+        <v>120</v>
+      </c>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+    </row>
+    <row r="27" spans="3:15">
+      <c r="C27" s="65">
+        <v>6</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="F27" s="67">
+        <v>10</v>
+      </c>
+      <c r="G27" s="67">
+        <f>F27*4</f>
+        <v>40</v>
+      </c>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67">
+        <f>F27*8</f>
+        <v>80</v>
+      </c>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67">
+        <f>F27*25</f>
+        <v>250</v>
+      </c>
+      <c r="M27" s="67">
+        <f>F27*50</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15">
+      <c r="C28" s="65">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" ht="15.75" thickTop="1">
-      <c r="C3" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12">
-      <c r="C4" s="29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
-      <c r="C5" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="F7" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="15.75" thickBot="1">
-      <c r="E9" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="28" t="s">
+      <c r="E28" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" s="67">
+        <v>54</v>
+      </c>
+      <c r="G28" s="67">
+        <f>F28*6</f>
+        <v>324</v>
+      </c>
+      <c r="H28" s="67">
+        <f>F28*5</f>
+        <v>270</v>
+      </c>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67">
+        <f>F28*2</f>
+        <v>108</v>
+      </c>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67">
+        <f>F28*25</f>
+        <v>1350</v>
+      </c>
+      <c r="M28" s="67">
+        <f>F28*50</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15">
+      <c r="C29" s="65">
+        <v>8</v>
+      </c>
+      <c r="E29" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67">
+        <f>SUM(G25:G28)</f>
+        <v>427</v>
+      </c>
+      <c r="H29" s="67">
+        <f>SUM(H25:H28)</f>
+        <v>300</v>
+      </c>
+      <c r="I29" s="67">
+        <f>SUM(I25:I28)</f>
+        <v>165</v>
+      </c>
+      <c r="J29" s="67">
+        <f>SUM(J25:J28)</f>
+        <v>203</v>
+      </c>
+      <c r="K29" s="67">
+        <f>SUM(K25:K28)</f>
+        <v>15</v>
+      </c>
+      <c r="L29" s="67">
+        <f>SUM(L25:L28)</f>
+        <v>1600</v>
+      </c>
+      <c r="M29" s="67">
+        <f>SUM(M25:M28)</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15">
+      <c r="C30" s="65">
+        <v>9</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15">
+      <c r="C31" s="65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15">
+      <c r="C32" s="65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21">
+      <c r="C33" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+    </row>
+    <row r="34" spans="3:21">
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="3:21">
+      <c r="E35" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="L35" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="O35" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="F10" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="12" spans="3:12" ht="17.25" thickBot="1">
-      <c r="E12" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="15.75" thickTop="1">
-      <c r="F13" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" ht="15.75" thickBot="1">
-      <c r="F15" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C16" s="3" t="s">
+      <c r="P35" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="R35" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="S35" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21">
+      <c r="E36"/>
+      <c r="F36" s="52">
+        <v>256</v>
+      </c>
+      <c r="G36" s="52">
         <v>112</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C17" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C18" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11">
-      <c r="I19" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" ht="15.75" thickBot="1">
-      <c r="E20" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" ht="17.25" thickBot="1">
-      <c r="I21" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" ht="15.75" thickTop="1">
-      <c r="I22" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" ht="15.75" thickBot="1"/>
-    <row r="24" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C24" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" ht="18" thickTop="1" thickBot="1">
-      <c r="C25" s="31" t="s">
+      <c r="H36" s="52">
+        <v>280</v>
+      </c>
+      <c r="I36" s="52">
+        <v>770</v>
+      </c>
+      <c r="J36" s="52">
+        <v>480</v>
+      </c>
+      <c r="K36" s="52">
+        <v>1080</v>
+      </c>
+      <c r="L36" s="52">
+        <v>170</v>
+      </c>
+      <c r="M36" s="52">
+        <v>656</v>
+      </c>
+      <c r="N36" s="52">
+        <v>40</v>
+      </c>
+      <c r="O36" s="52">
+        <v>1380</v>
+      </c>
+      <c r="P36" s="52">
+        <v>450</v>
+      </c>
+      <c r="Q36" s="52">
+        <v>85</v>
+      </c>
+      <c r="R36" s="52">
+        <v>450</v>
+      </c>
+      <c r="S36" s="52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21">
+      <c r="E37" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+    </row>
+    <row r="38" spans="3:21">
+      <c r="E38" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+    </row>
+    <row r="39" spans="3:21">
+      <c r="E39" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="H39" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="I25" s="27" t="s">
-        <v>103</v>
-      </c>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+    </row>
+    <row r="40" spans="3:21">
+      <c r="E40" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="52">
+        <v>40</v>
+      </c>
+      <c r="G40" s="52">
+        <v>256</v>
+      </c>
+      <c r="H40" s="52">
+        <v>40</v>
+      </c>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+    </row>
+    <row r="41" spans="3:21">
+      <c r="E41" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+    </row>
+    <row r="44" spans="3:21">
+      <c r="T44"/>
+      <c r="U44"/>
+    </row>
+    <row r="45" spans="3:21">
+      <c r="T45"/>
+      <c r="U45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2192,14 +2935,785 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA72F07-7FC2-48EA-B4C4-87606FFA9C77}">
+  <dimension ref="C4:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9464A97-F3A0-43AE-B1BD-70344C117AC7}">
+  <dimension ref="C3:U40"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:U23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="0.28515625" customWidth="1"/>
+    <col min="3" max="3" width="95.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:21">
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21">
+      <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="O5" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q5" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="T5" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21">
+      <c r="E6" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="52">
+        <v>1</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52">
+        <f>F6*60</f>
+        <v>60</v>
+      </c>
+      <c r="K6" s="52">
+        <f>F6*15</f>
+        <v>15</v>
+      </c>
+      <c r="L6" s="52">
+        <f>F6*20</f>
+        <v>20</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+    </row>
+    <row r="7" spans="3:21">
+      <c r="C7" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="52">
+        <v>22</v>
+      </c>
+      <c r="H7" s="52">
+        <f>F7*8</f>
+        <v>176</v>
+      </c>
+      <c r="I7" s="52">
+        <f>F8*4</f>
+        <v>32</v>
+      </c>
+      <c r="J7" s="52">
+        <f>F7*10</f>
+        <v>220</v>
+      </c>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+    </row>
+    <row r="8" spans="3:21">
+      <c r="C8" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="52">
+        <v>8</v>
+      </c>
+      <c r="H8" s="52">
+        <f>F8*10</f>
+        <v>80</v>
+      </c>
+      <c r="I8" s="52">
+        <f>F8*10</f>
+        <v>80</v>
+      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52">
+        <f>F8*20</f>
+        <v>160</v>
+      </c>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+    </row>
+    <row r="9" spans="3:21">
+      <c r="C9" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="52">
+        <v>8</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52">
+        <f>F9*20</f>
+        <v>160</v>
+      </c>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52">
+        <f>F9*10</f>
+        <v>80</v>
+      </c>
+      <c r="O9" s="52">
+        <f>F9*50</f>
+        <v>400</v>
+      </c>
+      <c r="P9" s="52">
+        <f>F9*5</f>
+        <v>40</v>
+      </c>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+    </row>
+    <row r="10" spans="3:21">
+      <c r="C10" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="52">
+        <v>46</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52">
+        <f>F10*10</f>
+        <v>460</v>
+      </c>
+      <c r="L10" s="52">
+        <f>F10*10</f>
+        <v>460</v>
+      </c>
+      <c r="M10" s="52">
+        <f>F10*20</f>
+        <v>920</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52">
+        <f>F10*30</f>
+        <v>1380</v>
+      </c>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+    </row>
+    <row r="11" spans="3:21">
+      <c r="E11" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="52">
+        <v>9</v>
+      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52">
+        <f>F11*15</f>
+        <v>135</v>
+      </c>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52">
+        <f>F11*10</f>
+        <v>90</v>
+      </c>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52">
+        <f>F11*50</f>
+        <v>450</v>
+      </c>
+      <c r="S11" s="52">
+        <f>F11*5</f>
+        <v>45</v>
+      </c>
+      <c r="T11" s="52">
+        <f>F11*50</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21">
+      <c r="C12" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="52"/>
+      <c r="H12" s="52">
+        <f>SUM(H6:H11)</f>
+        <v>256</v>
+      </c>
+      <c r="I12" s="52">
+        <f>SUM(I6:I11)</f>
+        <v>112</v>
+      </c>
+      <c r="J12" s="52">
+        <f>SUM(J6:J11)</f>
+        <v>280</v>
+      </c>
+      <c r="K12" s="52">
+        <f>SUM(K6:K11)</f>
+        <v>770</v>
+      </c>
+      <c r="L12" s="52">
+        <f>SUM(L6:L11)</f>
+        <v>480</v>
+      </c>
+      <c r="M12" s="52">
+        <f>SUM(M6:M11)</f>
+        <v>1080</v>
+      </c>
+      <c r="N12" s="52">
+        <f>SUM(N6:N11)</f>
+        <v>170</v>
+      </c>
+      <c r="O12" s="52">
+        <f>SUM(O6:O11)</f>
+        <v>400</v>
+      </c>
+      <c r="P12" s="52">
+        <f>SUM(P6:P11)</f>
+        <v>40</v>
+      </c>
+      <c r="Q12" s="52">
+        <f>SUM(Q6:Q11)</f>
+        <v>1380</v>
+      </c>
+      <c r="R12" s="52">
+        <f>SUM(R6:R11)</f>
+        <v>450</v>
+      </c>
+      <c r="S12" s="52">
+        <f>SUM(S6:S11)</f>
+        <v>45</v>
+      </c>
+      <c r="T12" s="52">
+        <f>SUM(T6:T11)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="H13" s="52">
+        <f>H12+(H11*8)</f>
+        <v>256</v>
+      </c>
+      <c r="I13" s="52">
+        <f t="shared" ref="I13:T13" si="0">I12+(I11*8)</f>
+        <v>112</v>
+      </c>
+      <c r="J13" s="52">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="K13" s="52">
+        <f t="shared" si="0"/>
+        <v>1850</v>
+      </c>
+      <c r="L13" s="52">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="M13" s="52">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="N13" s="52">
+        <f t="shared" si="0"/>
+        <v>890</v>
+      </c>
+      <c r="O13" s="52">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="P13" s="52">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Q13" s="52">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="R13" s="52">
+        <f t="shared" si="0"/>
+        <v>4050</v>
+      </c>
+      <c r="S13" s="52">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="T13" s="52">
+        <f t="shared" si="0"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21">
+      <c r="C15" s="50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21">
+      <c r="H16" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="M16" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="N16" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="O16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q16" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="R16" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="T16" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="U16" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21">
+      <c r="C17" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="52">
+        <v>256</v>
+      </c>
+      <c r="I17" s="52">
+        <v>112</v>
+      </c>
+      <c r="J17" s="52">
+        <v>280</v>
+      </c>
+      <c r="K17" s="52">
+        <v>770</v>
+      </c>
+      <c r="L17" s="52">
+        <v>480</v>
+      </c>
+      <c r="M17" s="52">
+        <v>1080</v>
+      </c>
+      <c r="N17" s="52">
+        <v>170</v>
+      </c>
+      <c r="O17" s="52">
+        <v>656</v>
+      </c>
+      <c r="P17" s="52">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="52">
+        <v>1380</v>
+      </c>
+      <c r="R17" s="52">
+        <v>450</v>
+      </c>
+      <c r="S17" s="52">
+        <v>85</v>
+      </c>
+      <c r="T17" s="52">
+        <v>450</v>
+      </c>
+      <c r="U17" s="52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21">
+      <c r="C18" s="50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21">
+      <c r="E19" s="53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21">
+      <c r="C20" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21">
+      <c r="C21" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="H21" s="52">
+        <v>40</v>
+      </c>
+      <c r="I21" s="52">
+        <v>256</v>
+      </c>
+      <c r="J21" s="52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="C22" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21">
+      <c r="E23" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21">
+      <c r="C25" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="C26" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="J26" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21">
+      <c r="C27" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="52"/>
+      <c r="H27" s="52">
+        <v>135</v>
+      </c>
+      <c r="I27" s="52">
+        <v>90</v>
+      </c>
+      <c r="J27" s="52">
+        <v>450</v>
+      </c>
+      <c r="K27" s="52">
+        <v>45</v>
+      </c>
+      <c r="L27" s="52">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="C29" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21">
+      <c r="C30" s="50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21">
+      <c r="C31" s="50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="49" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882FF9CB-C54B-4DF7-BCB6-6C966AE969A7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:H79"/>
+  <dimension ref="C1:T79"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2211,13 +3725,21 @@
     <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="9" customHeight="1"/>
-    <row r="2" spans="3:8" ht="9" customHeight="1" thickBot="1"/>
-    <row r="3" spans="3:8" ht="63.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="3:20" ht="9" customHeight="1"/>
+    <row r="2" spans="3:20" ht="9" customHeight="1" thickBot="1"/>
+    <row r="3" spans="3:20" ht="63.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2236,8 +3758,35 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
+      <c r="J3" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
@@ -2256,8 +3805,25 @@
       <c r="H4" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" ht="51" thickTop="1" thickBot="1">
+      <c r="J4" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+    </row>
+    <row r="5" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
@@ -2276,67 +3842,224 @@
       <c r="H5" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="S5" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" ht="51" thickTop="1" thickBot="1">
+      <c r="J6" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+    </row>
+    <row r="7" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" ht="51" thickTop="1" thickBot="1">
+      <c r="J7" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+    </row>
+    <row r="8" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F8" s="25" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
+      <c r="J8" s="54"/>
+      <c r="K8" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+    </row>
+    <row r="9" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="F9" s="25" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" ht="18" thickTop="1" thickBot="1">
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="59" t="s">
+        <v>276</v>
+      </c>
+      <c r="S9" s="54"/>
+      <c r="T9" s="60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" ht="51" thickTop="1" thickBot="1">
+      <c r="J10" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+    </row>
+    <row r="11" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" ht="18" thickTop="1" thickBot="1">
+      <c r="J11" s="54"/>
+      <c r="K11" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+    </row>
+    <row r="12" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="3:8" ht="51" thickTop="1" thickBot="1">
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+    </row>
+    <row r="13" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" ht="18" thickTop="1" thickBot="1">
+      <c r="J13" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="54"/>
+    </row>
+    <row r="14" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
@@ -2352,18 +4075,63 @@
       <c r="G14" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" ht="18" thickTop="1" thickBot="1">
+      <c r="J14" s="54"/>
+      <c r="K14" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="O14" s="54"/>
+      <c r="P14" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+    </row>
+    <row r="15" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F15" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" ht="18" thickTop="1" thickBot="1">
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+    </row>
+    <row r="16" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
+      <c r="J16" s="54"/>
+      <c r="K16" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="O16" s="54"/>
+      <c r="P16" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+    </row>
+    <row r="17" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -2376,9 +4144,36 @@
       <c r="F17" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" ht="15.75" thickBot="1"/>
-    <row r="19" spans="3:8" ht="18" thickTop="1" thickBot="1">
+      <c r="J17" s="54"/>
+      <c r="K17" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+    </row>
+    <row r="18" spans="3:20" ht="19.5" thickBot="1">
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+    </row>
+    <row r="19" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
       <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
@@ -2394,27 +4189,92 @@
       <c r="G19" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" ht="17.25" thickBot="1">
+      <c r="J19" s="54"/>
+      <c r="K19" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+    </row>
+    <row r="20" spans="3:20" ht="19.5" thickBot="1">
       <c r="F20" s="26" t="s">
         <v>96</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+    </row>
+    <row r="21" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F21" s="25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" thickBot="1"/>
-    <row r="23" spans="3:8" ht="18" thickTop="1" thickBot="1">
+      <c r="J21" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+    </row>
+    <row r="22" spans="3:20" ht="21.75" thickBot="1">
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+    </row>
+    <row r="23" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>7</v>
@@ -2425,10 +4285,23 @@
       <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" ht="18" thickTop="1" thickBot="1">
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+    </row>
+    <row r="24" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="D24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
@@ -2439,18 +4312,59 @@
       <c r="G24" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="3:8" ht="18" thickTop="1" thickBot="1">
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+    </row>
+    <row r="25" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
       <c r="F25" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+    </row>
+    <row r="26" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="F26" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="3:8" ht="18" thickTop="1" thickBot="1">
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+    </row>
+    <row r="27" spans="3:20" ht="18" thickTop="1" thickBot="1">
       <c r="C27" s="8" t="s">
         <v>15</v>
       </c>
@@ -2467,7 +4381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="18" thickTop="1" thickBot="1">
+    <row r="28" spans="3:20" ht="18" thickTop="1" thickBot="1">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -2479,7 +4393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="18" thickTop="1" thickBot="1">
+    <row r="29" spans="3:20" ht="18" thickTop="1" thickBot="1">
       <c r="D29" s="6" t="s">
         <v>48</v>
       </c>
@@ -2490,8 +4404,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="15.75" thickBot="1"/>
-    <row r="31" spans="3:8" ht="34.5" thickTop="1" thickBot="1">
+    <row r="30" spans="3:20" ht="15.75" thickBot="1"/>
+    <row r="31" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="C31" s="11" t="s">
         <v>23</v>
       </c>
@@ -2502,7 +4416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="18" thickTop="1" thickBot="1">
+    <row r="32" spans="3:20" ht="18" thickTop="1" thickBot="1">
       <c r="C32" s="11" t="s">
         <v>16</v>
       </c>
@@ -2608,7 +4522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A19:A39"/>
   <sheetViews>
@@ -2631,7 +4545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
   <dimension ref="C3:S72"/>
   <sheetViews>
@@ -2661,1340 +4575,1340 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="23.25">
-      <c r="C3" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
+      <c r="C3" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="3:19">
       <c r="O4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19">
+      <c r="C5" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+    </row>
+    <row r="6" spans="3:19">
+      <c r="C6" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="29">
+        <v>10</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2</v>
+      </c>
+      <c r="F6" s="29">
+        <v>6</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="35" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="3:19">
-      <c r="C5" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-    </row>
-    <row r="6" spans="3:19">
-      <c r="C6" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="33">
-        <v>10</v>
-      </c>
-      <c r="E6" s="33">
-        <v>2</v>
-      </c>
-      <c r="F6" s="33">
+      <c r="O6" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="C7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="29">
+        <v>9</v>
+      </c>
+      <c r="E7" s="29">
+        <v>4</v>
+      </c>
+      <c r="F7" s="29">
         <v>6</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G7" s="29">
         <v>0</v>
       </c>
-      <c r="I6" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="O6" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="3:19">
-      <c r="C7" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="33">
-        <v>9</v>
-      </c>
-      <c r="E7" s="33">
-        <v>4</v>
-      </c>
-      <c r="F7" s="33">
-        <v>6</v>
-      </c>
-      <c r="G7" s="33">
-        <v>0</v>
-      </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="33">
         <v>120</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="33">
         <f>D16</f>
         <v>440</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="33">
         <f>E16</f>
         <v>1100</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="33">
         <f>ROUNDDOWN(L7/J7,0)</f>
         <v>9</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="33">
         <f>ROUNDDOWN(600/J7,0)</f>
         <v>5</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="34">
         <f>M7/3</f>
         <v>3</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="33">
         <f>J7*3</f>
         <v>360</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="33">
         <f>P7*O7</f>
         <v>1080</v>
       </c>
-      <c r="R7" s="36"/>
+      <c r="R7" s="32"/>
     </row>
     <row r="8" spans="3:19">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="29">
         <v>0</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="29">
         <v>0</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="29">
         <v>1</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="29">
         <v>2</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="33">
         <v>240</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="33">
         <f>D9</f>
         <v>1680</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="33">
         <f>D10</f>
         <v>4200</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="33">
         <f>ROUNDDOWN(L8/J8,0)</f>
         <v>17</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="33">
         <f>ROUNDDOWN(L8/J8,0)</f>
         <v>17</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="33">
         <v>10</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="33">
         <v>720</v>
       </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="36"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="32"/>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="29">
         <f>E44</f>
         <v>1680</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="29">
         <f>E51</f>
         <v>600</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="29">
         <f>E67</f>
         <v>1320</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="29">
         <f>E72</f>
         <v>480</v>
       </c>
-      <c r="I9" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="I9" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
     </row>
     <row r="10" spans="3:19">
-      <c r="C10" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="33">
+      <c r="C10" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="29">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (D8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
         <v>4200</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="29">
         <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (E7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (E8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
         <v>1500</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="29">
         <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (F8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
         <v>3300</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="29">
         <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (G8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
         <v>1200</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="I10" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
     </row>
     <row r="11" spans="3:19">
-      <c r="C11" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="33">
+      <c r="C11" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="29">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>8400</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="29">
         <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (E7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (E8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>3000</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="29">
         <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (F8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>6120</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="29">
         <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (G8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>1440</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
     </row>
     <row r="12" spans="3:19">
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
     </row>
     <row r="13" spans="3:19">
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="C14" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="E15" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
     </row>
     <row r="16" spans="3:19">
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="29">
         <f>SUM((F9/45)*15)</f>
         <v>440</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="29">
         <f>SUM((F10/45)*15)</f>
         <v>1100</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="29">
         <f>SUM((F11/45)*15)</f>
         <v>2040</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
     </row>
     <row r="17" spans="3:18">
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="29">
         <f>SUM((E9/50)*100)</f>
         <v>1200</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="29">
         <f>SUM((E10/50)*100)</f>
         <v>3000</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="29">
         <f>SUM((E11/50)*100)</f>
         <v>6000</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
     </row>
     <row r="18" spans="3:18">
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="29">
         <f>SUM((G9/40)*60)</f>
         <v>720</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="29">
         <f>SUM((G10/40)*60)</f>
         <v>1800</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="29">
         <f>SUM((G11/40)*60)</f>
         <v>2160</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
     </row>
     <row r="19" spans="3:18">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="29">
         <f>SUM(D9-(E9/2)-G9)</f>
         <v>900</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="29">
         <f>SUM(D10-(E10/2)-G10)</f>
         <v>2250</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="31">
         <f>SUM(D11-(E11/2)-G11)</f>
         <v>5460</v>
       </c>
-      <c r="I19" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
+      <c r="I19" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
     </row>
     <row r="20" spans="3:18">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="29">
         <f>SUM((D19/30)*30)</f>
         <v>900</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="29">
         <f>SUM((E19/30)*30)</f>
         <v>2250</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="31">
         <f>SUM((F19/30)*30)</f>
         <v>5460</v>
       </c>
-      <c r="I20" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
+      <c r="I20" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
     </row>
     <row r="21" spans="3:18">
-      <c r="I21" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
+      <c r="I21" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
     </row>
     <row r="22" spans="3:18">
-      <c r="C22" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="I22" s="36" t="s">
+      <c r="C22" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="I22" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
     </row>
     <row r="24" spans="3:18">
-      <c r="C24" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="33"/>
+      <c r="C24" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="3:18">
-      <c r="C25" s="33">
+      <c r="C25" s="29">
         <v>60</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="29">
         <v>1</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="29">
         <f>C25*D25</f>
         <v>60</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="3:18">
-      <c r="C26" s="33">
+      <c r="C26" s="29">
         <v>60</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="29">
         <v>1</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="29">
         <f t="shared" ref="E26:E43" si="0">C26*D26</f>
         <v>60</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="I26" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
+      <c r="F26" s="29"/>
+      <c r="I26" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
     </row>
     <row r="27" spans="3:18">
-      <c r="C27" s="33">
+      <c r="C27" s="29">
         <v>60</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="29">
         <v>1</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="29">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="I27" s="34" t="s">
+      <c r="F27" s="29"/>
+      <c r="I27" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34" t="s">
+      <c r="M27" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="M27" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="N27" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="O27" s="34" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="28" spans="3:18">
-      <c r="C28" s="33">
+      <c r="C28" s="29">
         <v>60</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="29">
         <v>1</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="29">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="I28" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
+      <c r="F28" s="29"/>
+      <c r="I28" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
     </row>
     <row r="29" spans="3:18">
-      <c r="C29" s="33">
+      <c r="C29" s="29">
         <v>60</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="29">
         <v>1</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="29">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="I29" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
+      <c r="F29" s="29"/>
+      <c r="I29" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
     </row>
     <row r="30" spans="3:18">
-      <c r="C30" s="33">
+      <c r="C30" s="29">
         <v>60</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D30" s="29">
         <v>1</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="29">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="I30" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
+      <c r="F30" s="29"/>
+      <c r="I30" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
     </row>
     <row r="31" spans="3:18">
-      <c r="C31" s="33">
+      <c r="C31" s="29">
         <v>60</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="29">
         <v>1</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="29">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="I31" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
+      <c r="F31" s="29"/>
+      <c r="I31" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
     </row>
     <row r="32" spans="3:18">
-      <c r="C32" s="33">
+      <c r="C32" s="29">
         <v>60</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="29">
         <v>1</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="29">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="I32" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33">
+      <c r="F32" s="29"/>
+      <c r="I32" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29">
         <v>5.625</v>
       </c>
-      <c r="N32" s="33">
+      <c r="N32" s="29">
         <v>5</v>
       </c>
-      <c r="O32" s="33">
+      <c r="O32" s="29">
         <v>28.125</v>
       </c>
     </row>
     <row r="33" spans="3:15">
-      <c r="C33" s="33">
+      <c r="C33" s="29">
         <v>60</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="29">
         <v>1</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="29">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="I33" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33">
+      <c r="F33" s="29"/>
+      <c r="I33" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29">
         <v>20</v>
       </c>
-      <c r="N33" s="33">
+      <c r="N33" s="29">
         <v>12</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="29">
         <v>240</v>
       </c>
     </row>
     <row r="34" spans="3:15">
-      <c r="C34" s="33">
+      <c r="C34" s="29">
         <v>60</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D34" s="29">
         <v>1</v>
       </c>
-      <c r="E34" s="33">
+      <c r="E34" s="29">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="I34" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33">
+      <c r="F34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29">
         <v>15</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="29">
         <v>3</v>
       </c>
-      <c r="O34" s="33">
+      <c r="O34" s="29">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="3:15">
-      <c r="C35" s="33">
+      <c r="C35" s="29">
         <v>120</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="29">
         <v>1</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="I35" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="J35" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33">
+      <c r="F35" s="29"/>
+      <c r="I35" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29">
         <v>20</v>
       </c>
-      <c r="N35" s="33">
+      <c r="N35" s="29">
         <v>24</v>
       </c>
-      <c r="O35" s="33">
+      <c r="O35" s="29">
         <v>480</v>
       </c>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="33">
+      <c r="C36" s="29">
         <v>120</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="29">
         <v>1</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="I36" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="M36" s="33">
+      <c r="F36" s="29"/>
+      <c r="I36" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="M36" s="29">
         <v>90</v>
       </c>
-      <c r="N36" s="33">
+      <c r="N36" s="29">
         <v>16</v>
       </c>
-      <c r="O36" s="33">
+      <c r="O36" s="29">
         <v>1440</v>
       </c>
     </row>
     <row r="37" spans="3:15">
-      <c r="C37" s="33">
+      <c r="C37" s="29">
         <v>120</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="29">
         <v>1</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="I37" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="J37" s="33" t="s">
+      <c r="F37" s="29"/>
+      <c r="I37" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="M37" s="33">
+      <c r="M37" s="29">
         <v>90</v>
       </c>
-      <c r="N37" s="33">
+      <c r="N37" s="29">
         <v>14</v>
       </c>
-      <c r="O37" s="33">
+      <c r="O37" s="29">
         <v>1260</v>
       </c>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="33">
+      <c r="C38" s="29">
         <v>120</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D38" s="29">
         <v>1</v>
       </c>
-      <c r="E38" s="33">
+      <c r="E38" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F38" s="33"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="3:15">
-      <c r="C39" s="33">
+      <c r="C39" s="29">
         <v>120</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="29">
         <v>1</v>
       </c>
-      <c r="E39" s="33">
+      <c r="E39" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F39" s="33"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="3:15">
-      <c r="C40" s="33">
+      <c r="C40" s="29">
         <v>120</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D40" s="29">
         <v>1</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F40" s="33"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="C41" s="33">
+      <c r="C41" s="29">
         <v>120</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="29">
         <v>1</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F41" s="33"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="3:15">
-      <c r="C42" s="33">
+      <c r="C42" s="29">
         <v>120</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="29">
         <v>1</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F42" s="33"/>
+      <c r="F42" s="29"/>
     </row>
     <row r="43" spans="3:15">
-      <c r="C43" s="33">
+      <c r="C43" s="29">
         <v>120</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="29">
         <v>1</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F43" s="33"/>
+      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="3:15">
-      <c r="C44" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33">
+      <c r="C44" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29">
         <f>SUM(E25:E43)</f>
         <v>1680</v>
       </c>
-      <c r="F44" s="33"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="3:15">
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
     </row>
     <row r="46" spans="3:15">
-      <c r="C46" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="F46" s="33"/>
+      <c r="C46" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="29"/>
     </row>
     <row r="47" spans="3:15">
-      <c r="C47" s="33">
+      <c r="C47" s="29">
         <v>120</v>
       </c>
-      <c r="D47" s="33">
+      <c r="D47" s="29">
         <v>1</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="29">
         <f>C47*D47</f>
         <v>120</v>
       </c>
-      <c r="F47" s="33"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="3:15">
-      <c r="C48" s="33">
+      <c r="C48" s="29">
         <v>120</v>
       </c>
-      <c r="D48" s="33">
+      <c r="D48" s="29">
         <v>1</v>
       </c>
-      <c r="E48" s="33">
+      <c r="E48" s="29">
         <f t="shared" ref="E48:E50" si="1">C48*D48</f>
         <v>120</v>
       </c>
-      <c r="F48" s="33"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="3:6">
-      <c r="C49" s="33">
+      <c r="C49" s="29">
         <v>120</v>
       </c>
-      <c r="D49" s="33">
+      <c r="D49" s="29">
         <v>1.5</v>
       </c>
-      <c r="E49" s="33">
+      <c r="E49" s="29">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F49" s="33"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="3:6">
-      <c r="C50" s="33">
+      <c r="C50" s="29">
         <v>120</v>
       </c>
-      <c r="D50" s="33">
+      <c r="D50" s="29">
         <v>1.5</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E50" s="29">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F50" s="33"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="3:6">
-      <c r="C51" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33">
+      <c r="C51" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29">
         <f>SUM(E47:E50)</f>
         <v>600</v>
       </c>
-      <c r="F51" s="33"/>
+      <c r="F51" s="29"/>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="41"/>
     </row>
     <row r="53" spans="3:6">
-      <c r="C53" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="F53" s="33"/>
+      <c r="C53" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="3:6">
-      <c r="C54" s="33">
+      <c r="C54" s="29">
         <v>60</v>
       </c>
-      <c r="D54" s="33">
+      <c r="D54" s="29">
         <v>1</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E54" s="29">
         <f>C54*D54</f>
         <v>60</v>
       </c>
-      <c r="F54" s="33"/>
+      <c r="F54" s="29"/>
     </row>
     <row r="55" spans="3:6">
-      <c r="C55" s="33">
+      <c r="C55" s="29">
         <v>60</v>
       </c>
-      <c r="D55" s="33">
+      <c r="D55" s="29">
         <v>1</v>
       </c>
-      <c r="E55" s="33">
+      <c r="E55" s="29">
         <f t="shared" ref="E55:E57" si="2">C55*D55</f>
         <v>60</v>
       </c>
-      <c r="F55" s="33"/>
+      <c r="F55" s="29"/>
     </row>
     <row r="56" spans="3:6">
-      <c r="C56" s="33">
+      <c r="C56" s="29">
         <v>60</v>
       </c>
-      <c r="D56" s="33">
+      <c r="D56" s="29">
         <v>1</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="29">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F56" s="33"/>
+      <c r="F56" s="29"/>
     </row>
     <row r="57" spans="3:6">
-      <c r="C57" s="33">
+      <c r="C57" s="29">
         <v>60</v>
       </c>
-      <c r="D57" s="33">
+      <c r="D57" s="29">
         <v>1</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="29">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="F57" s="33"/>
+      <c r="F57" s="29"/>
     </row>
     <row r="58" spans="3:6">
-      <c r="C58" s="33">
+      <c r="C58" s="29">
         <v>60</v>
       </c>
-      <c r="D58" s="33">
+      <c r="D58" s="29">
         <v>1</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="29">
         <f>C58*D58</f>
         <v>60</v>
       </c>
-      <c r="F58" s="33"/>
+      <c r="F58" s="29"/>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="33">
+      <c r="C59" s="29">
         <v>60</v>
       </c>
-      <c r="D59" s="33">
+      <c r="D59" s="29">
         <v>1</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="29">
         <f t="shared" ref="E59:E61" si="3">C59*D59</f>
         <v>60</v>
       </c>
-      <c r="F59" s="33"/>
+      <c r="F59" s="29"/>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="33">
+      <c r="C60" s="29">
         <v>120</v>
       </c>
-      <c r="D60" s="33">
+      <c r="D60" s="29">
         <v>1</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="29">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F60" s="33"/>
+      <c r="F60" s="29"/>
     </row>
     <row r="61" spans="3:6">
-      <c r="C61" s="33">
+      <c r="C61" s="29">
         <v>120</v>
       </c>
-      <c r="D61" s="33">
+      <c r="D61" s="29">
         <v>1</v>
       </c>
-      <c r="E61" s="33">
+      <c r="E61" s="29">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F61" s="33"/>
+      <c r="F61" s="29"/>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="33">
+      <c r="C62" s="29">
         <v>120</v>
       </c>
-      <c r="D62" s="33">
+      <c r="D62" s="29">
         <v>1</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="29">
         <f>C62*D62</f>
         <v>120</v>
       </c>
-      <c r="F62" s="33"/>
+      <c r="F62" s="29"/>
     </row>
     <row r="63" spans="3:6">
-      <c r="C63" s="33">
+      <c r="C63" s="29">
         <v>120</v>
       </c>
-      <c r="D63" s="33">
+      <c r="D63" s="29">
         <v>1</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="29">
         <f t="shared" ref="E63:E65" si="4">C63*D63</f>
         <v>120</v>
       </c>
-      <c r="F63" s="33"/>
+      <c r="F63" s="29"/>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="33">
+      <c r="C64" s="29">
         <v>120</v>
       </c>
-      <c r="D64" s="33">
+      <c r="D64" s="29">
         <v>1</v>
       </c>
-      <c r="E64" s="33">
+      <c r="E64" s="29">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="F64" s="33"/>
+      <c r="F64" s="29"/>
     </row>
     <row r="65" spans="3:6">
-      <c r="C65" s="33">
+      <c r="C65" s="29">
         <v>120</v>
       </c>
-      <c r="D65" s="33">
+      <c r="D65" s="29">
         <v>1</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E65" s="29">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="F65" s="33"/>
+      <c r="F65" s="29"/>
     </row>
     <row r="66" spans="3:6">
-      <c r="C66" s="33">
+      <c r="C66" s="29">
         <v>240</v>
       </c>
-      <c r="D66" s="33">
+      <c r="D66" s="29">
         <v>1</v>
       </c>
-      <c r="E66" s="33">
+      <c r="E66" s="29">
         <f t="shared" ref="E66" si="5">C66*D66</f>
         <v>240</v>
       </c>
-      <c r="F66" s="33"/>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="3:6">
-      <c r="C67" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33">
+      <c r="C67" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29">
         <f>SUM(E54:E66)</f>
         <v>1320</v>
       </c>
-      <c r="F67" s="33"/>
+      <c r="F67" s="29"/>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="45"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="41"/>
     </row>
     <row r="69" spans="3:6">
-      <c r="C69" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="F69" s="33"/>
+      <c r="C69" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" s="29"/>
     </row>
     <row r="70" spans="3:6">
-      <c r="C70" s="33">
+      <c r="C70" s="29">
         <v>240</v>
       </c>
-      <c r="D70" s="33">
+      <c r="D70" s="29">
         <v>1</v>
       </c>
-      <c r="E70" s="33">
+      <c r="E70" s="29">
         <f>C70*D70</f>
         <v>240</v>
       </c>
-      <c r="F70" s="33"/>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="3:6">
-      <c r="C71" s="33">
+      <c r="C71" s="29">
         <v>240</v>
       </c>
-      <c r="D71" s="33">
+      <c r="D71" s="29">
         <v>1</v>
       </c>
-      <c r="E71" s="33">
+      <c r="E71" s="29">
         <f t="shared" ref="E71" si="6">C71*D71</f>
         <v>240</v>
       </c>
-      <c r="F71" s="33"/>
+      <c r="F71" s="29"/>
     </row>
     <row r="72" spans="3:6">
-      <c r="C72" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33">
+      <c r="C72" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29">
         <f>SUM(E70:E71)</f>
         <v>480</v>
       </c>
-      <c r="F72" s="33"/>
+      <c r="F72" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4013,12 +5927,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2FA3DA-A5F3-411F-AB6B-7EB05B935F88}">
-  <dimension ref="C2:R39"/>
+  <dimension ref="C2:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4039,128 +5953,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="M2" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="O2" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="Q2" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="K2" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="O2" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q2" s="41" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="4" spans="3:17">
-      <c r="C4" s="42" t="s">
-        <v>200</v>
+      <c r="C4" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>221</v>
+        <v>197</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>215</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="O4" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="3:17">
       <c r="C6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>202</v>
+        <v>168</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="40" t="s">
-        <v>202</v>
+      <c r="H6" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>202</v>
+        <v>174</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="M6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O6" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" s="40" t="s">
-        <v>202</v>
+        <v>102</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="Q6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="3:17">
       <c r="C7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>202</v>
+        <v>169</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>202</v>
+        <v>189</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="I7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="K7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>202</v>
+        <v>175</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="M7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="40" t="s">
-        <v>202</v>
+      <c r="P7" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -4168,37 +6082,37 @@
     </row>
     <row r="8" spans="3:17">
       <c r="C8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>202</v>
+        <v>170</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="40" t="s">
-        <v>202</v>
+      <c r="H8" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>180</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>202</v>
+        <v>176</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="M8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O8" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="40" t="s">
-        <v>202</v>
+      <c r="P8" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="Q8" t="s">
         <v>18</v>
@@ -4206,419 +6120,411 @@
     </row>
     <row r="9" spans="3:17">
       <c r="C9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>202</v>
+        <v>171</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>202</v>
+        <v>172</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>202</v>
+        <v>177</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="M9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O9" t="s">
-        <v>184</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>202</v>
+        <v>180</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="Q9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="3:17">
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>202</v>
+      <c r="D10" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>202</v>
+        <v>23</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="I10" t="s">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>202</v>
+        <v>178</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="M10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O10" t="s">
-        <v>185</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>202</v>
+        <v>181</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="Q10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="3:17">
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>202</v>
+      <c r="D11" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>202</v>
+        <v>173</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="I11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>202</v>
+        <v>179</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="M11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O11" t="s">
-        <v>186</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>202</v>
+        <v>182</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="Q11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="3:17">
       <c r="C13" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="37" t="s">
         <v>212</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="K14" s="41" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="16" spans="3:17">
       <c r="C16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" t="s">
         <v>225</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="G16" t="s">
-        <v>233</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>234</v>
-      </c>
       <c r="K16" s="27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
       <c r="C18" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>202</v>
+        <v>115</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="K18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I19" t="s">
         <v>98</v>
       </c>
-      <c r="J19" s="40" t="s">
-        <v>202</v>
+      <c r="J19" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="K19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="3:18">
+    <row r="20" spans="3:12">
       <c r="C20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>202</v>
+        <v>184</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
       <c r="E21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:18">
-      <c r="C24" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="41" t="s">
+    <row r="24" spans="3:12">
+      <c r="C24" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="G24" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18">
-      <c r="C26" s="42" t="s">
-        <v>200</v>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>196</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="R26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18">
-      <c r="R27" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
       <c r="C28" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" t="s">
         <v>191</v>
       </c>
-      <c r="D28" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="H28" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="I28" t="s">
         <v>191</v>
       </c>
-      <c r="G28" t="s">
-        <v>195</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="I28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18">
+    </row>
+    <row r="29" spans="3:12">
       <c r="C29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="H29" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="I29" t="s">
         <v>192</v>
       </c>
-      <c r="G29" t="s">
-        <v>196</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="I29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18">
+    </row>
+    <row r="30" spans="3:12">
       <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="40" t="s">
-        <v>202</v>
+      <c r="D30" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E30" t="s">
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>197</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>202</v>
+        <v>193</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="I30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
       <c r="C31" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>202</v>
+      <c r="D31" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E31" t="s">
         <v>46</v>
       </c>
       <c r="G31" t="s">
+        <v>194</v>
+      </c>
+      <c r="H31" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="H31" s="40" t="s">
-        <v>202</v>
-      </c>
       <c r="I31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="32" spans="3:18">
-      <c r="C32" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>202</v>
-      </c>
       <c r="E32" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G32" t="s">
-        <v>199</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>202</v>
+        <v>195</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="I32" t="s">
-        <v>199</v>
-      </c>
-      <c r="L32" s="40"/>
+        <v>195</v>
+      </c>
+      <c r="L32" s="36"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>202</v>
+        <v>190</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G33" t="s">
-        <v>211</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>202</v>
+        <v>207</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="I33" t="s">
-        <v>211</v>
-      </c>
-      <c r="L33" s="40"/>
+        <v>207</v>
+      </c>
+      <c r="L33" s="36"/>
     </row>
     <row r="36" spans="3:12">
-      <c r="C36" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>214</v>
+      <c r="C36" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="3:12">
       <c r="C37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>202</v>
+        <v>183</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="C38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>202</v>
+        <v>185</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E38" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="3:12">
       <c r="C39" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>202</v>
+        <v>186</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +6533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A4D7D-2B40-4F26-A6BD-214006A713CE}">
   <dimension ref="C3:D21"/>
   <sheetViews>
@@ -4642,16 +6548,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="18" t="s">
@@ -4686,10 +6592,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="52"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="17" t="s">
@@ -4732,10 +6638,10 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="52"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="17" t="s">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6116B3-EBF3-4131-B687-2ED28D3C06CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C566FC0E-5A7F-4521-8D5A-88580521B68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="1" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" tabRatio="748" activeTab="1" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="316">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -907,12 +907,6 @@
     <t>Special Train Dropoff</t>
   </si>
   <si>
-    <t>2. Heavy Frame Temp Manufacturer at Train Hub</t>
-  </si>
-  <si>
-    <t>2b. Computer Temp Manufacturer at Train Hub</t>
-  </si>
-  <si>
     <t>4. Turbofuel Powerplant, extend train to it.</t>
   </si>
   <si>
@@ -925,27 +919,6 @@
     <t>Stations Need Add Soon:</t>
   </si>
   <si>
-    <t>Locomotive</t>
-  </si>
-  <si>
-    <t>Frieght  Car</t>
-  </si>
-  <si>
-    <t>Train Stations</t>
-  </si>
-  <si>
-    <t>Freight Stations</t>
-  </si>
-  <si>
-    <t>Beacons</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Totals for Train Expansions</t>
-  </si>
-  <si>
     <t>Rubber Outbound</t>
   </si>
   <si>
@@ -955,15 +928,6 @@
     <t>Shopping List To Start Turbofuel</t>
   </si>
   <si>
-    <t>Shopping List for Train Stations</t>
-  </si>
-  <si>
-    <t>Start Making H Frames</t>
-  </si>
-  <si>
-    <t>Shopping List for Aluminum Mini Setup</t>
-  </si>
-  <si>
     <t>1a. Need Mini Aluminum Site at Bauxite Node, Belts + Casing</t>
   </si>
   <si>
@@ -973,18 +937,6 @@
     <t xml:space="preserve">3. Oil Site, Rubber Production , w /Aluminum Scrap Too </t>
   </si>
   <si>
-    <t>0. Extend Train to Oil Site</t>
-  </si>
-  <si>
-    <t>2 Refineries</t>
-  </si>
-  <si>
-    <t>480 Solution Out</t>
-  </si>
-  <si>
-    <t>12 Rubber Refineries</t>
-  </si>
-  <si>
     <t>2 Plastic Refineries</t>
   </si>
   <si>
@@ -994,31 +946,79 @@
     <t>240 Coke made by 2 Refineries using 80 Heavy Residue</t>
   </si>
   <si>
-    <t xml:space="preserve">9 Refineries gets to 1200 Scrap </t>
-  </si>
-  <si>
-    <t>Produces 420 Water Out</t>
-  </si>
-  <si>
-    <t>220 Residue Remaining</t>
-  </si>
-  <si>
-    <t>420 Water Remaining</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Blenders? 20 Residue and 20 Water Remaining, </t>
-  </si>
-  <si>
-    <t>2 Scrap Refineries, uses 120 Coke</t>
-  </si>
-  <si>
-    <t>1 Mk2 , 2 shards</t>
-  </si>
-  <si>
-    <t>4 Water Extractors</t>
-  </si>
-  <si>
-    <t>80 Excess Water</t>
+    <t>1 Mk2 , 3 shards</t>
+  </si>
+  <si>
+    <t>5 Water Extractors</t>
+  </si>
+  <si>
+    <t>3 Refineries</t>
+  </si>
+  <si>
+    <t>720 Solution Out</t>
+  </si>
+  <si>
+    <t>4 Scrap Refineries, 1200 Scrap / Minute, 240 Coke Needed</t>
+  </si>
+  <si>
+    <t>420 Water Out - &gt; Feedback Loop to get rid Of , 1 Industrial Buffer</t>
+  </si>
+  <si>
+    <t>5 Extractors</t>
+  </si>
+  <si>
+    <t>9 Refineries</t>
+  </si>
+  <si>
+    <t>12 Rubber Refineries, Overclock 1 to 40 Residue Out</t>
+  </si>
+  <si>
+    <t>240 Residue Remaining</t>
+  </si>
+  <si>
+    <t>Send to Residual Fuel , 4 refineries, = 160 Fuel / minute</t>
+  </si>
+  <si>
+    <t>14 Fuel Generators to Consume</t>
+  </si>
+  <si>
+    <t>140 Heavy Frames</t>
+  </si>
+  <si>
+    <t>70 Computers</t>
+  </si>
+  <si>
+    <t>14 refineries</t>
+  </si>
+  <si>
+    <t>4 Refineries</t>
+  </si>
+  <si>
+    <t>To Train</t>
+  </si>
+  <si>
+    <t>To Train Both</t>
+  </si>
+  <si>
+    <t>27 refineries</t>
+  </si>
+  <si>
+    <t>rubber</t>
+  </si>
+  <si>
+    <t>quickwire</t>
+  </si>
+  <si>
+    <t>motors</t>
+  </si>
+  <si>
+    <t>encased</t>
+  </si>
+  <si>
+    <t>pipes</t>
+  </si>
+  <si>
+    <t>sheets</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1504,15 +1504,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1524,7 +1515,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1618,6 +1609,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1648,36 +1666,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -2274,31 +2262,31 @@
   <dimension ref="C1:U45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="54"/>
-    <col min="3" max="3" width="70.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="54" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="54" customWidth="1"/>
-    <col min="15" max="15" width="24" style="54" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="54"/>
+    <col min="1" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="70.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="44" customWidth="1"/>
+    <col min="15" max="15" width="24" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" ht="19.5" thickBot="1"/>
-    <row r="2" spans="3:15" ht="20.25" thickTop="1" thickBot="1">
-      <c r="D2" s="55"/>
+    <row r="1" spans="3:19" ht="19.5" thickBot="1"/>
+    <row r="2" spans="3:19" ht="20.25" thickTop="1" thickBot="1">
+      <c r="D2" s="45"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -2310,155 +2298,410 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
-    </row>
-    <row r="3" spans="3:15" ht="19.5" thickTop="1">
-      <c r="E3" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="G3" s="64" t="s">
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="3:19" ht="19.5" thickTop="1">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="3:19">
+      <c r="C4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="3:19">
+      <c r="C5" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="L5" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="H3" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="66" t="s">
+      <c r="M5" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="O5" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="P5" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="66" t="s">
-        <v>288</v>
-      </c>
-      <c r="L3" s="66" t="s">
-        <v>260</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="3:15">
-      <c r="C4" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="67">
-        <v>3</v>
-      </c>
-      <c r="G4" s="67">
-        <f>F4*5</f>
-        <v>15</v>
-      </c>
-      <c r="H4" s="67">
-        <f>F4*10</f>
-        <v>30</v>
-      </c>
-      <c r="I4" s="67">
-        <f>F4*15</f>
-        <v>45</v>
-      </c>
-      <c r="J4" s="67">
-        <f>F4*5</f>
-        <v>15</v>
-      </c>
-      <c r="K4" s="67">
-        <f>F4*5</f>
-        <v>15</v>
-      </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-    </row>
-    <row r="5" spans="3:15">
-      <c r="C5" s="57" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" s="64" t="s">
+      <c r="R5" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19">
+      <c r="C6" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" s="42">
+        <v>256</v>
+      </c>
+      <c r="G6" s="42">
+        <v>112</v>
+      </c>
+      <c r="H6" s="42">
+        <v>280</v>
+      </c>
+      <c r="I6" s="42">
+        <v>770</v>
+      </c>
+      <c r="J6" s="42">
+        <v>480</v>
+      </c>
+      <c r="K6" s="42">
+        <v>1080</v>
+      </c>
+      <c r="L6" s="42">
+        <v>170</v>
+      </c>
+      <c r="M6" s="42">
+        <v>656</v>
+      </c>
+      <c r="N6" s="42">
+        <v>40</v>
+      </c>
+      <c r="O6" s="42">
+        <v>1380</v>
+      </c>
+      <c r="P6" s="42">
+        <v>450</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>85</v>
+      </c>
+      <c r="R6" s="42">
+        <v>450</v>
+      </c>
+      <c r="S6" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19">
+      <c r="C7" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="F5" s="67">
-        <v>12</v>
-      </c>
-      <c r="G5" s="67">
-        <f>F5*4</f>
-        <v>48</v>
-      </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67">
-        <f>F5*10</f>
-        <v>120</v>
-      </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-    </row>
-    <row r="6" spans="3:15">
-      <c r="C6" s="57" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="9" spans="3:15">
-      <c r="C9" s="57" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="3:15">
-      <c r="C10" s="57" t="s">
+      <c r="E7" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="3:19">
+      <c r="C8" s="47" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="11" spans="3:15">
-      <c r="C11" s="57" t="s">
+      <c r="E8" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+    </row>
+    <row r="9" spans="3:19">
+      <c r="C9" s="51" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="13" spans="3:15">
-      <c r="C13" s="57" t="s">
+      <c r="E9" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="3:19">
+      <c r="C10" s="47" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="14" spans="3:15">
-      <c r="C14" s="61" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="3:15">
-      <c r="C15" s="57" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="3:15" ht="19.5" thickBot="1"/>
-    <row r="17" spans="3:15" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C17" s="55" t="s">
+      <c r="E10" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="42">
+        <v>40</v>
+      </c>
+      <c r="G10" s="42">
+        <v>256</v>
+      </c>
+      <c r="H10" s="42">
+        <v>40</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="3:19">
+      <c r="E11" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="3:19">
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="3:19" ht="19.5" thickBot="1">
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
+      <c r="C17" s="45" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C18" s="63" t="s">
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C18" s="53" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" ht="43.5" thickTop="1" thickBot="1">
-      <c r="C19" s="63" t="s">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="3:16" ht="43.5" thickTop="1" thickBot="1">
+      <c r="C19" s="53" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="3:15" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C20" s="63" t="s">
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C20" s="53" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C21" s="63" t="s">
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C21" s="53" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="22" spans="3:15">
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="3:16">
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
@@ -2470,10 +2713,11 @@
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
-    </row>
-    <row r="23" spans="3:15">
-      <c r="C23" s="64" t="s">
-        <v>283</v>
+      <c r="P22"/>
+    </row>
+    <row r="23" spans="3:16">
+      <c r="C23" s="54" t="s">
+        <v>281</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -2486,217 +2730,152 @@
       <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
-    </row>
-    <row r="24" spans="3:15">
-      <c r="C24" s="65">
+      <c r="P23"/>
+    </row>
+    <row r="24" spans="3:16">
+      <c r="C24" s="55">
         <v>3</v>
       </c>
-      <c r="E24" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="H24" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="K24" s="66" t="s">
-        <v>288</v>
-      </c>
-      <c r="L24" s="66" t="s">
-        <v>260</v>
-      </c>
-      <c r="M24" s="66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15">
-      <c r="C25" s="65">
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+    </row>
+    <row r="25" spans="3:16">
+      <c r="C25" s="55">
         <v>4</v>
       </c>
-      <c r="E25" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="F25" s="67">
-        <v>3</v>
-      </c>
-      <c r="G25" s="67">
-        <f>F25*5</f>
-        <v>15</v>
-      </c>
-      <c r="H25" s="67">
-        <f>F25*10</f>
-        <v>30</v>
-      </c>
-      <c r="I25" s="67">
-        <f>F25*15</f>
-        <v>45</v>
-      </c>
-      <c r="J25" s="67">
-        <f>F25*5</f>
-        <v>15</v>
-      </c>
-      <c r="K25" s="67">
-        <f>F25*5</f>
-        <v>15</v>
-      </c>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-    </row>
-    <row r="26" spans="3:15">
-      <c r="C26" s="65">
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="3:16">
+      <c r="C26" s="55">
         <v>5</v>
       </c>
-      <c r="E26" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="F26" s="67">
-        <v>12</v>
-      </c>
-      <c r="G26" s="67">
-        <f>F26*4</f>
-        <v>48</v>
-      </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67">
-        <f>F26*10</f>
-        <v>120</v>
-      </c>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-    </row>
-    <row r="27" spans="3:15">
-      <c r="C27" s="65">
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+    </row>
+    <row r="27" spans="3:16">
+      <c r="C27" s="55">
         <v>6</v>
       </c>
-      <c r="E27" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="F27" s="67">
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+    </row>
+    <row r="28" spans="3:16">
+      <c r="C28" s="55">
+        <v>7</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+    </row>
+    <row r="29" spans="3:16">
+      <c r="C29" s="55">
+        <v>8</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+    </row>
+    <row r="30" spans="3:16">
+      <c r="C30" s="55">
+        <v>9</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+    </row>
+    <row r="31" spans="3:16">
+      <c r="C31" s="55">
         <v>10</v>
       </c>
-      <c r="G27" s="67">
-        <f>F27*4</f>
-        <v>40</v>
-      </c>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67">
-        <f>F27*8</f>
-        <v>80</v>
-      </c>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67">
-        <f>F27*25</f>
-        <v>250</v>
-      </c>
-      <c r="M27" s="67">
-        <f>F27*50</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15">
-      <c r="C28" s="65">
-        <v>7</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="F28" s="67">
-        <v>54</v>
-      </c>
-      <c r="G28" s="67">
-        <f>F28*6</f>
-        <v>324</v>
-      </c>
-      <c r="H28" s="67">
-        <f>F28*5</f>
-        <v>270</v>
-      </c>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67">
-        <f>F28*2</f>
-        <v>108</v>
-      </c>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67">
-        <f>F28*25</f>
-        <v>1350</v>
-      </c>
-      <c r="M28" s="67">
-        <f>F28*50</f>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15">
-      <c r="C29" s="65">
-        <v>8</v>
-      </c>
-      <c r="E29" s="68" t="s">
-        <v>290</v>
-      </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67">
-        <f>SUM(G25:G28)</f>
-        <v>427</v>
-      </c>
-      <c r="H29" s="67">
-        <f>SUM(H25:H28)</f>
-        <v>300</v>
-      </c>
-      <c r="I29" s="67">
-        <f>SUM(I25:I28)</f>
-        <v>165</v>
-      </c>
-      <c r="J29" s="67">
-        <f>SUM(J25:J28)</f>
-        <v>203</v>
-      </c>
-      <c r="K29" s="67">
-        <f>SUM(K25:K28)</f>
-        <v>15</v>
-      </c>
-      <c r="L29" s="67">
-        <f>SUM(L25:L28)</f>
-        <v>1600</v>
-      </c>
-      <c r="M29" s="67">
-        <f>SUM(M25:M28)</f>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15">
-      <c r="C30" s="65">
-        <v>9</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15">
-      <c r="C31" s="65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15">
-      <c r="C32" s="65" t="s">
-        <v>291</v>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+    </row>
+    <row r="32" spans="3:16">
+      <c r="C32" s="55" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="65" t="s">
-        <v>292</v>
+      <c r="C33" s="55" t="s">
+        <v>283</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -2719,206 +2898,9 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="3:21">
-      <c r="E35" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="I35" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="K35" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="L35" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="M35" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="N35" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="O35" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="P35" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="R35" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="S35" s="53" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="3:21">
-      <c r="E36"/>
-      <c r="F36" s="52">
-        <v>256</v>
-      </c>
-      <c r="G36" s="52">
-        <v>112</v>
-      </c>
-      <c r="H36" s="52">
-        <v>280</v>
-      </c>
-      <c r="I36" s="52">
-        <v>770</v>
-      </c>
-      <c r="J36" s="52">
-        <v>480</v>
-      </c>
-      <c r="K36" s="52">
-        <v>1080</v>
-      </c>
-      <c r="L36" s="52">
-        <v>170</v>
-      </c>
-      <c r="M36" s="52">
-        <v>656</v>
-      </c>
-      <c r="N36" s="52">
-        <v>40</v>
-      </c>
-      <c r="O36" s="52">
-        <v>1380</v>
-      </c>
-      <c r="P36" s="52">
-        <v>450</v>
-      </c>
-      <c r="Q36" s="52">
-        <v>85</v>
-      </c>
-      <c r="R36" s="52">
-        <v>450</v>
-      </c>
-      <c r="S36" s="52">
-        <v>40</v>
-      </c>
-    </row>
     <row r="37" spans="3:21">
-      <c r="E37" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
-    </row>
-    <row r="38" spans="3:21">
-      <c r="E38" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-    </row>
-    <row r="39" spans="3:21">
-      <c r="E39" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="F39" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="G39" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="H39" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-    </row>
-    <row r="40" spans="3:21">
-      <c r="E40" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="52">
-        <v>40</v>
-      </c>
-      <c r="G40" s="52">
-        <v>256</v>
-      </c>
-      <c r="H40" s="52">
-        <v>40</v>
-      </c>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-    </row>
-    <row r="41" spans="3:21">
-      <c r="E41" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
     </row>
     <row r="44" spans="3:21">
       <c r="T44"/>
@@ -2936,10 +2918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA72F07-7FC2-48EA-B4C4-87606FFA9C77}">
-  <dimension ref="C4:C29"/>
+  <dimension ref="C4:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2947,79 +2929,148 @@
     <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:4">
       <c r="C4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="E29" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="E30" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="E31" t="s">
+        <v>310</v>
+      </c>
+      <c r="F31">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="E32" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
+      <c r="F32">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" t="s">
+      <c r="F33">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
-        <v>311</v>
+      <c r="F34">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -3033,7 +3084,7 @@
   <dimension ref="C3:U40"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:U23"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3065,637 +3116,637 @@
       <c r="C5" t="s">
         <v>232</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="I5" s="51" t="s">
+      <c r="I5" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="P5" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="Q5" s="53" t="s">
+      <c r="Q5" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="R5" s="53" t="s">
+      <c r="R5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="T5" s="53" t="s">
+      <c r="T5" s="43" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="3:21">
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="42">
         <v>1</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52">
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42">
         <f>F6*60</f>
         <v>60</v>
       </c>
-      <c r="K6" s="52">
+      <c r="K6" s="42">
         <f>F6*15</f>
         <v>15</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="42">
         <f>F6*20</f>
         <v>20</v>
       </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
     </row>
     <row r="7" spans="3:21">
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="42">
         <v>22</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="42">
         <f>F7*8</f>
         <v>176</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="42">
         <f>F8*4</f>
         <v>32</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="42">
         <f>F7*10</f>
         <v>220</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
     </row>
     <row r="8" spans="3:21">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="42">
         <v>8</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="42">
         <f>F8*10</f>
         <v>80</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="42">
         <f>F8*10</f>
         <v>80</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52">
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42">
         <f>F8*20</f>
         <v>160</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
     </row>
     <row r="9" spans="3:21">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="42">
         <v>8</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52">
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42">
         <f>F9*20</f>
         <v>160</v>
       </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52">
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42">
         <f>F9*10</f>
         <v>80</v>
       </c>
-      <c r="O9" s="52">
+      <c r="O9" s="42">
         <f>F9*50</f>
         <v>400</v>
       </c>
-      <c r="P9" s="52">
+      <c r="P9" s="42">
         <f>F9*5</f>
         <v>40</v>
       </c>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
     </row>
     <row r="10" spans="3:21">
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="42">
         <v>46</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52">
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42">
         <f>F10*10</f>
         <v>460</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="42">
         <f>F10*10</f>
         <v>460</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="42">
         <f>F10*20</f>
         <v>920</v>
       </c>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52">
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42">
         <f>F10*30</f>
         <v>1380</v>
       </c>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
     </row>
     <row r="11" spans="3:21">
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="42">
         <v>9</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52">
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42">
         <f>F11*15</f>
         <v>135</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52">
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42">
         <f>F11*10</f>
         <v>90</v>
       </c>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52">
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42">
         <f>F11*50</f>
         <v>450</v>
       </c>
-      <c r="S11" s="52">
+      <c r="S11" s="42">
         <f>F11*5</f>
         <v>45</v>
       </c>
-      <c r="T11" s="52">
+      <c r="T11" s="42">
         <f>F11*50</f>
         <v>450</v>
       </c>
     </row>
     <row r="12" spans="3:21">
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="H12" s="52">
-        <f>SUM(H6:H11)</f>
+      <c r="F12" s="42"/>
+      <c r="H12" s="42">
+        <f t="shared" ref="H12:T12" si="0">SUM(H6:H11)</f>
         <v>256</v>
       </c>
-      <c r="I12" s="52">
-        <f>SUM(I6:I11)</f>
+      <c r="I12" s="42">
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="J12" s="52">
-        <f>SUM(J6:J11)</f>
+      <c r="J12" s="42">
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="K12" s="52">
-        <f>SUM(K6:K11)</f>
+      <c r="K12" s="42">
+        <f t="shared" si="0"/>
         <v>770</v>
       </c>
-      <c r="L12" s="52">
-        <f>SUM(L6:L11)</f>
+      <c r="L12" s="42">
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="M12" s="52">
-        <f>SUM(M6:M11)</f>
+      <c r="M12" s="42">
+        <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="N12" s="52">
-        <f>SUM(N6:N11)</f>
+      <c r="N12" s="42">
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="O12" s="52">
-        <f>SUM(O6:O11)</f>
+      <c r="O12" s="42">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="P12" s="52">
-        <f>SUM(P6:P11)</f>
+      <c r="P12" s="42">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="Q12" s="52">
-        <f>SUM(Q6:Q11)</f>
+      <c r="Q12" s="42">
+        <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-      <c r="R12" s="52">
-        <f>SUM(R6:R11)</f>
+      <c r="R12" s="42">
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="S12" s="52">
-        <f>SUM(S6:S11)</f>
+      <c r="S12" s="42">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="T12" s="52">
-        <f>SUM(T6:T11)</f>
+      <c r="T12" s="42">
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="H13" s="52">
+      <c r="F13" s="42"/>
+      <c r="H13" s="42">
         <f>H12+(H11*8)</f>
         <v>256</v>
       </c>
-      <c r="I13" s="52">
-        <f t="shared" ref="I13:T13" si="0">I12+(I11*8)</f>
+      <c r="I13" s="42">
+        <f t="shared" ref="I13:T13" si="1">I12+(I11*8)</f>
         <v>112</v>
       </c>
-      <c r="J13" s="52">
-        <f t="shared" si="0"/>
+      <c r="J13" s="42">
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="K13" s="52">
-        <f t="shared" si="0"/>
+      <c r="K13" s="42">
+        <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="L13" s="52">
-        <f t="shared" si="0"/>
+      <c r="L13" s="42">
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="M13" s="52">
-        <f t="shared" si="0"/>
+      <c r="M13" s="42">
+        <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="N13" s="52">
-        <f t="shared" si="0"/>
+      <c r="N13" s="42">
+        <f t="shared" si="1"/>
         <v>890</v>
       </c>
-      <c r="O13" s="52">
-        <f t="shared" si="0"/>
+      <c r="O13" s="42">
+        <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="P13" s="52">
-        <f t="shared" si="0"/>
+      <c r="P13" s="42">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="Q13" s="52">
-        <f t="shared" si="0"/>
+      <c r="Q13" s="42">
+        <f t="shared" si="1"/>
         <v>1380</v>
       </c>
-      <c r="R13" s="52">
-        <f t="shared" si="0"/>
+      <c r="R13" s="42">
+        <f t="shared" si="1"/>
         <v>4050</v>
       </c>
-      <c r="S13" s="52">
-        <f t="shared" si="0"/>
+      <c r="S13" s="42">
+        <f t="shared" si="1"/>
         <v>405</v>
       </c>
-      <c r="T13" s="52">
-        <f t="shared" si="0"/>
+      <c r="T13" s="42">
+        <f t="shared" si="1"/>
         <v>4050</v>
       </c>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="40" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" spans="3:21">
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="40" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="16" spans="3:21">
-      <c r="H16" s="51" t="s">
+      <c r="H16" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J16" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="K16" s="51" t="s">
+      <c r="K16" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="51" t="s">
+      <c r="L16" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="51" t="s">
+      <c r="M16" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="N16" s="51" t="s">
+      <c r="N16" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="O16" s="51" t="s">
+      <c r="O16" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="53" t="s">
+      <c r="P16" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="Q16" s="53" t="s">
+      <c r="Q16" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="R16" s="53" t="s">
+      <c r="R16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="53" t="s">
+      <c r="S16" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="T16" s="53" t="s">
+      <c r="T16" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="U16" s="53" t="s">
+      <c r="U16" s="43" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="17" spans="3:21">
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="42">
         <v>256</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="42">
         <v>112</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="42">
         <v>280</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="42">
         <v>770</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="42">
         <v>480</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="42">
         <v>1080</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="42">
         <v>170</v>
       </c>
-      <c r="O17" s="52">
+      <c r="O17" s="42">
         <v>656</v>
       </c>
-      <c r="P17" s="52">
+      <c r="P17" s="42">
         <v>40</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="42">
         <v>1380</v>
       </c>
-      <c r="R17" s="52">
+      <c r="R17" s="42">
         <v>450</v>
       </c>
-      <c r="S17" s="52">
+      <c r="S17" s="42">
         <v>85</v>
       </c>
-      <c r="T17" s="52">
+      <c r="T17" s="42">
         <v>450</v>
       </c>
-      <c r="U17" s="52">
+      <c r="U17" s="42">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="3:21">
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="40" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="19" spans="3:21">
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="43" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="20" spans="3:21">
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="43" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="3:21">
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="42">
         <v>40</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="42">
         <v>256</v>
       </c>
-      <c r="J21" s="52">
+      <c r="J21" s="42">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="3:21">
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="42" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="3:21">
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="3:21">
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="39" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="25" spans="3:21">
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="40" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="26" spans="3:21">
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="H26" s="51" t="s">
+      <c r="H26" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="J26" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="53" t="s">
+      <c r="K26" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="L26" s="53" t="s">
+      <c r="L26" s="43" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="3:21">
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="F27" s="52"/>
-      <c r="H27" s="52">
+      <c r="F27" s="42"/>
+      <c r="H27" s="42">
         <v>135</v>
       </c>
-      <c r="I27" s="52">
+      <c r="I27" s="42">
         <v>90</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="42">
         <v>450</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="42">
         <v>45</v>
       </c>
-      <c r="L27" s="52">
+      <c r="L27" s="42">
         <v>450</v>
       </c>
     </row>
     <row r="29" spans="3:21">
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="43" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="30" spans="3:21">
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="40" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="31" spans="3:21">
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="40" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="39" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="40" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="40" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="39" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="40" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="40" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="40" spans="3:3">
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="40" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3758,31 +3809,31 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55" t="s">
+      <c r="O3" s="44"/>
+      <c r="P3" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54" t="s">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54" t="s">
+      <c r="S3" s="44"/>
+      <c r="T3" s="44" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3805,23 +3856,23 @@
       <c r="H4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="58" t="s">
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
     </row>
     <row r="5" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="C5" s="13" t="s">
@@ -3842,21 +3893,21 @@
       <c r="H5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="59" t="s">
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="S5" s="56" t="s">
+      <c r="S5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="60" t="s">
+      <c r="T5" s="50" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3867,25 +3918,25 @@
       <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="58" t="s">
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="58" t="s">
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
     </row>
     <row r="7" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F7" s="25" t="s">
@@ -3894,25 +3945,25 @@
       <c r="H7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="K7" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="58" t="s">
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="57" t="s">
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
     </row>
     <row r="8" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F8" s="25" t="s">
@@ -3921,21 +3972,21 @@
       <c r="H8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="58" t="s">
+      <c r="J8" s="44"/>
+      <c r="K8" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="58" t="s">
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
     </row>
     <row r="9" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="F9" s="25" t="s">
@@ -3944,19 +3995,19 @@
       <c r="H9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="59" t="s">
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="S9" s="54"/>
-      <c r="T9" s="60" t="s">
+      <c r="S9" s="44"/>
+      <c r="T9" s="50" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3964,25 +4015,25 @@
       <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="58" t="s">
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="59" t="s">
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
     </row>
     <row r="11" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F11" s="6" t="s">
@@ -3991,44 +4042,44 @@
       <c r="H11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="58" t="s">
+      <c r="J11" s="44"/>
+      <c r="K11" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="58" t="s">
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="54"/>
-      <c r="P11" s="55" t="s">
+      <c r="O11" s="44"/>
+      <c r="P11" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="58" t="s">
+      <c r="Q11" s="44"/>
+      <c r="R11" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
     </row>
     <row r="12" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="12"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="57" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
     </row>
     <row r="13" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F13" s="6" t="s">
@@ -4037,27 +4088,27 @@
       <c r="H13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="58" t="s">
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="56" t="s">
+      <c r="O13" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="59" t="s">
+      <c r="P13" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="54"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="44"/>
     </row>
     <row r="14" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="C14" s="8" t="s">
@@ -4075,61 +4126,61 @@
       <c r="G14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="54"/>
-      <c r="K14" s="59" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="58" t="s">
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="O14" s="54"/>
-      <c r="P14" s="59" t="s">
+      <c r="O14" s="44"/>
+      <c r="P14" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
     </row>
     <row r="15" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
     </row>
     <row r="16" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="54"/>
-      <c r="K16" s="59" t="s">
+      <c r="J16" s="44"/>
+      <c r="K16" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="58" t="s">
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="O16" s="54"/>
-      <c r="P16" s="59" t="s">
+      <c r="O16" s="44"/>
+      <c r="P16" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
     </row>
     <row r="17" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="C17" s="5" t="s">
@@ -4144,34 +4195,34 @@
       <c r="F17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="54"/>
-      <c r="K17" s="59" t="s">
+      <c r="J17" s="44"/>
+      <c r="K17" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="58" t="s">
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
     </row>
     <row r="18" spans="3:20" ht="19.5" thickBot="1">
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
     </row>
     <row r="19" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
       <c r="C19" s="11" t="s">
@@ -4189,25 +4240,25 @@
       <c r="G19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="61" t="s">
+      <c r="J19" s="44"/>
+      <c r="K19" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="58" t="s">
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="O19" s="56" t="s">
+      <c r="O19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="59" t="s">
+      <c r="P19" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
     </row>
     <row r="20" spans="3:20" ht="19.5" thickBot="1">
       <c r="F20" s="26" t="s">
@@ -4216,58 +4267,58 @@
       <c r="G20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="57" t="s">
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
     </row>
     <row r="21" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F21" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="J21" s="57" t="s">
+      <c r="J21" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="59" t="s">
+      <c r="K21" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
     </row>
     <row r="22" spans="3:20" ht="21.75" thickBot="1">
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="59" t="s">
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="56" t="s">
+      <c r="O22" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="59" t="s">
+      <c r="P22" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
     </row>
     <row r="23" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="C23" s="11" t="s">
@@ -4285,19 +4336,19 @@
       <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="57" t="s">
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
     </row>
     <row r="24" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="D24" s="4" t="s">
@@ -4312,57 +4363,57 @@
       <c r="G24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
     </row>
     <row r="25" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
       <c r="F25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="59" t="s">
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="56" t="s">
+      <c r="O25" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="61" t="s">
+      <c r="P25" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
     </row>
     <row r="26" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="F26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="59" t="s">
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
     </row>
     <row r="27" spans="3:20" ht="18" thickTop="1" thickBot="1">
       <c r="C27" s="8" t="s">
@@ -4575,23 +4626,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="23.25">
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
     </row>
     <row r="4" spans="3:19">
       <c r="O4" t="s">
@@ -4614,18 +4665,18 @@
       <c r="G5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
     </row>
     <row r="6" spans="3:19">
       <c r="C6" s="29" t="s">
@@ -4898,12 +4949,12 @@
       <c r="R13" s="32"/>
     </row>
     <row r="14" spans="3:19">
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
       <c r="K14" s="32"/>
@@ -5093,12 +5144,12 @@
       <c r="R21" s="32"/>
     </row>
     <row r="22" spans="3:18">
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="I22" s="32" t="s">
         <v>154</v>
       </c>
@@ -5113,12 +5164,12 @@
       <c r="R22" s="32"/>
     </row>
     <row r="23" spans="3:18">
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
       <c r="K23" s="32"/>
@@ -5167,15 +5218,15 @@
         <v>60</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
     </row>
     <row r="27" spans="3:18">
       <c r="C27" s="29">
@@ -5571,12 +5622,12 @@
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="3:15">
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
     </row>
     <row r="46" spans="3:15">
       <c r="C46" s="29" t="s">
@@ -5654,12 +5705,12 @@
       <c r="F51" s="29"/>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="39" t="s">
+      <c r="C52" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="58"/>
     </row>
     <row r="53" spans="3:6">
       <c r="C53" s="29" t="s">
@@ -5854,12 +5905,12 @@
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="39" t="s">
+      <c r="C68" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="41"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="58"/>
     </row>
     <row r="69" spans="3:6">
       <c r="C69" s="29" t="s">
@@ -6548,16 +6599,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="18" t="s">
@@ -6592,10 +6643,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="17" t="s">
@@ -6638,10 +6689,10 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="17" t="s">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C566FC0E-5A7F-4521-8D5A-88580521B68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3BCAC6-D759-419F-B6A8-9E5C4CF4CACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" tabRatio="748" activeTab="1" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="748" activeTab="5" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId2"/>
-    <sheet name="TurboFuelPowerProject" sheetId="10" r:id="rId3"/>
-    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId4"/>
-    <sheet name="DiagramLayout" sheetId="2" r:id="rId5"/>
-    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId6"/>
-    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId7"/>
-    <sheet name="MinerOutputValues" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId3"/>
+    <sheet name="TurboFuelPowerProject" sheetId="10" r:id="rId4"/>
+    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId5"/>
+    <sheet name="DiagramLayout" sheetId="2" r:id="rId6"/>
+    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId7"/>
+    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId8"/>
+    <sheet name="MinerOutputValues" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="338">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -937,12 +938,6 @@
     <t xml:space="preserve">3. Oil Site, Rubber Production , w /Aluminum Scrap Too </t>
   </si>
   <si>
-    <t>2 Plastic Refineries</t>
-  </si>
-  <si>
-    <t>300 Residue Out</t>
-  </si>
-  <si>
     <t>240 Coke made by 2 Refineries using 80 Heavy Residue</t>
   </si>
   <si>
@@ -970,55 +965,127 @@
     <t>9 Refineries</t>
   </si>
   <si>
-    <t>12 Rubber Refineries, Overclock 1 to 40 Residue Out</t>
-  </si>
-  <si>
-    <t>240 Residue Remaining</t>
-  </si>
-  <si>
-    <t>Send to Residual Fuel , 4 refineries, = 160 Fuel / minute</t>
-  </si>
-  <si>
-    <t>14 Fuel Generators to Consume</t>
-  </si>
-  <si>
-    <t>140 Heavy Frames</t>
-  </si>
-  <si>
-    <t>70 Computers</t>
-  </si>
-  <si>
-    <t>14 refineries</t>
-  </si>
-  <si>
-    <t>4 Refineries</t>
-  </si>
-  <si>
     <t>To Train</t>
   </si>
   <si>
-    <t>To Train Both</t>
-  </si>
-  <si>
-    <t>27 refineries</t>
-  </si>
-  <si>
-    <t>rubber</t>
-  </si>
-  <si>
-    <t>quickwire</t>
-  </si>
-  <si>
-    <t>motors</t>
-  </si>
-  <si>
-    <t>encased</t>
-  </si>
-  <si>
-    <t>pipes</t>
-  </si>
-  <si>
-    <t>sheets</t>
+    <t>300 oil in</t>
+  </si>
+  <si>
+    <t>840 water in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 refineries making poymer resin heavy oil </t>
+  </si>
+  <si>
+    <t>send off in 2 pipes w/200 heavy oil each</t>
+  </si>
+  <si>
+    <t>polymer resin merged off</t>
+  </si>
+  <si>
+    <t>14 refineries packaging water</t>
+  </si>
+  <si>
+    <t>empty cannisters feeding (preset amount)</t>
+  </si>
+  <si>
+    <t>water coming into this part</t>
+  </si>
+  <si>
+    <t>3 pipes of water split across this</t>
+  </si>
+  <si>
+    <t>14 refineries to make the packaged diluted fuel</t>
+  </si>
+  <si>
+    <t>heavy oil comes in here</t>
+  </si>
+  <si>
+    <t>each line of 200 splits across a set of 7</t>
+  </si>
+  <si>
+    <t>filled water into these</t>
+  </si>
+  <si>
+    <t>840 water requirement</t>
+  </si>
+  <si>
+    <t>14 to unpack the fuel into pipes</t>
+  </si>
+  <si>
+    <t>empty cannisters go back around to package water</t>
+  </si>
+  <si>
+    <t>5 go into a pipe</t>
+  </si>
+  <si>
+    <t>next 5 go into a complex pump intersection</t>
+  </si>
+  <si>
+    <t>pppp&lt;-PPppp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> p      p</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ppp&lt;-PPppppp--&gt;PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        p</t>
+  </si>
+  <si>
+    <t>Turns into a 300 line alongside the first</t>
+  </si>
+  <si>
+    <t>right side of pipe combines with the final 4 refineries</t>
+  </si>
+  <si>
+    <t>turns into a 267 line</t>
+  </si>
+  <si>
+    <t>5 refineries getting the polymer resin + water</t>
+  </si>
+  <si>
+    <t>making residual rubber</t>
+  </si>
+  <si>
+    <t>200 water requirement for above</t>
+  </si>
+  <si>
+    <t>rubber out</t>
+  </si>
+  <si>
+    <t>goes to 9 refineries making recycled plastic</t>
+  </si>
+  <si>
+    <t>gets the rubber from the above 5</t>
+  </si>
+  <si>
+    <t>plus fuel from third set of 4 refineries</t>
+  </si>
+  <si>
+    <t>plastic towards 18 rubber refineries</t>
+  </si>
+  <si>
+    <t>full line from fuel goes to 10</t>
+  </si>
+  <si>
+    <t>partial line to the other 8</t>
+  </si>
+  <si>
+    <t>18 refineries using the 2 lines of fuel</t>
+  </si>
+  <si>
+    <t>inputting plastic from above step</t>
+  </si>
+  <si>
+    <t>will create 2 lines from 9 each</t>
+  </si>
+  <si>
+    <t>each line producing 450/rubber minute</t>
+  </si>
+  <si>
+    <t>Rubber Facility</t>
   </si>
 </sst>
 </file>
@@ -1956,6 +2023,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>4319</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>149238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D28591-B352-4A92-AFE0-089B7C46F153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9231086"/>
+          <a:ext cx="52533333" cy="25295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2917,11 +3028,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5507375-7A9E-448C-B8C0-7FEB668F6097}">
+  <dimension ref="C5:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA72F07-7FC2-48EA-B4C4-87606FFA9C77}">
-  <dimension ref="C4:F34"/>
+  <dimension ref="C3:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2929,148 +3099,209 @@
     <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4">
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
-      <c r="C10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
-        <v>288</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
-      <c r="C16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>303</v>
-      </c>
-      <c r="D23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="E29" t="s">
-        <v>312</v>
-      </c>
-      <c r="F29">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="E30" t="s">
-        <v>311</v>
-      </c>
-      <c r="F30">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="E31" t="s">
-        <v>310</v>
-      </c>
-      <c r="F31">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="E32" t="s">
-        <v>313</v>
-      </c>
-      <c r="F32">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33" t="s">
-        <v>314</v>
-      </c>
-      <c r="F33">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6">
-      <c r="E34" t="s">
         <v>315</v>
       </c>
-      <c r="F34">
-        <v>540</v>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3079,7 +3310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9464A97-F3A0-43AE-B1BD-70344C117AC7}">
   <dimension ref="C3:U40"/>
   <sheetViews>
@@ -3756,7 +3987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882FF9CB-C54B-4DF7-BCB6-6C966AE969A7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4573,12 +4804,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A19:A39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4596,7 +4827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
   <dimension ref="C3:S72"/>
   <sheetViews>
@@ -5978,7 +6209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2FA3DA-A5F3-411F-AB6B-7EB05B935F88}">
   <dimension ref="C2:Q39"/>
   <sheetViews>
@@ -6584,7 +6815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A4D7D-2B40-4F26-A6BD-214006A713CE}">
   <dimension ref="C3:D21"/>
   <sheetViews>

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3BCAC6-D759-419F-B6A8-9E5C4CF4CACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BF008B-5FB9-4BDA-A411-73199878E449}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="748" activeTab="5" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId3"/>
-    <sheet name="TurboFuelPowerProject" sheetId="10" r:id="rId4"/>
+    <sheet name="TurboFuelPowerProject" sheetId="10" r:id="rId2"/>
+    <sheet name="AluminumFacility" sheetId="12" r:id="rId3"/>
+    <sheet name="RubberFacility" sheetId="11" r:id="rId4"/>
     <sheet name="TierLocationOrganization" sheetId="1" r:id="rId5"/>
     <sheet name="DiagramLayout" sheetId="2" r:id="rId6"/>
     <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId7"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="367">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -908,36 +908,15 @@
     <t>Special Train Dropoff</t>
   </si>
   <si>
-    <t>4. Turbofuel Powerplant, extend train to it.</t>
-  </si>
-  <si>
     <t>5. Heavy Frames Site</t>
   </si>
   <si>
     <t>6. Computer Production</t>
   </si>
   <si>
-    <t>Stations Need Add Soon:</t>
-  </si>
-  <si>
-    <t>Rubber Outbound</t>
-  </si>
-  <si>
-    <t>TurboFuel Station Site</t>
-  </si>
-  <si>
     <t>Shopping List To Start Turbofuel</t>
   </si>
   <si>
-    <t>1a. Need Mini Aluminum Site at Bauxite Node, Belts + Casing</t>
-  </si>
-  <si>
-    <t>1. Get Materials for Train Station Expansion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Oil Site, Rubber Production , w /Aluminum Scrap Too </t>
-  </si>
-  <si>
     <t>240 Coke made by 2 Refineries using 80 Heavy Residue</t>
   </si>
   <si>
@@ -968,12 +947,6 @@
     <t>To Train</t>
   </si>
   <si>
-    <t>300 oil in</t>
-  </si>
-  <si>
-    <t>840 water in</t>
-  </si>
-  <si>
     <t xml:space="preserve">10 refineries making poymer resin heavy oil </t>
   </si>
   <si>
@@ -1025,15 +998,9 @@
     <t>pppp&lt;-PPppp</t>
   </si>
   <si>
-    <t xml:space="preserve"> p      p</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ppp&lt;-PPppppp--&gt;PP</t>
   </si>
   <si>
-    <t xml:space="preserve">        p</t>
-  </si>
-  <si>
     <t>Turns into a 300 line alongside the first</t>
   </si>
   <si>
@@ -1086,6 +1053,126 @@
   </si>
   <si>
     <t>Rubber Facility</t>
+  </si>
+  <si>
+    <t>300 Oil IN</t>
+  </si>
+  <si>
+    <t>1040 Water Requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> p                p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  p</t>
+  </si>
+  <si>
+    <t>Packaged Water</t>
+  </si>
+  <si>
+    <t>Packaged Diluted Fuel</t>
+  </si>
+  <si>
+    <t>Unpackage Diluted Fuel</t>
+  </si>
+  <si>
+    <t>Recycled Plastic</t>
+  </si>
+  <si>
+    <t>Residual Rubber</t>
+  </si>
+  <si>
+    <t>Recycled Rubber</t>
+  </si>
+  <si>
+    <t>Final Output</t>
+  </si>
+  <si>
+    <t>Sink for Excess</t>
+  </si>
+  <si>
+    <t>36L</t>
+  </si>
+  <si>
+    <t>28 W</t>
+  </si>
+  <si>
+    <t>Rig Size:</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>840 Canisters</t>
+  </si>
+  <si>
+    <t>840 Water</t>
+  </si>
+  <si>
+    <t>840 Packaged Water</t>
+  </si>
+  <si>
+    <t>Crude to Heavy Oil Residue</t>
+  </si>
+  <si>
+    <t>200 Resin</t>
+  </si>
+  <si>
+    <t>400 H. Oil</t>
+  </si>
+  <si>
+    <t>840 Packaged Fuel</t>
+  </si>
+  <si>
+    <t>840 Pacakged Fuel</t>
+  </si>
+  <si>
+    <t>840 Fuel</t>
+  </si>
+  <si>
+    <t>840 Cannisters</t>
+  </si>
+  <si>
+    <t>300 Oil</t>
+  </si>
+  <si>
+    <t>200 Polymer Resin</t>
+  </si>
+  <si>
+    <t>200 Water</t>
+  </si>
+  <si>
+    <t>100 Rubber</t>
+  </si>
+  <si>
+    <t>270 Fuel</t>
+  </si>
+  <si>
+    <t>270Rubber</t>
+  </si>
+  <si>
+    <t>540 Plastic</t>
+  </si>
+  <si>
+    <t>540 Fuel</t>
+  </si>
+  <si>
+    <t>1080 Rubber</t>
+  </si>
+  <si>
+    <t>Route 180 to Recycled Plastic</t>
+  </si>
+  <si>
+    <t>900 True Rubber Out</t>
+  </si>
+  <si>
+    <t>4. Turbofuel Powerplant</t>
+  </si>
+  <si>
+    <t>7. Revised Rubber Site</t>
+  </si>
+  <si>
+    <t>8. Revised Aluminum Site</t>
   </si>
 </sst>
 </file>
@@ -1582,7 +1669,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1732,6 +1819,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2372,8 +2462,8 @@
   </sheetPr>
   <dimension ref="C1:U45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2442,10 +2532,10 @@
     </row>
     <row r="5" spans="3:19">
       <c r="C5" s="47" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F5" s="41" t="s">
         <v>259</v>
@@ -2492,7 +2582,7 @@
     </row>
     <row r="6" spans="3:19">
       <c r="C6" s="47" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E6"/>
       <c r="F6" s="42">
@@ -2540,7 +2630,7 @@
     </row>
     <row r="7" spans="3:19">
       <c r="C7" s="47" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>269</v>
@@ -2562,7 +2652,7 @@
     </row>
     <row r="8" spans="3:19">
       <c r="C8" s="47" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>267</v>
@@ -2583,8 +2673,8 @@
       <c r="S8"/>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="51" t="s">
-        <v>279</v>
+      <c r="C9" s="47" t="s">
+        <v>366</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>268</v>
@@ -2610,10 +2700,7 @@
       <c r="R9"/>
       <c r="S9"/>
     </row>
-    <row r="10" spans="3:19">
-      <c r="C10" s="47" t="s">
-        <v>280</v>
-      </c>
+    <row r="10" spans="3:19" ht="19.5" thickBot="1">
       <c r="E10" s="42" t="s">
         <v>98</v>
       </c>
@@ -2638,7 +2725,10 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="3:19">
+    <row r="11" spans="3:19" ht="20.25" thickTop="1" thickBot="1">
+      <c r="C11" s="45" t="s">
+        <v>111</v>
+      </c>
       <c r="E11" s="42" t="s">
         <v>51</v>
       </c>
@@ -2657,7 +2747,10 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="3:19">
+    <row r="12" spans="3:19" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C12" s="53" t="s">
+        <v>20</v>
+      </c>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -2671,7 +2764,10 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="3:19">
+    <row r="13" spans="3:19" ht="43.5" thickTop="1" thickBot="1">
+      <c r="C13" s="53" t="s">
+        <v>227</v>
+      </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -2685,7 +2781,10 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="3:19">
+    <row r="14" spans="3:19" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C14" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -2699,7 +2798,10 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="3:19">
+    <row r="15" spans="3:19" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C15" s="53" t="s">
+        <v>268</v>
+      </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -2713,7 +2815,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="3:19" ht="19.5" thickBot="1">
+    <row r="16" spans="3:19">
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -2727,10 +2829,7 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C17" s="45" t="s">
-        <v>111</v>
-      </c>
+    <row r="17" spans="3:16">
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
@@ -2744,10 +2843,7 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C18" s="53" t="s">
-        <v>20</v>
-      </c>
+    <row r="18" spans="3:16">
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
@@ -2761,10 +2857,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="3:16" ht="43.5" thickTop="1" thickBot="1">
-      <c r="C19" s="53" t="s">
-        <v>227</v>
-      </c>
+    <row r="19" spans="3:16">
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
@@ -2778,10 +2871,7 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C20" s="53" t="s">
-        <v>98</v>
-      </c>
+    <row r="20" spans="3:16">
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -2795,10 +2885,7 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C21" s="53" t="s">
-        <v>268</v>
-      </c>
+    <row r="21" spans="3:16">
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -2813,6 +2900,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="3:16">
+      <c r="C22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
@@ -2827,9 +2915,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="3:16">
-      <c r="C23" s="54" t="s">
-        <v>281</v>
-      </c>
+      <c r="C23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
@@ -2844,9 +2930,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="3:16">
-      <c r="C24" s="55">
-        <v>3</v>
-      </c>
+      <c r="C24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
@@ -2861,9 +2945,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="3:16">
-      <c r="C25" s="55">
-        <v>4</v>
-      </c>
+      <c r="C25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -2878,9 +2960,7 @@
       <c r="P25"/>
     </row>
     <row r="26" spans="3:16">
-      <c r="C26" s="55">
-        <v>5</v>
-      </c>
+      <c r="C26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -2895,9 +2975,7 @@
       <c r="P26"/>
     </row>
     <row r="27" spans="3:16">
-      <c r="C27" s="55">
-        <v>6</v>
-      </c>
+      <c r="C27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
@@ -2912,9 +2990,7 @@
       <c r="P27"/>
     </row>
     <row r="28" spans="3:16">
-      <c r="C28" s="55">
-        <v>7</v>
-      </c>
+      <c r="C28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -2929,9 +3005,7 @@
       <c r="P28"/>
     </row>
     <row r="29" spans="3:16">
-      <c r="C29" s="55">
-        <v>8</v>
-      </c>
+      <c r="C29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
@@ -2946,9 +3020,7 @@
       <c r="P29"/>
     </row>
     <row r="30" spans="3:16">
-      <c r="C30" s="55">
-        <v>9</v>
-      </c>
+      <c r="C30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
@@ -2963,9 +3035,7 @@
       <c r="P30"/>
     </row>
     <row r="31" spans="3:16">
-      <c r="C31" s="55">
-        <v>10</v>
-      </c>
+      <c r="C31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
@@ -2980,14 +3050,10 @@
       <c r="P31"/>
     </row>
     <row r="32" spans="3:16">
-      <c r="C32" s="55" t="s">
-        <v>282</v>
-      </c>
+      <c r="C32"/>
     </row>
     <row r="33" spans="3:21">
-      <c r="C33" s="55" t="s">
-        <v>283</v>
-      </c>
+      <c r="C33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -3005,6 +3071,7 @@
       <c r="S33"/>
     </row>
     <row r="34" spans="3:21">
+      <c r="C34"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
@@ -3028,289 +3095,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5507375-7A9E-448C-B8C0-7FEB668F6097}">
-  <dimension ref="C5:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="5" spans="3:4">
-      <c r="C5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA72F07-7FC2-48EA-B4C4-87606FFA9C77}">
-  <dimension ref="C3:C53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
-        <v>336</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9464A97-F3A0-43AE-B1BD-70344C117AC7}">
   <dimension ref="C3:U40"/>
   <sheetViews>
@@ -3987,6 +3771,468 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5507375-7A9E-448C-B8C0-7FEB668F6097}">
+  <dimension ref="C5:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA72F07-7FC2-48EA-B4C4-87606FFA9C77}">
+  <dimension ref="A2:N32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="18.75">
+      <c r="A2" s="54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75">
+      <c r="A3" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75">
+      <c r="A4" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75">
+      <c r="C5" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75">
+      <c r="J6" s="55" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75">
+      <c r="C7" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75">
+      <c r="C8" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75">
+      <c r="C9" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="N9" s="54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75">
+      <c r="C10" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="N10" s="55" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75">
+      <c r="J11" s="55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75">
+      <c r="C12" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75">
+      <c r="C13" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55" t="s">
+        <v>351</v>
+      </c>
+      <c r="H13" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="J13" s="55" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75">
+      <c r="C14" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75">
+      <c r="C15" s="55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75">
+      <c r="C16" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="J16" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="N16" s="54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="18.75">
+      <c r="C17" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>355</v>
+      </c>
+      <c r="N17" s="55" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="18.75">
+      <c r="C18" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="18.75">
+      <c r="C19" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="18.75">
+      <c r="C20" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="J20" s="55" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="18.75">
+      <c r="C21" s="55" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="18.75">
+      <c r="C22" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="L22" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="M22" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="N22" s="54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="18.75">
+      <c r="C23" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="J23" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="L23" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="M23" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="N23" s="55" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="18.75">
+      <c r="C24" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="18.75">
+      <c r="N25" s="55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="18.75">
+      <c r="C26" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="N26" s="55" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="18.75">
+      <c r="C27" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>357</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="G27" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="18.75">
+      <c r="C28" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="J28" s="55" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="18.75">
+      <c r="C29" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="J29" s="55" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="18.75">
+      <c r="C30" s="55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" ht="18.75">
+      <c r="C31" s="55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" ht="18.75">
+      <c r="C32" s="55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882FF9CB-C54B-4DF7-BCB6-6C966AE969A7}">
   <sheetPr>
@@ -3994,8 +4240,8 @@
   </sheetPr>
   <dimension ref="C1:T79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4808,7 +5054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A19:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -4831,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
   <dimension ref="C3:S72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BF008B-5FB9-4BDA-A411-73199878E449}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E882B621-159A-41D6-B97A-ED15EAD61F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
     <sheet name="TurboFuelPowerProject" sheetId="10" r:id="rId2"/>
-    <sheet name="AluminumFacility" sheetId="12" r:id="rId3"/>
-    <sheet name="RubberFacility" sheetId="11" r:id="rId4"/>
-    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId5"/>
-    <sheet name="DiagramLayout" sheetId="2" r:id="rId6"/>
+    <sheet name="DiagramLayout" sheetId="2" r:id="rId3"/>
+    <sheet name="AluminumFacility" sheetId="12" r:id="rId4"/>
+    <sheet name="RubberFacility" sheetId="11" r:id="rId5"/>
+    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId6"/>
     <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId7"/>
     <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId8"/>
     <sheet name="MinerOutputValues" sheetId="5" r:id="rId9"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="364">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -491,33 +491,6 @@
     <t>OutputPer</t>
   </si>
   <si>
-    <t>Production#</t>
-  </si>
-  <si>
-    <t>480 Copper</t>
-  </si>
-  <si>
-    <t>180 Steel</t>
-  </si>
-  <si>
-    <t>360 Steel</t>
-  </si>
-  <si>
-    <t>192 Copper</t>
-  </si>
-  <si>
-    <t>525 Copper</t>
-  </si>
-  <si>
-    <t>48 Caterium</t>
-  </si>
-  <si>
-    <t>105 Caterium</t>
-  </si>
-  <si>
-    <t>480 Iron</t>
-  </si>
-  <si>
     <t>Grassland Regional Production</t>
   </si>
   <si>
@@ -527,18 +500,6 @@
     <t>Max w/ Mk3 Miners</t>
   </si>
   <si>
-    <t>Add to Line:</t>
-  </si>
-  <si>
-    <t>1 Copper</t>
-  </si>
-  <si>
-    <t>2 LS Lines</t>
-  </si>
-  <si>
-    <t>Upgrade 1 Copper to Mk2</t>
-  </si>
-  <si>
     <t>Smelting Output Potential</t>
   </si>
   <si>
@@ -914,9 +875,6 @@
     <t>6. Computer Production</t>
   </si>
   <si>
-    <t>Shopping List To Start Turbofuel</t>
-  </si>
-  <si>
     <t>240 Coke made by 2 Refineries using 80 Heavy Residue</t>
   </si>
   <si>
@@ -1166,13 +1124,46 @@
     <t>900 True Rubber Out</t>
   </si>
   <si>
-    <t>4. Turbofuel Powerplant</t>
-  </si>
-  <si>
     <t>7. Revised Rubber Site</t>
   </si>
   <si>
     <t>8. Revised Aluminum Site</t>
+  </si>
+  <si>
+    <t>Input Type</t>
+  </si>
+  <si>
+    <t>Iron Ingot</t>
+  </si>
+  <si>
+    <t>Current#Possible</t>
+  </si>
+  <si>
+    <t>Input 2 Type</t>
+  </si>
+  <si>
+    <t>Caterium Ingot</t>
+  </si>
+  <si>
+    <t>All Iron Remainder = R.Plates</t>
+  </si>
+  <si>
+    <t>Steel = 80% Pipes, 20% Beams</t>
+  </si>
+  <si>
+    <t>Copper = 15% Fused, 35% QW, 50% Sheets</t>
+  </si>
+  <si>
+    <t>Caterium = 35%Fused, 65% QW</t>
+  </si>
+  <si>
+    <t>9. Turn Coal lake into Steel Production Site</t>
+  </si>
+  <si>
+    <t>10. Fill in Fuel Generators at Turbofuel Site over Time</t>
+  </si>
+  <si>
+    <t>To Finish 7 Floors</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1660,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1790,6 +1781,15 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1820,9 +1820,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -1851,13 +1849,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>39609</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
@@ -1883,8 +1881,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="0"/>
-          <a:ext cx="6135609" cy="3314701"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6119396" cy="3314701"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2463,7 +2461,7 @@
   <dimension ref="C1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2485,8 +2483,8 @@
     <col min="16" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="19.5" thickBot="1"/>
-    <row r="2" spans="3:19" ht="20.25" thickTop="1" thickBot="1">
+    <row r="1" spans="3:20" ht="19.5" thickBot="1"/>
+    <row r="2" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="D2" s="45"/>
       <c r="E2"/>
       <c r="F2"/>
@@ -2501,7 +2499,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="3:19" ht="19.5" thickTop="1">
+    <row r="3" spans="3:20" ht="19.5" thickTop="1">
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -2514,8 +2512,12 @@
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
-    </row>
-    <row r="4" spans="3:19">
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="3:20">
       <c r="C4"/>
       <c r="E4"/>
       <c r="F4"/>
@@ -2529,117 +2531,96 @@
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
-    </row>
-    <row r="5" spans="3:19">
-      <c r="C5" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>280</v>
-      </c>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="3:20">
+      <c r="C5"/>
+      <c r="E5"/>
       <c r="F5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="3:20">
+      <c r="C6" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="O5" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="R5" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="S5" s="43" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19">
-      <c r="C6" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6"/>
       <c r="F6" s="42">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="G6" s="42">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H6" s="42">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="I6" s="42">
-        <v>770</v>
+        <v>45</v>
       </c>
       <c r="J6" s="42">
-        <v>480</v>
-      </c>
-      <c r="K6" s="42">
-        <v>1080</v>
-      </c>
-      <c r="L6" s="42">
-        <v>170</v>
-      </c>
-      <c r="M6" s="42">
-        <v>656</v>
-      </c>
-      <c r="N6" s="42">
-        <v>40</v>
-      </c>
-      <c r="O6" s="42">
-        <v>1380</v>
-      </c>
-      <c r="P6" s="42">
         <v>450</v>
       </c>
-      <c r="Q6" s="42">
-        <v>85</v>
-      </c>
-      <c r="R6" s="42">
-        <v>450</v>
-      </c>
-      <c r="S6" s="42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="3:19">
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="3:20">
       <c r="C7" s="47" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
+        <v>363</v>
+      </c>
+      <c r="F7" s="42">
+        <f>F6*7</f>
+        <v>945</v>
+      </c>
+      <c r="G7" s="42">
+        <f t="shared" ref="G7:J7" si="0">G6*7</f>
+        <v>630</v>
+      </c>
+      <c r="H7" s="42">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
+      <c r="I7" s="42">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J7" s="42">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -2649,19 +2630,13 @@
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
-    </row>
-    <row r="8" spans="3:19">
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="3:20">
       <c r="C8" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
+        <v>350</v>
+      </c>
+      <c r="E8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -2671,25 +2646,13 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
-    </row>
-    <row r="9" spans="3:19">
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="3:20">
       <c r="C9" s="47" t="s">
-        <v>366</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
+        <v>351</v>
+      </c>
+      <c r="E9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -2699,20 +2662,16 @@
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
-    </row>
-    <row r="10" spans="3:19" ht="19.5" thickBot="1">
-      <c r="E10" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="42">
-        <v>40</v>
-      </c>
-      <c r="G10" s="42">
-        <v>256</v>
-      </c>
-      <c r="H10" s="42">
-        <v>40</v>
-      </c>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="3:20">
+      <c r="C10" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -2724,14 +2683,13 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
-    </row>
-    <row r="11" spans="3:19" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C11" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>51</v>
-      </c>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="3:20">
+      <c r="C11" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
@@ -2747,10 +2705,7 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="3:19" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C12" s="53" t="s">
-        <v>20</v>
-      </c>
+    <row r="12" spans="3:20">
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -2764,10 +2719,7 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="3:19" ht="43.5" thickTop="1" thickBot="1">
-      <c r="C13" s="53" t="s">
-        <v>227</v>
-      </c>
+    <row r="13" spans="3:20">
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -2781,10 +2733,7 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="3:19" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C14" s="53" t="s">
-        <v>98</v>
-      </c>
+    <row r="14" spans="3:20">
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -2798,10 +2747,7 @@
       <c r="O14"/>
       <c r="P14"/>
     </row>
-    <row r="15" spans="3:19" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C15" s="53" t="s">
-        <v>268</v>
-      </c>
+    <row r="15" spans="3:20">
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -2815,7 +2761,7 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="3:19">
+    <row r="16" spans="3:20" ht="19.5" thickBot="1">
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -2829,7 +2775,10 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="3:16">
+    <row r="17" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
+      <c r="C17" s="45" t="s">
+        <v>111</v>
+      </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
@@ -2843,7 +2792,10 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="3:16">
+    <row r="18" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C18" s="53" t="s">
+        <v>20</v>
+      </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
@@ -2857,7 +2809,10 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="3:16">
+    <row r="19" spans="3:16" ht="43.5" thickTop="1" thickBot="1">
+      <c r="C19" s="53" t="s">
+        <v>214</v>
+      </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
@@ -2871,7 +2826,10 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="3:16">
+    <row r="20" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C20" s="53" t="s">
+        <v>98</v>
+      </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -2885,7 +2843,10 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="3:16">
+    <row r="21" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C21" s="53" t="s">
+        <v>255</v>
+      </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -3098,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9464A97-F3A0-43AE-B1BD-70344C117AC7}">
   <dimension ref="C3:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3124,39 +3085,39 @@
   <sheetData>
     <row r="3" spans="3:21">
       <c r="C3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="3:21">
       <c r="C5" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="I5" s="41" t="s">
         <v>102</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="41" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="N5" s="41" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="O5" s="41" t="s">
         <v>51</v>
       </c>
       <c r="P5" s="43" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="43" t="s">
         <v>94</v>
@@ -3168,12 +3129,12 @@
         <v>98</v>
       </c>
       <c r="T5" s="43" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="3:21">
       <c r="E6" s="41" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F6" s="42">
         <v>1</v>
@@ -3203,10 +3164,10 @@
     </row>
     <row r="7" spans="3:21">
       <c r="C7" s="39" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F7" s="42">
         <v>22</v>
@@ -3236,10 +3197,10 @@
     </row>
     <row r="8" spans="3:21">
       <c r="C8" s="40" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F8" s="42">
         <v>8</v>
@@ -3269,10 +3230,10 @@
     </row>
     <row r="9" spans="3:21">
       <c r="C9" s="40" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F9" s="42">
         <v>8</v>
@@ -3305,10 +3266,10 @@
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="40" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F10" s="42">
         <v>46</v>
@@ -3341,7 +3302,7 @@
     </row>
     <row r="11" spans="3:21">
       <c r="E11" s="41" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F11" s="42">
         <v>9</v>
@@ -3377,10 +3338,10 @@
     </row>
     <row r="12" spans="3:21">
       <c r="C12" s="39" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="F12" s="42"/>
       <c r="H12" s="42">
@@ -3438,10 +3399,10 @@
     </row>
     <row r="13" spans="3:21">
       <c r="C13" s="40" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F13" s="42"/>
       <c r="H13" s="42">
@@ -3499,41 +3460,41 @@
     </row>
     <row r="14" spans="3:21">
       <c r="C14" s="40" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="3:21">
       <c r="C15" s="40" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="3:21">
       <c r="H16" s="41" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="I16" s="41" t="s">
         <v>102</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="K16" s="41" t="s">
         <v>18</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="M16" s="41" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="O16" s="41" t="s">
         <v>51</v>
       </c>
       <c r="P16" s="43" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="43" t="s">
         <v>94</v>
@@ -3545,18 +3506,18 @@
         <v>98</v>
       </c>
       <c r="T16" s="43" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="U16" s="43" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="3:21">
       <c r="C17" s="39" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="H17" s="42">
         <v>256</v>
@@ -3603,26 +3564,26 @@
     </row>
     <row r="18" spans="3:21">
       <c r="C18" s="40" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="3:21">
       <c r="E19" s="43" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="3:21">
       <c r="C20" s="39" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="I20" s="43" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="J20" s="43" t="s">
         <v>98</v>
@@ -3630,10 +3591,10 @@
     </row>
     <row r="21" spans="3:21">
       <c r="C21" s="40" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="H21" s="42">
         <v>40</v>
@@ -3647,7 +3608,7 @@
     </row>
     <row r="22" spans="3:21">
       <c r="C22" s="40" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>98</v>
@@ -3660,109 +3621,75 @@
     </row>
     <row r="24" spans="3:21">
       <c r="C24" s="39" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="3:21">
       <c r="C25" s="40" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="3:21">
       <c r="C26" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="J26" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="43" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="3:21">
       <c r="C27" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="H27" s="42">
-        <v>135</v>
-      </c>
-      <c r="I27" s="42">
-        <v>90</v>
-      </c>
-      <c r="J27" s="42">
-        <v>450</v>
-      </c>
-      <c r="K27" s="42">
-        <v>45</v>
-      </c>
-      <c r="L27" s="42">
-        <v>450</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="3:21">
       <c r="C29" s="39" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="3:21">
       <c r="C30" s="40" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="3:21">
       <c r="C31" s="40" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="39" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="40" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="40" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" s="39" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="40" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="40" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="40" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3772,6 +3699,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
+  <dimension ref="A19:A39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="19" ht="9.75" customHeight="1"/>
+    <row r="39" ht="12" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5507375-7A9E-448C-B8C0-7FEB668F6097}">
   <dimension ref="C5:D13"/>
   <sheetViews>
@@ -3783,46 +3733,46 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="3:4">
       <c r="C8" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3831,12 +3781,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA72F07-7FC2-48EA-B4C4-87606FFA9C77}">
   <dimension ref="A2:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3856,375 +3806,375 @@
   <sheetData>
     <row r="2" spans="1:14" ht="18.75">
       <c r="A2" s="54" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="55" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="E3" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="L3" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M3" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="N3" s="54" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="55" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="N4" s="55" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75">
-      <c r="C5" s="66" t="s">
-        <v>328</v>
+      <c r="C5" s="56" t="s">
+        <v>314</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75">
       <c r="J6" s="55" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75">
       <c r="C7" s="54" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75">
       <c r="C8" s="55" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F8" s="55"/>
       <c r="G8" s="55" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75">
       <c r="C9" s="55" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="L9" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M9" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="N9" s="54" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75">
       <c r="C10" s="55" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M10" s="55" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="N10" s="55" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75">
       <c r="J11" s="55" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75">
       <c r="C12" s="54" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75">
       <c r="C13" s="55" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F13" s="55"/>
       <c r="G13" s="55" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="J13" s="55" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75">
       <c r="C14" s="55" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75">
       <c r="C15" s="55" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75">
       <c r="C16" s="55" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="L16" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M16" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="N16" s="54" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="18.75">
       <c r="C17" s="55" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="J17" s="55" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="L17" s="55" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="M17" s="55" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="N17" s="55" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="18.75">
       <c r="C18" s="55" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="J18" s="55" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="18.75">
       <c r="C19" s="55" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J19" s="55" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="18.75">
       <c r="C20" s="55" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="J20" s="55" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="18.75">
       <c r="C21" s="55" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="18.75">
       <c r="C22" s="55" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="J22" s="54" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="L22" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="M22" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="N22" s="54" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="18.75">
       <c r="C23" s="55" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="J23" s="55" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="L23" s="55" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="M23" s="55" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="N23" s="55" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75">
       <c r="C24" s="55" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="J24" s="55" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="18.75">
       <c r="N25" s="55" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="18.75">
       <c r="C26" s="54" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="F26" s="54" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J26" s="54" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N26" s="55" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="18.75">
       <c r="C27" s="55" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F27" s="55" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G27" s="55" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="J27" s="55" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="18.75">
       <c r="C28" s="55" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="J28" s="55" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="18.75">
       <c r="C29" s="55" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="J29" s="55" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="3:14" ht="18.75">
       <c r="C30" s="55" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="3:14" ht="18.75">
       <c r="C31" s="55" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="18.75">
       <c r="C32" s="55" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4233,15 +4183,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882FF9CB-C54B-4DF7-BCB6-6C966AE969A7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C1:T79"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4307,11 +4257,11 @@
       </c>
       <c r="Q3" s="44"/>
       <c r="R3" s="44" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="44" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
@@ -4379,13 +4329,13 @@
       <c r="P5" s="44"/>
       <c r="Q5" s="44"/>
       <c r="R5" s="49" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="S5" s="46" t="s">
         <v>7</v>
       </c>
       <c r="T5" s="50" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
@@ -4481,11 +4431,11 @@
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
       <c r="R9" s="49" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="S9" s="44"/>
       <c r="T9" s="50" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
@@ -4507,7 +4457,7 @@
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="49" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="S10" s="44"/>
       <c r="T10" s="44"/>
@@ -4766,7 +4716,7 @@
         <v>24</v>
       </c>
       <c r="K21" s="49" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="44"/>
@@ -4790,7 +4740,7 @@
         <v>7</v>
       </c>
       <c r="P22" s="49" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="44"/>
       <c r="R22" s="44"/>
@@ -5050,83 +5000,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
-  <dimension ref="A19:A39"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
+  <dimension ref="C1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="19" ht="9.75" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
-  <dimension ref="C3:S72"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
+    <col min="1" max="2" width="2.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
+    <col min="13" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" ht="23.25">
-      <c r="C3" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-    </row>
-    <row r="4" spans="3:19">
-      <c r="O4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="3:19">
+    <row r="1" spans="3:21" ht="8.25" customHeight="1"/>
+    <row r="2" spans="3:21" ht="8.25" customHeight="1"/>
+    <row r="3" spans="3:21" ht="23.25">
+      <c r="C3" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="R4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21">
       <c r="C5" s="28" t="s">
         <v>73</v>
       </c>
@@ -5142,20 +5077,27 @@
       <c r="G5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="H5" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-    </row>
-    <row r="6" spans="3:19">
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+    </row>
+    <row r="6" spans="3:21">
       <c r="C6" s="29" t="s">
         <v>71</v>
       </c>
@@ -5171,41 +5113,47 @@
       <c r="G6" s="29">
         <v>0</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="L6" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="L6" s="35" t="s">
+      <c r="M6" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="N6" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="O6" s="35" t="s">
+      <c r="P6" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="R6" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>165</v>
-      </c>
       <c r="S6" s="35" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="3:19">
+        <v>151</v>
+      </c>
+      <c r="T6" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="U6" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21">
       <c r="C7" s="29" t="s">
         <v>70</v>
       </c>
@@ -5221,43 +5169,49 @@
       <c r="G7" s="29">
         <v>0</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="H7" s="29">
+        <v>2</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="33">
+      <c r="L7" s="33">
         <v>120</v>
       </c>
-      <c r="K7" s="33">
+      <c r="M7" s="33">
         <f>D16</f>
         <v>440</v>
       </c>
-      <c r="L7" s="33">
+      <c r="N7" s="33">
         <f>E16</f>
         <v>1100</v>
       </c>
-      <c r="M7" s="33">
-        <f>ROUNDDOWN(L7/J7,0)</f>
+      <c r="O7" s="33">
+        <f>ROUNDDOWN(N7/L7,0)</f>
         <v>9</v>
       </c>
-      <c r="N7" s="33">
-        <f>ROUNDDOWN(600/J7,0)</f>
+      <c r="P7" s="33">
+        <f>ROUNDDOWN(600/L7,0)</f>
         <v>5</v>
       </c>
-      <c r="O7" s="34">
-        <f>M7/3</f>
+      <c r="Q7" s="34">
+        <f>O7/3</f>
         <v>3</v>
       </c>
-      <c r="P7" s="33">
-        <f>J7*3</f>
+      <c r="R7" s="33">
+        <f>L7*3</f>
         <v>360</v>
       </c>
-      <c r="Q7" s="33">
-        <f>P7*O7</f>
+      <c r="S7" s="33">
+        <f>R7*Q7</f>
         <v>1080</v>
       </c>
-      <c r="R7" s="32"/>
-    </row>
-    <row r="8" spans="3:19">
+      <c r="T7" s="32"/>
+    </row>
+    <row r="8" spans="3:21">
       <c r="C8" s="29" t="s">
         <v>69</v>
       </c>
@@ -5273,62 +5227,74 @@
       <c r="G8" s="29">
         <v>2</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="33">
+      <c r="L8" s="33">
         <v>240</v>
       </c>
-      <c r="K8" s="33">
+      <c r="M8" s="33">
         <f>D9</f>
         <v>1680</v>
       </c>
-      <c r="L8" s="33">
+      <c r="N8" s="33">
         <f>D10</f>
         <v>4200</v>
       </c>
-      <c r="M8" s="33">
-        <f>ROUNDDOWN(L8/J8,0)</f>
+      <c r="O8" s="33">
+        <f>ROUNDDOWN(N8/L8,0)</f>
         <v>17</v>
       </c>
-      <c r="N8" s="33">
-        <f>ROUNDDOWN(L8/J8,0)</f>
+      <c r="P8" s="33">
+        <f>ROUNDDOWN(N8/L8,0)</f>
         <v>17</v>
       </c>
-      <c r="O8" s="33">
+      <c r="Q8" s="33">
         <v>10</v>
       </c>
-      <c r="P8" s="33">
+      <c r="R8" s="33">
         <v>720</v>
       </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="32"/>
-    </row>
-    <row r="9" spans="3:19">
+      <c r="S8" s="33"/>
+      <c r="T8" s="32"/>
+    </row>
+    <row r="9" spans="3:21">
       <c r="C9" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="29">
-        <f>E44</f>
+        <f>E46</f>
         <v>1680</v>
       </c>
       <c r="E9" s="29">
-        <f>E51</f>
+        <f>E53</f>
         <v>600</v>
       </c>
       <c r="F9" s="29">
-        <f>E67</f>
+        <f>E69</f>
         <v>1320</v>
       </c>
       <c r="G9" s="29">
-        <f>E72</f>
+        <f>E74</f>
         <v>480</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="H9" s="29">
+        <f>E79</f>
+        <v>600</v>
+      </c>
+      <c r="I9" s="29">
+        <f>E83</f>
+        <v>300</v>
+      </c>
+      <c r="K9" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
@@ -5336,10 +5302,13 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="32"/>
-    </row>
-    <row r="10" spans="3:19">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+    </row>
+    <row r="10" spans="3:21">
       <c r="C10" s="29" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D10" s="29">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (D8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
@@ -5357,11 +5326,17 @@
         <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (G8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
         <v>1200</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="H10" s="29">
+        <f>SUM((H6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (H7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (H8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
+        <v>600</v>
+      </c>
+      <c r="I10" s="29">
+        <f>SUM((I6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (I7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (I8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
+        <v>300</v>
+      </c>
+      <c r="K10" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="32"/>
@@ -5369,10 +5344,13 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
-    </row>
-    <row r="11" spans="3:19">
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+    </row>
+    <row r="11" spans="3:21">
       <c r="C11" s="29" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D11" s="29">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
@@ -5390,8 +5368,14 @@
         <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (G8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>1440</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="H11" s="29">
+        <f>SUM((H6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (H7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (H8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
+        <v>1200</v>
+      </c>
+      <c r="I11" s="29">
+        <f>SUM((I6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (I7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (I8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
+        <v>600</v>
+      </c>
       <c r="K11" s="32"/>
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
@@ -5400,10 +5384,11 @@
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
-    </row>
-    <row r="12" spans="3:19">
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+    </row>
+    <row r="12" spans="3:21">
       <c r="K12" s="32"/>
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
@@ -5412,10 +5397,11 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
-    </row>
-    <row r="13" spans="3:19">
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+    </row>
+    <row r="13" spans="3:21">
       <c r="K13" s="32"/>
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
@@ -5424,26 +5410,21 @@
       <c r="P13" s="32"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
-    </row>
-    <row r="14" spans="3:19">
-      <c r="C14" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="K14" s="32"/>
       <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-    </row>
-    <row r="15" spans="3:19">
+    </row>
+    <row r="15" spans="3:21">
       <c r="C15" s="30" t="s">
         <v>73</v>
       </c>
@@ -5451,23 +5432,15 @@
         <v>80</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+        <v>144</v>
+      </c>
       <c r="K15" s="32"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-    </row>
-    <row r="16" spans="3:19">
+    </row>
+    <row r="16" spans="3:21">
       <c r="C16" s="29" t="s">
         <v>22</v>
       </c>
@@ -5483,18 +5456,8 @@
         <f>SUM((F11/45)*15)</f>
         <v>2040</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-    </row>
-    <row r="17" spans="3:18">
+    </row>
+    <row r="17" spans="3:21">
       <c r="C17" s="29" t="s">
         <v>79</v>
       </c>
@@ -5510,18 +5473,13 @@
         <f>SUM((E11/50)*100)</f>
         <v>6000</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="R17" s="32"/>
-    </row>
-    <row r="18" spans="3:18">
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+    </row>
+    <row r="18" spans="3:21">
       <c r="C18" s="29" t="s">
         <v>76</v>
       </c>
@@ -5537,18 +5495,13 @@
         <f>SUM((G11/40)*60)</f>
         <v>2160</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
-    </row>
-    <row r="19" spans="3:18">
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+    </row>
+    <row r="19" spans="3:21">
       <c r="C19" s="31" t="s">
         <v>78</v>
       </c>
@@ -5564,20 +5517,13 @@
         <f>SUM(D11-(E11/2)-G11)</f>
         <v>5460</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
-    </row>
-    <row r="20" spans="3:18">
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+    </row>
+    <row r="20" spans="3:21">
       <c r="C20" s="29" t="s">
         <v>77</v>
       </c>
@@ -5593,119 +5539,90 @@
         <f>SUM((F19/30)*30)</f>
         <v>5460</v>
       </c>
-      <c r="I20" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
-    </row>
-    <row r="21" spans="3:18">
-      <c r="I21" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+    </row>
+    <row r="21" spans="3:21">
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
-    </row>
-    <row r="22" spans="3:18">
-      <c r="C22" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="I22" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
-    </row>
-    <row r="23" spans="3:18">
-      <c r="C23" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+    </row>
+    <row r="23" spans="3:21">
       <c r="Q23" s="32"/>
       <c r="R23" s="32"/>
-    </row>
-    <row r="24" spans="3:18">
-      <c r="C24" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="3:18">
-      <c r="C25" s="29">
-        <v>60</v>
-      </c>
-      <c r="D25" s="29">
-        <v>1</v>
-      </c>
-      <c r="E25" s="29">
-        <f>C25*D25</f>
-        <v>60</v>
-      </c>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="3:18">
-      <c r="C26" s="29">
-        <v>60</v>
-      </c>
-      <c r="D26" s="29">
-        <v>1</v>
-      </c>
-      <c r="E26" s="29">
-        <f t="shared" ref="E26:E43" si="0">C26*D26</f>
-        <v>60</v>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+    </row>
+    <row r="24" spans="3:21">
+      <c r="C24" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="H24" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+    </row>
+    <row r="25" spans="3:21">
+      <c r="C25" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="H25" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="I25" s="71"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+    </row>
+    <row r="26" spans="3:21">
+      <c r="C26" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="I26" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-    </row>
-    <row r="27" spans="3:18">
+      <c r="H26" s="60" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21">
       <c r="C27" s="29">
         <v>60</v>
       </c>
@@ -5713,31 +5630,15 @@
         <v>1</v>
       </c>
       <c r="E27" s="29">
-        <f t="shared" si="0"/>
+        <f>C27*D27</f>
         <v>60</v>
       </c>
       <c r="F27" s="29"/>
-      <c r="I27" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="M27" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="O27" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18">
+      <c r="H27" s="60" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21">
       <c r="C28" s="29">
         <v>60</v>
       </c>
@@ -5745,21 +5646,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E28:E45" si="0">C28*D28</f>
         <v>60</v>
       </c>
       <c r="F28" s="29"/>
-      <c r="I28" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-    </row>
-    <row r="29" spans="3:18">
+    </row>
+    <row r="29" spans="3:21">
       <c r="C29" s="29">
         <v>60</v>
       </c>
@@ -5771,17 +5663,18 @@
         <v>60</v>
       </c>
       <c r="F29" s="29"/>
-      <c r="I29" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-    </row>
-    <row r="30" spans="3:18">
+      <c r="H29" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+    </row>
+    <row r="30" spans="3:21">
       <c r="C30" s="29">
         <v>60</v>
       </c>
@@ -5793,17 +5686,32 @@
         <v>60</v>
       </c>
       <c r="F30" s="29"/>
-      <c r="I30" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-    </row>
-    <row r="31" spans="3:18">
+      <c r="H30" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="M30" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="O30" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21">
       <c r="C31" s="29">
         <v>60</v>
       </c>
@@ -5815,17 +5723,29 @@
         <v>60</v>
       </c>
       <c r="F31" s="29"/>
-      <c r="I31" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="J31" s="29"/>
+      <c r="H31" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="29">
+        <v>15</v>
+      </c>
+      <c r="J31" s="29" t="s">
+        <v>353</v>
+      </c>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-    </row>
-    <row r="32" spans="3:18">
+      <c r="M31" s="29">
+        <v>15</v>
+      </c>
+      <c r="N31" s="29">
+        <v>8</v>
+      </c>
+      <c r="O31" s="29">
+        <f>M31*N31</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21">
       <c r="C32" s="29">
         <v>60</v>
       </c>
@@ -5837,22 +5757,26 @@
         <v>60</v>
       </c>
       <c r="F32" s="29"/>
-      <c r="I32" s="29" t="s">
-        <v>128</v>
+      <c r="H32" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="29">
+        <v>120</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>147</v>
+        <v>353</v>
       </c>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29">
-        <v>5.625</v>
+        <v>30</v>
       </c>
       <c r="N32" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O32" s="29">
-        <v>28.125</v>
+        <f>M32*N32</f>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="3:15">
@@ -5867,11 +5791,14 @@
         <v>60</v>
       </c>
       <c r="F33" s="29"/>
-      <c r="I33" s="29" t="s">
-        <v>129</v>
+      <c r="H33" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="29">
+        <v>120</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>142</v>
+        <v>353</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="29"/>
@@ -5879,10 +5806,11 @@
         <v>20</v>
       </c>
       <c r="N33" s="29">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O33" s="29">
-        <v>240</v>
+        <f t="shared" ref="O33:O40" si="1">M33*N33</f>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="3:15">
@@ -5897,84 +5825,96 @@
         <v>60</v>
       </c>
       <c r="F34" s="29"/>
-      <c r="I34" s="29" t="s">
-        <v>130</v>
+      <c r="H34" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="29">
+        <v>120</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>141</v>
+        <v>353</v>
       </c>
       <c r="K34" s="29"/>
       <c r="L34" s="29"/>
       <c r="M34" s="29">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="N34" s="29">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O34" s="29">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="3:15">
       <c r="C35" s="29">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D35" s="29">
         <v>1</v>
       </c>
       <c r="E35" s="29">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>131</v>
+      <c r="H35" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" s="29">
+        <v>85</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
       <c r="M35" s="29">
-        <v>20</v>
+        <v>5.625</v>
       </c>
       <c r="N35" s="29">
-        <v>24</v>
+        <f>ROUNDDOWN(SUM(D20/I35),0)</f>
+        <v>10</v>
       </c>
       <c r="O35" s="29">
-        <v>480</v>
+        <f t="shared" si="1"/>
+        <v>56.25</v>
       </c>
     </row>
     <row r="36" spans="3:15">
       <c r="C36" s="29">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D36" s="29">
         <v>1</v>
       </c>
       <c r="E36" s="29">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F36" s="29"/>
-      <c r="I36" s="29" t="s">
-        <v>132</v>
+      <c r="H36" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="29">
+        <v>30</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="K36" s="29"/>
-      <c r="L36" s="29" t="s">
-        <v>146</v>
-      </c>
+      <c r="L36" s="29"/>
       <c r="M36" s="29">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="N36" s="29">
-        <v>16</v>
+        <f>ROUNDDOWN(SUM(D18*0.8)/I36,0)</f>
+        <v>19</v>
       </c>
       <c r="O36" s="29">
-        <v>1440</v>
+        <f t="shared" si="1"/>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="3:15">
@@ -5989,24 +5929,27 @@
         <v>120</v>
       </c>
       <c r="F37" s="29"/>
-      <c r="I37" s="29" t="s">
-        <v>133</v>
+      <c r="H37" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="29">
+        <v>60</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="K37" s="29"/>
-      <c r="L37" s="29" t="s">
-        <v>145</v>
-      </c>
+      <c r="L37" s="29"/>
       <c r="M37" s="29">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="N37" s="29">
-        <v>14</v>
+        <f>ROUNDDOWN(SUM(D18*0.2)/I37,0)</f>
+        <v>2</v>
       </c>
       <c r="O37" s="29">
-        <v>1260</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="3:15">
@@ -6021,6 +5964,28 @@
         <v>120</v>
       </c>
       <c r="F38" s="29"/>
+      <c r="H38" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="29">
+        <v>20</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29">
+        <v>10</v>
+      </c>
+      <c r="N38" s="29">
+        <f>ROUNDDOWN(SUM(D17*0.5)/I38,0)</f>
+        <v>30</v>
+      </c>
+      <c r="O38" s="29">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="39" spans="3:15">
       <c r="C39" s="29">
@@ -6034,6 +5999,32 @@
         <v>120</v>
       </c>
       <c r="F39" s="29"/>
+      <c r="H39" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="29">
+        <v>12</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" s="29">
+        <v>3</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M39" s="29">
+        <v>90</v>
+      </c>
+      <c r="N39" s="29">
+        <f>ROUNDDOWN(SUM(D20*0.2)/I39,0)</f>
+        <v>15</v>
+      </c>
+      <c r="O39" s="29">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
     </row>
     <row r="40" spans="3:15">
       <c r="C40" s="29">
@@ -6047,6 +6038,32 @@
         <v>120</v>
       </c>
       <c r="F40" s="29"/>
+      <c r="H40" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="29">
+        <v>37.5</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M40" s="29">
+        <v>90</v>
+      </c>
+      <c r="N40" s="29">
+        <f>ROUNDDOWN(SUM(D21*0.2)/I40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="3:15">
       <c r="C41" s="29">
@@ -6088,59 +6105,59 @@
       <c r="F43" s="29"/>
     </row>
     <row r="44" spans="3:15">
-      <c r="C44" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D44" s="29"/>
+      <c r="C44" s="29">
+        <v>120</v>
+      </c>
+      <c r="D44" s="29">
+        <v>1</v>
+      </c>
       <c r="E44" s="29">
-        <f>SUM(E25:E43)</f>
-        <v>1680</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="F44" s="29"/>
     </row>
     <row r="45" spans="3:15">
-      <c r="C45" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
+      <c r="C45" s="29">
+        <v>120</v>
+      </c>
+      <c r="D45" s="29">
+        <v>1</v>
+      </c>
+      <c r="E45" s="29">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F45" s="29"/>
     </row>
     <row r="46" spans="3:15">
       <c r="C46" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>161</v>
+        <v>137</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29">
+        <f>SUM(E27:E45)</f>
+        <v>1680</v>
       </c>
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="3:15">
-      <c r="C47" s="29">
-        <v>120</v>
-      </c>
-      <c r="D47" s="29">
-        <v>1</v>
-      </c>
-      <c r="E47" s="29">
-        <f>C47*D47</f>
-        <v>120</v>
-      </c>
-      <c r="F47" s="29"/>
+      <c r="C47" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="63"/>
     </row>
     <row r="48" spans="3:15">
-      <c r="C48" s="29">
-        <v>120</v>
-      </c>
-      <c r="D48" s="29">
-        <v>1</v>
-      </c>
-      <c r="E48" s="29">
-        <f t="shared" ref="E48:E50" si="1">C48*D48</f>
-        <v>120</v>
+      <c r="C48" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="F48" s="29"/>
     </row>
@@ -6149,11 +6166,11 @@
         <v>120</v>
       </c>
       <c r="D49" s="29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E49" s="29">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f>C49*D49</f>
+        <v>120</v>
       </c>
       <c r="F49" s="29"/>
     </row>
@@ -6162,68 +6179,68 @@
         <v>120</v>
       </c>
       <c r="D50" s="29">
+        <v>1</v>
+      </c>
+      <c r="E50" s="29">
+        <f t="shared" ref="E50:E52" si="2">C50*D50</f>
+        <v>120</v>
+      </c>
+      <c r="F50" s="29"/>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" s="29">
+        <v>120</v>
+      </c>
+      <c r="D51" s="29">
         <v>1.5</v>
       </c>
-      <c r="E50" s="29">
-        <f t="shared" si="1"/>
+      <c r="E51" s="29">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="F50" s="29"/>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="C51" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29">
-        <f>SUM(E47:E50)</f>
-        <v>600</v>
-      </c>
       <c r="F51" s="29"/>
     </row>
     <row r="52" spans="3:6">
-      <c r="C52" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="58"/>
+      <c r="C52" s="29">
+        <v>120</v>
+      </c>
+      <c r="D52" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="E52" s="29">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="3:6">
       <c r="C53" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>161</v>
+        <v>137</v>
+      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29">
+        <f>SUM(E49:E52)</f>
+        <v>600</v>
       </c>
       <c r="F53" s="29"/>
     </row>
     <row r="54" spans="3:6">
-      <c r="C54" s="29">
-        <v>60</v>
-      </c>
-      <c r="D54" s="29">
-        <v>1</v>
-      </c>
-      <c r="E54" s="29">
-        <f>C54*D54</f>
-        <v>60</v>
-      </c>
-      <c r="F54" s="29"/>
+      <c r="C54" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="63"/>
     </row>
     <row r="55" spans="3:6">
-      <c r="C55" s="29">
-        <v>60</v>
-      </c>
-      <c r="D55" s="29">
-        <v>1</v>
-      </c>
-      <c r="E55" s="29">
-        <f t="shared" ref="E55:E57" si="2">C55*D55</f>
-        <v>60</v>
+      <c r="C55" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="F55" s="29"/>
     </row>
@@ -6235,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="29">
-        <f t="shared" si="2"/>
+        <f>C56*D56</f>
         <v>60</v>
       </c>
       <c r="F56" s="29"/>
@@ -6248,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E57:E59" si="3">C57*D57</f>
         <v>60</v>
       </c>
       <c r="F57" s="29"/>
@@ -6261,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="29">
-        <f>C58*D58</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="F58" s="29"/>
@@ -6274,34 +6291,34 @@
         <v>1</v>
       </c>
       <c r="E59" s="29">
-        <f t="shared" ref="E59:E61" si="3">C59*D59</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="F59" s="29"/>
     </row>
     <row r="60" spans="3:6">
       <c r="C60" s="29">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D60" s="29">
         <v>1</v>
       </c>
       <c r="E60" s="29">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f>C60*D60</f>
+        <v>60</v>
       </c>
       <c r="F60" s="29"/>
     </row>
     <row r="61" spans="3:6">
       <c r="C61" s="29">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D61" s="29">
         <v>1</v>
       </c>
       <c r="E61" s="29">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" ref="E61:E63" si="4">C61*D61</f>
+        <v>60</v>
       </c>
       <c r="F61" s="29"/>
     </row>
@@ -6313,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="29">
-        <f>C62*D62</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="F62" s="29"/>
@@ -6326,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="29">
-        <f t="shared" ref="E63:E65" si="4">C63*D63</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="F63" s="29"/>
@@ -6339,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="29">
-        <f t="shared" si="4"/>
+        <f>C64*D64</f>
         <v>120</v>
       </c>
       <c r="F64" s="29"/>
@@ -6352,103 +6369,232 @@
         <v>1</v>
       </c>
       <c r="E65" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E65:E67" si="5">C65*D65</f>
         <v>120</v>
       </c>
       <c r="F65" s="29"/>
     </row>
     <row r="66" spans="3:6">
       <c r="C66" s="29">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="D66" s="29">
         <v>1</v>
       </c>
       <c r="E66" s="29">
-        <f t="shared" ref="E66" si="5">C66*D66</f>
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" s="29">
+        <v>120</v>
+      </c>
+      <c r="D67" s="29">
+        <v>1</v>
+      </c>
+      <c r="E67" s="29">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" s="29">
         <v>240</v>
       </c>
-      <c r="F66" s="29"/>
-    </row>
-    <row r="67" spans="3:6">
-      <c r="C67" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29">
-        <f>SUM(E54:E66)</f>
-        <v>1320</v>
-      </c>
-      <c r="F67" s="29"/>
-    </row>
-    <row r="68" spans="3:6">
-      <c r="C68" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="58"/>
+      <c r="D68" s="29">
+        <v>1</v>
+      </c>
+      <c r="E68" s="29">
+        <f t="shared" ref="E68" si="6">C68*D68</f>
+        <v>240</v>
+      </c>
+      <c r="F68" s="29"/>
     </row>
     <row r="69" spans="3:6">
       <c r="C69" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29">
+        <f>SUM(E56:E68)</f>
+        <v>1320</v>
+      </c>
+      <c r="F69" s="29"/>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="63"/>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="29"/>
+    </row>
+    <row r="72" spans="3:6">
+      <c r="C72" s="29">
+        <v>240</v>
+      </c>
+      <c r="D72" s="29">
+        <v>1</v>
+      </c>
+      <c r="E72" s="29">
+        <f>C72*D72</f>
+        <v>240</v>
+      </c>
+      <c r="F72" s="29"/>
+    </row>
+    <row r="73" spans="3:6">
+      <c r="C73" s="29">
+        <v>240</v>
+      </c>
+      <c r="D73" s="29">
+        <v>1</v>
+      </c>
+      <c r="E73" s="29">
+        <f t="shared" ref="E73" si="7">C73*D73</f>
+        <v>240</v>
+      </c>
+      <c r="F73" s="29"/>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="C74" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29">
+        <f>SUM(E72:E73)</f>
+        <v>480</v>
+      </c>
+      <c r="F74" s="29"/>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="C75" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="D69" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F69" s="29"/>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="C70" s="29">
-        <v>240</v>
-      </c>
-      <c r="D70" s="29">
-        <v>1</v>
-      </c>
-      <c r="E70" s="29">
-        <f>C70*D70</f>
-        <v>240</v>
-      </c>
-      <c r="F70" s="29"/>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="C71" s="29">
-        <v>240</v>
-      </c>
-      <c r="D71" s="29">
-        <v>1</v>
-      </c>
-      <c r="E71" s="29">
-        <f t="shared" ref="E71" si="6">C71*D71</f>
-        <v>240</v>
-      </c>
-      <c r="F71" s="29"/>
-    </row>
-    <row r="72" spans="3:6">
-      <c r="C72" s="29" t="s">
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="63"/>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="C76" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="29"/>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="C77" s="29">
+        <v>120</v>
+      </c>
+      <c r="D77" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E77" s="29">
+        <f>C77*D77</f>
+        <v>300</v>
+      </c>
+      <c r="F77" s="29"/>
+    </row>
+    <row r="78" spans="3:6">
+      <c r="C78" s="29">
+        <v>120</v>
+      </c>
+      <c r="D78" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E78" s="29">
+        <f t="shared" ref="E78" si="8">C78*D78</f>
+        <v>300</v>
+      </c>
+      <c r="F78" s="29"/>
+    </row>
+    <row r="79" spans="3:6">
+      <c r="C79" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29">
-        <f>SUM(E70:E71)</f>
-        <v>480</v>
-      </c>
-      <c r="F72" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29">
+        <f>SUM(E77:E78)</f>
+        <v>600</v>
+      </c>
+      <c r="F79" s="29"/>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="C80" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="63"/>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" s="29">
+        <v>120</v>
+      </c>
+      <c r="D82" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E82" s="29">
+        <f>C82*D82</f>
+        <v>300</v>
+      </c>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="C83" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29">
+        <f>SUM(E82:E82)</f>
+        <v>300</v>
+      </c>
+      <c r="F83" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="I26:O26"/>
+  <mergeCells count="11">
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C3:T3"/>
+    <mergeCell ref="K5:U5"/>
+    <mergeCell ref="H29:O29"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -6482,89 +6628,89 @@
   <sheetData>
     <row r="2" spans="3:17">
       <c r="C2" s="37" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="K2" s="37" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="3:17">
       <c r="C4" s="38" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O4" s="38" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="3:17">
       <c r="C6" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M6" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="O6" t="s">
         <v>102</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q6" t="s">
         <v>102</v>
@@ -6572,37 +6718,37 @@
     </row>
     <row r="7" spans="3:17">
       <c r="C7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="K7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -6610,37 +6756,37 @@
     </row>
     <row r="8" spans="3:17">
       <c r="C8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M8" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="O8" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q8" t="s">
         <v>18</v>
@@ -6648,40 +6794,40 @@
     </row>
     <row r="9" spans="3:17">
       <c r="C9" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I9" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="K9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="O9" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q9" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="3:17">
@@ -6689,7 +6835,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -6698,28 +6844,28 @@
         <v>23</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="O10" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q10" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="3:17">
@@ -6727,84 +6873,84 @@
         <v>24</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I11" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="K11" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M11" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="O11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q11" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="3:17">
       <c r="C13" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="3:17">
       <c r="C14" s="37" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="K14" s="37" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="3:17">
       <c r="C16" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="G16" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="3:12">
       <c r="C18" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
@@ -6813,7 +6959,7 @@
         <v>115</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
         <v>115</v>
@@ -6824,16 +6970,16 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="I19" t="s">
         <v>98</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
         <v>98</v>
@@ -6841,22 +6987,22 @@
     </row>
     <row r="20" spans="3:12">
       <c r="C20" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="3:12">
@@ -6866,70 +7012,70 @@
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="37" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="38" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G28" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I28" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="3:12">
       <c r="C29" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G29" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I29" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="3:12">
@@ -6937,19 +7083,19 @@
         <v>51</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E30" t="s">
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="3:12">
@@ -6957,102 +7103,102 @@
         <v>46</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E31" t="s">
         <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I31" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E32" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G32" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I32" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L32" s="36"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I33" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L33" s="36"/>
     </row>
     <row r="36" spans="3:12">
       <c r="C36" s="37" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="3:12">
       <c r="C37" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="C38" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>198</v>
-      </c>
       <c r="E38" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="3:12">
       <c r="C39" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -7076,16 +7222,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="70"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="18" t="s">
@@ -7120,10 +7266,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="70"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="17" t="s">
@@ -7166,10 +7312,10 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="65"/>
+      <c r="D17" s="70"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="17" t="s">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E882B621-159A-41D6-B97A-ED15EAD61F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C1D38-1FD1-4F16-B71D-3D7468A798A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="5" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
-    <sheet name="TurboFuelPowerProject" sheetId="10" r:id="rId2"/>
-    <sheet name="DiagramLayout" sheetId="2" r:id="rId3"/>
-    <sheet name="AluminumFacility" sheetId="12" r:id="rId4"/>
-    <sheet name="RubberFacility" sheetId="11" r:id="rId5"/>
-    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId6"/>
-    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId7"/>
-    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId8"/>
-    <sheet name="MinerOutputValues" sheetId="5" r:id="rId9"/>
+    <sheet name="RubberFacility" sheetId="11" r:id="rId2"/>
+    <sheet name="AluminumFacility" sheetId="12" r:id="rId3"/>
+    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId4"/>
+    <sheet name="DiagramLayout" sheetId="2" r:id="rId5"/>
+    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId6"/>
+    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId7"/>
+    <sheet name="MinerOutputValues" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="360">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -341,9 +340,6 @@
     <t>Module Type</t>
   </si>
   <si>
-    <t>Production Amounts</t>
-  </si>
-  <si>
     <t>Stitched Plates</t>
   </si>
   <si>
@@ -476,9 +472,6 @@
     <t>Quickwire Production</t>
   </si>
   <si>
-    <t>Processing Output</t>
-  </si>
-  <si>
     <t xml:space="preserve">Input </t>
   </si>
   <si>
@@ -719,144 +712,15 @@
     <t>Aluminum Eventually at Oil Fields, Soon, Almost out of Belts</t>
   </si>
   <si>
-    <t>Requirements to Build:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Compact Coal, 550/Minute </t>
-  </si>
-  <si>
-    <t>b.550/M Coal, 2 Normals Brought in @ Mk2 w/3 Shards Each = 6 shards</t>
-  </si>
-  <si>
-    <t>a. 550/M Sulfer, 2 Normals Brought In @ Mk2 w/3 Shards Each = 6 Shards. Far north one will be spaghetti.</t>
-  </si>
-  <si>
-    <t>Bring Train Track over to Site Location .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c. 22 Assemblers to create the Coal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. 300 ml/M Oil. 1 Extractor with a single Shard nearby site. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b.550/M Coal, 2 Normals Brought in @ Mk2 w/3 Shards Each = 6 shards, Maybe 4 Normal at 100%. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level 1 </t>
-  </si>
-  <si>
-    <t>Level 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Comes in here. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Refineries , making Heavy Oil Residue.  1 Awesome sink for resin, Heavy up middle to lvl 3. </t>
-  </si>
-  <si>
-    <t>Level 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavy Residue In. Water In this level. </t>
-  </si>
-  <si>
-    <t>48 Power Storage</t>
-  </si>
-  <si>
-    <t>8 Blenders, Residue + Water in, Diluted Fuel Out up to Levels 4 &amp; 5</t>
-  </si>
-  <si>
-    <t>Level 4</t>
-  </si>
-  <si>
-    <t>Diluted Fuel into this Level. Compacted Coal into this Level</t>
-  </si>
-  <si>
-    <t>8 Water Extractors Level 1 , Mk1 Pipes, pipe to Level 3, Send Coal to Level 5</t>
-  </si>
-  <si>
-    <t>18 Refineries, Coal + Fuel in, Turbofuel out. Pipe Fuel up to level 6+</t>
-  </si>
-  <si>
-    <t>Diluted Fuel into this Level. Compacted Coal into this Level, Compacted Coal split up to level 5</t>
-  </si>
-  <si>
-    <t>Level 5</t>
-  </si>
-  <si>
-    <t>Level 6 - 15</t>
-  </si>
-  <si>
-    <t>16 Fuel Generators, 150MW per Generator, 2400MW per Floor</t>
-  </si>
-  <si>
-    <t>x9 = 150 Fuel Generators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assemblers </t>
-  </si>
-  <si>
-    <t>Water Extractors</t>
-  </si>
-  <si>
-    <t>Refineries</t>
-  </si>
-  <si>
-    <t>Blenders</t>
-  </si>
-  <si>
-    <t>Oil Extractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turbofuel into these levels. Mk2 pipes carry Turbofuel </t>
-  </si>
-  <si>
-    <t>ReinforcedIronPlates</t>
-  </si>
-  <si>
-    <t>Cables</t>
-  </si>
-  <si>
     <t>HeavyFrames</t>
   </si>
   <si>
-    <t>RadioControlUnit</t>
-  </si>
-  <si>
-    <t>Fuel Generators(PerFloor)</t>
-  </si>
-  <si>
-    <t>Totals w/ All Floors</t>
-  </si>
-  <si>
-    <t>Totals w/1 Floor</t>
-  </si>
-  <si>
-    <t>Shopping List To Start</t>
-  </si>
-  <si>
-    <t>40 Radio Control Units</t>
-  </si>
-  <si>
     <t>Heavy Frames</t>
   </si>
   <si>
-    <t xml:space="preserve">To Focus: </t>
-  </si>
-  <si>
-    <t>CrystalOscilator</t>
-  </si>
-  <si>
-    <t>AluminumCasing</t>
-  </si>
-  <si>
     <t>Each Added Floor</t>
   </si>
   <si>
-    <t>Adding Computer + Heavy Sites will Feed Growing This</t>
-  </si>
-  <si>
     <t>Special Tier 3 Sites</t>
   </si>
   <si>
@@ -869,12 +733,6 @@
     <t>Special Train Dropoff</t>
   </si>
   <si>
-    <t>5. Heavy Frames Site</t>
-  </si>
-  <si>
-    <t>6. Computer Production</t>
-  </si>
-  <si>
     <t>240 Coke made by 2 Refineries using 80 Heavy Residue</t>
   </si>
   <si>
@@ -1124,12 +982,6 @@
     <t>900 True Rubber Out</t>
   </si>
   <si>
-    <t>7. Revised Rubber Site</t>
-  </si>
-  <si>
-    <t>8. Revised Aluminum Site</t>
-  </si>
-  <si>
     <t>Input Type</t>
   </si>
   <si>
@@ -1148,22 +1000,157 @@
     <t>All Iron Remainder = R.Plates</t>
   </si>
   <si>
-    <t>Steel = 80% Pipes, 20% Beams</t>
-  </si>
-  <si>
-    <t>Copper = 15% Fused, 35% QW, 50% Sheets</t>
-  </si>
-  <si>
-    <t>Caterium = 35%Fused, 65% QW</t>
-  </si>
-  <si>
-    <t>9. Turn Coal lake into Steel Production Site</t>
-  </si>
-  <si>
-    <t>10. Fill in Fuel Generators at Turbofuel Site over Time</t>
-  </si>
-  <si>
     <t>To Finish 7 Floors</t>
+  </si>
+  <si>
+    <t>^^^^^^</t>
+  </si>
+  <si>
+    <t>Sitting on Personal Train Ready</t>
+  </si>
+  <si>
+    <t>1. Fill in Fuel Generators at Turbofuel Site over Time</t>
+  </si>
+  <si>
+    <t>2. Revised Rubber Site</t>
+  </si>
+  <si>
+    <t>3. Revised Aluminum Site</t>
+  </si>
+  <si>
+    <t>4. Turn Coal lake into Steel Production Site</t>
+  </si>
+  <si>
+    <t>AcctualCurrent#</t>
+  </si>
+  <si>
+    <t>ActualCurrentOutput</t>
+  </si>
+  <si>
+    <t>Quartz Crystals</t>
+  </si>
+  <si>
+    <t>Beams Steel %</t>
+  </si>
+  <si>
+    <t>Pipes Steel %</t>
+  </si>
+  <si>
+    <t>Fused QuickWire Caterium %</t>
+  </si>
+  <si>
+    <t>Fused Wire Caterium %</t>
+  </si>
+  <si>
+    <t>Copper Sheet Copper %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silica Quarts % </t>
+  </si>
+  <si>
+    <t>Crystal Quarts %</t>
+  </si>
+  <si>
+    <t>Processing T1 Output</t>
+  </si>
+  <si>
+    <t>Raw Ore Input Potential</t>
+  </si>
+  <si>
+    <t>Smelting Building Plan Estimates</t>
+  </si>
+  <si>
+    <t>Rotors Wire %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stators Wire % </t>
+  </si>
+  <si>
+    <t>Stators Steel Pipe %</t>
+  </si>
+  <si>
+    <t>Pipes = 20% to H.Frames</t>
+  </si>
+  <si>
+    <t>Rotors Steel Pipe %</t>
+  </si>
+  <si>
+    <t>Modular Frames Steel Pipe %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encased Beam Steel Pipe % </t>
+  </si>
+  <si>
+    <t>Modular Frames R. Plate %</t>
+  </si>
+  <si>
+    <t>Encased Beams Concrete %</t>
+  </si>
+  <si>
+    <t>Circuit Boards % Silica</t>
+  </si>
+  <si>
+    <t>Circuit Board Copper Sheets %</t>
+  </si>
+  <si>
+    <t>Circuit Board Module</t>
+  </si>
+  <si>
+    <t>Machines Supported By Input A</t>
+  </si>
+  <si>
+    <t>Most Machines Supported by Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent </t>
+  </si>
+  <si>
+    <t>Input A</t>
+  </si>
+  <si>
+    <t>Input B</t>
+  </si>
+  <si>
+    <t>Motors Rotor %</t>
+  </si>
+  <si>
+    <t>Motors Stator %</t>
+  </si>
+  <si>
+    <t>Output Difference</t>
+  </si>
+  <si>
+    <t>Current Possible Copper Missing</t>
+  </si>
+  <si>
+    <t>Extra Copper Ore to Support</t>
+  </si>
+  <si>
+    <t>Machines Supported By Input B</t>
+  </si>
+  <si>
+    <t>Encased Beam Module</t>
+  </si>
+  <si>
+    <t>Modular Frame Module</t>
+  </si>
+  <si>
+    <t>Stator Module</t>
+  </si>
+  <si>
+    <t>Rotor Module</t>
+  </si>
+  <si>
+    <t>Reinforced Iron Plate</t>
+  </si>
+  <si>
+    <t>Motor Module</t>
+  </si>
+  <si>
+    <t>Rotor</t>
+  </si>
+  <si>
+    <t>Stator</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1649,6 +1636,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1660,7 +1676,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1744,18 +1760,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1785,8 +1795,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1805,9 +1813,6 @@
     <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1820,7 +1825,27 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -2460,38 +2485,48 @@
   </sheetPr>
   <dimension ref="C1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="44"/>
-    <col min="3" max="3" width="70.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26" style="44" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="24" style="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="2" width="9.140625" style="40"/>
+    <col min="3" max="3" width="70.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="40" customWidth="1"/>
+    <col min="15" max="15" width="24" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:20" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
-      <c r="D2" s="45"/>
+      <c r="D2" s="41"/>
       <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="F2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>161</v>
+      </c>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -2500,12 +2535,27 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="3:20" ht="19.5" thickTop="1">
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="C3" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="38">
+        <v>135</v>
+      </c>
+      <c r="G3" s="38">
+        <v>90</v>
+      </c>
+      <c r="H3" s="38">
+        <v>450</v>
+      </c>
+      <c r="I3" s="38">
+        <v>45</v>
+      </c>
+      <c r="J3" s="38">
+        <v>450</v>
+      </c>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -2518,13 +2568,32 @@
       <c r="T3"/>
     </row>
     <row r="4" spans="3:20">
-      <c r="C4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="C4" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="38">
+        <f>F3*7</f>
+        <v>945</v>
+      </c>
+      <c r="G4" s="38">
+        <f t="shared" ref="G4:J4" si="0">G3*7</f>
+        <v>630</v>
+      </c>
+      <c r="H4" s="38">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
+      <c r="I4" s="38">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="J4" s="38">
+        <f t="shared" si="0"/>
+        <v>3150</v>
+      </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -2537,22 +2606,11 @@
       <c r="T4"/>
     </row>
     <row r="5" spans="3:20">
-      <c r="C5"/>
-      <c r="E5"/>
-      <c r="F5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>163</v>
+      <c r="C5" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>310</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -2564,26 +2622,11 @@
       <c r="T5"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" s="42">
-        <v>135</v>
-      </c>
-      <c r="G6" s="42">
-        <v>90</v>
-      </c>
-      <c r="H6" s="42">
-        <v>450</v>
-      </c>
-      <c r="I6" s="42">
-        <v>45</v>
-      </c>
-      <c r="J6" s="42">
-        <v>450</v>
+      <c r="C6" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>311</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -2595,32 +2638,6 @@
       <c r="T6"/>
     </row>
     <row r="7" spans="3:20">
-      <c r="C7" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>363</v>
-      </c>
-      <c r="F7" s="42">
-        <f>F6*7</f>
-        <v>945</v>
-      </c>
-      <c r="G7" s="42">
-        <f t="shared" ref="G7:J7" si="0">G6*7</f>
-        <v>630</v>
-      </c>
-      <c r="H7" s="42">
-        <f t="shared" si="0"/>
-        <v>3150</v>
-      </c>
-      <c r="I7" s="42">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="J7" s="42">
-        <f t="shared" si="0"/>
-        <v>3150</v>
-      </c>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -2633,9 +2650,6 @@
       <c r="T7"/>
     </row>
     <row r="8" spans="3:20">
-      <c r="C8" s="47" t="s">
-        <v>350</v>
-      </c>
       <c r="E8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -2649,9 +2663,6 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="47" t="s">
-        <v>351</v>
-      </c>
       <c r="E9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -2665,9 +2676,6 @@
       <c r="T9"/>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="47" t="s">
-        <v>361</v>
-      </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -2686,9 +2694,6 @@
       <c r="T10"/>
     </row>
     <row r="11" spans="3:20">
-      <c r="C11" s="47" t="s">
-        <v>362</v>
-      </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -2706,12 +2711,6 @@
       <c r="S11"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
@@ -2720,12 +2719,6 @@
       <c r="P12"/>
     </row>
     <row r="13" spans="3:20">
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
@@ -2734,12 +2727,6 @@
       <c r="P13"/>
     </row>
     <row r="14" spans="3:20">
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -2776,8 +2763,8 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C17" s="45" t="s">
-        <v>111</v>
+      <c r="C17" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -2793,7 +2780,7 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="49" t="s">
         <v>20</v>
       </c>
       <c r="E18"/>
@@ -2810,8 +2797,8 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="3:16" ht="43.5" thickTop="1" thickBot="1">
-      <c r="C19" s="53" t="s">
-        <v>214</v>
+      <c r="C19" s="49" t="s">
+        <v>212</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -2827,8 +2814,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C20" s="53" t="s">
-        <v>98</v>
+      <c r="C20" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -2844,8 +2831,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C21" s="53" t="s">
-        <v>255</v>
+      <c r="C21" s="49" t="s">
+        <v>214</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -3056,732 +3043,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9464A97-F3A0-43AE-B1BD-70344C117AC7}">
-  <dimension ref="C3:U40"/>
-  <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:L27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="0.28515625" customWidth="1"/>
-    <col min="3" max="3" width="95.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:21">
-      <c r="C3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="3:21">
-      <c r="C5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="O5" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="T5" s="43" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="3:21">
-      <c r="E6" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F6" s="42">
-        <v>1</v>
-      </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42">
-        <f>F6*60</f>
-        <v>60</v>
-      </c>
-      <c r="K6" s="42">
-        <f>F6*15</f>
-        <v>15</v>
-      </c>
-      <c r="L6" s="42">
-        <f>F6*20</f>
-        <v>20</v>
-      </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-    </row>
-    <row r="7" spans="3:21">
-      <c r="C7" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" s="42">
-        <v>22</v>
-      </c>
-      <c r="H7" s="42">
-        <f>F7*8</f>
-        <v>176</v>
-      </c>
-      <c r="I7" s="42">
-        <f>F8*4</f>
-        <v>32</v>
-      </c>
-      <c r="J7" s="42">
-        <f>F7*10</f>
-        <v>220</v>
-      </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-    </row>
-    <row r="8" spans="3:21">
-      <c r="C8" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="F8" s="42">
-        <v>8</v>
-      </c>
-      <c r="H8" s="42">
-        <f>F8*10</f>
-        <v>80</v>
-      </c>
-      <c r="I8" s="42">
-        <f>F8*10</f>
-        <v>80</v>
-      </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42">
-        <f>F8*20</f>
-        <v>160</v>
-      </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-    </row>
-    <row r="9" spans="3:21">
-      <c r="C9" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="42">
-        <v>8</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42">
-        <f>F9*20</f>
-        <v>160</v>
-      </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42">
-        <f>F9*10</f>
-        <v>80</v>
-      </c>
-      <c r="O9" s="42">
-        <f>F9*50</f>
-        <v>400</v>
-      </c>
-      <c r="P9" s="42">
-        <f>F9*5</f>
-        <v>40</v>
-      </c>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-    </row>
-    <row r="10" spans="3:21">
-      <c r="C10" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="F10" s="42">
-        <v>46</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42">
-        <f>F10*10</f>
-        <v>460</v>
-      </c>
-      <c r="L10" s="42">
-        <f>F10*10</f>
-        <v>460</v>
-      </c>
-      <c r="M10" s="42">
-        <f>F10*20</f>
-        <v>920</v>
-      </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42">
-        <f>F10*30</f>
-        <v>1380</v>
-      </c>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-    </row>
-    <row r="11" spans="3:21">
-      <c r="E11" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="42">
-        <v>9</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42">
-        <f>F11*15</f>
-        <v>135</v>
-      </c>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42">
-        <f>F11*10</f>
-        <v>90</v>
-      </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42">
-        <f>F11*50</f>
-        <v>450</v>
-      </c>
-      <c r="S11" s="42">
-        <f>F11*5</f>
-        <v>45</v>
-      </c>
-      <c r="T11" s="42">
-        <f>F11*50</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="3:21">
-      <c r="C12" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="H12" s="42">
-        <f t="shared" ref="H12:T12" si="0">SUM(H6:H11)</f>
-        <v>256</v>
-      </c>
-      <c r="I12" s="42">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="J12" s="42">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="K12" s="42">
-        <f t="shared" si="0"/>
-        <v>770</v>
-      </c>
-      <c r="L12" s="42">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="M12" s="42">
-        <f t="shared" si="0"/>
-        <v>1080</v>
-      </c>
-      <c r="N12" s="42">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="O12" s="42">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="P12" s="42">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="Q12" s="42">
-        <f t="shared" si="0"/>
-        <v>1380</v>
-      </c>
-      <c r="R12" s="42">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="S12" s="42">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="T12" s="42">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="3:21">
-      <c r="C13" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="H13" s="42">
-        <f>H12+(H11*8)</f>
-        <v>256</v>
-      </c>
-      <c r="I13" s="42">
-        <f t="shared" ref="I13:T13" si="1">I12+(I11*8)</f>
-        <v>112</v>
-      </c>
-      <c r="J13" s="42">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-      <c r="K13" s="42">
-        <f t="shared" si="1"/>
-        <v>1850</v>
-      </c>
-      <c r="L13" s="42">
-        <f t="shared" si="1"/>
-        <v>480</v>
-      </c>
-      <c r="M13" s="42">
-        <f t="shared" si="1"/>
-        <v>1080</v>
-      </c>
-      <c r="N13" s="42">
-        <f t="shared" si="1"/>
-        <v>890</v>
-      </c>
-      <c r="O13" s="42">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="P13" s="42">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="Q13" s="42">
-        <f t="shared" si="1"/>
-        <v>1380</v>
-      </c>
-      <c r="R13" s="42">
-        <f t="shared" si="1"/>
-        <v>4050</v>
-      </c>
-      <c r="S13" s="42">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-      <c r="T13" s="42">
-        <f t="shared" si="1"/>
-        <v>4050</v>
-      </c>
-    </row>
-    <row r="14" spans="3:21">
-      <c r="C14" s="40" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="3:21">
-      <c r="C15" s="40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="3:21">
-      <c r="H16" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="K16" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="M16" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="N16" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="O16" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q16" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="R16" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="T16" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="U16" s="43" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="3:21">
-      <c r="C17" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="H17" s="42">
-        <v>256</v>
-      </c>
-      <c r="I17" s="42">
-        <v>112</v>
-      </c>
-      <c r="J17" s="42">
-        <v>280</v>
-      </c>
-      <c r="K17" s="42">
-        <v>770</v>
-      </c>
-      <c r="L17" s="42">
-        <v>480</v>
-      </c>
-      <c r="M17" s="42">
-        <v>1080</v>
-      </c>
-      <c r="N17" s="42">
-        <v>170</v>
-      </c>
-      <c r="O17" s="42">
-        <v>656</v>
-      </c>
-      <c r="P17" s="42">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="42">
-        <v>1380</v>
-      </c>
-      <c r="R17" s="42">
-        <v>450</v>
-      </c>
-      <c r="S17" s="42">
-        <v>85</v>
-      </c>
-      <c r="T17" s="42">
-        <v>450</v>
-      </c>
-      <c r="U17" s="42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21">
-      <c r="C18" s="40" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21">
-      <c r="E19" s="43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="3:21">
-      <c r="C20" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21">
-      <c r="C21" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="H21" s="42">
-        <v>40</v>
-      </c>
-      <c r="I21" s="42">
-        <v>256</v>
-      </c>
-      <c r="J21" s="42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21">
-      <c r="C22" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21">
-      <c r="E23" s="42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21">
-      <c r="C24" s="39" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21">
-      <c r="C25" s="40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="3:21">
-      <c r="C26" s="40" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21">
-      <c r="C27" s="40" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="3:21">
-      <c r="C29" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="E29" s="43" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21">
-      <c r="C30" s="40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="3:21">
-      <c r="C31" s="40" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="39" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="40" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="40" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="39" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="40" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="40" t="s">
-        <v>239</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
-  <dimension ref="A19:A39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="19" ht="9.75" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5507375-7A9E-448C-B8C0-7FEB668F6097}">
-  <dimension ref="C5:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="5" spans="3:4">
-      <c r="C5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA72F07-7FC2-48EA-B4C4-87606FFA9C77}">
   <dimension ref="A2:N32"/>
   <sheetViews>
@@ -3805,376 +3066,376 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18.75">
-      <c r="A2" s="54" t="s">
-        <v>327</v>
+      <c r="A2" s="50" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75">
-      <c r="A3" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>317</v>
-      </c>
-      <c r="L3" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="M3" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>184</v>
+      <c r="A3" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
-      <c r="A4" s="55" t="s">
-        <v>326</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="L4" s="55" t="s">
-        <v>329</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="N4" s="55" t="s">
-        <v>331</v>
+      <c r="A4" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75">
-      <c r="C5" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="J5" s="55" t="s">
+      <c r="C5" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75">
+      <c r="J6" s="51" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75">
+      <c r="C7" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="50" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75">
-      <c r="J6" s="55" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.75">
-      <c r="C7" s="54" t="s">
-        <v>332</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>283</v>
+      <c r="F7" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75">
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75">
+      <c r="C9" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75">
+      <c r="C10" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75">
+      <c r="J11" s="51" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75">
+      <c r="C12" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75">
+      <c r="C13" s="51" t="s">
+        <v>242</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75">
+      <c r="C14" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75">
+      <c r="C15" s="51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75">
+      <c r="C16" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="L16" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="N16" s="50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="18.75">
+      <c r="C17" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="M17" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="N17" s="51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="18.75">
+      <c r="C18" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="18.75">
+      <c r="C19" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="18.75">
+      <c r="C20" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="J20" s="51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="18.75">
+      <c r="C21" s="51" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="18.75">
+      <c r="C22" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="N22" s="50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="18.75">
+      <c r="C23" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="L23" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="M23" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="N23" s="51" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="18.75">
+      <c r="C24" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="J24" s="51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="18.75">
+      <c r="N25" s="51" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="18.75">
+      <c r="C26" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="N26" s="51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="18.75">
+      <c r="C27" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="J27" s="51" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="18.75">
+      <c r="C28" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" s="51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="18.75">
+      <c r="C29" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>339</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18.75">
-      <c r="C9" s="55" t="s">
-        <v>278</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="L9" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="M9" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="N9" s="54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.75">
-      <c r="C10" s="55" t="s">
-        <v>279</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="L10" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="M10" s="55" t="s">
-        <v>334</v>
-      </c>
-      <c r="N10" s="55" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75">
-      <c r="J11" s="55" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.75">
-      <c r="C12" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.75">
-      <c r="C13" s="55" t="s">
-        <v>289</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>336</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55" t="s">
-        <v>337</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>338</v>
-      </c>
-      <c r="J13" s="55" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18.75">
-      <c r="C14" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18.75">
-      <c r="C15" s="55" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.75">
-      <c r="C16" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="J16" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="L16" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="M16" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="N16" s="54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" ht="18.75">
-      <c r="C17" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="L17" s="55" t="s">
-        <v>340</v>
-      </c>
-      <c r="M17" s="55" t="s">
-        <v>341</v>
-      </c>
-      <c r="N17" s="55" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" ht="18.75">
-      <c r="C18" s="55" t="s">
-        <v>315</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" ht="18.75">
-      <c r="C19" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="J19" s="55" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" ht="18.75">
-      <c r="C20" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="J20" s="55" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" ht="18.75">
-      <c r="C21" s="55" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" ht="18.75">
-      <c r="C22" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="L22" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="M22" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="N22" s="54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" ht="18.75">
-      <c r="C23" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="J23" s="55" t="s">
-        <v>308</v>
-      </c>
-      <c r="L23" s="55" t="s">
-        <v>345</v>
-      </c>
-      <c r="M23" s="55" t="s">
-        <v>346</v>
-      </c>
-      <c r="N23" s="55" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" ht="18.75">
-      <c r="C24" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="J24" s="55" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" ht="18.75">
-      <c r="N25" s="55" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" ht="18.75">
-      <c r="C26" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="J26" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="N26" s="55" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" ht="18.75">
-      <c r="C27" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>343</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>344</v>
-      </c>
-      <c r="G27" s="55" t="s">
-        <v>345</v>
-      </c>
-      <c r="J27" s="55" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" ht="18.75">
-      <c r="C28" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="J28" s="55" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" ht="18.75">
-      <c r="C29" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="J29" s="55" t="s">
-        <v>324</v>
-      </c>
     </row>
     <row r="30" spans="3:14" ht="18.75">
-      <c r="C30" s="55" t="s">
-        <v>305</v>
+      <c r="C30" s="51" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="3:14" ht="18.75">
-      <c r="C31" s="55" t="s">
-        <v>306</v>
+      <c r="C31" s="51" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="18.75">
-      <c r="C32" s="55" t="s">
-        <v>307</v>
+      <c r="C32" s="51" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4183,7 +3444,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5507375-7A9E-448C-B8C0-7FEB668F6097}">
+  <dimension ref="C5:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882FF9CB-C54B-4DF7-BCB6-6C966AE969A7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4236,32 +3557,32 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="46" t="s">
+      <c r="J3" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="45" t="s">
+      <c r="N3" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44" t="s">
-        <v>261</v>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
@@ -4283,23 +3604,23 @@
       <c r="H4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
+      <c r="J4" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
     </row>
     <row r="5" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="C5" s="13" t="s">
@@ -4320,22 +3641,22 @@
       <c r="H5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="S5" s="46" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="S5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="50" t="s">
-        <v>262</v>
+      <c r="T5" s="46" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
@@ -4345,25 +3666,25 @@
       <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
     </row>
     <row r="7" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F7" s="25" t="s">
@@ -4372,25 +3693,25 @@
       <c r="H7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="47" t="s">
+      <c r="J7" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
     </row>
     <row r="8" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F8" s="25" t="s">
@@ -4399,21 +3720,21 @@
       <c r="H8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
     </row>
     <row r="9" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="F9" s="25" t="s">
@@ -4422,45 +3743,45 @@
       <c r="H9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="S9" s="44"/>
-      <c r="T9" s="50" t="s">
-        <v>255</v>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="S9" s="40"/>
+      <c r="T9" s="46" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
+      <c r="J10" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
     </row>
     <row r="11" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F11" s="6" t="s">
@@ -4469,44 +3790,44 @@
       <c r="H11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="48" t="s">
+      <c r="J11" s="40"/>
+      <c r="K11" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="44"/>
-      <c r="P11" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
     </row>
     <row r="12" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="12"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="47" t="s">
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
     </row>
     <row r="13" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F13" s="6" t="s">
@@ -4515,27 +3836,27 @@
       <c r="H13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="O13" s="46" t="s">
+      <c r="J13" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="49" t="s">
+      <c r="P13" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="44"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="40"/>
     </row>
     <row r="14" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="C14" s="8" t="s">
@@ -4553,61 +3874,61 @@
       <c r="G14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14" s="44"/>
-      <c r="P14" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
     </row>
     <row r="15" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
     </row>
     <row r="16" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="O16" s="44"/>
-      <c r="P16" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="40"/>
+      <c r="P16" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
     </row>
     <row r="17" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="C17" s="5" t="s">
@@ -4622,34 +3943,34 @@
       <c r="F17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
     </row>
     <row r="18" spans="3:20" ht="19.5" thickBot="1">
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
     </row>
     <row r="19" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
       <c r="C19" s="11" t="s">
@@ -4662,97 +3983,97 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="O19" s="46" t="s">
+      <c r="J19" s="40"/>
+      <c r="K19" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="O19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
+      <c r="P19" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
     </row>
     <row r="20" spans="3:20" ht="19.5" thickBot="1">
       <c r="F20" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="47" t="s">
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
     </row>
     <row r="21" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F21" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
+      <c r="K21" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
     </row>
     <row r="22" spans="3:20" ht="21.75" thickBot="1">
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="49" t="s">
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="46" t="s">
+      <c r="O22" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
+      <c r="P22" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
     </row>
     <row r="23" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>7</v>
@@ -4763,23 +4084,23 @@
       <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="47" t="s">
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
     </row>
     <row r="24" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="D24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
@@ -4790,57 +4111,57 @@
       <c r="G24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
     </row>
     <row r="25" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
       <c r="F25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="49" t="s">
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="46" t="s">
+      <c r="O25" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="51" t="s">
+      <c r="P25" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
     </row>
     <row r="26" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="F26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
     </row>
     <row r="27" spans="3:20" ht="18" thickTop="1" thickBot="1">
       <c r="C27" s="8" t="s">
@@ -5000,12 +4321,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
+  <dimension ref="A19:A39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="19" ht="9.75" customHeight="1"/>
+    <row r="39" ht="12" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
-  <dimension ref="C1:U83"/>
+  <dimension ref="C1:V89"/>
   <sheetViews>
-    <sheetView topLeftCell="G15" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5017,51 +4361,63 @@
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.42578125" customWidth="1"/>
-    <col min="13" max="14" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" customWidth="1"/>
+    <col min="10" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" ht="8.25" customHeight="1"/>
-    <row r="2" spans="3:21" ht="8.25" customHeight="1"/>
-    <row r="3" spans="3:21" ht="23.25">
-      <c r="C3" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-    </row>
-    <row r="4" spans="3:21">
-      <c r="R4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="3:21">
+    <row r="1" spans="3:22" ht="8.25" customHeight="1"/>
+    <row r="2" spans="3:22" ht="8.25" customHeight="1"/>
+    <row r="3" spans="3:22" ht="23.25">
+      <c r="C3" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+    </row>
+    <row r="4" spans="3:22">
+      <c r="C4" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="S4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22">
       <c r="C5" s="28" t="s">
         <v>73</v>
       </c>
@@ -5077,27 +4433,30 @@
       <c r="G5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-    </row>
-    <row r="6" spans="3:21">
+      <c r="L5" s="59" t="s">
+        <v>328</v>
+      </c>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+    </row>
+    <row r="6" spans="3:22">
       <c r="C6" s="29" t="s">
         <v>71</v>
       </c>
@@ -5119,41 +4478,44 @@
       <c r="I6" s="29">
         <v>0</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="L6" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="M6" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="N6" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="P6" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q6" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" s="35" t="s">
+      <c r="U6" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="V6" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="T6" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="U6" s="35" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="3:21">
+    </row>
+    <row r="7" spans="3:22">
       <c r="C7" s="29" t="s">
         <v>70</v>
       </c>
@@ -5173,45 +4535,49 @@
         <v>2</v>
       </c>
       <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
         <v>1</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="33">
+      <c r="M7" s="29">
         <v>120</v>
       </c>
-      <c r="M7" s="33">
+      <c r="N7" s="29">
         <f>D16</f>
         <v>440</v>
       </c>
-      <c r="N7" s="33">
+      <c r="O7" s="29">
         <f>E16</f>
         <v>1100</v>
       </c>
-      <c r="O7" s="33">
-        <f>ROUNDDOWN(N7/L7,0)</f>
+      <c r="P7" s="29">
+        <f>ROUNDDOWN(O7/M7,0)</f>
         <v>9</v>
       </c>
-      <c r="P7" s="33">
-        <f>ROUNDDOWN(600/L7,0)</f>
+      <c r="Q7" s="29">
+        <f>ROUNDDOWN(600/M7,0)</f>
         <v>5</v>
       </c>
-      <c r="Q7" s="34">
-        <f>O7/3</f>
+      <c r="R7" s="29">
+        <f>P7/3</f>
         <v>3</v>
       </c>
-      <c r="R7" s="33">
-        <f>L7*3</f>
+      <c r="S7" s="29">
+        <f>M7*3</f>
         <v>360</v>
       </c>
-      <c r="S7" s="33">
-        <f>R7*Q7</f>
+      <c r="T7" s="29">
+        <f>S7*R7</f>
         <v>1080</v>
       </c>
-      <c r="T7" s="32"/>
-    </row>
-    <row r="8" spans="3:21">
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+    </row>
+    <row r="8" spans="3:22">
       <c r="C8" s="29" t="s">
         <v>69</v>
       </c>
@@ -5231,84 +4597,92 @@
         <v>0</v>
       </c>
       <c r="I8" s="29">
+        <v>2</v>
+      </c>
+      <c r="J8" s="29">
         <v>0</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="L8" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="33">
+      <c r="M8" s="29">
         <v>240</v>
       </c>
-      <c r="M8" s="33">
+      <c r="N8" s="29">
         <f>D9</f>
         <v>1680</v>
       </c>
-      <c r="N8" s="33">
+      <c r="O8" s="29">
         <f>D10</f>
         <v>4200</v>
       </c>
-      <c r="O8" s="33">
-        <f>ROUNDDOWN(N8/L8,0)</f>
+      <c r="P8" s="29">
+        <f>ROUNDDOWN(O8/M8,0)</f>
         <v>17</v>
       </c>
-      <c r="P8" s="33">
-        <f>ROUNDDOWN(N8/L8,0)</f>
+      <c r="Q8" s="29">
+        <f>ROUNDDOWN(O8/M8,0)</f>
         <v>17</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="R8" s="29">
         <v>10</v>
       </c>
-      <c r="R8" s="33">
+      <c r="S8" s="29">
         <v>720</v>
       </c>
-      <c r="S8" s="33"/>
-      <c r="T8" s="32"/>
-    </row>
-    <row r="9" spans="3:21">
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+    </row>
+    <row r="9" spans="3:22">
       <c r="C9" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="29">
-        <f>E46</f>
+        <f>E47</f>
         <v>1680</v>
       </c>
       <c r="E9" s="29">
-        <f>E53</f>
+        <f>E54</f>
         <v>600</v>
       </c>
       <c r="F9" s="29">
-        <f>E69</f>
+        <f>E70</f>
         <v>1320</v>
       </c>
       <c r="G9" s="29">
-        <f>E74</f>
+        <f>E75</f>
         <v>480</v>
       </c>
       <c r="H9" s="29">
-        <f>E79</f>
+        <f>E80</f>
         <v>600</v>
       </c>
       <c r="I9" s="29">
-        <f>E83</f>
+        <f>E89</f>
+        <v>480</v>
+      </c>
+      <c r="J9" s="29">
+        <f>E84</f>
         <v>300</v>
       </c>
-      <c r="K9" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-    </row>
-    <row r="10" spans="3:21">
+      <c r="L9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row r="10" spans="3:22">
       <c r="C10" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10" s="29">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (D8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
@@ -5332,25 +4706,29 @@
       </c>
       <c r="I10" s="29">
         <f>SUM((I6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (I7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (I8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
+        <v>1200</v>
+      </c>
+      <c r="J10" s="29">
+        <f>SUM((J6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (J7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (J8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
         <v>300</v>
       </c>
-      <c r="K10" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-    </row>
-    <row r="11" spans="3:21">
+      <c r="L10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+    </row>
+    <row r="11" spans="3:22">
       <c r="C11" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D11" s="29">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
@@ -5374,57 +4752,26 @@
       </c>
       <c r="I11" s="29">
         <f>SUM((I6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (I7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (I8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
+        <v>1440</v>
+      </c>
+      <c r="J11" s="29">
+        <f>SUM((J6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (J7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (J8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
         <v>600</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-    </row>
-    <row r="12" spans="3:21">
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-    </row>
-    <row r="13" spans="3:21">
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-    </row>
-    <row r="14" spans="3:21">
-      <c r="C14" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="3:21">
+    </row>
+    <row r="14" spans="3:22">
+      <c r="C14" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="H14" s="68" t="s">
+        <v>308</v>
+      </c>
+      <c r="I14" s="69"/>
+    </row>
+    <row r="15" spans="3:22">
       <c r="C15" s="30" t="s">
         <v>73</v>
       </c>
@@ -5432,15 +4779,19 @@
         <v>80</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="3:21">
+        <v>142</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="I15" s="54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22">
       <c r="C16" s="29" t="s">
         <v>22</v>
       </c>
@@ -5456,8 +4807,14 @@
         <f>SUM((F11/45)*15)</f>
         <v>2040</v>
       </c>
-    </row>
-    <row r="17" spans="3:21">
+      <c r="H16" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="I16" s="54">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22">
       <c r="C17" s="29" t="s">
         <v>79</v>
       </c>
@@ -5473,13 +4830,19 @@
         <f>SUM((E11/50)*100)</f>
         <v>6000</v>
       </c>
-      <c r="Q17" s="32"/>
+      <c r="H17" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="I17" s="54">
+        <v>0.65</v>
+      </c>
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
       <c r="T17" s="32"/>
       <c r="U17" s="32"/>
-    </row>
-    <row r="18" spans="3:21">
+      <c r="V17" s="32"/>
+    </row>
+    <row r="18" spans="3:22">
       <c r="C18" s="29" t="s">
         <v>76</v>
       </c>
@@ -5495,13 +4858,19 @@
         <f>SUM((G11/40)*60)</f>
         <v>2160</v>
       </c>
-      <c r="Q18" s="32"/>
+      <c r="H18" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="I18" s="54">
+        <v>0.8</v>
+      </c>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
       <c r="U18" s="32"/>
-    </row>
-    <row r="19" spans="3:21">
+      <c r="V18" s="32"/>
+    </row>
+    <row r="19" spans="3:22">
       <c r="C19" s="31" t="s">
         <v>78</v>
       </c>
@@ -5517,13 +4886,19 @@
         <f>SUM(D11-(E11/2)-G11)</f>
         <v>5460</v>
       </c>
-      <c r="Q19" s="32"/>
+      <c r="H19" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="I19" s="54">
+        <v>0.2</v>
+      </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
       <c r="T19" s="32"/>
       <c r="U19" s="32"/>
-    </row>
-    <row r="20" spans="3:21">
+      <c r="V19" s="32"/>
+    </row>
+    <row r="20" spans="3:22">
       <c r="C20" s="29" t="s">
         <v>77</v>
       </c>
@@ -5539,106 +4914,274 @@
         <f>SUM((F19/30)*30)</f>
         <v>5460</v>
       </c>
-      <c r="Q20" s="32"/>
+      <c r="H20" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="I20" s="70">
+        <v>0.85</v>
+      </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
       <c r="T20" s="32"/>
       <c r="U20" s="32"/>
-    </row>
-    <row r="21" spans="3:21">
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="Q21" s="32"/>
+      <c r="V20" s="32"/>
+    </row>
+    <row r="21" spans="3:22">
+      <c r="C21" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="31">
+        <f>SUM((I9/45)*15)</f>
+        <v>160</v>
+      </c>
+      <c r="E21" s="29">
+        <f>SUM((I10/45)*15)</f>
+        <v>400</v>
+      </c>
+      <c r="F21" s="29">
+        <f>SUM((I11/45)*15)</f>
+        <v>480</v>
+      </c>
+      <c r="H21" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21" s="70">
+        <v>0.15</v>
+      </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
       <c r="T21" s="32"/>
       <c r="U21" s="32"/>
-    </row>
-    <row r="22" spans="3:21">
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="Q22" s="32"/>
+      <c r="V21" s="32"/>
+    </row>
+    <row r="22" spans="3:22">
+      <c r="C22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="31">
+        <f>SUM(((H9*0.85)/22.5)*37.5)</f>
+        <v>850</v>
+      </c>
+      <c r="E22" s="31">
+        <f>SUM(((H10*0.85)/22.5)*37.5)</f>
+        <v>850</v>
+      </c>
+      <c r="F22" s="31">
+        <f>SUM(((H11*0.85)/22.5)*37.5)</f>
+        <v>1700</v>
+      </c>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
-    </row>
-    <row r="23" spans="3:21">
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
+      <c r="V22" s="32"/>
+    </row>
+    <row r="23" spans="3:22">
+      <c r="C23" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="31">
+        <f>SUM(((H9*0.15)/37.5)*22.5)</f>
+        <v>54</v>
+      </c>
+      <c r="E23" s="31">
+        <f>SUM(((H10*0.15)/37.5)*22.5)</f>
+        <v>54</v>
+      </c>
+      <c r="F23" s="31">
+        <f>SUM(((H11*0.15)/37.5)*22.5)</f>
+        <v>108</v>
+      </c>
+      <c r="H23" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
-    </row>
-    <row r="24" spans="3:21">
-      <c r="C24" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="H24" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
+      <c r="V23" s="32"/>
+    </row>
+    <row r="24" spans="3:22">
+      <c r="H24" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q24" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="R24" s="64" t="s">
+        <v>348</v>
+      </c>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
-    </row>
-    <row r="25" spans="3:21">
-      <c r="C25" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="H25" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="I25" s="71"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
+      <c r="V24" s="32"/>
+    </row>
+    <row r="25" spans="3:22">
+      <c r="C25" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="H25" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="29">
+        <v>15</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29">
+        <v>15</v>
+      </c>
+      <c r="N25" s="29">
+        <v>8</v>
+      </c>
+      <c r="O25" s="29">
+        <f>M25*N25</f>
+        <v>120</v>
+      </c>
+      <c r="P25" s="29">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="29">
+        <f>M25*P25</f>
+        <v>120</v>
+      </c>
+      <c r="R25" s="29">
+        <f>O25-Q25</f>
+        <v>0</v>
+      </c>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
-    </row>
-    <row r="26" spans="3:21">
-      <c r="C26" s="29" t="s">
+      <c r="V25" s="32"/>
+    </row>
+    <row r="26" spans="3:22">
+      <c r="C26" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
+      <c r="H26" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="29">
+        <v>120</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29">
+        <v>30</v>
+      </c>
+      <c r="N26" s="29">
+        <v>4</v>
+      </c>
+      <c r="O26" s="29">
+        <f>M26*N26</f>
+        <v>120</v>
+      </c>
+      <c r="P26" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="29">
+        <f t="shared" ref="Q26:Q34" si="0">M26*P26</f>
+        <v>120</v>
+      </c>
+      <c r="R26" s="29">
+        <f t="shared" ref="R26:R34" si="1">O26-Q26</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+    </row>
+    <row r="27" spans="3:22">
+      <c r="C27" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="H26" s="60" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21">
-      <c r="C27" s="29">
-        <v>60</v>
-      </c>
-      <c r="D27" s="29">
-        <v>1</v>
-      </c>
-      <c r="E27" s="29">
-        <f>C27*D27</f>
-        <v>60</v>
-      </c>
       <c r="F27" s="29"/>
-      <c r="H27" s="60" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21">
+      <c r="H27" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="29">
+        <v>120</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29">
+        <v>20</v>
+      </c>
+      <c r="N27" s="29">
+        <v>4</v>
+      </c>
+      <c r="O27" s="29">
+        <f t="shared" ref="O27:O34" si="2">M27*N27</f>
+        <v>80</v>
+      </c>
+      <c r="P27" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="29">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="R27" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22">
       <c r="C28" s="29">
         <v>60</v>
       </c>
@@ -5646,12 +5189,44 @@
         <v>1</v>
       </c>
       <c r="E28" s="29">
-        <f t="shared" ref="E28:E45" si="0">C28*D28</f>
+        <f>C28*D28</f>
         <v>60</v>
       </c>
       <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="3:21">
+      <c r="H28" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="29">
+        <v>120</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29">
+        <v>50</v>
+      </c>
+      <c r="N28" s="29">
+        <v>10</v>
+      </c>
+      <c r="O28" s="29">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="P28" s="29">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="29">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="R28" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22">
       <c r="C29" s="29">
         <v>60</v>
       </c>
@@ -5659,22 +5234,45 @@
         <v>1</v>
       </c>
       <c r="E29" s="29">
+        <f t="shared" ref="E29:E46" si="3">C29*D29</f>
+        <v>60</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="H29" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="I29" s="29">
+        <v>85</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29">
+        <v>5.625</v>
+      </c>
+      <c r="N29" s="29">
+        <f>ROUNDDOWN(SUM(D20/I29),0)</f>
+        <v>10</v>
+      </c>
+      <c r="O29" s="29">
+        <f t="shared" si="2"/>
+        <v>56.25</v>
+      </c>
+      <c r="P29" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="29">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="H29" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-    </row>
-    <row r="30" spans="3:21">
+        <v>28.125</v>
+      </c>
+      <c r="R29" s="29">
+        <f t="shared" si="1"/>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22">
       <c r="C30" s="29">
         <v>60</v>
       </c>
@@ -5682,36 +5280,45 @@
         <v>1</v>
       </c>
       <c r="E30" s="29">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="H30" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="29">
+        <v>30</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29">
+        <v>20</v>
+      </c>
+      <c r="N30" s="29">
+        <f>ROUNDDOWN(SUM(D18*I18)/I30,0)</f>
+        <v>19</v>
+      </c>
+      <c r="O30" s="29">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="P30" s="29">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="29">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="H30" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="K30" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="L30" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="M30" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="N30" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="O30" s="30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="3:21">
+        <v>240</v>
+      </c>
+      <c r="R30" s="29">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22">
       <c r="C31" s="29">
         <v>60</v>
       </c>
@@ -5719,18 +5326,18 @@
         <v>1</v>
       </c>
       <c r="E31" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="F31" s="29"/>
       <c r="H31" s="29" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I31" s="29">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
@@ -5738,14 +5345,26 @@
         <v>15</v>
       </c>
       <c r="N31" s="29">
-        <v>8</v>
+        <f>ROUNDDOWN(SUM(D18*I19)/I31,0)</f>
+        <v>2</v>
       </c>
       <c r="O31" s="29">
-        <f>M31*N31</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="3:21">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="P31" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="29">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="R31" s="29">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22">
       <c r="C32" s="29">
         <v>60</v>
       </c>
@@ -5753,33 +5372,45 @@
         <v>1</v>
       </c>
       <c r="E32" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="F32" s="29"/>
       <c r="H32" s="29" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I32" s="29">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="K32" s="29"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29">
+        <v>10</v>
+      </c>
+      <c r="N32" s="29">
+        <f>ROUNDDOWN(SUM(D17*I15)/I32,0)</f>
         <v>30</v>
       </c>
-      <c r="N32" s="29">
-        <v>4</v>
-      </c>
       <c r="O32" s="29">
-        <f>M32*N32</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="P32" s="29">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="29">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="R32" s="29">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="3:18">
       <c r="C33" s="29">
         <v>60</v>
       </c>
@@ -5787,33 +5418,49 @@
         <v>1</v>
       </c>
       <c r="E33" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="F33" s="29"/>
       <c r="H33" s="29" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I33" s="29">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="K33" s="29">
+        <v>3</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>307</v>
+      </c>
       <c r="M33" s="29">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N33" s="29">
-        <v>4</v>
+        <f>ROUNDDOWN(SUM(D21*I16)/K33,0)</f>
+        <v>18</v>
       </c>
       <c r="O33" s="29">
-        <f t="shared" ref="O33:O40" si="1">M33*N33</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15">
+        <f t="shared" si="2"/>
+        <v>1620</v>
+      </c>
+      <c r="P33" s="29">
+        <v>16</v>
+      </c>
+      <c r="Q33" s="29">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="R33" s="29">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="3:18">
       <c r="C34" s="29">
         <v>60</v>
       </c>
@@ -5821,33 +5468,49 @@
         <v>1</v>
       </c>
       <c r="E34" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="F34" s="29"/>
       <c r="H34" s="29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I34" s="29">
-        <v>120</v>
+        <v>37.5</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+        <v>79</v>
+      </c>
+      <c r="K34" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>307</v>
+      </c>
       <c r="M34" s="29">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N34" s="29">
-        <v>10</v>
+        <f>ROUNDDOWN(SUM(D21*I17)/K34,0)</f>
+        <v>13</v>
       </c>
       <c r="O34" s="29">
+        <f t="shared" si="2"/>
+        <v>1170</v>
+      </c>
+      <c r="P34" s="29">
+        <v>14</v>
+      </c>
+      <c r="Q34" s="29">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="R34" s="29">
         <f t="shared" si="1"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="35" spans="3:18">
       <c r="C35" s="29">
         <v>60</v>
       </c>
@@ -5855,34 +5518,12 @@
         <v>1</v>
       </c>
       <c r="E35" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="F35" s="29"/>
-      <c r="H35" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I35" s="29">
-        <v>85</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29">
-        <v>5.625</v>
-      </c>
-      <c r="N35" s="29">
-        <f>ROUNDDOWN(SUM(D20/I35),0)</f>
-        <v>10</v>
-      </c>
-      <c r="O35" s="29">
-        <f t="shared" si="1"/>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15">
+    </row>
+    <row r="36" spans="3:18">
       <c r="C36" s="29">
         <v>60</v>
       </c>
@@ -5890,69 +5531,90 @@
         <v>1</v>
       </c>
       <c r="E36" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="F36" s="29"/>
-      <c r="H36" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" s="29">
-        <v>30</v>
-      </c>
-      <c r="J36" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29">
-        <v>20</v>
-      </c>
-      <c r="N36" s="29">
-        <f>ROUNDDOWN(SUM(D18*0.8)/I36,0)</f>
-        <v>19</v>
-      </c>
-      <c r="O36" s="29">
-        <f t="shared" si="1"/>
-        <v>380</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15">
+      <c r="H36" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="J36" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="K36" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="L36" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="M36" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="N36" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="O36" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="P36" s="70" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q36" s="70" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="3:18">
       <c r="C37" s="29">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D37" s="29">
         <v>1</v>
       </c>
       <c r="E37" s="29">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="F37" s="29"/>
-      <c r="H37" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I37" s="29">
-        <v>60</v>
-      </c>
-      <c r="J37" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29">
+      <c r="H37" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="I37" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="54">
+        <f>ROUNDDOWN(SUM((D22*0.5)/27.5),0)</f>
         <v>15</v>
       </c>
-      <c r="N37" s="29">
-        <f>ROUNDDOWN(SUM(D18*0.2)/I37,0)</f>
-        <v>2</v>
-      </c>
-      <c r="O37" s="29">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15">
+      <c r="K37" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="L37" s="54">
+        <v>1</v>
+      </c>
+      <c r="M37" s="54">
+        <f>ROUNDDOWN(SUM((Q32*1)/27.5),0)</f>
+        <v>8</v>
+      </c>
+      <c r="N37" s="54">
+        <f>IF(J37&gt;M37,M37,J37)</f>
+        <v>8</v>
+      </c>
+      <c r="O37" s="54">
+        <v>12</v>
+      </c>
+      <c r="P37" s="54">
+        <f>SUM(((O37-N37)*27.5/M32)+P32-N32)</f>
+        <v>5</v>
+      </c>
+      <c r="Q37" s="54">
+        <f>SUM(((P37*I32)/100)*50)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="3:18">
       <c r="C38" s="29">
         <v>120</v>
       </c>
@@ -5960,34 +5622,45 @@
         <v>1</v>
       </c>
       <c r="E38" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F38" s="29"/>
-      <c r="H38" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="29">
-        <v>20</v>
-      </c>
-      <c r="J38" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29">
-        <v>10</v>
-      </c>
-      <c r="N38" s="29">
-        <f>ROUNDDOWN(SUM(D17*0.5)/I38,0)</f>
-        <v>30</v>
-      </c>
-      <c r="O38" s="29">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15">
+      <c r="H38" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="I38" s="54">
+        <v>0.7</v>
+      </c>
+      <c r="J38" s="54">
+        <f>ROUNDDOWN(SUM((D16*I38)/20),0)</f>
+        <v>15</v>
+      </c>
+      <c r="K38" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="L38" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="M38" s="54">
+        <f>ROUNDDOWN(SUM((Q30*L38)/28),0)</f>
+        <v>2</v>
+      </c>
+      <c r="N38" s="54">
+        <f t="shared" ref="N38:N41" si="4">IF(J38&gt;M38,M38,J38)</f>
+        <v>2</v>
+      </c>
+      <c r="O38" s="54">
+        <v>12</v>
+      </c>
+      <c r="P38" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:18">
       <c r="C39" s="29">
         <v>120</v>
       </c>
@@ -5995,38 +5668,45 @@
         <v>1</v>
       </c>
       <c r="E39" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F39" s="29"/>
-      <c r="H39" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I39" s="29">
+      <c r="H39" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="I39" s="54">
+        <v>1</v>
+      </c>
+      <c r="J39" s="54">
+        <f>ROUNDDOWN(SUM((Q29*1)/2),0)</f>
+        <v>14</v>
+      </c>
+      <c r="K39" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="L39" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="M39" s="54">
+        <f>ROUNDDOWN(SUM((Q30*L39)/10),0)</f>
+        <v>3</v>
+      </c>
+      <c r="N39" s="54">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O39" s="54">
         <v>12</v>
       </c>
-      <c r="J39" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39" s="29">
-        <v>3</v>
-      </c>
-      <c r="L39" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M39" s="29">
-        <v>90</v>
-      </c>
-      <c r="N39" s="29">
-        <f>ROUNDDOWN(SUM(D20*0.2)/I39,0)</f>
-        <v>15</v>
-      </c>
-      <c r="O39" s="29">
-        <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15">
+      <c r="P39" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:18">
       <c r="C40" s="29">
         <v>120</v>
       </c>
@@ -6034,38 +5714,45 @@
         <v>1</v>
       </c>
       <c r="E40" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F40" s="29"/>
-      <c r="H40" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I40" s="29">
-        <v>37.5</v>
-      </c>
-      <c r="J40" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" s="29">
-        <v>7.5</v>
-      </c>
-      <c r="L40" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="M40" s="29">
-        <v>90</v>
-      </c>
-      <c r="N40" s="29">
-        <f>ROUNDDOWN(SUM(D21*0.2)/I40,0)</f>
+      <c r="H40" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="54">
+        <v>0.8</v>
+      </c>
+      <c r="J40" s="54">
+        <f>ROUNDDOWN(SUM((Q33*I40)/40),0)</f>
+        <v>28</v>
+      </c>
+      <c r="K40" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="M40" s="54">
+        <f>ROUNDDOWN(SUM((Q30*L40)/15),0)</f>
+        <v>4</v>
+      </c>
+      <c r="N40" s="54">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O40" s="54">
+        <v>4</v>
+      </c>
+      <c r="P40" s="54">
         <v>0</v>
       </c>
-      <c r="O40" s="29">
-        <f t="shared" si="1"/>
+      <c r="Q40" s="54">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:15">
+    <row r="41" spans="3:18">
       <c r="C41" s="29">
         <v>120</v>
       </c>
@@ -6073,12 +5760,45 @@
         <v>1</v>
       </c>
       <c r="E41" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F41" s="29"/>
-    </row>
-    <row r="42" spans="3:15">
+      <c r="H41" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="I41" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="J41" s="54">
+        <f>ROUNDDOWN(SUM((Q33*I41)/30),0)</f>
+        <v>9</v>
+      </c>
+      <c r="K41" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="L41" s="54">
+        <v>0.17</v>
+      </c>
+      <c r="M41" s="54">
+        <f>ROUNDDOWN(SUM((Q30*L41)/10),0)</f>
+        <v>4</v>
+      </c>
+      <c r="N41" s="54">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O41" s="54">
+        <v>4</v>
+      </c>
+      <c r="P41" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18">
       <c r="C42" s="29">
         <v>120</v>
       </c>
@@ -6086,12 +5806,38 @@
         <v>1</v>
       </c>
       <c r="E42" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F42" s="29"/>
-    </row>
-    <row r="43" spans="3:15">
+      <c r="H42" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="I42" s="54">
+        <v>1</v>
+      </c>
+      <c r="J42" s="54">
+        <v>2</v>
+      </c>
+      <c r="K42" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="L42" s="54">
+        <v>1</v>
+      </c>
+      <c r="M42" s="54">
+        <v>2</v>
+      </c>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18">
       <c r="C43" s="29">
         <v>120</v>
       </c>
@@ -6099,12 +5845,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F43" s="29"/>
-    </row>
-    <row r="44" spans="3:15">
+      <c r="R43">
+        <f>SUM(R37:R42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18">
       <c r="C44" s="29">
         <v>120</v>
       </c>
@@ -6112,12 +5862,12 @@
         <v>1</v>
       </c>
       <c r="E44" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="3:15">
+    <row r="45" spans="3:18">
       <c r="C45" s="29">
         <v>120</v>
       </c>
@@ -6125,56 +5875,212 @@
         <v>1</v>
       </c>
       <c r="E45" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="F45" s="29"/>
-    </row>
-    <row r="46" spans="3:15">
-      <c r="C46" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="29"/>
+      <c r="H45" s="65" t="s">
+        <v>326</v>
+      </c>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+    </row>
+    <row r="46" spans="3:18">
+      <c r="C46" s="29">
+        <v>120</v>
+      </c>
+      <c r="D46" s="29">
+        <v>1</v>
+      </c>
       <c r="E46" s="29">
-        <f>SUM(E27:E45)</f>
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="H46" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="L46" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="M46" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="N46" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="O46" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="P46" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q46" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="R46" s="64" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18">
+      <c r="C47" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29">
+        <f>SUM(E28:E46)</f>
         <v>1680</v>
       </c>
-      <c r="F46" s="29"/>
-    </row>
-    <row r="47" spans="3:15">
-      <c r="C47" s="61" t="s">
+      <c r="F47" s="29"/>
+      <c r="H47" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="I47" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="29">
+        <v>27.5</v>
+      </c>
+      <c r="L47" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="M47" s="29">
+        <v>12.5</v>
+      </c>
+      <c r="N47" s="29">
+        <v>8</v>
+      </c>
+      <c r="O47" s="29">
+        <f>M47*N47</f>
+        <v>100</v>
+      </c>
+      <c r="P47" s="29">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="29">
+        <f>M47*P47</f>
+        <v>150</v>
+      </c>
+      <c r="R47" s="29">
+        <f>O47-Q47</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18">
+      <c r="C48" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="63"/>
-    </row>
-    <row r="48" spans="3:15">
-      <c r="C48" s="29" t="s">
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
+      <c r="H48" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="I48" s="29">
+        <v>28</v>
+      </c>
+      <c r="J48" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="29">
+        <v>20</v>
+      </c>
+      <c r="L48" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" s="29">
+        <v>4</v>
+      </c>
+      <c r="N48" s="29">
+        <f>N38</f>
+        <v>2</v>
+      </c>
+      <c r="O48" s="29">
+        <f>M48*N48</f>
+        <v>8</v>
+      </c>
+      <c r="P48" s="29">
+        <v>12</v>
+      </c>
+      <c r="Q48" s="29">
+        <f>M48*P48</f>
+        <v>48</v>
+      </c>
+      <c r="R48" s="29">
+        <f>O48-Q48</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18">
+      <c r="C49" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="29"/>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="29">
-        <v>120</v>
-      </c>
-      <c r="D49" s="29">
-        <v>1</v>
-      </c>
-      <c r="E49" s="29">
-        <f>C49*D49</f>
-        <v>120</v>
-      </c>
       <c r="F49" s="29"/>
-    </row>
-    <row r="50" spans="3:6">
+      <c r="H49" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="I49" s="29">
+        <v>10</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="29">
+        <v>2</v>
+      </c>
+      <c r="L49" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="M49" s="29">
+        <v>3</v>
+      </c>
+      <c r="N49" s="29">
+        <f>M39</f>
+        <v>3</v>
+      </c>
+      <c r="O49" s="29">
+        <f>M49*N49</f>
+        <v>9</v>
+      </c>
+      <c r="P49" s="29">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="29">
+        <f>M49*P49</f>
+        <v>36</v>
+      </c>
+      <c r="R49" s="29">
+        <f>O49-Q49</f>
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18">
       <c r="C50" s="29">
         <v>120</v>
       </c>
@@ -6182,25 +6088,99 @@
         <v>1</v>
       </c>
       <c r="E50" s="29">
-        <f t="shared" ref="E50:E52" si="2">C50*D50</f>
+        <f>C50*D50</f>
         <v>120</v>
       </c>
       <c r="F50" s="29"/>
-    </row>
-    <row r="51" spans="3:6">
+      <c r="H50" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15</v>
+      </c>
+      <c r="J50" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="29">
+        <v>40</v>
+      </c>
+      <c r="L50" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="M50" s="29">
+        <v>5</v>
+      </c>
+      <c r="N50" s="29">
+        <f>M40</f>
+        <v>4</v>
+      </c>
+      <c r="O50" s="29">
+        <f>M50*N50</f>
+        <v>20</v>
+      </c>
+      <c r="P50" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="29">
+        <f>M50*P50</f>
+        <v>20</v>
+      </c>
+      <c r="R50" s="29">
+        <f>O50-Q50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18">
       <c r="C51" s="29">
         <v>120</v>
       </c>
       <c r="D51" s="29">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E51" s="29">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <f t="shared" ref="E51:E53" si="5">C51*D51</f>
+        <v>120</v>
       </c>
       <c r="F51" s="29"/>
-    </row>
-    <row r="52" spans="3:6">
+      <c r="H51" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="I51" s="29">
+        <v>10</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="29">
+        <v>30</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="M51" s="29">
+        <v>5</v>
+      </c>
+      <c r="N51" s="29">
+        <f>M41</f>
+        <v>4</v>
+      </c>
+      <c r="O51" s="29">
+        <f>M51*N51</f>
+        <v>20</v>
+      </c>
+      <c r="P51" s="29">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="29">
+        <f>M51*P51</f>
+        <v>20</v>
+      </c>
+      <c r="R51" s="29">
+        <f>O51-Q51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18">
       <c r="C52" s="29">
         <v>120</v>
       </c>
@@ -6208,56 +6188,98 @@
         <v>1.5</v>
       </c>
       <c r="E52" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="F52" s="29"/>
-    </row>
-    <row r="53" spans="3:6">
-      <c r="C53" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" s="29"/>
+      <c r="H52" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="I52" s="29">
+        <v>10</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="K52" s="29">
+        <v>10</v>
+      </c>
+      <c r="L52" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="M52" s="29">
+        <v>5</v>
+      </c>
+      <c r="N52" s="29">
+        <f>M42</f>
+        <v>2</v>
+      </c>
+      <c r="O52" s="29">
+        <f>M52*N52</f>
+        <v>10</v>
+      </c>
+      <c r="P52" s="29">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="29">
+        <f>M52*P52</f>
+        <v>10</v>
+      </c>
+      <c r="R52" s="29">
+        <f>O52-Q52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18">
+      <c r="C53" s="29">
+        <v>120</v>
+      </c>
+      <c r="D53" s="29">
+        <v>1.5</v>
+      </c>
       <c r="E53" s="29">
-        <f>SUM(E49:E52)</f>
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="F53" s="29"/>
+    </row>
+    <row r="54" spans="3:18">
+      <c r="C54" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29">
+        <f>SUM(E50:E53)</f>
         <v>600</v>
       </c>
-      <c r="F53" s="29"/>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="C54" s="61" t="s">
+      <c r="F54" s="29"/>
+    </row>
+    <row r="55" spans="3:18">
+      <c r="C55" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="63"/>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="29" t="s">
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57"/>
+    </row>
+    <row r="56" spans="3:18">
+      <c r="C56" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F55" s="29"/>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" s="29">
-        <v>60</v>
-      </c>
-      <c r="D56" s="29">
-        <v>1</v>
-      </c>
-      <c r="E56" s="29">
-        <f>C56*D56</f>
-        <v>60</v>
-      </c>
       <c r="F56" s="29"/>
-    </row>
-    <row r="57" spans="3:6">
+      <c r="H56" s="54"/>
+      <c r="I56" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="J56" s="54"/>
+    </row>
+    <row r="57" spans="3:18">
       <c r="C57" s="29">
         <v>60</v>
       </c>
@@ -6265,12 +6287,12 @@
         <v>1</v>
       </c>
       <c r="E57" s="29">
-        <f t="shared" ref="E57:E59" si="3">C57*D57</f>
+        <f>C57*D57</f>
         <v>60</v>
       </c>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="3:6">
+    <row r="58" spans="3:18">
       <c r="C58" s="29">
         <v>60</v>
       </c>
@@ -6278,12 +6300,12 @@
         <v>1</v>
       </c>
       <c r="E58" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E58:E60" si="6">C58*D58</f>
         <v>60</v>
       </c>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="3:6">
+    <row r="59" spans="3:18">
       <c r="C59" s="29">
         <v>60</v>
       </c>
@@ -6291,12 +6313,12 @@
         <v>1</v>
       </c>
       <c r="E59" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="F59" s="29"/>
     </row>
-    <row r="60" spans="3:6">
+    <row r="60" spans="3:18">
       <c r="C60" s="29">
         <v>60</v>
       </c>
@@ -6304,12 +6326,12 @@
         <v>1</v>
       </c>
       <c r="E60" s="29">
-        <f>C60*D60</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="3:6">
+    <row r="61" spans="3:18">
       <c r="C61" s="29">
         <v>60</v>
       </c>
@@ -6317,25 +6339,25 @@
         <v>1</v>
       </c>
       <c r="E61" s="29">
-        <f t="shared" ref="E61:E63" si="4">C61*D61</f>
+        <f>C61*D61</f>
         <v>60</v>
       </c>
       <c r="F61" s="29"/>
     </row>
-    <row r="62" spans="3:6">
+    <row r="62" spans="3:18">
       <c r="C62" s="29">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D62" s="29">
         <v>1</v>
       </c>
       <c r="E62" s="29">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <f t="shared" ref="E62:E64" si="7">C62*D62</f>
+        <v>60</v>
       </c>
       <c r="F62" s="29"/>
     </row>
-    <row r="63" spans="3:6">
+    <row r="63" spans="3:18">
       <c r="C63" s="29">
         <v>120</v>
       </c>
@@ -6343,12 +6365,12 @@
         <v>1</v>
       </c>
       <c r="E63" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="F63" s="29"/>
     </row>
-    <row r="64" spans="3:6">
+    <row r="64" spans="3:18">
       <c r="C64" s="29">
         <v>120</v>
       </c>
@@ -6356,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="29">
-        <f>C64*D64</f>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="F64" s="29"/>
@@ -6369,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="29">
-        <f t="shared" ref="E65:E67" si="5">C65*D65</f>
+        <f>C65*D65</f>
         <v>120</v>
       </c>
       <c r="F65" s="29"/>
@@ -6382,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="E66:E68" si="8">C66*D66</f>
         <v>120</v>
       </c>
       <c r="F66" s="29"/>
@@ -6395,65 +6417,65 @@
         <v>1</v>
       </c>
       <c r="E67" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="F67" s="29"/>
     </row>
     <row r="68" spans="3:6">
       <c r="C68" s="29">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="D68" s="29">
         <v>1</v>
       </c>
       <c r="E68" s="29">
-        <f t="shared" ref="E68" si="6">C68*D68</f>
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="F68" s="29"/>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="C69" s="29">
         <v>240</v>
       </c>
-      <c r="F68" s="29"/>
-    </row>
-    <row r="69" spans="3:6">
-      <c r="C69" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" s="29"/>
+      <c r="D69" s="29">
+        <v>1</v>
+      </c>
       <c r="E69" s="29">
-        <f>SUM(E56:E68)</f>
+        <f t="shared" ref="E69" si="9">C69*D69</f>
+        <v>240</v>
+      </c>
+      <c r="F69" s="29"/>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29">
+        <f>SUM(E57:E69)</f>
         <v>1320</v>
       </c>
-      <c r="F69" s="29"/>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="C70" s="61" t="s">
+      <c r="F70" s="29"/>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="63"/>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="C71" s="29" t="s">
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="57"/>
+    </row>
+    <row r="72" spans="3:6">
+      <c r="C72" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E72" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F71" s="29"/>
-    </row>
-    <row r="72" spans="3:6">
-      <c r="C72" s="29">
-        <v>240</v>
-      </c>
-      <c r="D72" s="29">
-        <v>1</v>
-      </c>
-      <c r="E72" s="29">
-        <f>C72*D72</f>
-        <v>240</v>
       </c>
       <c r="F72" s="29"/>
     </row>
@@ -6465,52 +6487,52 @@
         <v>1</v>
       </c>
       <c r="E73" s="29">
-        <f t="shared" ref="E73" si="7">C73*D73</f>
+        <f>C73*D73</f>
         <v>240</v>
       </c>
       <c r="F73" s="29"/>
     </row>
     <row r="74" spans="3:6">
-      <c r="C74" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74" s="29"/>
+      <c r="C74" s="29">
+        <v>240</v>
+      </c>
+      <c r="D74" s="29">
+        <v>1</v>
+      </c>
       <c r="E74" s="29">
-        <f>SUM(E72:E73)</f>
+        <f t="shared" ref="E74" si="10">C74*D74</f>
+        <v>240</v>
+      </c>
+      <c r="F74" s="29"/>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="C75" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29">
+        <f>SUM(E73:E74)</f>
         <v>480</v>
       </c>
-      <c r="F74" s="29"/>
-    </row>
-    <row r="75" spans="3:6">
-      <c r="C75" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="63"/>
+      <c r="F75" s="29"/>
     </row>
     <row r="76" spans="3:6">
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="57"/>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="C77" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E77" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F76" s="29"/>
-    </row>
-    <row r="77" spans="3:6">
-      <c r="C77" s="29">
-        <v>120</v>
-      </c>
-      <c r="D77" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="E77" s="29">
-        <f>C77*D77</f>
-        <v>300</v>
       </c>
       <c r="F77" s="29"/>
     </row>
@@ -6522,91 +6544,165 @@
         <v>2.5</v>
       </c>
       <c r="E78" s="29">
-        <f t="shared" ref="E78" si="8">C78*D78</f>
+        <f>C78*D78</f>
         <v>300</v>
       </c>
       <c r="F78" s="29"/>
     </row>
     <row r="79" spans="3:6">
-      <c r="C79" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="29"/>
+      <c r="C79" s="29">
+        <v>120</v>
+      </c>
+      <c r="D79" s="29">
+        <v>2.5</v>
+      </c>
       <c r="E79" s="29">
-        <f>SUM(E77:E78)</f>
+        <f t="shared" ref="E79" si="11">C79*D79</f>
+        <v>300</v>
+      </c>
+      <c r="F79" s="29"/>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="C80" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29">
+        <f>SUM(E78:E79)</f>
         <v>600</v>
       </c>
-      <c r="F79" s="29"/>
-    </row>
-    <row r="80" spans="3:6">
-      <c r="C80" s="61" t="s">
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="63"/>
-    </row>
-    <row r="81" spans="3:6">
-      <c r="C81" s="29" t="s">
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="57"/>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D81" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="F81" s="29"/>
-    </row>
-    <row r="82" spans="3:6">
-      <c r="C82" s="29">
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="C83" s="29">
         <v>120</v>
       </c>
-      <c r="D82" s="29">
+      <c r="D83" s="29">
         <v>2.5</v>
       </c>
-      <c r="E82" s="29">
-        <f>C82*D82</f>
+      <c r="E83" s="29">
+        <f>C83*D83</f>
         <v>300</v>
       </c>
-      <c r="F82" s="29"/>
-    </row>
-    <row r="83" spans="3:6">
-      <c r="C83" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29">
-        <f>SUM(E82:E82)</f>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="C84" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29">
+        <f>SUM(E83:E83)</f>
         <v>300</v>
       </c>
-      <c r="F83" s="29"/>
+      <c r="F84" s="29"/>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="C85" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="57"/>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="C86" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" s="29"/>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="C87" s="29">
+        <v>240</v>
+      </c>
+      <c r="D87" s="29">
+        <v>1</v>
+      </c>
+      <c r="E87" s="29">
+        <f>D87*C87</f>
+        <v>240</v>
+      </c>
+      <c r="F87" s="29"/>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="C88" s="29">
+        <v>240</v>
+      </c>
+      <c r="D88" s="29">
+        <v>1</v>
+      </c>
+      <c r="E88" s="29">
+        <f>C88*D88</f>
+        <v>240</v>
+      </c>
+      <c r="F88" s="29"/>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="C89" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29">
+        <f>SUM(E87:E88)</f>
+        <v>480</v>
+      </c>
+      <c r="F89" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C3:T3"/>
-    <mergeCell ref="K5:U5"/>
-    <mergeCell ref="H29:O29"/>
+  <mergeCells count="15">
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="H45:R45"/>
+    <mergeCell ref="H23:R23"/>
+    <mergeCell ref="C3:U3"/>
+    <mergeCell ref="L5:V5"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C71:F71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2FA3DA-A5F3-411F-AB6B-7EB05B935F88}">
   <dimension ref="C2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C24" sqref="C24:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6627,128 +6723,128 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="I2" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="K2" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="M2" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="O2" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="Q2" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="O2" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="4" spans="3:17">
-      <c r="C4" s="38" t="s">
-        <v>183</v>
+      <c r="C4" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>202</v>
+        <v>182</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>200</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="3:17">
       <c r="C6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>185</v>
+        <v>153</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>185</v>
+      <c r="H6" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>161</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>185</v>
+        <v>159</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="M6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O6" t="s">
-        <v>102</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>185</v>
+        <v>101</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="Q6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="3:17">
       <c r="C7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>185</v>
+        <v>154</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>185</v>
+        <v>174</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="I7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>185</v>
+        <v>160</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="M7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="36" t="s">
-        <v>185</v>
+      <c r="P7" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -6756,37 +6852,37 @@
     </row>
     <row r="8" spans="3:17">
       <c r="C8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>185</v>
+        <v>155</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>185</v>
+      <c r="H8" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>185</v>
+        <v>161</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="M8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O8" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="36" t="s">
-        <v>185</v>
+      <c r="P8" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="Q8" t="s">
         <v>18</v>
@@ -6794,48 +6890,48 @@
     </row>
     <row r="9" spans="3:17">
       <c r="C9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>185</v>
+        <v>156</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>185</v>
+        <v>157</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>185</v>
+        <v>162</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="M9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O9" t="s">
-        <v>167</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>185</v>
+        <v>165</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="Q9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="3:17">
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>185</v>
+      <c r="D10" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -6843,126 +6939,126 @@
       <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>185</v>
+      <c r="H10" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>185</v>
+        <v>163</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="M10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O10" t="s">
-        <v>168</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>185</v>
+        <v>166</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="Q10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="3:17">
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>185</v>
+      <c r="D11" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>185</v>
+        <v>158</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K11" t="s">
-        <v>166</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>185</v>
+        <v>164</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="M11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O11" t="s">
-        <v>169</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>185</v>
+        <v>167</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="Q11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="3:17">
       <c r="C13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="I14" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="K14" s="35" t="s">
         <v>197</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="16" spans="3:17">
       <c r="C16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G16" t="s">
-        <v>212</v>
-      </c>
-      <c r="I16" s="38" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>211</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="3:12">
       <c r="C18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>185</v>
+        <v>114</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="3:12">
@@ -6970,39 +7066,39 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>185</v>
+        <v>97</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>185</v>
+        <v>169</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="3:12">
@@ -7011,194 +7107,194 @@
       </c>
     </row>
     <row r="24" spans="3:12">
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>203</v>
+      <c r="I24" s="35" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="3:12">
-      <c r="C26" s="38" t="s">
-        <v>183</v>
+      <c r="C26" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>185</v>
+        <v>172</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="3:12">
       <c r="C29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>185</v>
+        <v>173</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>185</v>
+        <v>177</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="I29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="3:12">
       <c r="C30" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>185</v>
+      <c r="D30" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E30" t="s">
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>180</v>
-      </c>
-      <c r="H30" s="36" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="I30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="3:12">
       <c r="C31" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>185</v>
+      <c r="D31" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E31" t="s">
         <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>185</v>
+        <v>199</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G32" t="s">
-        <v>182</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
-      </c>
-      <c r="L32" s="36"/>
+        <v>180</v>
+      </c>
+      <c r="L32" s="34"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G33" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="I33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L33" s="34"/>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="H33" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="I33" t="s">
-        <v>194</v>
-      </c>
-      <c r="L33" s="36"/>
-    </row>
-    <row r="36" spans="3:12">
-      <c r="C36" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>197</v>
+      <c r="E36" s="35" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="3:12">
       <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>185</v>
+        <v>168</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="C38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>185</v>
+        <v>170</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="3:12">
       <c r="C39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>185</v>
+        <v>171</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>183</v>
       </c>
       <c r="E39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -7207,7 +7303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A4D7D-2B40-4F26-A6BD-214006A713CE}">
   <dimension ref="C3:D21"/>
   <sheetViews>
@@ -7222,16 +7318,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="63"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="18" t="s">
@@ -7266,10 +7362,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="63"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="17" t="s">
@@ -7312,10 +7408,10 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="63"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="17" t="s">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C1D38-1FD1-4F16-B71D-3D7468A798A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8250AED3-1777-4EB1-BE02-F8794AE428EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="5" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="362">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -712,15 +712,9 @@
     <t>Aluminum Eventually at Oil Fields, Soon, Almost out of Belts</t>
   </si>
   <si>
-    <t>HeavyFrames</t>
-  </si>
-  <si>
     <t>Heavy Frames</t>
   </si>
   <si>
-    <t>Each Added Floor</t>
-  </si>
-  <si>
     <t>Special Tier 3 Sites</t>
   </si>
   <si>
@@ -1000,27 +994,12 @@
     <t>All Iron Remainder = R.Plates</t>
   </si>
   <si>
-    <t>To Finish 7 Floors</t>
-  </si>
-  <si>
-    <t>^^^^^^</t>
-  </si>
-  <si>
-    <t>Sitting on Personal Train Ready</t>
-  </si>
-  <si>
-    <t>1. Fill in Fuel Generators at Turbofuel Site over Time</t>
-  </si>
-  <si>
     <t>2. Revised Rubber Site</t>
   </si>
   <si>
     <t>3. Revised Aluminum Site</t>
   </si>
   <si>
-    <t>4. Turn Coal lake into Steel Production Site</t>
-  </si>
-  <si>
     <t>AcctualCurrent#</t>
   </si>
   <si>
@@ -1151,6 +1130,33 @@
   </si>
   <si>
     <t>Stator</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>copper ingot</t>
+  </si>
+  <si>
+    <t>steel ingot</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silica </t>
+  </si>
+  <si>
+    <t>quartz crystal</t>
+  </si>
+  <si>
+    <t>1. Turn Coal lake into Steel Production Site</t>
+  </si>
+  <si>
+    <t>4. Rework Train Logistics</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1682,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1766,9 +1772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1798,6 +1801,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1807,10 +1819,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1819,31 +1831,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2485,48 +2488,48 @@
   </sheetPr>
   <dimension ref="C1:U45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="40"/>
-    <col min="3" max="3" width="70.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="40" customWidth="1"/>
-    <col min="15" max="15" width="24" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="2" width="9.140625" style="37"/>
+    <col min="3" max="3" width="70.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" style="37" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="37" customWidth="1"/>
+    <col min="15" max="15" width="24" style="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" ht="19.5" thickBot="1"/>
+    <row r="1" spans="3:20" ht="19.5" thickBot="1">
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
     <row r="2" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
-      <c r="D2" s="41"/>
+      <c r="D2" s="38"/>
       <c r="E2"/>
-      <c r="F2" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>161</v>
-      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -2535,27 +2538,15 @@
       <c r="P2"/>
     </row>
     <row r="3" spans="3:20" ht="19.5" thickTop="1">
-      <c r="C3" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="38">
-        <v>135</v>
-      </c>
-      <c r="G3" s="38">
-        <v>90</v>
-      </c>
-      <c r="H3" s="38">
-        <v>450</v>
-      </c>
-      <c r="I3" s="38">
-        <v>45</v>
-      </c>
-      <c r="J3" s="38">
-        <v>450</v>
-      </c>
+      <c r="C3" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -2568,32 +2559,15 @@
       <c r="T3"/>
     </row>
     <row r="4" spans="3:20">
-      <c r="C4" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" s="38">
-        <f>F3*7</f>
-        <v>945</v>
-      </c>
-      <c r="G4" s="38">
-        <f t="shared" ref="G4:J4" si="0">G3*7</f>
-        <v>630</v>
-      </c>
-      <c r="H4" s="38">
-        <f t="shared" si="0"/>
-        <v>3150</v>
-      </c>
-      <c r="I4" s="38">
-        <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="J4" s="38">
-        <f t="shared" si="0"/>
-        <v>3150</v>
-      </c>
+      <c r="C4" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -2606,12 +2580,17 @@
       <c r="T4"/>
     </row>
     <row r="5" spans="3:20">
-      <c r="C5" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>310</v>
-      </c>
+      <c r="C5" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
@@ -2622,12 +2601,17 @@
       <c r="T5"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>311</v>
-      </c>
+      <c r="C6" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
@@ -2637,7 +2621,13 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="3:20">
+    <row r="7" spans="3:20" ht="19.5" thickBot="1">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -2649,8 +2639,16 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="3:20">
+    <row r="8" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
+      <c r="C8" s="38" t="s">
+        <v>110</v>
+      </c>
       <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -2662,8 +2660,16 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="3:20">
+    <row r="9" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C9" s="46" t="s">
+        <v>20</v>
+      </c>
       <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -2675,7 +2681,10 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="3:20">
+    <row r="10" spans="3:20" ht="43.5" thickTop="1" thickBot="1">
+      <c r="C10" s="46" t="s">
+        <v>212</v>
+      </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -2711,6 +2720,12 @@
       <c r="S11"/>
     </row>
     <row r="12" spans="3:20">
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
@@ -2719,6 +2734,12 @@
       <c r="P12"/>
     </row>
     <row r="13" spans="3:20">
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
@@ -2727,6 +2748,12 @@
       <c r="P13"/>
     </row>
     <row r="14" spans="3:20">
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -2748,7 +2775,9 @@
       <c r="O15"/>
       <c r="P15"/>
     </row>
-    <row r="16" spans="3:20" ht="19.5" thickBot="1">
+    <row r="16" spans="3:20">
+      <c r="C16"/>
+      <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -2762,10 +2791,9 @@
       <c r="O16"/>
       <c r="P16"/>
     </row>
-    <row r="17" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C17" s="41" t="s">
-        <v>110</v>
-      </c>
+    <row r="17" spans="3:16">
+      <c r="C17"/>
+      <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
@@ -2779,10 +2807,9 @@
       <c r="O17"/>
       <c r="P17"/>
     </row>
-    <row r="18" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C18" s="49" t="s">
-        <v>20</v>
-      </c>
+    <row r="18" spans="3:16">
+      <c r="C18"/>
+      <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
@@ -2796,10 +2823,9 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="3:16" ht="43.5" thickTop="1" thickBot="1">
-      <c r="C19" s="49" t="s">
-        <v>212</v>
-      </c>
+    <row r="19" spans="3:16">
+      <c r="C19"/>
+      <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
@@ -2813,10 +2839,9 @@
       <c r="O19"/>
       <c r="P19"/>
     </row>
-    <row r="20" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C20" s="49" t="s">
-        <v>97</v>
-      </c>
+    <row r="20" spans="3:16">
+      <c r="C20"/>
+      <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -2830,10 +2855,9 @@
       <c r="O20"/>
       <c r="P20"/>
     </row>
-    <row r="21" spans="3:16" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C21" s="49" t="s">
-        <v>214</v>
-      </c>
+    <row r="21" spans="3:16">
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -2849,6 +2873,7 @@
     </row>
     <row r="22" spans="3:16">
       <c r="C22"/>
+      <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
@@ -2864,6 +2889,7 @@
     </row>
     <row r="23" spans="3:16">
       <c r="C23"/>
+      <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
@@ -2879,6 +2905,7 @@
     </row>
     <row r="24" spans="3:16">
       <c r="C24"/>
+      <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
@@ -2894,6 +2921,7 @@
     </row>
     <row r="25" spans="3:16">
       <c r="C25"/>
+      <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
@@ -2909,6 +2937,7 @@
     </row>
     <row r="26" spans="3:16">
       <c r="C26"/>
+      <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -2924,6 +2953,7 @@
     </row>
     <row r="27" spans="3:16">
       <c r="C27"/>
+      <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
@@ -2939,6 +2969,7 @@
     </row>
     <row r="28" spans="3:16">
       <c r="C28"/>
+      <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -2954,6 +2985,7 @@
     </row>
     <row r="29" spans="3:16">
       <c r="C29"/>
+      <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
@@ -2969,6 +3001,7 @@
     </row>
     <row r="30" spans="3:16">
       <c r="C30"/>
+      <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
@@ -2984,6 +3017,7 @@
     </row>
     <row r="31" spans="3:16">
       <c r="C31"/>
+      <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
@@ -3066,376 +3100,376 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18.75">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75">
+      <c r="A3" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75">
+      <c r="A4" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="48" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="18.75">
-      <c r="A3" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="C3" s="50" t="s">
+      <c r="M4" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75">
+      <c r="C5" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3" s="50" t="s">
+      <c r="J5" s="48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75">
+      <c r="J6" s="48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75">
+      <c r="C7" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H7" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J7" s="48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75">
+      <c r="C8" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75">
+      <c r="C9" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75">
+      <c r="C10" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="M10" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="N10" s="48" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75">
+      <c r="J11" s="48" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75">
+      <c r="C12" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="L3" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="M3" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="N3" s="50" t="s">
+      <c r="E12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="47" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75">
-      <c r="A4" s="51" t="s">
+      <c r="H12" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75">
+      <c r="C13" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75">
+      <c r="C14" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75">
+      <c r="C15" s="48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18.75">
+      <c r="C16" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="J16" s="47" t="s">
+        <v>272</v>
+      </c>
+      <c r="L16" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="M16" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="N16" s="47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="18.75">
+      <c r="C17" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="18.75">
+      <c r="C18" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="J4" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>282</v>
-      </c>
-      <c r="M4" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="N4" s="51" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="18.75">
-      <c r="C5" s="52" t="s">
+      <c r="J18" s="48" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="18.75">
+      <c r="C19" s="48" t="s">
+        <v>245</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="18.75">
+      <c r="C20" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="J5" s="51" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75">
-      <c r="J6" s="51" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.75">
-      <c r="C7" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="50" t="s">
+      <c r="J20" s="48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="18.75">
+      <c r="C21" s="48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="18.75">
+      <c r="C22" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="N22" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="50" t="s">
+    </row>
+    <row r="23" spans="3:14" ht="18.75">
+      <c r="C23" s="48" t="s">
+        <v>247</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="L23" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="M23" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="N23" s="48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="18.75">
+      <c r="C24" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="18.75">
+      <c r="N25" s="48" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="18.75">
+      <c r="C26" s="47" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="J7" s="51" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="18.75">
-      <c r="C8" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18.75">
-      <c r="C9" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="L9" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="M9" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="N9" s="50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="18.75">
-      <c r="C10" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="N10" s="51" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18.75">
-      <c r="J11" s="51" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="18.75">
-      <c r="C12" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="J12" s="51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="18.75">
-      <c r="C13" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="18.75">
-      <c r="C14" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="18.75">
-      <c r="C15" s="51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="18.75">
-      <c r="C16" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="J16" s="50" t="s">
+      <c r="J26" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="L16" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="M16" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="N16" s="50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" ht="18.75">
-      <c r="C17" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="M17" s="51" t="s">
+      <c r="N26" s="48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="18.75">
+      <c r="C27" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="N17" s="51" t="s">
+      <c r="F27" s="48" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" ht="18.75">
-      <c r="C18" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="J18" s="51" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" ht="18.75">
-      <c r="C19" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" ht="18.75">
-      <c r="C20" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="J20" s="51" t="s">
+      <c r="G27" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="18.75">
+      <c r="C28" s="48" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" ht="18.75">
-      <c r="C21" s="51" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" ht="18.75">
-      <c r="C22" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="J22" s="50" t="s">
+      <c r="J28" s="48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="18.75">
+      <c r="C29" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="L22" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="M22" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="N22" s="50" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" ht="18.75">
-      <c r="C23" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="L23" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="M23" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="N23" s="51" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" ht="18.75">
-      <c r="C24" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="J24" s="51" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" ht="18.75">
-      <c r="N25" s="51" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" ht="18.75">
-      <c r="C26" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="G26" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="J26" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="N26" s="51" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" ht="18.75">
-      <c r="C27" s="51" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="J27" s="51" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" ht="18.75">
-      <c r="C28" s="51" t="s">
+    </row>
+    <row r="30" spans="3:14" ht="18.75">
+      <c r="C30" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="J28" s="51" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" ht="18.75">
-      <c r="C29" s="51" t="s">
+    </row>
+    <row r="31" spans="3:14" ht="18.75">
+      <c r="C31" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="J29" s="51" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" ht="18.75">
-      <c r="C30" s="51" t="s">
+    </row>
+    <row r="32" spans="3:14" ht="18.75">
+      <c r="C32" s="48" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" ht="18.75">
-      <c r="C31" s="51" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" ht="18.75">
-      <c r="C32" s="51" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3456,46 +3490,46 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="3:4">
       <c r="C8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3511,8 +3545,8 @@
   </sheetPr>
   <dimension ref="C1:T79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3557,32 +3591,32 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41" t="s">
+      <c r="O3" s="37"/>
+      <c r="P3" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40" t="s">
-        <v>216</v>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
@@ -3604,23 +3638,23 @@
       <c r="H4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="44" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
     </row>
     <row r="5" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="C5" s="13" t="s">
@@ -3641,22 +3675,22 @@
       <c r="H5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="45" t="s">
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="46" t="s">
-        <v>217</v>
+      <c r="T5" s="43" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
@@ -3666,25 +3700,25 @@
       <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="44" t="s">
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="44" t="s">
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
     </row>
     <row r="7" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F7" s="25" t="s">
@@ -3693,25 +3727,25 @@
       <c r="H7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="44" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="43" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
     </row>
     <row r="8" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F8" s="25" t="s">
@@ -3720,21 +3754,21 @@
       <c r="H8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="44" t="s">
+      <c r="J8" s="37"/>
+      <c r="K8" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="44" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
     </row>
     <row r="9" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="F9" s="25" t="s">
@@ -3743,45 +3777,45 @@
       <c r="H9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="S9" s="40"/>
-      <c r="T9" s="46" t="s">
-        <v>214</v>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="S9" s="37"/>
+      <c r="T9" s="43" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="44" t="s">
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="45" t="s">
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
     </row>
     <row r="11" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F11" s="6" t="s">
@@ -3790,44 +3824,44 @@
       <c r="H11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="44" t="s">
+      <c r="J11" s="37"/>
+      <c r="K11" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="44" t="s">
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="41" t="s">
+      <c r="O11" s="37"/>
+      <c r="P11" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="44" t="s">
+      <c r="Q11" s="37"/>
+      <c r="R11" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
     </row>
     <row r="12" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="12"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="43" t="s">
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
     </row>
     <row r="13" spans="3:20" ht="51" thickTop="1" thickBot="1">
       <c r="F13" s="6" t="s">
@@ -3836,27 +3870,27 @@
       <c r="H13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="K13" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="44" t="s">
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="O13" s="42" t="s">
+      <c r="O13" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="45" t="s">
+      <c r="P13" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="40"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="37"/>
     </row>
     <row r="14" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="C14" s="8" t="s">
@@ -3874,61 +3908,61 @@
       <c r="G14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="45" t="s">
+      <c r="J14" s="37"/>
+      <c r="K14" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="44" t="s">
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="45" t="s">
+      <c r="O14" s="37"/>
+      <c r="P14" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
     </row>
     <row r="15" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
     </row>
     <row r="16" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="40"/>
-      <c r="K16" s="45" t="s">
+      <c r="J16" s="37"/>
+      <c r="K16" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="44" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="40"/>
-      <c r="P16" s="45" t="s">
+      <c r="O16" s="37"/>
+      <c r="P16" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
     </row>
     <row r="17" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="C17" s="5" t="s">
@@ -3943,34 +3977,34 @@
       <c r="F17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="45" t="s">
+      <c r="J17" s="37"/>
+      <c r="K17" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="44" t="s">
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
     </row>
     <row r="18" spans="3:20" ht="19.5" thickBot="1">
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
     </row>
     <row r="19" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
       <c r="C19" s="11" t="s">
@@ -3988,25 +4022,25 @@
       <c r="G19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="47" t="s">
+      <c r="J19" s="37"/>
+      <c r="K19" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="44" t="s">
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="O19" s="42" t="s">
+      <c r="O19" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P19" s="45" t="s">
+      <c r="P19" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
     </row>
     <row r="20" spans="3:20" ht="19.5" thickBot="1">
       <c r="F20" s="26" t="s">
@@ -4015,58 +4049,58 @@
       <c r="G20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="43" t="s">
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
     </row>
     <row r="21" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F21" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
     </row>
     <row r="22" spans="3:20" ht="21.75" thickBot="1">
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="45" t="s">
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="42" t="s">
+      <c r="O22" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P22" s="45" t="s">
+      <c r="P22" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
     </row>
     <row r="23" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="C23" s="11" t="s">
@@ -4084,19 +4118,19 @@
       <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="43" t="s">
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
     </row>
     <row r="24" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="D24" s="4" t="s">
@@ -4111,57 +4145,57 @@
       <c r="G24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
     </row>
     <row r="25" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
       <c r="F25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="45" t="s">
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="O25" s="42" t="s">
+      <c r="O25" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="47" t="s">
+      <c r="P25" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
     </row>
     <row r="26" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
       <c r="F26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="45" t="s">
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
     </row>
     <row r="27" spans="3:20" ht="18" thickTop="1" thickBot="1">
       <c r="C27" s="8" t="s">
@@ -4348,8 +4382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
   <dimension ref="C1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4380,31 +4414,31 @@
     <row r="1" spans="3:22" ht="8.25" customHeight="1"/>
     <row r="2" spans="3:22" ht="8.25" customHeight="1"/>
     <row r="3" spans="3:22" ht="23.25">
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
     </row>
     <row r="4" spans="3:22">
       <c r="C4" s="60" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D4" s="61"/>
       <c r="E4" s="61"/>
@@ -4433,28 +4467,28 @@
       <c r="G5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="59" t="s">
-        <v>328</v>
-      </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="L5" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
     </row>
     <row r="6" spans="3:22">
       <c r="C6" s="29" t="s">
@@ -4766,10 +4800,10 @@
       <c r="D14" s="61"/>
       <c r="E14" s="61"/>
       <c r="F14" s="61"/>
-      <c r="H14" s="68" t="s">
-        <v>308</v>
-      </c>
-      <c r="I14" s="69"/>
+      <c r="H14" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="3:22">
       <c r="C15" s="30" t="s">
@@ -4784,11 +4818,26 @@
       <c r="F15" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="54" t="s">
-        <v>323</v>
-      </c>
-      <c r="I15" s="54">
+      <c r="H15" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="I15" s="51">
         <v>0.5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>353</v>
+      </c>
+      <c r="K15" t="s">
+        <v>353</v>
+      </c>
+      <c r="L15" t="s">
+        <v>353</v>
+      </c>
+      <c r="M15" t="s">
+        <v>353</v>
+      </c>
+      <c r="O15" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="3:22">
@@ -4807,11 +4856,29 @@
         <f>SUM((F11/45)*15)</f>
         <v>2040</v>
       </c>
-      <c r="H16" s="54" t="s">
-        <v>322</v>
-      </c>
-      <c r="I16" s="54">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="I16" s="51">
         <v>0.35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>302</v>
+      </c>
+      <c r="K16" t="s">
+        <v>302</v>
+      </c>
+      <c r="L16" t="s">
+        <v>302</v>
+      </c>
+      <c r="M16" t="s">
+        <v>302</v>
+      </c>
+      <c r="O16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="3:22">
@@ -4830,11 +4897,26 @@
         <f>SUM((E11/50)*100)</f>
         <v>6000</v>
       </c>
-      <c r="H17" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="I17" s="54">
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="I17" s="51">
         <v>0.65</v>
+      </c>
+      <c r="J17" t="s">
+        <v>354</v>
+      </c>
+      <c r="K17" t="s">
+        <v>354</v>
+      </c>
+      <c r="L17" t="s">
+        <v>354</v>
+      </c>
+      <c r="M17" t="s">
+        <v>354</v>
       </c>
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
@@ -4858,11 +4940,26 @@
         <f>SUM((G11/40)*60)</f>
         <v>2160</v>
       </c>
-      <c r="H18" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="I18" s="54">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="I18" s="51">
         <v>0.8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>355</v>
+      </c>
+      <c r="K18" t="s">
+        <v>355</v>
+      </c>
+      <c r="L18" t="s">
+        <v>356</v>
+      </c>
+      <c r="M18" t="s">
+        <v>356</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
@@ -4886,11 +4983,20 @@
         <f>SUM(D11-(E11/2)-G11)</f>
         <v>5460</v>
       </c>
-      <c r="H19" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="I19" s="54">
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="I19" s="51">
         <v>0.2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>356</v>
+      </c>
+      <c r="K19" t="s">
+        <v>356</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
@@ -4914,11 +5020,17 @@
         <f>SUM((F19/30)*30)</f>
         <v>5460</v>
       </c>
-      <c r="H20" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="I20" s="70">
+      <c r="H20" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="I20" s="54">
         <v>0.85</v>
+      </c>
+      <c r="J20" t="s">
+        <v>357</v>
+      </c>
+      <c r="K20" t="s">
+        <v>357</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
@@ -4928,7 +5040,7 @@
     </row>
     <row r="21" spans="3:22">
       <c r="C21" s="31" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D21" s="31">
         <f>SUM((I9/45)*15)</f>
@@ -4942,11 +5054,17 @@
         <f>SUM((I11/45)*15)</f>
         <v>480</v>
       </c>
-      <c r="H21" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="I21" s="70">
+      <c r="H21" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="I21" s="54">
         <v>0.15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>358</v>
+      </c>
+      <c r="K21" t="s">
+        <v>358</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
@@ -4970,6 +5088,9 @@
         <f>SUM(((H11*0.85)/22.5)*37.5)</f>
         <v>1700</v>
       </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
@@ -4978,7 +5099,7 @@
     </row>
     <row r="23" spans="3:22">
       <c r="C23" s="31" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D23" s="31">
         <f>SUM(((H9*0.15)/37.5)*22.5)</f>
@@ -4992,19 +5113,22 @@
         <f>SUM(((H11*0.15)/37.5)*22.5)</f>
         <v>108</v>
       </c>
-      <c r="H23" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>319</v>
+      </c>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
       <c r="S23" s="32"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
@@ -5018,31 +5142,31 @@
         <v>133</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K24" s="30" t="s">
         <v>134</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M24" s="30" t="s">
         <v>136</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O24" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="P24" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q24" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="R24" s="64" t="s">
-        <v>348</v>
+      <c r="P24" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q24" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="R24" s="52" t="s">
+        <v>341</v>
       </c>
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
@@ -5063,7 +5187,7 @@
         <v>15</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
@@ -5107,7 +5231,7 @@
         <v>120</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
@@ -5155,7 +5279,7 @@
         <v>120</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
@@ -5200,7 +5324,7 @@
         <v>120</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K28" s="29"/>
       <c r="L28" s="29"/>
@@ -5245,7 +5369,7 @@
         <v>85</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
@@ -5435,7 +5559,7 @@
         <v>3</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M33" s="29">
         <v>90</v>
@@ -5485,7 +5609,7 @@
         <v>7.5</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M34" s="29">
         <v>90</v>
@@ -5535,35 +5659,35 @@
         <v>60</v>
       </c>
       <c r="F36" s="29"/>
-      <c r="H36" s="54" t="s">
+      <c r="H36" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="I36" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="J36" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="K36" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="L36" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="M36" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="I36" s="54" t="s">
+      <c r="N36" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="P36" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q36" s="54" t="s">
         <v>343</v>
-      </c>
-      <c r="J36" s="54" t="s">
-        <v>341</v>
-      </c>
-      <c r="K36" s="54" t="s">
-        <v>345</v>
-      </c>
-      <c r="L36" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="M36" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="N36" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="O36" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="P36" s="70" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q36" s="70" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="37" spans="3:18">
@@ -5578,38 +5702,38 @@
         <v>60</v>
       </c>
       <c r="F37" s="29"/>
-      <c r="H37" s="54" t="s">
-        <v>338</v>
-      </c>
-      <c r="I37" s="54">
+      <c r="H37" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="I37" s="51">
         <v>0.5</v>
       </c>
-      <c r="J37" s="54">
+      <c r="J37" s="51">
         <f>ROUNDDOWN(SUM((D22*0.5)/27.5),0)</f>
         <v>15</v>
       </c>
-      <c r="K37" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="L37" s="54">
+      <c r="K37" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="L37" s="51">
         <v>1</v>
       </c>
-      <c r="M37" s="54">
+      <c r="M37" s="51">
         <f>ROUNDDOWN(SUM((Q32*1)/27.5),0)</f>
         <v>8</v>
       </c>
-      <c r="N37" s="54">
+      <c r="N37" s="51">
         <f>IF(J37&gt;M37,M37,J37)</f>
         <v>8</v>
       </c>
-      <c r="O37" s="54">
+      <c r="O37" s="51">
         <v>12</v>
       </c>
-      <c r="P37" s="54">
+      <c r="P37" s="51">
         <f>SUM(((O37-N37)*27.5/M32)+P32-N32)</f>
         <v>5</v>
       </c>
-      <c r="Q37" s="54">
+      <c r="Q37" s="51">
         <f>SUM(((P37*I32)/100)*50)</f>
         <v>50</v>
       </c>
@@ -5626,37 +5750,37 @@
         <v>120</v>
       </c>
       <c r="F38" s="29"/>
-      <c r="H38" s="54" t="s">
-        <v>337</v>
-      </c>
-      <c r="I38" s="54">
+      <c r="H38" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="I38" s="51">
         <v>0.7</v>
       </c>
-      <c r="J38" s="54">
+      <c r="J38" s="51">
         <f>ROUNDDOWN(SUM((D16*I38)/20),0)</f>
         <v>15</v>
       </c>
-      <c r="K38" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="L38" s="54">
+      <c r="K38" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" s="51">
         <v>0.25</v>
       </c>
-      <c r="M38" s="54">
+      <c r="M38" s="51">
         <f>ROUNDDOWN(SUM((Q30*L38)/28),0)</f>
         <v>2</v>
       </c>
-      <c r="N38" s="54">
+      <c r="N38" s="51">
         <f t="shared" ref="N38:N41" si="4">IF(J38&gt;M38,M38,J38)</f>
         <v>2</v>
       </c>
-      <c r="O38" s="54">
+      <c r="O38" s="51">
         <v>12</v>
       </c>
-      <c r="P38" s="54">
+      <c r="P38" s="51">
         <v>0</v>
       </c>
-      <c r="Q38" s="54">
+      <c r="Q38" s="51">
         <v>0</v>
       </c>
     </row>
@@ -5672,37 +5796,37 @@
         <v>120</v>
       </c>
       <c r="F39" s="29"/>
-      <c r="H39" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="I39" s="54">
+      <c r="H39" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="I39" s="51">
         <v>1</v>
       </c>
-      <c r="J39" s="54">
+      <c r="J39" s="51">
         <f>ROUNDDOWN(SUM((Q29*1)/2),0)</f>
         <v>14</v>
       </c>
-      <c r="K39" s="54" t="s">
-        <v>334</v>
-      </c>
-      <c r="L39" s="54">
+      <c r="K39" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" s="51">
         <v>0.15</v>
       </c>
-      <c r="M39" s="54">
+      <c r="M39" s="51">
         <f>ROUNDDOWN(SUM((Q30*L39)/10),0)</f>
         <v>3</v>
       </c>
-      <c r="N39" s="54">
+      <c r="N39" s="51">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O39" s="54">
+      <c r="O39" s="51">
         <v>12</v>
       </c>
-      <c r="P39" s="54">
+      <c r="P39" s="51">
         <v>0</v>
       </c>
-      <c r="Q39" s="54">
+      <c r="Q39" s="51">
         <v>0</v>
       </c>
     </row>
@@ -5718,37 +5842,37 @@
         <v>120</v>
       </c>
       <c r="F40" s="29"/>
-      <c r="H40" s="54" t="s">
-        <v>330</v>
-      </c>
-      <c r="I40" s="54">
+      <c r="H40" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="I40" s="51">
         <v>0.8</v>
       </c>
-      <c r="J40" s="54">
+      <c r="J40" s="51">
         <f>ROUNDDOWN(SUM((Q33*I40)/40),0)</f>
         <v>28</v>
       </c>
-      <c r="K40" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="L40" s="54">
+      <c r="K40" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="L40" s="51">
         <v>0.25</v>
       </c>
-      <c r="M40" s="54">
+      <c r="M40" s="51">
         <f>ROUNDDOWN(SUM((Q30*L40)/15),0)</f>
         <v>4</v>
       </c>
-      <c r="N40" s="54">
+      <c r="N40" s="51">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O40" s="54">
+      <c r="O40" s="51">
         <v>4</v>
       </c>
-      <c r="P40" s="54">
+      <c r="P40" s="51">
         <v>0</v>
       </c>
-      <c r="Q40" s="54">
+      <c r="Q40" s="51">
         <v>0</v>
       </c>
     </row>
@@ -5764,37 +5888,37 @@
         <v>120</v>
       </c>
       <c r="F41" s="29"/>
-      <c r="H41" s="54" t="s">
-        <v>329</v>
-      </c>
-      <c r="I41" s="54">
+      <c r="H41" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="I41" s="51">
         <v>0.2</v>
       </c>
-      <c r="J41" s="54">
+      <c r="J41" s="51">
         <f>ROUNDDOWN(SUM((Q33*I41)/30),0)</f>
         <v>9</v>
       </c>
-      <c r="K41" s="54" t="s">
-        <v>333</v>
-      </c>
-      <c r="L41" s="54">
+      <c r="K41" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="L41" s="51">
         <v>0.17</v>
       </c>
-      <c r="M41" s="54">
+      <c r="M41" s="51">
         <f>ROUNDDOWN(SUM((Q30*L41)/10),0)</f>
         <v>4</v>
       </c>
-      <c r="N41" s="54">
+      <c r="N41" s="51">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="O41" s="54">
+      <c r="O41" s="51">
         <v>4</v>
       </c>
-      <c r="P41" s="54">
+      <c r="P41" s="51">
         <v>0</v>
       </c>
-      <c r="Q41" s="54">
+      <c r="Q41" s="51">
         <v>0</v>
       </c>
     </row>
@@ -5810,30 +5934,30 @@
         <v>120</v>
       </c>
       <c r="F42" s="29"/>
-      <c r="H42" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="I42" s="54">
+      <c r="H42" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="I42" s="51">
         <v>1</v>
       </c>
-      <c r="J42" s="54">
+      <c r="J42" s="51">
         <v>2</v>
       </c>
-      <c r="K42" s="54" t="s">
-        <v>347</v>
-      </c>
-      <c r="L42" s="54">
+      <c r="K42" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="L42" s="51">
         <v>1</v>
       </c>
-      <c r="M42" s="54">
+      <c r="M42" s="51">
         <v>2</v>
       </c>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54">
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51">
         <v>0</v>
       </c>
-      <c r="Q42" s="54">
+      <c r="Q42" s="51">
         <v>0</v>
       </c>
     </row>
@@ -5879,19 +6003,19 @@
         <v>120</v>
       </c>
       <c r="F45" s="29"/>
-      <c r="H45" s="65" t="s">
-        <v>326</v>
-      </c>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
+      <c r="H45" s="62" t="s">
+        <v>319</v>
+      </c>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
     </row>
     <row r="46" spans="3:18">
       <c r="C46" s="29">
@@ -5912,45 +6036,47 @@
         <v>133</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K46" s="30" t="s">
         <v>134</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M46" s="30" t="s">
         <v>136</v>
       </c>
       <c r="N46" s="30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O46" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="P46" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q46" s="64" t="s">
-        <v>317</v>
-      </c>
-      <c r="R46" s="64" t="s">
-        <v>348</v>
+      <c r="P46" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q46" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="R46" s="52" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="3:18">
       <c r="C47" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="29"/>
+      <c r="D47" s="29">
+        <v>19</v>
+      </c>
       <c r="E47" s="29">
         <f>SUM(E28:E46)</f>
         <v>1680</v>
       </c>
       <c r="F47" s="29"/>
       <c r="H47" s="29" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I47" s="29">
         <v>27.5</v>
@@ -5971,18 +6097,18 @@
         <v>8</v>
       </c>
       <c r="O47" s="29">
-        <f>M47*N47</f>
+        <f t="shared" ref="O47:O52" si="5">M47*N47</f>
         <v>100</v>
       </c>
       <c r="P47" s="29">
         <v>12</v>
       </c>
       <c r="Q47" s="29">
-        <f>M47*P47</f>
+        <f t="shared" ref="Q47:Q52" si="6">M47*P47</f>
         <v>150</v>
       </c>
       <c r="R47" s="29">
-        <f>O47-Q47</f>
+        <f t="shared" ref="R47:R52" si="7">O47-Q47</f>
         <v>-50</v>
       </c>
     </row>
@@ -5994,7 +6120,7 @@
       <c r="E48" s="56"/>
       <c r="F48" s="57"/>
       <c r="H48" s="29" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="I48" s="29">
         <v>28</v>
@@ -6016,18 +6142,18 @@
         <v>2</v>
       </c>
       <c r="O48" s="29">
-        <f>M48*N48</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="P48" s="29">
         <v>12</v>
       </c>
       <c r="Q48" s="29">
-        <f>M48*P48</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="R48" s="29">
-        <f>O48-Q48</f>
+        <f t="shared" si="7"/>
         <v>-40</v>
       </c>
     </row>
@@ -6043,7 +6169,7 @@
       </c>
       <c r="F49" s="29"/>
       <c r="H49" s="29" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="I49" s="29">
         <v>10</v>
@@ -6055,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="L49" s="29" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M49" s="29">
         <v>3</v>
@@ -6065,18 +6191,18 @@
         <v>3</v>
       </c>
       <c r="O49" s="29">
-        <f>M49*N49</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="P49" s="29">
         <v>12</v>
       </c>
       <c r="Q49" s="29">
-        <f>M49*P49</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="R49" s="29">
-        <f>O49-Q49</f>
+        <f t="shared" si="7"/>
         <v>-27</v>
       </c>
     </row>
@@ -6093,7 +6219,7 @@
       </c>
       <c r="F50" s="29"/>
       <c r="H50" s="29" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I50" s="29">
         <v>15</v>
@@ -6115,18 +6241,18 @@
         <v>4</v>
       </c>
       <c r="O50" s="29">
-        <f>M50*N50</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="P50" s="29">
         <v>4</v>
       </c>
       <c r="Q50" s="29">
-        <f>M50*P50</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="R50" s="29">
-        <f>O50-Q50</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6138,12 +6264,12 @@
         <v>1</v>
       </c>
       <c r="E51" s="29">
-        <f t="shared" ref="E51:E53" si="5">C51*D51</f>
+        <f t="shared" ref="E51:E53" si="8">C51*D51</f>
         <v>120</v>
       </c>
       <c r="F51" s="29"/>
       <c r="H51" s="29" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="I51" s="29">
         <v>10</v>
@@ -6165,18 +6291,18 @@
         <v>4</v>
       </c>
       <c r="O51" s="29">
-        <f>M51*N51</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="P51" s="29">
         <v>4</v>
       </c>
       <c r="Q51" s="29">
-        <f>M51*P51</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="R51" s="29">
-        <f>O51-Q51</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6188,24 +6314,24 @@
         <v>1.5</v>
       </c>
       <c r="E52" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="F52" s="29"/>
       <c r="H52" s="29" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="I52" s="29">
         <v>10</v>
       </c>
       <c r="J52" s="29" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K52" s="29">
         <v>10</v>
       </c>
       <c r="L52" s="29" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M52" s="29">
         <v>5</v>
@@ -6215,18 +6341,18 @@
         <v>2</v>
       </c>
       <c r="O52" s="29">
-        <f>M52*N52</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="P52" s="29">
         <v>2</v>
       </c>
       <c r="Q52" s="29">
-        <f>M52*P52</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="R52" s="29">
-        <f>O52-Q52</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6238,7 +6364,7 @@
         <v>1.5</v>
       </c>
       <c r="E53" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>180</v>
       </c>
       <c r="F53" s="29"/>
@@ -6273,11 +6399,11 @@
         <v>146</v>
       </c>
       <c r="F56" s="29"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54" t="s">
-        <v>332</v>
-      </c>
-      <c r="J56" s="54"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="J56" s="51"/>
     </row>
     <row r="57" spans="3:18">
       <c r="C57" s="29">
@@ -6300,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="29">
-        <f t="shared" ref="E58:E60" si="6">C58*D58</f>
+        <f t="shared" ref="E58:E60" si="9">C58*D58</f>
         <v>60</v>
       </c>
       <c r="F58" s="29"/>
@@ -6313,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="F59" s="29"/>
@@ -6326,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="F60" s="29"/>
@@ -6352,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="29">
-        <f t="shared" ref="E62:E64" si="7">C62*D62</f>
+        <f t="shared" ref="E62:E64" si="10">C62*D62</f>
         <v>60</v>
       </c>
       <c r="F62" s="29"/>
@@ -6365,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="F63" s="29"/>
@@ -6378,12 +6504,12 @@
         <v>1</v>
       </c>
       <c r="E64" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="F64" s="29"/>
     </row>
-    <row r="65" spans="3:6">
+    <row r="65" spans="3:7">
       <c r="C65" s="29">
         <v>120</v>
       </c>
@@ -6396,7 +6522,7 @@
       </c>
       <c r="F65" s="29"/>
     </row>
-    <row r="66" spans="3:6">
+    <row r="66" spans="3:7">
       <c r="C66" s="29">
         <v>120</v>
       </c>
@@ -6404,12 +6530,12 @@
         <v>1</v>
       </c>
       <c r="E66" s="29">
-        <f t="shared" ref="E66:E68" si="8">C66*D66</f>
+        <f t="shared" ref="E66:E68" si="11">C66*D66</f>
         <v>120</v>
       </c>
       <c r="F66" s="29"/>
     </row>
-    <row r="67" spans="3:6">
+    <row r="67" spans="3:7">
       <c r="C67" s="29">
         <v>120</v>
       </c>
@@ -6417,12 +6543,15 @@
         <v>1</v>
       </c>
       <c r="E67" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="F67" s="29"/>
-    </row>
-    <row r="68" spans="3:6">
+      <c r="G67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7">
       <c r="C68" s="29">
         <v>120</v>
       </c>
@@ -6430,12 +6559,15 @@
         <v>1</v>
       </c>
       <c r="E68" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="F68" s="29"/>
-    </row>
-    <row r="69" spans="3:6">
+      <c r="G68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7">
       <c r="C69" s="29">
         <v>240</v>
       </c>
@@ -6443,12 +6575,15 @@
         <v>1</v>
       </c>
       <c r="E69" s="29">
-        <f t="shared" ref="E69" si="9">C69*D69</f>
+        <f t="shared" ref="E69" si="12">C69*D69</f>
         <v>240</v>
       </c>
       <c r="F69" s="29"/>
-    </row>
-    <row r="70" spans="3:6">
+      <c r="G69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
       <c r="C70" s="29" t="s">
         <v>135</v>
       </c>
@@ -6458,16 +6593,23 @@
         <v>1320</v>
       </c>
       <c r="F70" s="29"/>
-    </row>
-    <row r="71" spans="3:6">
+      <c r="G70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7">
       <c r="C71" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
       <c r="F71" s="57"/>
-    </row>
-    <row r="72" spans="3:6">
+      <c r="G71">
+        <f>SUM(G67:G70)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7">
       <c r="C72" s="29" t="s">
         <v>144</v>
       </c>
@@ -6479,7 +6621,7 @@
       </c>
       <c r="F72" s="29"/>
     </row>
-    <row r="73" spans="3:6">
+    <row r="73" spans="3:7">
       <c r="C73" s="29">
         <v>240</v>
       </c>
@@ -6492,7 +6634,7 @@
       </c>
       <c r="F73" s="29"/>
     </row>
-    <row r="74" spans="3:6">
+    <row r="74" spans="3:7">
       <c r="C74" s="29">
         <v>240</v>
       </c>
@@ -6500,12 +6642,12 @@
         <v>1</v>
       </c>
       <c r="E74" s="29">
-        <f t="shared" ref="E74" si="10">C74*D74</f>
+        <f t="shared" ref="E74" si="13">C74*D74</f>
         <v>240</v>
       </c>
       <c r="F74" s="29"/>
     </row>
-    <row r="75" spans="3:6">
+    <row r="75" spans="3:7">
       <c r="C75" s="29" t="s">
         <v>135</v>
       </c>
@@ -6516,7 +6658,7 @@
       </c>
       <c r="F75" s="29"/>
     </row>
-    <row r="76" spans="3:6">
+    <row r="76" spans="3:7">
       <c r="C76" s="55" t="s">
         <v>157</v>
       </c>
@@ -6524,7 +6666,7 @@
       <c r="E76" s="56"/>
       <c r="F76" s="57"/>
     </row>
-    <row r="77" spans="3:6">
+    <row r="77" spans="3:7">
       <c r="C77" s="29" t="s">
         <v>144</v>
       </c>
@@ -6536,7 +6678,7 @@
       </c>
       <c r="F77" s="29"/>
     </row>
-    <row r="78" spans="3:6">
+    <row r="78" spans="3:7">
       <c r="C78" s="29">
         <v>120</v>
       </c>
@@ -6549,7 +6691,7 @@
       </c>
       <c r="F78" s="29"/>
     </row>
-    <row r="79" spans="3:6">
+    <row r="79" spans="3:7">
       <c r="C79" s="29">
         <v>120</v>
       </c>
@@ -6557,12 +6699,12 @@
         <v>2.5</v>
       </c>
       <c r="E79" s="29">
-        <f t="shared" ref="E79" si="11">C79*D79</f>
+        <f t="shared" ref="E79" si="14">C79*D79</f>
         <v>300</v>
       </c>
       <c r="F79" s="29"/>
     </row>
-    <row r="80" spans="3:6">
+    <row r="80" spans="3:7">
       <c r="C80" s="29" t="s">
         <v>135</v>
       </c>
@@ -6676,16 +6818,16 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C3:U3"/>
+    <mergeCell ref="L5:V5"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
     <mergeCell ref="C85:F85"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="H45:R45"/>
     <mergeCell ref="H23:R23"/>
-    <mergeCell ref="C3:U3"/>
-    <mergeCell ref="L5:V5"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
     <mergeCell ref="C81:F81"/>
     <mergeCell ref="C76:F76"/>
     <mergeCell ref="C48:F48"/>
@@ -7318,16 +7460,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="66"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="18" t="s">
@@ -7362,10 +7504,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="67"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="17" t="s">
@@ -7408,10 +7550,10 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="67"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="17" t="s">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8250AED3-1777-4EB1-BE02-F8794AE428EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F1392-A18C-45D2-BA78-AD5E777D8A44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="748" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="5" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="366">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -325,12 +325,6 @@
     <t xml:space="preserve">Concrete Modules </t>
   </si>
   <si>
-    <t>Building Output</t>
-  </si>
-  <si>
-    <t>BuildingsForMax</t>
-  </si>
-  <si>
     <t>FloorsForMax</t>
   </si>
   <si>
@@ -517,18 +511,6 @@
     <t>Current Production</t>
   </si>
   <si>
-    <t>3 Floors Per Building</t>
-  </si>
-  <si>
-    <t>Total OutputMax</t>
-  </si>
-  <si>
-    <t>FloorsForCurrent</t>
-  </si>
-  <si>
-    <t>FloorsPerLineCurrent</t>
-  </si>
-  <si>
     <t>FloorsPer600Line</t>
   </si>
   <si>
@@ -1099,12 +1081,6 @@
     <t>Output Difference</t>
   </si>
   <si>
-    <t>Current Possible Copper Missing</t>
-  </si>
-  <si>
-    <t>Extra Copper Ore to Support</t>
-  </si>
-  <si>
     <t>Machines Supported By Input B</t>
   </si>
   <si>
@@ -1132,38 +1108,74 @@
     <t>Stator</t>
   </si>
   <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>copper ingot</t>
-  </si>
-  <si>
-    <t>steel ingot</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>concrete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silica </t>
-  </si>
-  <si>
-    <t>quartz crystal</t>
-  </si>
-  <si>
     <t>1. Turn Coal lake into Steel Production Site</t>
   </si>
   <si>
     <t>4. Rework Train Logistics</t>
+  </si>
+  <si>
+    <t>Lines Out</t>
+  </si>
+  <si>
+    <t>1 @600/M</t>
+  </si>
+  <si>
+    <t>3@600/M</t>
+  </si>
+  <si>
+    <t>3@780/M</t>
+  </si>
+  <si>
+    <t>2@240/M</t>
+  </si>
+  <si>
+    <t>1@160/M</t>
+  </si>
+  <si>
+    <t>2  @425</t>
+  </si>
+  <si>
+    <t>Smelting Hub Train Stations</t>
+  </si>
+  <si>
+    <t>Stations 1</t>
+  </si>
+  <si>
+    <t>Empty Platform</t>
+  </si>
+  <si>
+    <t>Quartz Crystal</t>
+  </si>
+  <si>
+    <t>9 More Copper Sheet to Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400 Pipe Shortfall Currently </t>
+  </si>
+  <si>
+    <t>Remove 4</t>
+  </si>
+  <si>
+    <t>Keep Current 12</t>
+  </si>
+  <si>
+    <t>1050 Wire Shortfall, Make More</t>
+  </si>
+  <si>
+    <t>Build 2</t>
+  </si>
+  <si>
+    <t>Build 2, OverClock</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,6 +1283,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -1371,7 +1405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1671,8 +1705,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1681,8 +1724,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1810,6 +1854,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1825,22 +1881,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyAlignment="1">
@@ -1849,14 +1893,29 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2488,7 +2547,7 @@
   </sheetPr>
   <dimension ref="C1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -2539,7 +2598,7 @@
     </row>
     <row r="3" spans="3:20" ht="19.5" thickTop="1">
       <c r="C3" s="40" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -2560,7 +2619,7 @@
     </row>
     <row r="4" spans="3:20">
       <c r="C4" s="40" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2581,7 +2640,7 @@
     </row>
     <row r="5" spans="3:20">
       <c r="C5" s="40" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2602,7 +2661,7 @@
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="40" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2641,7 +2700,7 @@
     </row>
     <row r="8" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="C8" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2683,7 +2742,7 @@
     </row>
     <row r="10" spans="3:20" ht="43.5" thickTop="1" thickBot="1">
       <c r="C10" s="46" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -3101,375 +3160,375 @@
   <sheetData>
     <row r="2" spans="1:14" ht="18.75">
       <c r="A2" s="47" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="48" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N3" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="48" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="C5" s="49" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75">
       <c r="J6" s="48" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75">
       <c r="C7" s="47" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75">
       <c r="C8" s="48" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="48" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75">
       <c r="C9" s="48" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L9" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N9" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75">
       <c r="C10" s="48" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M10" s="48" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N10" s="48" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75">
       <c r="J11" s="48" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75">
       <c r="C12" s="47" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H12" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75">
       <c r="C13" s="48" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75">
       <c r="C14" s="48" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75">
       <c r="C15" s="48" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75">
       <c r="C16" s="48" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L16" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M16" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N16" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="18.75">
       <c r="C17" s="48" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L17" s="48" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M17" s="48" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N17" s="48" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="18.75">
       <c r="C18" s="48" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="18.75">
       <c r="C19" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="J19" s="48" t="s">
         <v>245</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="18.75">
       <c r="C20" s="48" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="18.75">
       <c r="C21" s="48" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="18.75">
       <c r="C22" s="48" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J22" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="L22" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="L22" s="47" t="s">
-        <v>279</v>
-      </c>
       <c r="M22" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="N22" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="18.75">
       <c r="C23" s="48" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J23" s="48" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L23" s="48" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M23" s="48" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N23" s="48" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75">
       <c r="C24" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="18.75">
       <c r="N25" s="48" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="18.75">
       <c r="C26" s="47" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N26" s="48" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="18.75">
       <c r="C27" s="48" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="18.75">
       <c r="C28" s="48" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J28" s="48" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="18.75">
       <c r="C29" s="48" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J29" s="48" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="3:14" ht="18.75">
       <c r="C30" s="48" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="3:14" ht="18.75">
       <c r="C31" s="48" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="18.75">
       <c r="C32" s="48" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3490,46 +3549,46 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="3:4">
       <c r="C8" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3592,10 +3651,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L3" s="39" t="s">
         <v>7</v>
@@ -3604,19 +3663,19 @@
         <v>7</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O3" s="37"/>
       <c r="P3" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q3" s="37"/>
       <c r="R3" s="37" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="S3" s="37"/>
       <c r="T3" s="37" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
@@ -3639,15 +3698,15 @@
         <v>53</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
       <c r="N4" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
@@ -3684,13 +3743,13 @@
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
       <c r="R5" s="42" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="S5" s="39" t="s">
         <v>7</v>
       </c>
       <c r="T5" s="43" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="3:20" ht="34.5" thickTop="1" thickBot="1">
@@ -3709,13 +3768,13 @@
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
       <c r="N6" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S6" s="37"/>
       <c r="T6" s="37"/>
@@ -3728,15 +3787,15 @@
         <v>56</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K7" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
       <c r="N7" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
@@ -3756,12 +3815,12 @@
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
       <c r="N8" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
@@ -3786,11 +3845,11 @@
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="42" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="43" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
@@ -3798,21 +3857,21 @@
         <v>27</v>
       </c>
       <c r="J10" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K10" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
       <c r="N10" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
       <c r="R10" s="42" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
@@ -3826,7 +3885,7 @@
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
@@ -3835,11 +3894,11 @@
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="37"/>
       <c r="R11" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
@@ -3871,15 +3930,15 @@
         <v>38</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K13" s="42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O13" s="39" t="s">
         <v>7</v>
@@ -3910,16 +3969,16 @@
       </c>
       <c r="J14" s="37"/>
       <c r="K14" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
       <c r="N14" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O14" s="37"/>
       <c r="P14" s="42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
@@ -3948,16 +4007,16 @@
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
       <c r="N16" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O16" s="37"/>
       <c r="P16" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
@@ -3979,12 +4038,12 @@
       </c>
       <c r="J17" s="37"/>
       <c r="K17" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
       <c r="N17" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
@@ -4017,25 +4076,25 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>7</v>
       </c>
       <c r="J19" s="37"/>
       <c r="K19" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
       <c r="N19" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O19" s="39" t="s">
         <v>7</v>
       </c>
       <c r="P19" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="37"/>
       <c r="R19" s="37"/>
@@ -4044,7 +4103,7 @@
     </row>
     <row r="20" spans="3:20" ht="19.5" thickBot="1">
       <c r="F20" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>7</v>
@@ -4065,13 +4124,13 @@
     </row>
     <row r="21" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="F21" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J21" s="40" t="s">
         <v>24</v>
       </c>
       <c r="K21" s="42" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
@@ -4095,7 +4154,7 @@
         <v>7</v>
       </c>
       <c r="P22" s="42" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
@@ -4107,7 +4166,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>7</v>
@@ -4134,7 +4193,7 @@
     </row>
     <row r="24" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="D24" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>7</v>
@@ -4188,7 +4247,7 @@
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O26" s="37"/>
       <c r="P26" s="37"/>
@@ -4380,10 +4439,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
-  <dimension ref="C1:V89"/>
+  <dimension ref="C1:V92"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4394,15 +4453,16 @@
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.85546875" customWidth="1"/>
-    <col min="10" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
@@ -4411,47 +4471,44 @@
     <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:22" ht="8.25" customHeight="1"/>
-    <row r="2" spans="3:22" ht="8.25" customHeight="1"/>
-    <row r="3" spans="3:22" ht="23.25">
-      <c r="C3" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-    </row>
-    <row r="4" spans="3:22">
-      <c r="C4" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="S4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="3:22">
+    <row r="1" spans="3:21" ht="8.25" customHeight="1"/>
+    <row r="2" spans="3:21" ht="8.25" customHeight="1"/>
+    <row r="3" spans="3:21" ht="23.25">
+      <c r="C3" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+    </row>
+    <row r="4" spans="3:21">
+      <c r="C4" s="57" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="3:21">
       <c r="C5" s="28" t="s">
         <v>73</v>
       </c>
@@ -4468,29 +4525,24 @@
         <v>12</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="65" t="s">
-        <v>321</v>
-      </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-    </row>
-    <row r="6" spans="3:22">
+      <c r="L5" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+    </row>
+    <row r="6" spans="3:21">
       <c r="C6" s="29" t="s">
         <v>71</v>
       </c>
@@ -4516,40 +4568,25 @@
         <v>0</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M6" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="U6" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="V6" s="33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="3:22">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21">
       <c r="C7" s="29" t="s">
         <v>70</v>
       </c>
@@ -4560,7 +4597,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="29">
         <v>0</v>
@@ -4578,40 +4615,27 @@
         <v>83</v>
       </c>
       <c r="M7" s="29">
+        <f>SUM(8*15)</f>
         <v>120</v>
       </c>
       <c r="N7" s="29">
         <f>D16</f>
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="O7" s="29">
         <f>E16</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="P7" s="29">
         <f>ROUNDDOWN(O7/M7,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="29">
         <f>ROUNDDOWN(600/M7,0)</f>
         <v>5</v>
       </c>
-      <c r="R7" s="29">
-        <f>P7/3</f>
-        <v>3</v>
-      </c>
-      <c r="S7" s="29">
-        <f>M7*3</f>
-        <v>360</v>
-      </c>
-      <c r="T7" s="29">
-        <f>S7*R7</f>
-        <v>1080</v>
-      </c>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-    </row>
-    <row r="8" spans="3:22">
+    </row>
+    <row r="8" spans="3:21">
       <c r="C8" s="29" t="s">
         <v>69</v>
       </c>
@@ -4640,83 +4664,79 @@
         <v>82</v>
       </c>
       <c r="M8" s="29">
+        <f>SUM(8*30)</f>
         <v>240</v>
       </c>
       <c r="N8" s="29">
-        <f>D9</f>
-        <v>1680</v>
+        <f>D20</f>
+        <v>600</v>
       </c>
       <c r="O8" s="29">
-        <f>D10</f>
-        <v>4200</v>
+        <f>E20</f>
+        <v>2250</v>
       </c>
       <c r="P8" s="29">
         <f>ROUNDDOWN(O8/M8,0)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Q8" s="29">
         <f>ROUNDDOWN(O8/M8,0)</f>
-        <v>17</v>
-      </c>
-      <c r="R8" s="29">
-        <v>10</v>
-      </c>
-      <c r="S8" s="29">
-        <v>720</v>
-      </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-    </row>
-    <row r="9" spans="3:22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21">
       <c r="C9" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D9" s="29">
         <f>E47</f>
-        <v>1680</v>
+        <v>2400</v>
       </c>
       <c r="E9" s="29">
-        <f>E54</f>
+        <f>E56</f>
+        <v>1200</v>
+      </c>
+      <c r="F9" s="29">
+        <f>E73</f>
+        <v>1440</v>
+      </c>
+      <c r="G9" s="29">
+        <f>E78</f>
+        <v>1200</v>
+      </c>
+      <c r="H9" s="29">
+        <f>E83</f>
         <v>600</v>
       </c>
-      <c r="F9" s="29">
-        <f>E70</f>
-        <v>1320</v>
-      </c>
-      <c r="G9" s="29">
-        <f>E75</f>
-        <v>480</v>
-      </c>
-      <c r="H9" s="29">
-        <f>E80</f>
-        <v>600</v>
-      </c>
       <c r="I9" s="29">
-        <f>E89</f>
-        <v>480</v>
+        <f>E92</f>
+        <v>1200</v>
       </c>
       <c r="J9" s="29">
-        <f>E84</f>
+        <f>E87</f>
         <v>300</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
+        <v>119</v>
+      </c>
+      <c r="M9" s="29">
+        <f>SUM(15*60)</f>
+        <v>900</v>
+      </c>
+      <c r="N9" s="29">
+        <f>D18</f>
+        <v>1800</v>
+      </c>
+      <c r="O9" s="29">
+        <f>E18</f>
+        <v>1800</v>
+      </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-    </row>
-    <row r="10" spans="3:22">
+    </row>
+    <row r="10" spans="3:21">
       <c r="C10" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="29">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (D8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
@@ -4728,7 +4748,7 @@
       </c>
       <c r="F10" s="29">
         <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (F8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="G10" s="29">
         <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (G8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
@@ -4747,22 +4767,26 @@
         <v>300</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
+        <v>120</v>
+      </c>
+      <c r="M10" s="29">
+        <f>SUM(12*100)</f>
+        <v>1200</v>
+      </c>
+      <c r="N10" s="29">
+        <f>D17</f>
+        <v>2400</v>
+      </c>
+      <c r="O10" s="29">
+        <f>E17</f>
+        <v>3000</v>
+      </c>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-    </row>
-    <row r="11" spans="3:22">
+    </row>
+    <row r="11" spans="3:21">
       <c r="C11" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D11" s="29">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
@@ -4774,7 +4798,7 @@
       </c>
       <c r="F11" s="29">
         <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (F8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
-        <v>6120</v>
+        <v>6720</v>
       </c>
       <c r="G11" s="29">
         <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (G8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
@@ -4793,19 +4817,29 @@
         <v>600</v>
       </c>
     </row>
-    <row r="14" spans="3:22">
-      <c r="C14" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="H14" s="58" t="s">
-        <v>306</v>
-      </c>
-      <c r="I14" s="59"/>
-    </row>
-    <row r="15" spans="3:22">
+    <row r="13" spans="3:21">
+      <c r="F13" s="69"/>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="I14" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="J14" s="63"/>
+      <c r="L14" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+    </row>
+    <row r="15" spans="3:21">
       <c r="C15" s="30" t="s">
         <v>73</v>
       </c>
@@ -4813,72 +4847,72 @@
         <v>80</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="I15" s="51">
+        <v>140</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>348</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="J15" s="51">
         <v>0.5</v>
       </c>
-      <c r="J15" t="s">
-        <v>353</v>
-      </c>
-      <c r="K15" t="s">
-        <v>353</v>
-      </c>
-      <c r="L15" t="s">
-        <v>353</v>
-      </c>
-      <c r="M15" t="s">
-        <v>353</v>
-      </c>
-      <c r="O15" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22">
+      <c r="L15" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21">
       <c r="C16" s="29" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="29">
         <f>SUM((F9/45)*15)</f>
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="E16" s="29">
         <f>SUM((F10/45)*15)</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F16" s="29">
         <f>SUM((F11/45)*15)</f>
-        <v>2040</v>
-      </c>
-      <c r="G16">
+        <v>2240</v>
+      </c>
+      <c r="G16" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="H16" s="51" t="s">
-        <v>315</v>
-      </c>
-      <c r="I16" s="51">
+      <c r="I16" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="J16" s="51">
         <v>0.35</v>
       </c>
-      <c r="J16" t="s">
-        <v>302</v>
-      </c>
-      <c r="K16" t="s">
-        <v>302</v>
-      </c>
-      <c r="L16" t="s">
-        <v>302</v>
-      </c>
-      <c r="M16" t="s">
-        <v>302</v>
-      </c>
-      <c r="O16" t="s">
-        <v>359</v>
+      <c r="L16" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="3:22">
@@ -4887,7 +4921,7 @@
       </c>
       <c r="D17" s="29">
         <f>SUM((E9/50)*100)</f>
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="29">
         <f>SUM((E10/50)*100)</f>
@@ -4897,32 +4931,30 @@
         <f>SUM((E11/50)*100)</f>
         <v>6000</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="I17" s="51">
+      <c r="G17" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="J17" s="51">
         <v>0.65</v>
       </c>
-      <c r="J17" t="s">
-        <v>354</v>
-      </c>
-      <c r="K17" t="s">
-        <v>354</v>
-      </c>
-      <c r="L17" t="s">
-        <v>354</v>
-      </c>
-      <c r="M17" t="s">
-        <v>354</v>
-      </c>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
+      <c r="L17" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="18" spans="3:22">
       <c r="C18" s="29" t="s">
@@ -4930,7 +4962,7 @@
       </c>
       <c r="D18" s="29">
         <f>SUM((G9/40)*60)</f>
-        <v>720</v>
+        <v>1800</v>
       </c>
       <c r="E18" s="29">
         <f>SUM((G10/40)*60)</f>
@@ -4940,32 +4972,30 @@
         <f>SUM((G11/40)*60)</f>
         <v>2160</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="H18" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="I18" s="51">
+      <c r="I18" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="J18" s="51">
         <v>0.8</v>
       </c>
-      <c r="J18" t="s">
-        <v>355</v>
-      </c>
-      <c r="K18" t="s">
-        <v>355</v>
-      </c>
-      <c r="L18" t="s">
-        <v>356</v>
-      </c>
-      <c r="M18" t="s">
-        <v>356</v>
-      </c>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
+      <c r="L18" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="19" spans="3:22">
       <c r="C19" s="31" t="s">
@@ -4973,7 +5003,7 @@
       </c>
       <c r="D19" s="29">
         <f>SUM(D9-(E9/2)-G9)</f>
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E19" s="29">
         <f>SUM(D10-(E10/2)-G10)</f>
@@ -4983,26 +5013,23 @@
         <f>SUM(D11-(E11/2)-G11)</f>
         <v>5460</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="I19" s="51">
+      <c r="G19" s="71">
+        <v>0</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="J19" s="51">
         <v>0.2</v>
       </c>
-      <c r="J19" t="s">
-        <v>356</v>
-      </c>
-      <c r="K19" t="s">
-        <v>356</v>
-      </c>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
+      <c r="L19" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" spans="3:22">
       <c r="C20" s="29" t="s">
@@ -5010,7 +5037,7 @@
       </c>
       <c r="D20" s="29">
         <f>SUM((D19/30)*30)</f>
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E20" s="29">
         <f>SUM((E19/30)*30)</f>
@@ -5020,31 +5047,34 @@
         <f>SUM((F19/30)*30)</f>
         <v>5460</v>
       </c>
-      <c r="H20" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="I20" s="54">
+      <c r="G20" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="J20" s="54">
         <v>0.85</v>
       </c>
-      <c r="J20" t="s">
-        <v>357</v>
-      </c>
-      <c r="K20" t="s">
-        <v>357</v>
-      </c>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
+      <c r="L20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
     </row>
     <row r="21" spans="3:22">
       <c r="C21" s="31" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D21" s="31">
         <f>SUM((I9/45)*15)</f>
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="E21" s="29">
         <f>SUM((I10/45)*15)</f>
@@ -5054,23 +5084,23 @@
         <f>SUM((I11/45)*15)</f>
         <v>480</v>
       </c>
-      <c r="H21" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="I21" s="54">
+      <c r="G21" s="72" t="s">
+        <v>353</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="J21" s="54">
         <v>0.15</v>
       </c>
-      <c r="J21" t="s">
-        <v>358</v>
-      </c>
-      <c r="K21" t="s">
-        <v>358</v>
-      </c>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
+      <c r="L21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
     </row>
     <row r="22" spans="3:22">
       <c r="C22" s="31" t="s">
@@ -5088,10 +5118,12 @@
         <f>SUM(((H11*0.85)/22.5)*37.5)</f>
         <v>1700</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="R22" s="32"/>
       <c r="S22" s="32"/>
       <c r="T22" s="32"/>
       <c r="U22" s="32"/>
@@ -5099,7 +5131,7 @@
     </row>
     <row r="23" spans="3:22">
       <c r="C23" s="31" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D23" s="31">
         <f>SUM(((H9*0.15)/37.5)*22.5)</f>
@@ -5113,199 +5145,199 @@
         <f>SUM(((H11*0.15)/37.5)*22.5)</f>
         <v>108</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="71">
+        <f t="shared" ref="G17:G23" si="0">ROUND(D23/780,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="H23" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="32"/>
+      <c r="I23" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
     </row>
     <row r="24" spans="3:22">
-      <c r="H24" s="30" t="s">
+      <c r="I24" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="J24" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="P24" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="J24" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" s="30" t="s">
+      <c r="Q24" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="R24" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="M24" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="O24" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="P24" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q24" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="R24" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="S24" s="32"/>
+      <c r="S24" s="52" t="s">
+        <v>335</v>
+      </c>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
     </row>
-    <row r="25" spans="3:22">
-      <c r="C25" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="H25" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="29">
+    <row r="25" spans="3:22" ht="15.75">
+      <c r="C25" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="I25" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25" s="29">
         <v>15</v>
       </c>
-      <c r="J25" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="K25" s="29"/>
+      <c r="K25" s="29" t="s">
+        <v>296</v>
+      </c>
       <c r="L25" s="29"/>
-      <c r="M25" s="29">
+      <c r="M25" s="29"/>
+      <c r="N25" s="29">
         <v>15</v>
       </c>
-      <c r="N25" s="29">
+      <c r="O25" s="73">
         <v>8</v>
       </c>
-      <c r="O25" s="29">
-        <f>M25*N25</f>
+      <c r="P25" s="29">
+        <f>N25*O25</f>
         <v>120</v>
       </c>
-      <c r="P25" s="29">
+      <c r="Q25" s="73">
         <v>8</v>
       </c>
-      <c r="Q25" s="29">
-        <f>M25*P25</f>
+      <c r="R25" s="29">
+        <f>N25*Q25</f>
         <v>120</v>
       </c>
-      <c r="R25" s="29">
-        <f>O25-Q25</f>
+      <c r="S25" s="29">
+        <f>P25-R25</f>
         <v>0</v>
       </c>
-      <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
     </row>
-    <row r="26" spans="3:22">
-      <c r="C26" s="55" t="s">
+    <row r="26" spans="3:22" ht="15.75">
+      <c r="C26" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
-      <c r="H26" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="29">
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="I26" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="29">
         <v>120</v>
       </c>
-      <c r="J26" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="K26" s="29"/>
+      <c r="K26" s="29" t="s">
+        <v>296</v>
+      </c>
       <c r="L26" s="29"/>
-      <c r="M26" s="29">
+      <c r="M26" s="29"/>
+      <c r="N26" s="29">
         <v>30</v>
       </c>
-      <c r="N26" s="29">
+      <c r="O26" s="73">
         <v>4</v>
       </c>
-      <c r="O26" s="29">
-        <f>M26*N26</f>
+      <c r="P26" s="29">
+        <f>N26*O26</f>
         <v>120</v>
       </c>
-      <c r="P26" s="29">
+      <c r="Q26" s="73">
         <v>4</v>
       </c>
-      <c r="Q26" s="29">
-        <f t="shared" ref="Q26:Q34" si="0">M26*P26</f>
+      <c r="R26" s="29">
+        <f t="shared" ref="R26:R34" si="1">N26*Q26</f>
         <v>120</v>
       </c>
-      <c r="R26" s="29">
-        <f t="shared" ref="R26:R34" si="1">O26-Q26</f>
+      <c r="S26" s="29">
+        <f t="shared" ref="S26:S34" si="2">P26-R26</f>
         <v>0</v>
       </c>
-      <c r="S26" s="32"/>
       <c r="T26" s="32"/>
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
     </row>
-    <row r="27" spans="3:22">
+    <row r="27" spans="3:22" ht="15.75">
       <c r="C27" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>146</v>
-      </c>
       <c r="F27" s="29"/>
-      <c r="H27" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="I27" s="29">
+      <c r="I27" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="29">
         <v>120</v>
       </c>
-      <c r="J27" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="K27" s="29"/>
+      <c r="K27" s="29" t="s">
+        <v>296</v>
+      </c>
       <c r="L27" s="29"/>
-      <c r="M27" s="29">
+      <c r="M27" s="29"/>
+      <c r="N27" s="29">
         <v>20</v>
       </c>
-      <c r="N27" s="29">
+      <c r="O27" s="73">
         <v>4</v>
       </c>
-      <c r="O27" s="29">
-        <f t="shared" ref="O27:O34" si="2">M27*N27</f>
+      <c r="P27" s="29">
+        <f t="shared" ref="P27:P34" si="3">N27*O27</f>
         <v>80</v>
       </c>
-      <c r="P27" s="29">
+      <c r="Q27" s="73">
         <v>4</v>
-      </c>
-      <c r="Q27" s="29">
-        <f t="shared" si="0"/>
-        <v>80</v>
       </c>
       <c r="R27" s="29">
         <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="S27" s="29">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:22">
+    <row r="28" spans="3:22" ht="15.75">
       <c r="C28" s="29">
         <v>60</v>
       </c>
@@ -5317,40 +5349,40 @@
         <v>60</v>
       </c>
       <c r="F28" s="29"/>
-      <c r="H28" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="29">
+      <c r="I28" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="29">
         <v>120</v>
       </c>
-      <c r="J28" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="K28" s="29"/>
+      <c r="K28" s="29" t="s">
+        <v>296</v>
+      </c>
       <c r="L28" s="29"/>
-      <c r="M28" s="29">
+      <c r="M28" s="29"/>
+      <c r="N28" s="29">
         <v>50</v>
       </c>
-      <c r="N28" s="29">
+      <c r="O28" s="73">
         <v>10</v>
       </c>
-      <c r="O28" s="29">
-        <f t="shared" si="2"/>
+      <c r="P28" s="29">
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="P28" s="29">
+      <c r="Q28" s="73">
         <v>10</v>
-      </c>
-      <c r="Q28" s="29">
-        <f t="shared" si="0"/>
-        <v>500</v>
       </c>
       <c r="R28" s="29">
         <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="S28" s="29">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:22">
+    <row r="29" spans="3:22" ht="15.75">
       <c r="C29" s="29">
         <v>60</v>
       </c>
@@ -5358,45 +5390,45 @@
         <v>1</v>
       </c>
       <c r="E29" s="29">
-        <f t="shared" ref="E29:E46" si="3">C29*D29</f>
+        <f t="shared" ref="E29:E46" si="4">C29*D29</f>
         <v>60</v>
       </c>
       <c r="F29" s="29"/>
-      <c r="H29" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="29">
+      <c r="I29" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="29">
         <v>85</v>
       </c>
-      <c r="J29" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="K29" s="29"/>
+      <c r="K29" s="29" t="s">
+        <v>296</v>
+      </c>
       <c r="L29" s="29"/>
-      <c r="M29" s="29">
+      <c r="M29" s="29"/>
+      <c r="N29" s="29">
         <v>5.625</v>
       </c>
-      <c r="N29" s="29">
-        <f>ROUNDDOWN(SUM(D20/I29),0)</f>
-        <v>10</v>
-      </c>
-      <c r="O29" s="29">
-        <f t="shared" si="2"/>
-        <v>56.25</v>
+      <c r="O29" s="73">
+        <f>ROUNDDOWN(SUM(D20/J29),0)</f>
+        <v>7</v>
       </c>
       <c r="P29" s="29">
+        <f t="shared" si="3"/>
+        <v>39.375</v>
+      </c>
+      <c r="Q29" s="73">
         <v>5</v>
-      </c>
-      <c r="Q29" s="29">
-        <f t="shared" si="0"/>
-        <v>28.125</v>
       </c>
       <c r="R29" s="29">
         <f t="shared" si="1"/>
         <v>28.125</v>
       </c>
-    </row>
-    <row r="30" spans="3:22">
+      <c r="S29" s="29">
+        <f t="shared" si="2"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" ht="15.75">
       <c r="C30" s="29">
         <v>60</v>
       </c>
@@ -5404,45 +5436,45 @@
         <v>1</v>
       </c>
       <c r="E30" s="29">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="I30" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="29">
+        <v>30</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29">
+        <v>20</v>
+      </c>
+      <c r="O30" s="73">
+        <f>ROUNDDOWN(SUM(D18*J18)/J30,0)</f>
+        <v>48</v>
+      </c>
+      <c r="P30" s="29">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="H30" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="I30" s="29">
-        <v>30</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29">
-        <v>20</v>
-      </c>
-      <c r="N30" s="29">
-        <f>ROUNDDOWN(SUM(D18*I18)/I30,0)</f>
-        <v>19</v>
-      </c>
-      <c r="O30" s="29">
-        <f t="shared" si="2"/>
-        <v>380</v>
-      </c>
-      <c r="P30" s="29">
+        <v>960</v>
+      </c>
+      <c r="Q30" s="73">
         <v>12</v>
-      </c>
-      <c r="Q30" s="29">
-        <f t="shared" si="0"/>
-        <v>240</v>
       </c>
       <c r="R30" s="29">
         <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="3:22">
+        <v>240</v>
+      </c>
+      <c r="S30" s="29">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" ht="15.75">
       <c r="C31" s="29">
         <v>60</v>
       </c>
@@ -5450,45 +5482,45 @@
         <v>1</v>
       </c>
       <c r="E31" s="29">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="I31" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" s="29">
+        <v>60</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29">
+        <v>15</v>
+      </c>
+      <c r="O31" s="73">
+        <f>ROUNDDOWN(SUM(D18*J19)/J31,0)</f>
+        <v>6</v>
+      </c>
+      <c r="P31" s="29">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="H31" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="29">
-        <v>60</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29">
-        <v>15</v>
-      </c>
-      <c r="N31" s="29">
-        <f>ROUNDDOWN(SUM(D18*I19)/I31,0)</f>
-        <v>2</v>
-      </c>
-      <c r="O31" s="29">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="P31" s="29">
+        <v>90</v>
+      </c>
+      <c r="Q31" s="73">
         <v>3</v>
-      </c>
-      <c r="Q31" s="29">
-        <f t="shared" si="0"/>
-        <v>45</v>
       </c>
       <c r="R31" s="29">
         <f t="shared" si="1"/>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="32" spans="3:22">
+        <v>45</v>
+      </c>
+      <c r="S31" s="29">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" ht="15.75">
       <c r="C32" s="29">
         <v>60</v>
       </c>
@@ -5496,45 +5528,45 @@
         <v>1</v>
       </c>
       <c r="E32" s="29">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="I32" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="29">
+        <v>20</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29">
+        <v>10</v>
+      </c>
+      <c r="O32" s="73">
+        <f>ROUNDDOWN(SUM(D17*J15)/J32,0)</f>
+        <v>60</v>
+      </c>
+      <c r="P32" s="29">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="F32" s="29"/>
-      <c r="H32" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32" s="29">
-        <v>20</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29">
-        <v>10</v>
-      </c>
-      <c r="N32" s="29">
-        <f>ROUNDDOWN(SUM(D17*I15)/I32,0)</f>
-        <v>30</v>
-      </c>
-      <c r="O32" s="29">
-        <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="P32" s="29">
+        <v>600</v>
+      </c>
+      <c r="Q32" s="73">
         <v>24</v>
-      </c>
-      <c r="Q32" s="29">
-        <f t="shared" si="0"/>
-        <v>240</v>
       </c>
       <c r="R32" s="29">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="3:18">
+        <v>240</v>
+      </c>
+      <c r="S32" s="29">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" ht="15.75">
       <c r="C33" s="29">
         <v>60</v>
       </c>
@@ -5542,49 +5574,49 @@
         <v>1</v>
       </c>
       <c r="E33" s="29">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="I33" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" s="29">
+        <v>12</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" s="29">
+        <v>3</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="N33" s="29">
+        <v>90</v>
+      </c>
+      <c r="O33" s="73">
+        <f>ROUNDDOWN(SUM(D21*J16)/L33,0)</f>
+        <v>46</v>
+      </c>
+      <c r="P33" s="29">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="H33" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="29">
-        <v>12</v>
-      </c>
-      <c r="J33" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K33" s="29">
-        <v>3</v>
-      </c>
-      <c r="L33" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="M33" s="29">
-        <v>90</v>
-      </c>
-      <c r="N33" s="29">
-        <f>ROUNDDOWN(SUM(D21*I16)/K33,0)</f>
-        <v>18</v>
-      </c>
-      <c r="O33" s="29">
-        <f t="shared" si="2"/>
-        <v>1620</v>
-      </c>
-      <c r="P33" s="29">
+        <v>4140</v>
+      </c>
+      <c r="Q33" s="73">
         <v>16</v>
-      </c>
-      <c r="Q33" s="29">
-        <f t="shared" si="0"/>
-        <v>1440</v>
       </c>
       <c r="R33" s="29">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="3:18">
+        <v>1440</v>
+      </c>
+      <c r="S33" s="29">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" ht="15.75">
       <c r="C34" s="29">
         <v>60</v>
       </c>
@@ -5592,49 +5624,49 @@
         <v>1</v>
       </c>
       <c r="E34" s="29">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" s="29">
+        <v>37.5</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="N34" s="29">
+        <v>90</v>
+      </c>
+      <c r="O34" s="73">
+        <f>ROUNDDOWN(SUM(D21*J17)/L34,0)</f>
+        <v>34</v>
+      </c>
+      <c r="P34" s="29">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="H34" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I34" s="29">
-        <v>37.5</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K34" s="29">
-        <v>7.5</v>
-      </c>
-      <c r="L34" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="M34" s="29">
-        <v>90</v>
-      </c>
-      <c r="N34" s="29">
-        <f>ROUNDDOWN(SUM(D21*I17)/K34,0)</f>
-        <v>13</v>
-      </c>
-      <c r="O34" s="29">
-        <f t="shared" si="2"/>
-        <v>1170</v>
-      </c>
-      <c r="P34" s="29">
+        <v>3060</v>
+      </c>
+      <c r="Q34" s="73">
         <v>14</v>
-      </c>
-      <c r="Q34" s="29">
-        <f t="shared" si="0"/>
-        <v>1260</v>
       </c>
       <c r="R34" s="29">
         <f t="shared" si="1"/>
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="35" spans="3:18">
+        <v>1260</v>
+      </c>
+      <c r="S34" s="29">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20">
       <c r="C35" s="29">
         <v>60</v>
       </c>
@@ -5642,12 +5674,12 @@
         <v>1</v>
       </c>
       <c r="E35" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F35" s="29"/>
     </row>
-    <row r="36" spans="3:18">
+    <row r="36" spans="3:20">
       <c r="C36" s="29">
         <v>60</v>
       </c>
@@ -5655,42 +5687,39 @@
         <v>1</v>
       </c>
       <c r="E36" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F36" s="29"/>
-      <c r="H36" s="51" t="s">
-        <v>337</v>
-      </c>
       <c r="I36" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="K36" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="M36" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="N36" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="J36" s="51" t="s">
-        <v>334</v>
-      </c>
-      <c r="K36" s="51" t="s">
-        <v>338</v>
-      </c>
-      <c r="L36" s="51" t="s">
-        <v>336</v>
-      </c>
-      <c r="M36" s="51" t="s">
-        <v>344</v>
-      </c>
-      <c r="N36" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="O36" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="P36" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q36" s="54" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="37" spans="3:18">
+      <c r="O36" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="P36" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="R36">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20">
       <c r="C37" s="29">
         <v>60</v>
       </c>
@@ -5698,47 +5727,42 @@
         <v>1</v>
       </c>
       <c r="E37" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F37" s="29"/>
-      <c r="H37" s="51" t="s">
-        <v>331</v>
-      </c>
-      <c r="I37" s="51">
+      <c r="I37" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="J37" s="51">
         <v>0.5</v>
       </c>
-      <c r="J37" s="51">
+      <c r="K37" s="51">
         <f>ROUNDDOWN(SUM((D22*0.5)/27.5),0)</f>
         <v>15</v>
       </c>
-      <c r="K37" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="L37" s="51">
+      <c r="L37" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="M37" s="51">
         <v>1</v>
       </c>
-      <c r="M37" s="51">
-        <f>ROUNDDOWN(SUM((Q32*1)/27.5),0)</f>
-        <v>8</v>
-      </c>
       <c r="N37" s="51">
-        <f>IF(J37&gt;M37,M37,J37)</f>
-        <v>8</v>
+        <f>ROUNDDOWN(SUM((P32*1)/27.5),0)</f>
+        <v>21</v>
       </c>
       <c r="O37" s="51">
+        <f>IF(K37&gt;N37,N37,K37)</f>
+        <v>15</v>
+      </c>
+      <c r="P37" s="51">
         <v>12</v>
       </c>
-      <c r="P37" s="51">
-        <f>SUM(((O37-N37)*27.5/M32)+P32-N32)</f>
-        <v>5</v>
-      </c>
-      <c r="Q37" s="51">
-        <f>SUM(((P37*I32)/100)*50)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="3:18">
+      <c r="Q37" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20">
       <c r="C38" s="29">
         <v>120</v>
       </c>
@@ -5746,45 +5770,45 @@
         <v>1</v>
       </c>
       <c r="E38" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="F38" s="29"/>
-      <c r="H38" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="I38" s="51">
+      <c r="I38" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" s="51">
         <v>0.7</v>
       </c>
-      <c r="J38" s="51">
-        <f>ROUNDDOWN(SUM((D16*I38)/20),0)</f>
-        <v>15</v>
-      </c>
-      <c r="K38" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="L38" s="51">
+      <c r="K38" s="51">
+        <f>ROUNDDOWN(SUM((D16*J38)/20),0)</f>
+        <v>16</v>
+      </c>
+      <c r="L38" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="M38" s="51">
         <v>0.25</v>
       </c>
-      <c r="M38" s="51">
-        <f>ROUNDDOWN(SUM((Q30*L38)/28),0)</f>
-        <v>2</v>
-      </c>
       <c r="N38" s="51">
-        <f t="shared" ref="N38:N41" si="4">IF(J38&gt;M38,M38,J38)</f>
-        <v>2</v>
+        <f>ROUNDDOWN(SUM((P30*M38)/28),0)</f>
+        <v>8</v>
       </c>
       <c r="O38" s="51">
+        <f t="shared" ref="O38:O41" si="5">IF(K38&gt;N38,N38,K38)</f>
+        <v>8</v>
+      </c>
+      <c r="P38" s="51">
         <v>12</v>
       </c>
-      <c r="P38" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:18">
+      <c r="Q38" t="s">
+        <v>361</v>
+      </c>
+      <c r="S38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20">
       <c r="C39" s="29">
         <v>120</v>
       </c>
@@ -5792,45 +5816,48 @@
         <v>1</v>
       </c>
       <c r="E39" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="F39" s="29"/>
-      <c r="H39" s="51" t="s">
-        <v>329</v>
-      </c>
-      <c r="I39" s="51">
+      <c r="I39" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="J39" s="51">
         <v>1</v>
       </c>
-      <c r="J39" s="51">
-        <f>ROUNDDOWN(SUM((Q29*1)/2),0)</f>
+      <c r="K39" s="51">
+        <f>ROUNDDOWN(SUM((R29*1)/2),0)</f>
         <v>14</v>
       </c>
-      <c r="K39" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="L39" s="51">
+      <c r="L39" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" s="51">
         <v>0.15</v>
       </c>
-      <c r="M39" s="51">
-        <f>ROUNDDOWN(SUM((Q30*L39)/10),0)</f>
-        <v>3</v>
-      </c>
       <c r="N39" s="51">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <f>ROUNDDOWN(SUM((P30*M39)/10),0)</f>
+        <v>14</v>
       </c>
       <c r="O39" s="51">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="P39" s="51">
         <v>12</v>
       </c>
-      <c r="P39" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:18">
+      <c r="Q39" t="s">
+        <v>362</v>
+      </c>
+      <c r="S39">
+        <v>1400</v>
+      </c>
+      <c r="T39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20">
       <c r="C40" s="29">
         <v>120</v>
       </c>
@@ -5838,45 +5865,45 @@
         <v>1</v>
       </c>
       <c r="E40" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="F40" s="29"/>
-      <c r="H40" s="51" t="s">
-        <v>323</v>
-      </c>
-      <c r="I40" s="51">
+      <c r="I40" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="J40" s="51">
         <v>0.8</v>
       </c>
-      <c r="J40" s="51">
-        <f>ROUNDDOWN(SUM((Q33*I40)/40),0)</f>
+      <c r="K40" s="51">
+        <f>ROUNDDOWN(SUM((R33*J40)/40),0)</f>
         <v>28</v>
       </c>
-      <c r="K40" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="L40" s="51">
+      <c r="L40" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="M40" s="51">
         <v>0.25</v>
       </c>
-      <c r="M40" s="51">
-        <f>ROUNDDOWN(SUM((Q30*L40)/15),0)</f>
+      <c r="N40" s="51">
+        <f>ROUNDDOWN(SUM((P30*M40)/15),0)</f>
+        <v>16</v>
+      </c>
+      <c r="O40" s="51">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="P40" s="51">
         <v>4</v>
       </c>
-      <c r="N40" s="51">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O40" s="51">
-        <v>4</v>
-      </c>
-      <c r="P40" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:18">
+      <c r="Q40" t="s">
+        <v>365</v>
+      </c>
+      <c r="T40" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20">
       <c r="C41" s="29">
         <v>120</v>
       </c>
@@ -5884,45 +5911,48 @@
         <v>1</v>
       </c>
       <c r="E41" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="F41" s="29"/>
-      <c r="H41" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="I41" s="51">
+      <c r="I41" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="J41" s="51">
         <v>0.2</v>
       </c>
-      <c r="J41" s="51">
-        <f>ROUNDDOWN(SUM((Q33*I41)/30),0)</f>
+      <c r="K41" s="51">
+        <f>ROUNDDOWN(SUM((R33*J41)/30),0)</f>
         <v>9</v>
       </c>
-      <c r="K41" s="51" t="s">
-        <v>326</v>
-      </c>
-      <c r="L41" s="51">
+      <c r="L41" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="M41" s="51">
         <v>0.17</v>
       </c>
-      <c r="M41" s="51">
-        <f>ROUNDDOWN(SUM((Q30*L41)/10),0)</f>
+      <c r="N41" s="51">
+        <f>ROUNDDOWN(SUM((P30*M41)/10),0)</f>
+        <v>16</v>
+      </c>
+      <c r="O41" s="51">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="P41" s="51">
         <v>4</v>
       </c>
-      <c r="N41" s="51">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O41" s="51">
-        <v>4</v>
-      </c>
-      <c r="P41" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:18">
+      <c r="Q41" t="s">
+        <v>364</v>
+      </c>
+      <c r="R41" t="s">
+        <v>363</v>
+      </c>
+      <c r="T41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20">
       <c r="C42" s="29">
         <v>120</v>
       </c>
@@ -5930,508 +5960,528 @@
         <v>1</v>
       </c>
       <c r="E42" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="F42" s="29"/>
-      <c r="H42" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="I42" s="51">
+      <c r="I42" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="J42" s="51">
         <v>1</v>
       </c>
-      <c r="J42" s="51">
+      <c r="K42" s="51">
         <v>2</v>
       </c>
-      <c r="K42" s="51" t="s">
-        <v>340</v>
-      </c>
-      <c r="L42" s="51">
+      <c r="L42" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" s="51">
         <v>1</v>
       </c>
-      <c r="M42" s="51">
-        <v>2</v>
-      </c>
-      <c r="N42" s="51"/>
+      <c r="N42" s="51">
+        <f>SUM(O41/2)</f>
+        <v>4.5</v>
+      </c>
       <c r="O42" s="51"/>
-      <c r="P42" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:18">
+      <c r="P42" s="51"/>
+      <c r="T42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20">
       <c r="C43" s="29">
         <v>120</v>
       </c>
       <c r="D43" s="29">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E43" s="29">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="F43" s="29"/>
-      <c r="R43">
-        <f>SUM(R37:R42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:18">
+      <c r="S43">
+        <f>SUM(S37:S42)</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20">
       <c r="C44" s="29">
         <v>120</v>
       </c>
       <c r="D44" s="29">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E44" s="29">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="3:18">
+    <row r="45" spans="3:20">
       <c r="C45" s="29">
         <v>120</v>
       </c>
       <c r="D45" s="29">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E45" s="29">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="F45" s="29"/>
-      <c r="H45" s="62" t="s">
-        <v>319</v>
-      </c>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="63"/>
-    </row>
-    <row r="46" spans="3:18">
+      <c r="I45" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+    </row>
+    <row r="46" spans="3:20">
       <c r="C46" s="29">
         <v>120</v>
       </c>
       <c r="D46" s="29">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E46" s="29">
-        <f t="shared" si="3"/>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="F46" s="29"/>
-      <c r="H46" s="30" t="s">
+      <c r="I46" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="I46" s="30" t="s">
+      <c r="J46" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="L46" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="M46" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="N46" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="O46" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="P46" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="J46" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="K46" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="L46" s="30" t="s">
+      <c r="Q46" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="R46" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="M46" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="N46" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="O46" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="P46" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q46" s="52" t="s">
-        <v>310</v>
-      </c>
-      <c r="R46" s="52" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="47" spans="3:18">
+      <c r="S46" s="52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="3:20">
       <c r="C47" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D47" s="29">
         <v>19</v>
       </c>
       <c r="E47" s="29">
         <f>SUM(E28:E46)</f>
-        <v>1680</v>
+        <v>2400</v>
       </c>
       <c r="F47" s="29"/>
-      <c r="H47" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="I47" s="29">
+      <c r="I47" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="J47" s="29">
         <v>27.5</v>
       </c>
-      <c r="J47" s="29" t="s">
+      <c r="K47" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="29">
+      <c r="L47" s="29">
         <v>27.5</v>
       </c>
-      <c r="L47" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="M47" s="29">
+      <c r="M47" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="N47" s="29">
         <v>12.5</v>
       </c>
-      <c r="N47" s="29">
+      <c r="O47" s="29">
         <v>8</v>
       </c>
-      <c r="O47" s="29">
-        <f t="shared" ref="O47:O52" si="5">M47*N47</f>
+      <c r="P47" s="29">
+        <f t="shared" ref="P47:P52" si="6">N47*O47</f>
         <v>100</v>
       </c>
-      <c r="P47" s="29">
+      <c r="Q47" s="29">
         <v>12</v>
       </c>
-      <c r="Q47" s="29">
-        <f t="shared" ref="Q47:Q52" si="6">M47*P47</f>
+      <c r="R47" s="29">
+        <f t="shared" ref="R47:R52" si="7">N47*Q47</f>
         <v>150</v>
       </c>
-      <c r="R47" s="29">
-        <f t="shared" ref="R47:R52" si="7">O47-Q47</f>
+      <c r="S47" s="29">
+        <f t="shared" ref="S47:S52" si="8">P47-R47</f>
         <v>-50</v>
       </c>
     </row>
-    <row r="48" spans="3:18">
-      <c r="C48" s="55" t="s">
+    <row r="48" spans="3:20">
+      <c r="C48" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="57"/>
-      <c r="H48" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="I48" s="29">
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="61"/>
+      <c r="I48" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="J48" s="29">
         <v>28</v>
       </c>
-      <c r="J48" s="29" t="s">
+      <c r="K48" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="29">
+      <c r="L48" s="29">
         <v>20</v>
       </c>
-      <c r="L48" s="29" t="s">
+      <c r="M48" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="M48" s="29">
+      <c r="N48" s="29">
         <v>4</v>
       </c>
-      <c r="N48" s="29">
-        <f>N38</f>
-        <v>2</v>
-      </c>
       <c r="O48" s="29">
-        <f t="shared" si="5"/>
+        <f>O38</f>
         <v>8</v>
       </c>
       <c r="P48" s="29">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="Q48" s="29">
         <v>12</v>
-      </c>
-      <c r="Q48" s="29">
-        <f t="shared" si="6"/>
-        <v>48</v>
       </c>
       <c r="R48" s="29">
         <f t="shared" si="7"/>
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18">
+        <v>48</v>
+      </c>
+      <c r="S48" s="29">
+        <f t="shared" si="8"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19">
       <c r="C49" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>146</v>
-      </c>
       <c r="F49" s="29"/>
-      <c r="H49" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="I49" s="29">
+      <c r="I49" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="J49" s="29">
         <v>10</v>
       </c>
-      <c r="J49" s="29" t="s">
+      <c r="K49" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="29">
+      <c r="L49" s="29">
         <v>2</v>
       </c>
-      <c r="L49" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="M49" s="29">
+      <c r="M49" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="N49" s="29">
         <v>3</v>
       </c>
-      <c r="N49" s="29">
-        <f>M39</f>
-        <v>3</v>
-      </c>
       <c r="O49" s="29">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f>N39</f>
+        <v>14</v>
       </c>
       <c r="P49" s="29">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="Q49" s="29">
         <v>12</v>
-      </c>
-      <c r="Q49" s="29">
-        <f t="shared" si="6"/>
-        <v>36</v>
       </c>
       <c r="R49" s="29">
         <f t="shared" si="7"/>
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18">
+        <v>36</v>
+      </c>
+      <c r="S49" s="29">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19">
       <c r="C50" s="29">
         <v>120</v>
       </c>
       <c r="D50" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="29">
         <f>C50*D50</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F50" s="29"/>
-      <c r="H50" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="I50" s="29">
+      <c r="I50" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="J50" s="29">
         <v>15</v>
       </c>
-      <c r="J50" s="29" t="s">
+      <c r="K50" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="29">
+      <c r="L50" s="29">
         <v>40</v>
       </c>
-      <c r="L50" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="M50" s="29">
+      <c r="M50" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="N50" s="29">
         <v>5</v>
       </c>
-      <c r="N50" s="29">
-        <f>M40</f>
+      <c r="O50" s="29">
+        <f>N40</f>
+        <v>16</v>
+      </c>
+      <c r="P50" s="29">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="Q50" s="29">
         <v>4</v>
-      </c>
-      <c r="O50" s="29">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="P50" s="29">
-        <v>4</v>
-      </c>
-      <c r="Q50" s="29">
-        <f t="shared" si="6"/>
-        <v>20</v>
       </c>
       <c r="R50" s="29">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:18">
+        <v>20</v>
+      </c>
+      <c r="S50" s="29">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19">
       <c r="C51" s="29">
         <v>120</v>
       </c>
       <c r="D51" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="29">
-        <f t="shared" ref="E51:E53" si="8">C51*D51</f>
-        <v>120</v>
+        <f t="shared" ref="E51:E55" si="9">C51*D51</f>
+        <v>240</v>
       </c>
       <c r="F51" s="29"/>
-      <c r="H51" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="I51" s="29">
+      <c r="I51" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="J51" s="29">
         <v>10</v>
       </c>
-      <c r="J51" s="29" t="s">
+      <c r="K51" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="29">
+      <c r="L51" s="29">
         <v>30</v>
       </c>
-      <c r="L51" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="M51" s="29">
+      <c r="M51" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="N51" s="29">
         <v>5</v>
       </c>
-      <c r="N51" s="29">
-        <f>M41</f>
+      <c r="O51" s="29">
+        <f>N41</f>
+        <v>16</v>
+      </c>
+      <c r="P51" s="29">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="Q51" s="29">
         <v>4</v>
-      </c>
-      <c r="O51" s="29">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="P51" s="29">
-        <v>4</v>
-      </c>
-      <c r="Q51" s="29">
-        <f t="shared" si="6"/>
-        <v>20</v>
       </c>
       <c r="R51" s="29">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:18">
+        <v>20</v>
+      </c>
+      <c r="S51" s="29">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19">
       <c r="C52" s="29">
         <v>120</v>
       </c>
       <c r="D52" s="29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E52" s="29">
-        <f t="shared" si="8"/>
-        <v>180</v>
+        <f t="shared" si="9"/>
+        <v>240</v>
       </c>
       <c r="F52" s="29"/>
-      <c r="H52" s="29" t="s">
-        <v>350</v>
-      </c>
-      <c r="I52" s="29">
+      <c r="I52" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="J52" s="29">
         <v>10</v>
       </c>
-      <c r="J52" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="K52" s="29">
+      <c r="K52" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="L52" s="29">
         <v>10</v>
       </c>
-      <c r="L52" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="M52" s="29">
+      <c r="M52" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="N52" s="29">
         <v>5</v>
       </c>
-      <c r="N52" s="29">
-        <f>M42</f>
+      <c r="O52" s="29">
+        <f>N42</f>
+        <v>4.5</v>
+      </c>
+      <c r="P52" s="29">
+        <f t="shared" si="6"/>
+        <v>22.5</v>
+      </c>
+      <c r="Q52" s="29">
         <v>2</v>
-      </c>
-      <c r="O52" s="29">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="P52" s="29">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="29">
-        <f t="shared" si="6"/>
-        <v>10</v>
       </c>
       <c r="R52" s="29">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18">
+        <v>10</v>
+      </c>
+      <c r="S52" s="29">
+        <f t="shared" si="8"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19">
       <c r="C53" s="29">
+        <v>60</v>
+      </c>
+      <c r="D53" s="29">
+        <v>2</v>
+      </c>
+      <c r="E53" s="29">
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
-      <c r="D53" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="E53" s="29">
-        <f t="shared" si="8"/>
-        <v>180</v>
-      </c>
       <c r="F53" s="29"/>
-    </row>
-    <row r="54" spans="3:18">
-      <c r="C54" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="29"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="68"/>
+      <c r="R53" s="68"/>
+    </row>
+    <row r="54" spans="3:19">
+      <c r="C54" s="29">
+        <v>60</v>
+      </c>
+      <c r="D54" s="29">
+        <v>2</v>
+      </c>
       <c r="E54" s="29">
-        <f>SUM(E50:E53)</f>
-        <v>600</v>
+        <f t="shared" si="9"/>
+        <v>120</v>
       </c>
       <c r="F54" s="29"/>
-    </row>
-    <row r="55" spans="3:18">
-      <c r="C55" s="55" t="s">
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+    </row>
+    <row r="55" spans="3:19">
+      <c r="C55" s="29">
+        <v>120</v>
+      </c>
+      <c r="D55" s="29">
+        <v>2</v>
+      </c>
+      <c r="E55" s="29">
+        <f t="shared" si="9"/>
+        <v>240</v>
+      </c>
+      <c r="F55" s="29"/>
+    </row>
+    <row r="56" spans="3:19">
+      <c r="C56" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29">
+        <f>SUM(E50:E55)</f>
+        <v>1200</v>
+      </c>
+      <c r="F56" s="29"/>
+    </row>
+    <row r="57" spans="3:19">
+      <c r="C57" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="57"/>
-    </row>
-    <row r="56" spans="3:18">
-      <c r="C56" s="29" t="s">
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="61"/>
+    </row>
+    <row r="58" spans="3:19">
+      <c r="C58" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" s="29"/>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="J56" s="51"/>
-    </row>
-    <row r="57" spans="3:18">
-      <c r="C57" s="29">
-        <v>60</v>
-      </c>
-      <c r="D57" s="29">
-        <v>1</v>
-      </c>
-      <c r="E57" s="29">
-        <f>C57*D57</f>
-        <v>60</v>
-      </c>
-      <c r="F57" s="29"/>
-    </row>
-    <row r="58" spans="3:18">
-      <c r="C58" s="29">
-        <v>60</v>
-      </c>
-      <c r="D58" s="29">
-        <v>1</v>
-      </c>
-      <c r="E58" s="29">
-        <f t="shared" ref="E58:E60" si="9">C58*D58</f>
-        <v>60</v>
-      </c>
       <c r="F58" s="29"/>
-    </row>
-    <row r="59" spans="3:18">
+      <c r="H58" s="51"/>
+      <c r="I58" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="J58" s="51"/>
+    </row>
+    <row r="59" spans="3:19">
       <c r="C59" s="29">
         <v>60</v>
       </c>
@@ -6439,12 +6489,12 @@
         <v>1</v>
       </c>
       <c r="E59" s="29">
-        <f t="shared" si="9"/>
+        <f>C59*D59</f>
         <v>60</v>
       </c>
       <c r="F59" s="29"/>
     </row>
-    <row r="60" spans="3:18">
+    <row r="60" spans="3:19">
       <c r="C60" s="29">
         <v>60</v>
       </c>
@@ -6452,12 +6502,12 @@
         <v>1</v>
       </c>
       <c r="E60" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E60:E62" si="10">C60*D60</f>
         <v>60</v>
       </c>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="3:18">
+    <row r="61" spans="3:19">
       <c r="C61" s="29">
         <v>60</v>
       </c>
@@ -6465,12 +6515,12 @@
         <v>1</v>
       </c>
       <c r="E61" s="29">
-        <f>C61*D61</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="F61" s="29"/>
     </row>
-    <row r="62" spans="3:18">
+    <row r="62" spans="3:19">
       <c r="C62" s="29">
         <v>60</v>
       </c>
@@ -6478,38 +6528,38 @@
         <v>1</v>
       </c>
       <c r="E62" s="29">
-        <f t="shared" ref="E62:E64" si="10">C62*D62</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="F62" s="29"/>
     </row>
-    <row r="63" spans="3:18">
+    <row r="63" spans="3:19">
       <c r="C63" s="29">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D63" s="29">
         <v>1</v>
       </c>
       <c r="E63" s="29">
-        <f t="shared" si="10"/>
-        <v>120</v>
+        <f>C63*D63</f>
+        <v>60</v>
       </c>
       <c r="F63" s="29"/>
     </row>
-    <row r="64" spans="3:18">
+    <row r="64" spans="3:19">
       <c r="C64" s="29">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D64" s="29">
         <v>1</v>
       </c>
       <c r="E64" s="29">
-        <f t="shared" si="10"/>
-        <v>120</v>
+        <f t="shared" ref="E64:E67" si="11">C64*D64</f>
+        <v>60</v>
       </c>
       <c r="F64" s="29"/>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="3:19">
       <c r="C65" s="29">
         <v>120</v>
       </c>
@@ -6517,12 +6567,13 @@
         <v>1</v>
       </c>
       <c r="E65" s="29">
-        <f>C65*D65</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="F65" s="29"/>
-    </row>
-    <row r="66" spans="3:7">
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="3:19">
       <c r="C66" s="29">
         <v>120</v>
       </c>
@@ -6530,12 +6581,12 @@
         <v>1</v>
       </c>
       <c r="E66" s="29">
-        <f t="shared" ref="E66:E68" si="11">C66*D66</f>
         <v>120</v>
       </c>
       <c r="F66" s="29"/>
-    </row>
-    <row r="67" spans="3:7">
+      <c r="S66" s="32"/>
+    </row>
+    <row r="67" spans="3:19">
       <c r="C67" s="29">
         <v>120</v>
       </c>
@@ -6547,11 +6598,9 @@
         <v>120</v>
       </c>
       <c r="F67" s="29"/>
-      <c r="G67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7">
+      <c r="S67" s="32"/>
+    </row>
+    <row r="68" spans="3:19">
       <c r="C68" s="29">
         <v>120</v>
       </c>
@@ -6559,283 +6608,324 @@
         <v>1</v>
       </c>
       <c r="E68" s="29">
-        <f t="shared" si="11"/>
+        <f>C68*D68</f>
         <v>120</v>
       </c>
       <c r="F68" s="29"/>
-      <c r="G68">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="3:7">
+      <c r="S68" s="32"/>
+    </row>
+    <row r="69" spans="3:19">
       <c r="C69" s="29">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="D69" s="29">
         <v>1</v>
       </c>
       <c r="E69" s="29">
-        <f t="shared" ref="E69" si="12">C69*D69</f>
+        <f t="shared" ref="E69:E71" si="12">C69*D69</f>
+        <v>120</v>
+      </c>
+      <c r="F69" s="29"/>
+      <c r="S69" s="32"/>
+    </row>
+    <row r="70" spans="3:19">
+      <c r="C70" s="29">
+        <v>120</v>
+      </c>
+      <c r="D70" s="29">
+        <v>1</v>
+      </c>
+      <c r="E70" s="29">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="F70" s="29"/>
+      <c r="S70" s="32"/>
+    </row>
+    <row r="71" spans="3:19">
+      <c r="C71" s="29">
+        <v>120</v>
+      </c>
+      <c r="D71" s="29">
+        <v>1</v>
+      </c>
+      <c r="E71" s="29">
+        <f t="shared" si="12"/>
+        <v>120</v>
+      </c>
+      <c r="F71" s="29"/>
+      <c r="S71" s="32"/>
+    </row>
+    <row r="72" spans="3:19">
+      <c r="C72" s="29">
         <v>240</v>
       </c>
-      <c r="F69" s="29"/>
-      <c r="G69">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="3:7">
-      <c r="C70" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29">
-        <f>SUM(E57:E69)</f>
-        <v>1320</v>
-      </c>
-      <c r="F70" s="29"/>
-      <c r="G70">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="3:7">
-      <c r="C71" s="55" t="s">
+      <c r="D72" s="29">
+        <v>1</v>
+      </c>
+      <c r="E72" s="29">
+        <f t="shared" ref="E72" si="13">C72*D72</f>
+        <v>240</v>
+      </c>
+      <c r="F72" s="29"/>
+      <c r="S72" s="32"/>
+    </row>
+    <row r="73" spans="3:19">
+      <c r="C73" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29">
+        <f>SUM(E59:E72)</f>
+        <v>1440</v>
+      </c>
+      <c r="F73" s="29"/>
+      <c r="S73" s="32"/>
+    </row>
+    <row r="74" spans="3:19">
+      <c r="C74" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="57"/>
-      <c r="G71">
-        <f>SUM(G67:G70)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="3:7">
-      <c r="C72" s="29" t="s">
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="61"/>
+      <c r="S74" s="32"/>
+    </row>
+    <row r="75" spans="3:19">
+      <c r="C75" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F72" s="29"/>
-    </row>
-    <row r="73" spans="3:7">
-      <c r="C73" s="29">
+      <c r="F75" s="29"/>
+    </row>
+    <row r="76" spans="3:19">
+      <c r="C76" s="29">
         <v>240</v>
       </c>
-      <c r="D73" s="29">
-        <v>1</v>
-      </c>
-      <c r="E73" s="29">
-        <f>C73*D73</f>
+      <c r="D76" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E76" s="29">
+        <f>C76*D76</f>
+        <v>600</v>
+      </c>
+      <c r="F76" s="29"/>
+    </row>
+    <row r="77" spans="3:19">
+      <c r="C77" s="29">
         <v>240</v>
       </c>
-      <c r="F73" s="29"/>
-    </row>
-    <row r="74" spans="3:7">
-      <c r="C74" s="29">
-        <v>240</v>
-      </c>
-      <c r="D74" s="29">
-        <v>1</v>
-      </c>
-      <c r="E74" s="29">
-        <f t="shared" ref="E74" si="13">C74*D74</f>
-        <v>240</v>
-      </c>
-      <c r="F74" s="29"/>
-    </row>
-    <row r="75" spans="3:7">
-      <c r="C75" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29">
-        <f>SUM(E73:E74)</f>
-        <v>480</v>
-      </c>
-      <c r="F75" s="29"/>
-    </row>
-    <row r="76" spans="3:7">
-      <c r="C76" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="57"/>
-    </row>
-    <row r="77" spans="3:7">
-      <c r="C77" s="29" t="s">
+      <c r="D77" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E77" s="29">
+        <f t="shared" ref="E77" si="14">C77*D77</f>
+        <v>600</v>
+      </c>
+      <c r="F77" s="29"/>
+    </row>
+    <row r="78" spans="3:19">
+      <c r="C78" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29">
+        <f>SUM(E76:E77)</f>
+        <v>1200</v>
+      </c>
+      <c r="F78" s="29"/>
+    </row>
+    <row r="79" spans="3:19">
+      <c r="C79" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="3:19">
+      <c r="C80" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D77" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F77" s="29"/>
-    </row>
-    <row r="78" spans="3:7">
-      <c r="C78" s="29">
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" s="29">
         <v>120</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D81" s="29">
         <v>2.5</v>
       </c>
-      <c r="E78" s="29">
-        <f>C78*D78</f>
+      <c r="E81" s="29">
+        <f>C81*D81</f>
         <v>300</v>
       </c>
-      <c r="F78" s="29"/>
-    </row>
-    <row r="79" spans="3:7">
-      <c r="C79" s="29">
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" s="29">
         <v>120</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D82" s="29">
         <v>2.5</v>
       </c>
-      <c r="E79" s="29">
-        <f t="shared" ref="E79" si="14">C79*D79</f>
+      <c r="E82" s="29">
+        <f t="shared" ref="E82" si="15">C82*D82</f>
         <v>300</v>
       </c>
-      <c r="F79" s="29"/>
-    </row>
-    <row r="80" spans="3:7">
-      <c r="C80" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29">
-        <f>SUM(E78:E79)</f>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="C83" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29">
+        <f>SUM(E81:E82)</f>
         <v>600</v>
       </c>
-      <c r="F80" s="29"/>
-    </row>
-    <row r="81" spans="3:6">
-      <c r="C81" s="55" t="s">
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="C84" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="57"/>
-    </row>
-    <row r="82" spans="3:6">
-      <c r="C82" s="29" t="s">
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="61"/>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="C85" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F82" s="29"/>
-    </row>
-    <row r="83" spans="3:6">
-      <c r="C83" s="29">
+      <c r="F85" s="29"/>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="C86" s="29">
         <v>120</v>
       </c>
-      <c r="D83" s="29">
+      <c r="D86" s="29">
         <v>2.5</v>
       </c>
-      <c r="E83" s="29">
-        <f>C83*D83</f>
+      <c r="E86" s="29">
+        <f>C86*D86</f>
         <v>300</v>
       </c>
-      <c r="F83" s="29"/>
-    </row>
-    <row r="84" spans="3:6">
-      <c r="C84" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29">
-        <f>SUM(E83:E83)</f>
+      <c r="F86" s="29"/>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="C87" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29">
+        <f>SUM(E86:E86)</f>
         <v>300</v>
       </c>
-      <c r="F84" s="29"/>
-    </row>
-    <row r="85" spans="3:6">
-      <c r="C85" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="57"/>
-    </row>
-    <row r="86" spans="3:6">
-      <c r="C86" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E86" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="F86" s="29"/>
-    </row>
-    <row r="87" spans="3:6">
-      <c r="C87" s="29">
-        <v>240</v>
-      </c>
-      <c r="D87" s="29">
-        <v>1</v>
-      </c>
-      <c r="E87" s="29">
-        <f>D87*C87</f>
-        <v>240</v>
-      </c>
       <c r="F87" s="29"/>
     </row>
     <row r="88" spans="3:6">
-      <c r="C88" s="29">
-        <v>240</v>
-      </c>
-      <c r="D88" s="29">
-        <v>1</v>
-      </c>
-      <c r="E88" s="29">
-        <f>C88*D88</f>
-        <v>240</v>
-      </c>
-      <c r="F88" s="29"/>
+      <c r="C88" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="61"/>
     </row>
     <row r="89" spans="3:6">
       <c r="C89" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29">
-        <f>SUM(E87:E88)</f>
-        <v>480</v>
+        <v>142</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="F89" s="29"/>
     </row>
+    <row r="90" spans="3:6">
+      <c r="C90" s="29">
+        <v>240</v>
+      </c>
+      <c r="D90" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E90" s="29">
+        <f>D90*C90</f>
+        <v>600</v>
+      </c>
+      <c r="F90" s="29"/>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="C91" s="29">
+        <v>240</v>
+      </c>
+      <c r="D91" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="E91" s="29">
+        <f>C91*D91</f>
+        <v>600</v>
+      </c>
+      <c r="F91" s="29"/>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="C92" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29">
+        <f>SUM(E90:E91)</f>
+        <v>1200</v>
+      </c>
+      <c r="F92" s="29"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="I45:S45"/>
+    <mergeCell ref="I23:S23"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L5:Q5"/>
     <mergeCell ref="C3:U3"/>
-    <mergeCell ref="L5:V5"/>
-    <mergeCell ref="C14:F14"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="H45:R45"/>
-    <mergeCell ref="H23:R23"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="C71:F71"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1" xr:uid="{185B9E80-AF4C-40F7-8663-3F514E7F841D}"/>
+    <hyperlink ref="G17" r:id="rId2" xr:uid="{BCAA26CE-D6B5-4194-9ADA-905BDC2DE11F}"/>
+    <hyperlink ref="G16" r:id="rId3" xr:uid="{3BA93377-CEBD-40C0-B62C-1D34448DA57D}"/>
+    <hyperlink ref="G21" r:id="rId4" xr:uid="{F697FE49-1D6A-4933-8E1E-D666F4D62AA0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -6844,7 +6934,7 @@
   <dimension ref="C2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:E34"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6866,127 +6956,127 @@
   <sheetData>
     <row r="2" spans="3:17">
       <c r="C2" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>185</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="4" spans="3:17">
       <c r="C4" s="36" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="3:17">
       <c r="C6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="3:17">
       <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="L7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" t="s">
         <v>154</v>
-      </c>
-      <c r="G7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="I7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="M7" t="s">
-        <v>160</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
@@ -6994,37 +7084,37 @@
     </row>
     <row r="8" spans="3:17">
       <c r="C8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O8" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q8" t="s">
         <v>18</v>
@@ -7032,40 +7122,40 @@
     </row>
     <row r="9" spans="3:17">
       <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="L9" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" t="s">
         <v>156</v>
       </c>
-      <c r="G9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="I9" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="M9" t="s">
-        <v>162</v>
-      </c>
       <c r="O9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="3:17">
@@ -7073,7 +7163,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -7082,28 +7172,28 @@
         <v>23</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="3:17">
@@ -7111,96 +7201,96 @@
         <v>24</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" t="s">
         <v>158</v>
       </c>
-      <c r="H11" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M11" t="s">
         <v>158</v>
       </c>
-      <c r="K11" t="s">
-        <v>164</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="M11" t="s">
-        <v>164</v>
-      </c>
       <c r="O11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="3:17">
       <c r="C13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="3:17">
       <c r="C14" s="35" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="I14" s="35" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="3:17">
       <c r="C16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" t="s">
         <v>204</v>
       </c>
-      <c r="G16" t="s">
-        <v>210</v>
-      </c>
       <c r="I16" s="36" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="3:12">
       <c r="C18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="3:12">
@@ -7208,39 +7298,39 @@
         <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G20" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="3:12">
@@ -7250,70 +7340,70 @@
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="35" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="36" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I28" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="3:12">
       <c r="C29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="H29" s="34" t="s">
-        <v>183</v>
-      </c>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="3:12">
@@ -7321,19 +7411,19 @@
         <v>51</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E30" t="s">
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I30" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="3:12">
@@ -7341,102 +7431,102 @@
         <v>46</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E31" t="s">
         <v>46</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I32" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L32" s="34"/>
     </row>
     <row r="33" spans="3:12">
       <c r="C33" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L33" s="34"/>
     </row>
     <row r="36" spans="3:12">
       <c r="C36" s="35" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="3:12">
       <c r="C37" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="3:12">
       <c r="C38" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="3:12">
       <c r="C39" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F1392-A18C-45D2-BA78-AD5E777D8A44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454515AD-DEA2-46F8-B1F6-B02E25A43E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="748" activeTab="5" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="748" activeTab="2" xr2:uid="{A1294762-A08D-4520-BAFF-EE0B8EF3DC4E}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
     <sheet name="RubberFacility" sheetId="11" r:id="rId2"/>
     <sheet name="AluminumFacility" sheetId="12" r:id="rId3"/>
-    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId4"/>
-    <sheet name="DiagramLayout" sheetId="2" r:id="rId5"/>
-    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId6"/>
-    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId7"/>
-    <sheet name="MinerOutputValues" sheetId="5" r:id="rId8"/>
+    <sheet name="NitrogenFacility" sheetId="14" r:id="rId4"/>
+    <sheet name="SteelLakeSite" sheetId="15" r:id="rId5"/>
+    <sheet name="SilicaCaveSite" sheetId="13" r:id="rId6"/>
+    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId7"/>
+    <sheet name="DiagramLayout" sheetId="2" r:id="rId8"/>
+    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId9"/>
+    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId10"/>
+    <sheet name="MinerOutputValues" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="358">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -709,36 +712,6 @@
     <t>Special Train Dropoff</t>
   </si>
   <si>
-    <t>240 Coke made by 2 Refineries using 80 Heavy Residue</t>
-  </si>
-  <si>
-    <t>1 Mk2 , 3 shards</t>
-  </si>
-  <si>
-    <t>5 Water Extractors</t>
-  </si>
-  <si>
-    <t>3 Refineries</t>
-  </si>
-  <si>
-    <t>720 Solution Out</t>
-  </si>
-  <si>
-    <t>4 Scrap Refineries, 1200 Scrap / Minute, 240 Coke Needed</t>
-  </si>
-  <si>
-    <t>420 Water Out - &gt; Feedback Loop to get rid Of , 1 Industrial Buffer</t>
-  </si>
-  <si>
-    <t>5 Extractors</t>
-  </si>
-  <si>
-    <t>9 Refineries</t>
-  </si>
-  <si>
-    <t>To Train</t>
-  </si>
-  <si>
     <t xml:space="preserve">10 refineries making poymer resin heavy oil </t>
   </si>
   <si>
@@ -1030,9 +1003,6 @@
     <t>Stators Steel Pipe %</t>
   </si>
   <si>
-    <t>Pipes = 20% to H.Frames</t>
-  </si>
-  <si>
     <t>Rotors Steel Pipe %</t>
   </si>
   <si>
@@ -1054,9 +1024,6 @@
     <t>Circuit Board Copper Sheets %</t>
   </si>
   <si>
-    <t>Circuit Board Module</t>
-  </si>
-  <si>
     <t>Machines Supported By Input A</t>
   </si>
   <si>
@@ -1084,24 +1051,9 @@
     <t>Machines Supported By Input B</t>
   </si>
   <si>
-    <t>Encased Beam Module</t>
-  </si>
-  <si>
-    <t>Modular Frame Module</t>
-  </si>
-  <si>
-    <t>Stator Module</t>
-  </si>
-  <si>
-    <t>Rotor Module</t>
-  </si>
-  <si>
     <t>Reinforced Iron Plate</t>
   </si>
   <si>
-    <t>Motor Module</t>
-  </si>
-  <si>
     <t>Rotor</t>
   </si>
   <si>
@@ -1114,9 +1066,6 @@
     <t>1. Turn Coal lake into Steel Production Site</t>
   </si>
   <si>
-    <t>4. Rework Train Logistics</t>
-  </si>
-  <si>
     <t>Lines Out</t>
   </si>
   <si>
@@ -1150,25 +1099,55 @@
     <t>Quartz Crystal</t>
   </si>
   <si>
-    <t>9 More Copper Sheet to Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400 Pipe Shortfall Currently </t>
-  </si>
-  <si>
-    <t>Remove 4</t>
-  </si>
-  <si>
-    <t>Keep Current 12</t>
-  </si>
-  <si>
-    <t>1050 Wire Shortfall, Make More</t>
-  </si>
-  <si>
-    <t>Build 2</t>
-  </si>
-  <si>
-    <t>Build 2, OverClock</t>
+    <t>Encased Beams</t>
+  </si>
+  <si>
+    <t>Reinforced Plated</t>
+  </si>
+  <si>
+    <t>600 Limestone</t>
+  </si>
+  <si>
+    <t>1200 Quartz</t>
+  </si>
+  <si>
+    <t>1 Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 to 3 Balance </t>
+  </si>
+  <si>
+    <t>1 Line to Cheap Silica</t>
+  </si>
+  <si>
+    <t>2 Lines to Silica</t>
+  </si>
+  <si>
+    <t>37 Constructors</t>
+  </si>
+  <si>
+    <t>32 Assemblers</t>
+  </si>
+  <si>
+    <t>5 Floors of 8</t>
+  </si>
+  <si>
+    <t>4 Floors of 8</t>
+  </si>
+  <si>
+    <t>2 Lines out</t>
+  </si>
+  <si>
+    <t>4 to 3 Balancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2240 Silica Out </t>
+  </si>
+  <si>
+    <t>4. Get to and Make Nitrogen Gas Site</t>
+  </si>
+  <si>
+    <t>5. Work Towards Turbo Motors</t>
   </si>
 </sst>
 </file>
@@ -1854,10 +1833,21 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1887,26 +1877,15 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -1933,6 +1912,104 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>216914</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>170595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E920D110-FF7E-4843-A09B-AC0865DF2686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="2286000"/>
+          <a:ext cx="17285714" cy="6838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>216914</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>170595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{635F93E0-82A9-4C3E-93E8-EFC585E505DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5143500"/>
+          <a:ext cx="17285714" cy="6838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2548,7 +2625,7 @@
   <dimension ref="C1:U45"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2598,7 +2675,7 @@
     </row>
     <row r="3" spans="3:20" ht="19.5" thickTop="1">
       <c r="C3" s="40" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -2619,7 +2696,7 @@
     </row>
     <row r="4" spans="3:20">
       <c r="C4" s="40" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2640,7 +2717,7 @@
     </row>
     <row r="5" spans="3:20">
       <c r="C5" s="40" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2660,8 +2737,8 @@
       <c r="T5"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="40" t="s">
-        <v>347</v>
+      <c r="C6" s="60" t="s">
+        <v>356</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2680,7 +2757,10 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="3:20" ht="19.5" thickBot="1">
+    <row r="7" spans="3:20">
+      <c r="C7" s="60" t="s">
+        <v>357</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -2698,10 +2778,8 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C8" s="38" t="s">
-        <v>108</v>
-      </c>
+    <row r="8" spans="3:20">
+      <c r="C8" s="60"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
@@ -2719,10 +2797,7 @@
       <c r="S8"/>
       <c r="T8"/>
     </row>
-    <row r="9" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C9" s="46" t="s">
-        <v>20</v>
-      </c>
+    <row r="9" spans="3:20">
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -2740,10 +2815,7 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="3:20" ht="43.5" thickTop="1" thickBot="1">
-      <c r="C10" s="46" t="s">
-        <v>206</v>
-      </c>
+    <row r="10" spans="3:20">
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -2761,7 +2833,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="3:20">
+    <row r="11" spans="3:20" ht="19.5" thickBot="1">
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -2778,7 +2850,10 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="3:20">
+    <row r="12" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
+      <c r="C12" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -2792,7 +2867,10 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="3:20">
+    <row r="13" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
+      <c r="C13" s="46" t="s">
+        <v>20</v>
+      </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -2806,7 +2884,10 @@
       <c r="O13"/>
       <c r="P13"/>
     </row>
-    <row r="14" spans="3:20">
+    <row r="14" spans="3:20" ht="43.5" thickTop="1" thickBot="1">
+      <c r="C14" s="46" t="s">
+        <v>206</v>
+      </c>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -3132,6 +3213,830 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="37" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2FA3DA-A5F3-411F-AB6B-7EB05B935F88}">
+  <dimension ref="C2:Q39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" customWidth="1"/>
+    <col min="15" max="15" width="25.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:17">
+      <c r="C2" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17">
+      <c r="C4" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17">
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17">
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17">
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>155</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M8" t="s">
+        <v>155</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17">
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O9" t="s">
+        <v>159</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M10" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M11" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17">
+      <c r="C14" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17">
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>196</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="K20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I28" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I31" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31" t="s">
+        <v>150</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" t="s">
+        <v>174</v>
+      </c>
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" t="s">
+        <v>186</v>
+      </c>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="C36" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A4D7D-2B40-4F26-A6BD-214006A713CE}">
+  <dimension ref="C3:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4" ht="20.25" thickBot="1">
+      <c r="C3" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="72"/>
+    </row>
+    <row r="4" spans="3:4" ht="15.75" thickTop="1">
+      <c r="C4" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="73"/>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="73"/>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="17">
+        <v>2</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="17">
+        <v>3</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="73"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="17">
+        <v>2</v>
+      </c>
+      <c r="D20" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="17">
+        <v>3</v>
+      </c>
+      <c r="D21" s="16">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3160,21 +4065,21 @@
   <sheetData>
     <row r="2" spans="1:14" ht="18.75">
       <c r="A2" s="47" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75">
       <c r="A3" s="48" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G3" s="47" t="s">
         <v>176</v>
@@ -3183,13 +4088,13 @@
         <v>176</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="N3" s="47" t="s">
         <v>176</v>
@@ -3197,46 +4102,46 @@
     </row>
     <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="48" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="J4" s="48" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L4" s="48" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="N4" s="48" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75">
       <c r="C5" s="49" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75">
       <c r="J6" s="48" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75">
       <c r="C7" s="47" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G7" s="47" t="s">
         <v>176</v>
@@ -3245,36 +4150,36 @@
         <v>176</v>
       </c>
       <c r="J7" s="48" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75">
       <c r="C8" s="48" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="48" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75">
       <c r="C9" s="48" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="J9" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="L9" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="L9" s="47" t="s">
-        <v>273</v>
-      </c>
       <c r="M9" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="N9" s="47" t="s">
         <v>176</v>
@@ -3282,35 +4187,35 @@
     </row>
     <row r="10" spans="1:14" ht="18.75">
       <c r="C10" s="48" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="M10" s="48" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="N10" s="48" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75">
       <c r="J11" s="48" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75">
       <c r="C12" s="47" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G12" s="47" t="s">
         <v>176</v>
@@ -3319,52 +4224,52 @@
         <v>176</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75">
       <c r="C13" s="48" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="48" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18.75">
       <c r="C14" s="48" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18.75">
       <c r="C15" s="48" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18.75">
       <c r="C16" s="48" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="L16" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M16" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="N16" s="47" t="s">
         <v>176</v>
@@ -3372,62 +4277,62 @@
     </row>
     <row r="17" spans="3:14" ht="18.75">
       <c r="C17" s="48" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L17" s="48" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="M17" s="48" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="N17" s="48" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="18.75">
       <c r="C18" s="48" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="18.75">
       <c r="C19" s="48" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="18.75">
       <c r="C20" s="48" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="18.75">
       <c r="C21" s="48" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="3:14" ht="18.75">
       <c r="C22" s="48" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="L22" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="N22" s="47" t="s">
         <v>176</v>
@@ -3435,100 +4340,100 @@
     </row>
     <row r="23" spans="3:14" ht="18.75">
       <c r="C23" s="48" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J23" s="48" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="L23" s="48" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="M23" s="48" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="N23" s="48" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="3:14" ht="18.75">
       <c r="C24" s="48" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="3:14" ht="18.75">
       <c r="N25" s="48" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="3:14" ht="18.75">
       <c r="C26" s="47" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G26" s="47" t="s">
         <v>176</v>
       </c>
       <c r="J26" s="47" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="N26" s="48" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="3:14" ht="18.75">
       <c r="C27" s="48" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="18.75">
       <c r="C28" s="48" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="J28" s="48" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="3:14" ht="18.75">
       <c r="C29" s="48" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="J29" s="48" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="3:14" ht="18.75">
       <c r="C30" s="48" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="3:14" ht="18.75">
       <c r="C31" s="48" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="3:14" ht="18.75">
       <c r="C32" s="48" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3539,65 +4444,132 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5507375-7A9E-448C-B8C0-7FEB668F6097}">
-  <dimension ref="C5:D13"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="5" spans="3:4">
-      <c r="C5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E9EB0-3E23-4641-A58B-1165AA753DC6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0529D58D-32DE-4A01-925C-8D1447AD4A3D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0353B9-1CC2-4B24-B610-97234758C445}">
+  <dimension ref="C3:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" ht="18.75">
+      <c r="C3" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="18.75">
+      <c r="C6" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="18.75">
+      <c r="E7" s="42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="18.75">
+      <c r="C9" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="18.75">
+      <c r="C10" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="18.75">
+      <c r="C12" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="18.75">
+      <c r="C13" s="40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882FF9CB-C54B-4DF7-BCB6-6C966AE969A7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3605,7 +4577,7 @@
   <dimension ref="C1:T79"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4414,7 +5386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A19:A39"/>
   <sheetViews>
@@ -4437,12 +5409,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
   <dimension ref="C1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="I22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4474,39 +5446,39 @@
     <row r="1" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="2" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="3" spans="3:21" ht="23.25">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="C4" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="3:21">
       <c r="C5" s="28" t="s">
@@ -4533,14 +5505,14 @@
       <c r="J5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="56" t="s">
-        <v>315</v>
-      </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
+      <c r="L5" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="29" t="s">
@@ -4818,26 +5790,26 @@
       </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="F13" s="69"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="I14" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="J14" s="63"/>
-      <c r="L14" s="64" t="s">
-        <v>355</v>
-      </c>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="I14" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="J14" s="68"/>
+      <c r="L14" s="69" t="s">
+        <v>337</v>
+      </c>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
     </row>
     <row r="15" spans="3:21">
       <c r="C15" s="30" t="s">
@@ -4852,17 +5824,17 @@
       <c r="F15" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="70" t="s">
-        <v>348</v>
+      <c r="G15" s="56" t="s">
+        <v>330</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J15" s="51">
         <v>0.5</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="M15" s="30" t="s">
         <v>179</v>
@@ -4890,29 +5862,29 @@
         <f>SUM((F11/45)*15)</f>
         <v>2240</v>
       </c>
-      <c r="G16" s="71" t="s">
-        <v>352</v>
+      <c r="G16" s="57" t="s">
+        <v>334</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" s="51" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="J16" s="51">
         <v>0.35</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M16" s="29" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="3:22">
@@ -4931,14 +5903,14 @@
         <f>SUM((E11/50)*100)</f>
         <v>6000</v>
       </c>
-      <c r="G17" s="71" t="s">
-        <v>351</v>
+      <c r="G17" s="57" t="s">
+        <v>333</v>
       </c>
       <c r="H17">
         <v>4</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="J17" s="51">
         <v>0.65</v>
@@ -4972,14 +5944,14 @@
         <f>SUM((G11/40)*60)</f>
         <v>2160</v>
       </c>
-      <c r="G18" s="71" t="s">
-        <v>350</v>
+      <c r="G18" s="57" t="s">
+        <v>332</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" s="51" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="J18" s="51">
         <v>0.8</v>
@@ -4991,10 +5963,10 @@
         <v>76</v>
       </c>
       <c r="N18" s="29" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="O18" s="29" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="3:22">
@@ -5013,20 +5985,20 @@
         <f>SUM(D11-(E11/2)-G11)</f>
         <v>5460</v>
       </c>
-      <c r="G19" s="71">
+      <c r="G19" s="57">
         <v>0</v>
       </c>
       <c r="I19" s="51" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="J19" s="51">
         <v>0.2</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
@@ -5047,14 +6019,14 @@
         <f>SUM((F19/30)*30)</f>
         <v>5460</v>
       </c>
-      <c r="G20" s="71" t="s">
-        <v>349</v>
+      <c r="G20" s="57" t="s">
+        <v>331</v>
       </c>
       <c r="H20">
         <v>4</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="J20" s="54">
         <v>0.85</v>
@@ -5070,7 +6042,7 @@
     </row>
     <row r="21" spans="3:22">
       <c r="C21" s="31" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D21" s="31">
         <f>SUM((I9/45)*15)</f>
@@ -5084,11 +6056,11 @@
         <f>SUM((I11/45)*15)</f>
         <v>480</v>
       </c>
-      <c r="G21" s="72" t="s">
-        <v>353</v>
+      <c r="G21" s="58" t="s">
+        <v>335</v>
       </c>
       <c r="I21" s="53" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J21" s="54">
         <v>0.15</v>
@@ -5118,8 +6090,8 @@
         <f>SUM(((H11*0.85)/22.5)*37.5)</f>
         <v>1700</v>
       </c>
-      <c r="G22" s="71" t="s">
-        <v>354</v>
+      <c r="G22" s="57" t="s">
+        <v>336</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -5131,7 +6103,7 @@
     </row>
     <row r="23" spans="3:22">
       <c r="C23" s="31" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D23" s="31">
         <f>SUM(((H9*0.15)/37.5)*22.5)</f>
@@ -5145,26 +6117,26 @@
         <f>SUM(((H11*0.15)/37.5)*22.5)</f>
         <v>108</v>
       </c>
-      <c r="G23" s="71">
-        <f t="shared" ref="G17:G23" si="0">ROUND(D23/780,0)</f>
+      <c r="G23" s="57">
+        <f t="shared" ref="G23" si="0">ROUND(D23/780,0)</f>
         <v>0</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
+      <c r="I23" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
       <c r="T23" s="32"/>
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
@@ -5177,43 +6149,43 @@
         <v>131</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L24" s="30" t="s">
         <v>132</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N24" s="30" t="s">
         <v>134</v>
       </c>
       <c r="O24" s="30" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="P24" s="30" t="s">
         <v>133</v>
       </c>
       <c r="Q24" s="52" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="R24" s="52" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="S24" s="52" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
     </row>
     <row r="25" spans="3:22" ht="15.75">
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="I25" s="29" t="s">
         <v>121</v>
       </c>
@@ -5221,21 +6193,21 @@
         <v>15</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L25" s="29"/>
       <c r="M25" s="29"/>
       <c r="N25" s="29">
         <v>15</v>
       </c>
-      <c r="O25" s="73">
+      <c r="O25" s="59">
         <v>8</v>
       </c>
       <c r="P25" s="29">
         <f>N25*O25</f>
         <v>120</v>
       </c>
-      <c r="Q25" s="73">
+      <c r="Q25" s="59">
         <v>8</v>
       </c>
       <c r="R25" s="29">
@@ -5251,12 +6223,12 @@
       <c r="V25" s="32"/>
     </row>
     <row r="26" spans="3:22" ht="15.75">
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
       <c r="I26" s="29" t="s">
         <v>122</v>
       </c>
@@ -5264,21 +6236,21 @@
         <v>120</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L26" s="29"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29">
         <v>30</v>
       </c>
-      <c r="O26" s="73">
+      <c r="O26" s="59">
         <v>4</v>
       </c>
       <c r="P26" s="29">
         <f>N26*O26</f>
         <v>120</v>
       </c>
-      <c r="Q26" s="73">
+      <c r="Q26" s="59">
         <v>4</v>
       </c>
       <c r="R26" s="29">
@@ -5311,21 +6283,21 @@
         <v>120</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29">
         <v>20</v>
       </c>
-      <c r="O27" s="73">
+      <c r="O27" s="59">
         <v>4</v>
       </c>
       <c r="P27" s="29">
         <f t="shared" ref="P27:P34" si="3">N27*O27</f>
         <v>80</v>
       </c>
-      <c r="Q27" s="73">
+      <c r="Q27" s="59">
         <v>4</v>
       </c>
       <c r="R27" s="29">
@@ -5356,21 +6328,21 @@
         <v>120</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29">
         <v>50</v>
       </c>
-      <c r="O28" s="73">
+      <c r="O28" s="59">
         <v>10</v>
       </c>
       <c r="P28" s="29">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="Q28" s="73">
+      <c r="Q28" s="59">
         <v>10</v>
       </c>
       <c r="R28" s="29">
@@ -5398,34 +6370,33 @@
         <v>125</v>
       </c>
       <c r="J29" s="29">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
       <c r="N29" s="29">
         <v>5.625</v>
       </c>
-      <c r="O29" s="73">
+      <c r="O29" s="59">
         <f>ROUNDDOWN(SUM(D20/J29),0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P29" s="29">
-        <f t="shared" si="3"/>
-        <v>39.375</v>
-      </c>
-      <c r="Q29" s="73">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="Q29" s="59">
+        <v>10</v>
       </c>
       <c r="R29" s="29">
         <f t="shared" si="1"/>
-        <v>28.125</v>
+        <v>56.25</v>
       </c>
       <c r="S29" s="29">
         <f t="shared" si="2"/>
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="30" spans="3:22" ht="15.75">
@@ -5454,7 +6425,7 @@
       <c r="N30" s="29">
         <v>20</v>
       </c>
-      <c r="O30" s="73">
+      <c r="O30" s="59">
         <f>ROUNDDOWN(SUM(D18*J18)/J30,0)</f>
         <v>48</v>
       </c>
@@ -5462,16 +6433,16 @@
         <f t="shared" si="3"/>
         <v>960</v>
       </c>
-      <c r="Q30" s="73">
-        <v>12</v>
+      <c r="Q30" s="59">
+        <v>48</v>
       </c>
       <c r="R30" s="29">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>960</v>
       </c>
       <c r="S30" s="29">
         <f t="shared" si="2"/>
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:22" ht="15.75">
@@ -5500,7 +6471,7 @@
       <c r="N31" s="29">
         <v>15</v>
       </c>
-      <c r="O31" s="73">
+      <c r="O31" s="59">
         <f>ROUNDDOWN(SUM(D18*J19)/J31,0)</f>
         <v>6</v>
       </c>
@@ -5508,16 +6479,16 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="Q31" s="73">
-        <v>3</v>
+      <c r="Q31" s="59">
+        <v>5</v>
       </c>
       <c r="R31" s="29">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="S31" s="29">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="3:22" ht="15.75">
@@ -5546,7 +6517,7 @@
       <c r="N32" s="29">
         <v>10</v>
       </c>
-      <c r="O32" s="73">
+      <c r="O32" s="59">
         <f>ROUNDDOWN(SUM(D17*J15)/J32,0)</f>
         <v>60</v>
       </c>
@@ -5554,19 +6525,19 @@
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="Q32" s="73">
-        <v>24</v>
+      <c r="Q32" s="59">
+        <v>60</v>
       </c>
       <c r="R32" s="29">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="S32" s="29">
         <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="33" spans="3:20" ht="15.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" ht="15.75">
       <c r="C33" s="29">
         <v>60</v>
       </c>
@@ -5591,12 +6562,12 @@
         <v>3</v>
       </c>
       <c r="M33" s="29" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="N33" s="29">
         <v>90</v>
       </c>
-      <c r="O33" s="73">
+      <c r="O33" s="59">
         <f>ROUNDDOWN(SUM(D21*J16)/L33,0)</f>
         <v>46</v>
       </c>
@@ -5604,7 +6575,7 @@
         <f t="shared" si="3"/>
         <v>4140</v>
       </c>
-      <c r="Q33" s="73">
+      <c r="Q33" s="59">
         <v>16</v>
       </c>
       <c r="R33" s="29">
@@ -5616,7 +6587,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="34" spans="3:20" ht="15.75">
+    <row r="34" spans="3:19" ht="15.75">
       <c r="C34" s="29">
         <v>60</v>
       </c>
@@ -5641,12 +6612,12 @@
         <v>7.5</v>
       </c>
       <c r="M34" s="29" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="N34" s="29">
         <v>90</v>
       </c>
-      <c r="O34" s="73">
+      <c r="O34" s="59">
         <f>ROUNDDOWN(SUM(D21*J17)/L34,0)</f>
         <v>34</v>
       </c>
@@ -5654,7 +6625,7 @@
         <f t="shared" si="3"/>
         <v>3060</v>
       </c>
-      <c r="Q34" s="73">
+      <c r="Q34" s="59">
         <v>14</v>
       </c>
       <c r="R34" s="29">
@@ -5666,7 +6637,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="35" spans="3:20">
+    <row r="35" spans="3:19">
       <c r="C35" s="29">
         <v>60</v>
       </c>
@@ -5679,7 +6650,7 @@
       </c>
       <c r="F35" s="29"/>
     </row>
-    <row r="36" spans="3:20">
+    <row r="36" spans="3:19">
       <c r="C36" s="29">
         <v>60</v>
       </c>
@@ -5692,34 +6663,31 @@
       </c>
       <c r="F36" s="29"/>
       <c r="I36" s="51" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="J36" s="51" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="K36" s="51" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L36" s="51" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="M36" s="51" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="N36" s="51" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="O36" s="51" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P36" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="R36">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="37" spans="3:20">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19">
       <c r="C37" s="29">
         <v>60</v>
       </c>
@@ -5732,7 +6700,7 @@
       </c>
       <c r="F37" s="29"/>
       <c r="I37" s="51" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J37" s="51">
         <v>0.5</v>
@@ -5742,7 +6710,7 @@
         <v>15</v>
       </c>
       <c r="L37" s="51" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="M37" s="51">
         <v>1</v>
@@ -5756,13 +6724,10 @@
         <v>15</v>
       </c>
       <c r="P37" s="51">
-        <v>12</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19">
       <c r="C38" s="29">
         <v>120</v>
       </c>
@@ -5775,7 +6740,7 @@
       </c>
       <c r="F38" s="29"/>
       <c r="I38" s="51" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="J38" s="51">
         <v>0.7</v>
@@ -5785,7 +6750,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="51" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="M38" s="51">
         <v>0.25</v>
@@ -5795,20 +6760,14 @@
         <v>8</v>
       </c>
       <c r="O38" s="51">
-        <f t="shared" ref="O38:O41" si="5">IF(K38&gt;N38,N38,K38)</f>
+        <f t="shared" ref="O38:O40" si="5">IF(K38&gt;N38,N38,K38)</f>
         <v>8</v>
       </c>
       <c r="P38" s="51">
-        <v>12</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>361</v>
-      </c>
-      <c r="S38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="3:20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19">
       <c r="C39" s="29">
         <v>120</v>
       </c>
@@ -5821,17 +6780,17 @@
       </c>
       <c r="F39" s="29"/>
       <c r="I39" s="51" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="J39" s="51">
         <v>1</v>
       </c>
       <c r="K39" s="51">
         <f>ROUNDDOWN(SUM((R29*1)/2),0)</f>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L39" s="51" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M39" s="51">
         <v>0.15</v>
@@ -5845,19 +6804,10 @@
         <v>14</v>
       </c>
       <c r="P39" s="51">
-        <v>12</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>362</v>
-      </c>
-      <c r="S39">
-        <v>1400</v>
-      </c>
-      <c r="T39" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="3:20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19">
       <c r="C40" s="29">
         <v>120</v>
       </c>
@@ -5870,7 +6820,7 @@
       </c>
       <c r="F40" s="29"/>
       <c r="I40" s="51" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J40" s="51">
         <v>0.8</v>
@@ -5880,7 +6830,7 @@
         <v>28</v>
       </c>
       <c r="L40" s="51" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M40" s="51">
         <v>0.25</v>
@@ -5894,16 +6844,10 @@
         <v>16</v>
       </c>
       <c r="P40" s="51">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>365</v>
-      </c>
-      <c r="T40" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="3:20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19">
       <c r="C41" s="29">
         <v>120</v>
       </c>
@@ -5916,7 +6860,7 @@
       </c>
       <c r="F41" s="29"/>
       <c r="I41" s="51" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J41" s="51">
         <v>0.2</v>
@@ -5926,7 +6870,7 @@
         <v>9</v>
       </c>
       <c r="L41" s="51" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="M41" s="51">
         <v>0.17</v>
@@ -5936,23 +6880,13 @@
         <v>16</v>
       </c>
       <c r="O41" s="51">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P41" s="51">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>364</v>
-      </c>
-      <c r="R41" t="s">
-        <v>363</v>
-      </c>
-      <c r="T41" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="3:20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19">
       <c r="C42" s="29">
         <v>120</v>
       </c>
@@ -5965,7 +6899,7 @@
       </c>
       <c r="F42" s="29"/>
       <c r="I42" s="51" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="J42" s="51">
         <v>1</v>
@@ -5974,22 +6908,23 @@
         <v>2</v>
       </c>
       <c r="L42" s="51" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="M42" s="51">
         <v>1</v>
       </c>
       <c r="N42" s="51">
         <f>SUM(O41/2)</f>
-        <v>4.5</v>
-      </c>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="T42" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="43" spans="3:20">
+        <v>8</v>
+      </c>
+      <c r="O42" s="51">
+        <v>8</v>
+      </c>
+      <c r="P42" s="51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19">
       <c r="C43" s="29">
         <v>120</v>
       </c>
@@ -6001,12 +6936,8 @@
         <v>300</v>
       </c>
       <c r="F43" s="29"/>
-      <c r="S43">
-        <f>SUM(S37:S42)</f>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="44" spans="3:20">
+    </row>
+    <row r="44" spans="3:19">
       <c r="C44" s="29">
         <v>120</v>
       </c>
@@ -6019,7 +6950,7 @@
       </c>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="3:20">
+    <row r="45" spans="3:19">
       <c r="C45" s="29">
         <v>120</v>
       </c>
@@ -6031,21 +6962,21 @@
         <v>300</v>
       </c>
       <c r="F45" s="29"/>
-      <c r="I45" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="65"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="65"/>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="65"/>
-      <c r="R45" s="65"/>
-      <c r="S45" s="65"/>
-    </row>
-    <row r="46" spans="3:20">
+      <c r="I45" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="70"/>
+      <c r="R45" s="70"/>
+      <c r="S45" s="70"/>
+    </row>
+    <row r="46" spans="3:19">
       <c r="C46" s="29">
         <v>120</v>
       </c>
@@ -6060,38 +6991,38 @@
       <c r="I46" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="J46" s="30" t="s">
+      <c r="J46" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="K46" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="K46" s="30" t="s">
-        <v>295</v>
-      </c>
       <c r="L46" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="M46" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="M46" s="30" t="s">
-        <v>298</v>
-      </c>
       <c r="N46" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O46" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="O46" s="30" t="s">
-        <v>297</v>
-      </c>
       <c r="P46" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q46" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="Q46" s="52" t="s">
-        <v>303</v>
-      </c>
       <c r="R46" s="52" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="S46" s="52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="3:20">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19">
       <c r="C47" s="29" t="s">
         <v>133</v>
       </c>
@@ -6104,85 +7035,86 @@
       </c>
       <c r="F47" s="29"/>
       <c r="I47" s="29" t="s">
-        <v>327</v>
+        <v>199</v>
       </c>
       <c r="J47" s="29">
+        <f>O47*R47</f>
+        <v>187.5</v>
+      </c>
+      <c r="K47" s="29">
         <v>27.5</v>
       </c>
-      <c r="K47" s="29" t="s">
+      <c r="L47" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="29">
+      <c r="M47" s="29">
         <v>27.5</v>
       </c>
-      <c r="M47" s="29" t="s">
+      <c r="N47" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="N47" s="29">
+      <c r="O47" s="29">
         <v>12.5</v>
       </c>
-      <c r="O47" s="29">
-        <v>8</v>
-      </c>
       <c r="P47" s="29">
-        <f t="shared" ref="P47:P52" si="6">N47*O47</f>
-        <v>100</v>
+        <f>O37</f>
+        <v>15</v>
       </c>
       <c r="Q47" s="29">
-        <v>12</v>
+        <f t="shared" ref="Q47:Q52" si="6">O47*P47</f>
+        <v>187.5</v>
       </c>
       <c r="R47" s="29">
-        <f t="shared" ref="R47:R52" si="7">N47*Q47</f>
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="S47" s="29">
-        <f t="shared" ref="S47:S52" si="8">P47-R47</f>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="48" spans="3:20">
-      <c r="C48" s="59" t="s">
+        <f t="shared" ref="S47:S52" si="7">Q47-J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19">
+      <c r="C48" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="61"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
       <c r="I48" s="29" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J48" s="29">
+        <f>O48*R48</f>
+        <v>32</v>
+      </c>
+      <c r="K48" s="29">
         <v>28</v>
       </c>
-      <c r="K48" s="29" t="s">
+      <c r="L48" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L48" s="29">
+      <c r="M48" s="29">
         <v>20</v>
       </c>
-      <c r="M48" s="29" t="s">
+      <c r="N48" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N48" s="29">
+      <c r="O48" s="29">
         <v>4</v>
       </c>
-      <c r="O48" s="29">
+      <c r="P48" s="29">
         <f>O38</f>
         <v>8</v>
       </c>
-      <c r="P48" s="29">
+      <c r="Q48" s="29">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="Q48" s="29">
-        <v>12</v>
-      </c>
       <c r="R48" s="29">
+        <v>8</v>
+      </c>
+      <c r="S48" s="29">
         <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="S48" s="29">
-        <f t="shared" si="8"/>
-        <v>-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:19">
@@ -6197,41 +7129,41 @@
       </c>
       <c r="F49" s="29"/>
       <c r="I49" s="29" t="s">
-        <v>338</v>
+        <v>201</v>
       </c>
       <c r="J49" s="29">
+        <f>O49*R49</f>
+        <v>42</v>
+      </c>
+      <c r="K49" s="29">
         <v>10</v>
       </c>
-      <c r="K49" s="29" t="s">
+      <c r="L49" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="29">
+      <c r="M49" s="29">
         <v>2</v>
       </c>
-      <c r="M49" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="N49" s="29">
+      <c r="N49" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="O49" s="29">
         <v>3</v>
       </c>
-      <c r="O49" s="29">
+      <c r="P49" s="29">
         <f>N39</f>
         <v>14</v>
       </c>
-      <c r="P49" s="29">
+      <c r="Q49" s="29">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="Q49" s="29">
-        <v>12</v>
-      </c>
       <c r="R49" s="29">
+        <v>14</v>
+      </c>
+      <c r="S49" s="29">
         <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="S49" s="29">
-        <f t="shared" si="8"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:19">
@@ -6247,41 +7179,41 @@
       </c>
       <c r="F50" s="29"/>
       <c r="I50" s="29" t="s">
-        <v>339</v>
+        <v>27</v>
       </c>
       <c r="J50" s="29">
+        <f>SUM((O50*P50)-(J52*2))</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="29">
         <v>15</v>
       </c>
-      <c r="K50" s="29" t="s">
+      <c r="L50" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="29">
+      <c r="M50" s="29">
         <v>40</v>
       </c>
-      <c r="M50" s="29" t="s">
+      <c r="N50" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="N50" s="29">
+      <c r="O50" s="29">
         <v>5</v>
       </c>
-      <c r="O50" s="29">
+      <c r="P50" s="29">
         <f>N40</f>
         <v>16</v>
       </c>
-      <c r="P50" s="29">
+      <c r="Q50" s="29">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="Q50" s="29">
-        <v>4</v>
-      </c>
       <c r="R50" s="29">
+        <v>16</v>
+      </c>
+      <c r="S50" s="29">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="S50" s="29">
-        <f t="shared" si="8"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="3:19">
@@ -6292,46 +7224,46 @@
         <v>2</v>
       </c>
       <c r="E51" s="29">
-        <f t="shared" ref="E51:E55" si="9">C51*D51</f>
+        <f t="shared" ref="E51:E55" si="8">C51*D51</f>
         <v>240</v>
       </c>
       <c r="F51" s="29"/>
       <c r="I51" s="29" t="s">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="J51" s="29">
+        <f>SUM((O51*P51)-(J52*2))</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="29">
         <v>10</v>
       </c>
-      <c r="K51" s="29" t="s">
+      <c r="L51" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L51" s="29">
+      <c r="M51" s="29">
         <v>30</v>
       </c>
-      <c r="M51" s="29" t="s">
+      <c r="N51" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="N51" s="29">
+      <c r="O51" s="29">
         <v>5</v>
       </c>
-      <c r="O51" s="29">
+      <c r="P51" s="29">
         <f>N41</f>
         <v>16</v>
       </c>
-      <c r="P51" s="29">
+      <c r="Q51" s="29">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="Q51" s="29">
-        <v>4</v>
-      </c>
       <c r="R51" s="29">
+        <v>16</v>
+      </c>
+      <c r="S51" s="29">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="S51" s="29">
-        <f t="shared" si="8"/>
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="3:19">
@@ -6342,46 +7274,46 @@
         <v>2</v>
       </c>
       <c r="E52" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="F52" s="29"/>
       <c r="I52" s="29" t="s">
-        <v>342</v>
+        <v>18</v>
       </c>
       <c r="J52" s="29">
+        <f>O52*R52</f>
+        <v>40</v>
+      </c>
+      <c r="K52" s="29">
         <v>10</v>
       </c>
-      <c r="K52" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="L52" s="29">
+      <c r="L52" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="M52" s="29">
         <v>10</v>
       </c>
-      <c r="M52" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="N52" s="29">
+      <c r="N52" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="O52" s="29">
         <v>5</v>
       </c>
-      <c r="O52" s="29">
+      <c r="P52" s="29">
         <f>N42</f>
-        <v>4.5</v>
-      </c>
-      <c r="P52" s="29">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="29">
         <f t="shared" si="6"/>
-        <v>22.5</v>
-      </c>
-      <c r="Q52" s="29">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="R52" s="29">
+        <v>8</v>
+      </c>
+      <c r="S52" s="29">
         <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="S52" s="29">
-        <f t="shared" si="8"/>
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="3:19">
@@ -6392,21 +7324,14 @@
         <v>2</v>
       </c>
       <c r="E53" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="F53" s="29"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="68"/>
+      <c r="I53" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="3:19">
       <c r="C54" s="29">
@@ -6416,21 +7341,14 @@
         <v>2</v>
       </c>
       <c r="E54" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="F54" s="29"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="68"/>
+      <c r="I54" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="J54" s="29"/>
     </row>
     <row r="55" spans="3:19">
       <c r="C55" s="29">
@@ -6440,10 +7358,14 @@
         <v>2</v>
       </c>
       <c r="E55" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="F55" s="29"/>
+      <c r="I55" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="J55" s="29"/>
     </row>
     <row r="56" spans="3:19">
       <c r="C56" s="29" t="s">
@@ -6455,14 +7377,25 @@
         <v>1200</v>
       </c>
       <c r="F56" s="29"/>
+      <c r="I56" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56" s="29"/>
     </row>
     <row r="57" spans="3:19">
-      <c r="C57" s="59" t="s">
+      <c r="C57" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="61"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="66"/>
+      <c r="I57" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="29">
+        <f>R31</f>
+        <v>75</v>
+      </c>
     </row>
     <row r="58" spans="3:19">
       <c r="C58" s="29" t="s">
@@ -6475,11 +7408,10 @@
         <v>144</v>
       </c>
       <c r="F58" s="29"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="J58" s="51"/>
+      <c r="I58" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="3:19">
       <c r="C59" s="29">
@@ -6502,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="29">
-        <f t="shared" ref="E60:E62" si="10">C60*D60</f>
+        <f t="shared" ref="E60:E62" si="9">C60*D60</f>
         <v>60</v>
       </c>
       <c r="F60" s="29"/>
@@ -6515,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="F61" s="29"/>
@@ -6528,7 +7460,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="F62" s="29"/>
@@ -6554,7 +7486,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="29">
-        <f t="shared" ref="E64:E67" si="11">C64*D64</f>
+        <f t="shared" ref="E64:E67" si="10">C64*D64</f>
         <v>60</v>
       </c>
       <c r="F64" s="29"/>
@@ -6567,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="F65" s="29"/>
@@ -6594,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="F67" s="29"/>
@@ -6622,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="29">
-        <f t="shared" ref="E69:E71" si="12">C69*D69</f>
+        <f t="shared" ref="E69:E71" si="11">C69*D69</f>
         <v>120</v>
       </c>
       <c r="F69" s="29"/>
@@ -6636,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="F70" s="29"/>
@@ -6650,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="F71" s="29"/>
@@ -6664,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="29">
-        <f t="shared" ref="E72" si="13">C72*D72</f>
+        <f t="shared" ref="E72" si="12">C72*D72</f>
         <v>240</v>
       </c>
       <c r="F72" s="29"/>
@@ -6683,12 +7615,12 @@
       <c r="S73" s="32"/>
     </row>
     <row r="74" spans="3:19">
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="61"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="66"/>
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="3:19">
@@ -6724,7 +7656,7 @@
         <v>2.5</v>
       </c>
       <c r="E77" s="29">
-        <f t="shared" ref="E77" si="14">C77*D77</f>
+        <f t="shared" ref="E77" si="13">C77*D77</f>
         <v>600</v>
       </c>
       <c r="F77" s="29"/>
@@ -6741,12 +7673,12 @@
       <c r="F78" s="29"/>
     </row>
     <row r="79" spans="3:19">
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="61"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="66"/>
     </row>
     <row r="80" spans="3:19">
       <c r="C80" s="29" t="s">
@@ -6781,7 +7713,7 @@
         <v>2.5</v>
       </c>
       <c r="E82" s="29">
-        <f t="shared" ref="E82" si="15">C82*D82</f>
+        <f t="shared" ref="E82" si="14">C82*D82</f>
         <v>300</v>
       </c>
       <c r="F82" s="29"/>
@@ -6798,12 +7730,12 @@
       <c r="F83" s="29"/>
     </row>
     <row r="84" spans="3:6">
-      <c r="C84" s="59" t="s">
+      <c r="C84" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="61"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="66"/>
     </row>
     <row r="85" spans="3:6">
       <c r="C85" s="29" t="s">
@@ -6842,12 +7774,12 @@
       <c r="F87" s="29"/>
     </row>
     <row r="88" spans="3:6">
-      <c r="C88" s="59" t="s">
+      <c r="C88" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="61"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="66"/>
     </row>
     <row r="89" spans="3:6">
       <c r="C89" s="29" t="s">
@@ -6900,6 +7832,9 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C3:U3"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
     <mergeCell ref="C88:F88"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="C4:J4"/>
@@ -6913,9 +7848,6 @@
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="L14:O14"/>
     <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="C3:U3"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
@@ -6927,764 +7859,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2FA3DA-A5F3-411F-AB6B-7EB05B935F88}">
-  <dimension ref="C2:Q39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.5703125" customWidth="1"/>
-    <col min="15" max="15" width="25.42578125" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:17">
-      <c r="C2" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="O2" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="3:17">
-      <c r="C4" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="O4" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="3:17">
-      <c r="C6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>153</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="M6" t="s">
-        <v>153</v>
-      </c>
-      <c r="O6" t="s">
-        <v>99</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="3:17">
-      <c r="C7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="M7" t="s">
-        <v>154</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="3:17">
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>155</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="M8" t="s">
-        <v>155</v>
-      </c>
-      <c r="O8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="3:17">
-      <c r="C9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I9" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="M9" t="s">
-        <v>156</v>
-      </c>
-      <c r="O9" t="s">
-        <v>159</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="3:17">
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="M10" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" t="s">
-        <v>160</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="3:17">
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I11" t="s">
-        <v>152</v>
-      </c>
-      <c r="K11" t="s">
-        <v>158</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="M11" t="s">
-        <v>158</v>
-      </c>
-      <c r="O11" t="s">
-        <v>161</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="3:17">
-      <c r="C13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="3:17">
-      <c r="C14" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="3:17">
-      <c r="C16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" t="s">
-        <v>112</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="C20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" t="s">
-        <v>196</v>
-      </c>
-      <c r="I20" t="s">
-        <v>163</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="K20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
-      <c r="C24" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="C26" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12">
-      <c r="C28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12">
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="C30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" t="s">
-        <v>172</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12">
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" t="s">
-        <v>173</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12">
-      <c r="C32" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" t="s">
-        <v>193</v>
-      </c>
-      <c r="G32" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I32" t="s">
-        <v>174</v>
-      </c>
-      <c r="L32" s="34"/>
-    </row>
-    <row r="33" spans="3:12">
-      <c r="C33" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" t="s">
-        <v>186</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I33" t="s">
-        <v>186</v>
-      </c>
-      <c r="L33" s="34"/>
-    </row>
-    <row r="36" spans="3:12">
-      <c r="C36" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12">
-      <c r="C37" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12">
-      <c r="C38" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12">
-      <c r="C39" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A4D7D-2B40-4F26-A6BD-214006A713CE}">
-  <dimension ref="C3:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="66"/>
-    </row>
-    <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="67"/>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="17">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="67"/>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="17">
-        <v>0</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="17">
-        <v>1</v>
-      </c>
-      <c r="D13" s="16">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="17">
-        <v>2</v>
-      </c>
-      <c r="D14" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="17">
-        <v>3</v>
-      </c>
-      <c r="D15" s="16">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="67"/>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="17">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="17">
-        <v>2</v>
-      </c>
-      <c r="D20" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="17">
-        <v>3</v>
-      </c>
-      <c r="D21" s="16">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C4:D4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF8A696-8AA1-4FF1-9F8D-FD92E0F085FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF0AAE-E7F7-41AC-B82D-92979276AEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -1632,6 +1632,29 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1671,29 +1694,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -2017,6 +2017,50 @@
         <a:xfrm>
           <a:off x="14192250" y="802821"/>
           <a:ext cx="17378480" cy="6838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>142008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0987DD-9C07-4DA4-A6E2-EFF6FD59FC14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14192250" y="8327570"/>
+          <a:ext cx="17634857" cy="9476509"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2912,16 +2956,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="63"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="12" t="s">
@@ -2956,10 +3000,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="53"/>
+      <c r="D10" s="64"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="11" t="s">
@@ -3002,10 +3046,10 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="64"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="11" t="s">
@@ -3058,7 +3102,7 @@
   </sheetPr>
   <dimension ref="C1:V96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -3148,7 +3192,7 @@
       </c>
     </row>
     <row r="4" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -3188,15 +3232,15 @@
       <c r="R4" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="T4" s="63" t="s">
+      <c r="T4" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="46" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="5" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -3237,7 +3281,7 @@
         <v>235</v>
       </c>
       <c r="U5" s="21"/>
-      <c r="V5" s="63" t="s">
+      <c r="V5" s="45" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3274,7 +3318,7 @@
         <v>20</v>
       </c>
       <c r="U6" s="21"/>
-      <c r="V6" s="63" t="s">
+      <c r="V6" s="45" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3310,7 +3354,7 @@
       <c r="R7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="56" t="s">
+      <c r="T7" s="41" t="s">
         <v>328</v>
       </c>
       <c r="V7" s="28" t="s">
@@ -3373,7 +3417,7 @@
         <v>159</v>
       </c>
       <c r="S9" s="21"/>
-      <c r="T9" s="63" t="s">
+      <c r="T9" s="45" t="s">
         <v>46</v>
       </c>
       <c r="U9" s="21"/>
@@ -3463,7 +3507,7 @@
       <c r="R12" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="T12" s="63" t="s">
+      <c r="T12" s="45" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3497,7 +3541,7 @@
       <c r="U13" s="21"/>
     </row>
     <row r="14" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -3540,7 +3584,7 @@
         <v>235</v>
       </c>
       <c r="S15" s="21"/>
-      <c r="T15" s="63" t="s">
+      <c r="T15" s="45" t="s">
         <v>47</v>
       </c>
       <c r="U15" s="21"/>
@@ -3568,7 +3612,7 @@
       </c>
     </row>
     <row r="17" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="24" t="s">
@@ -3611,7 +3655,7 @@
       <c r="U18" s="21"/>
     </row>
     <row r="19" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -3652,7 +3696,7 @@
         <v>287</v>
       </c>
       <c r="S20" s="21"/>
-      <c r="T20" s="63" t="s">
+      <c r="T20" s="45" t="s">
         <v>274</v>
       </c>
       <c r="U20" s="21"/>
@@ -3693,7 +3737,7 @@
       <c r="U22" s="21"/>
     </row>
     <row r="23" spans="3:21" ht="19.5" thickBot="1">
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="41" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -3725,7 +3769,7 @@
         <v>281</v>
       </c>
       <c r="S23" s="21"/>
-      <c r="T23" s="56" t="s">
+      <c r="T23" s="41" t="s">
         <v>332</v>
       </c>
       <c r="U23" s="21"/>
@@ -3749,7 +3793,7 @@
         <v>14</v>
       </c>
       <c r="Q24" s="21"/>
-      <c r="R24" s="56" t="s">
+      <c r="R24" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S24" s="21"/>
@@ -3786,7 +3830,7 @@
       <c r="U26" s="21"/>
     </row>
     <row r="27" spans="3:21" ht="19.5" thickBot="1">
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -3850,7 +3894,7 @@
       </c>
     </row>
     <row r="31" spans="3:21" ht="18.75">
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="41" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="24" t="s">
@@ -3861,7 +3905,7 @@
       </c>
     </row>
     <row r="32" spans="3:21" ht="18.75">
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="41" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="25" t="s">
@@ -3878,13 +3922,13 @@
       </c>
     </row>
     <row r="33" spans="3:18" ht="18.75">
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="41" t="s">
         <v>144</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="56" t="s">
+      <c r="M33" s="41" t="s">
         <v>332</v>
       </c>
       <c r="R33" s="28" t="s">
@@ -3892,13 +3936,13 @@
       </c>
     </row>
     <row r="34" spans="3:18" ht="18.75">
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="41" t="s">
         <v>332</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R34" s="56" t="s">
+      <c r="R34" s="41" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3913,16 +3957,16 @@
       </c>
     </row>
     <row r="39" spans="3:18" ht="30" customHeight="1">
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D39" s="61"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40" spans="3:18" ht="18.75">
       <c r="C40" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="D40" s="62">
+      <c r="D40" s="44">
         <v>1</v>
       </c>
     </row>
@@ -3930,7 +3974,7 @@
       <c r="C41" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="62">
+      <c r="D41" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -3938,7 +3982,7 @@
       <c r="C42" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="62">
+      <c r="D42" s="44">
         <v>0.35</v>
       </c>
     </row>
@@ -3946,7 +3990,7 @@
       <c r="C43" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="62">
+      <c r="D43" s="44">
         <v>0.65</v>
       </c>
     </row>
@@ -3954,7 +3998,7 @@
       <c r="C44" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="62">
+      <c r="D44" s="44">
         <v>0.8</v>
       </c>
     </row>
@@ -3962,7 +4006,7 @@
       <c r="C45" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="D45" s="62">
+      <c r="D45" s="44">
         <v>0.2</v>
       </c>
     </row>
@@ -3970,7 +4014,7 @@
       <c r="C46" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="D46" s="62">
+      <c r="D46" s="44">
         <v>0.85</v>
       </c>
     </row>
@@ -3978,7 +4022,7 @@
       <c r="C47" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="62">
+      <c r="D47" s="44">
         <v>0.15</v>
       </c>
     </row>
@@ -3986,7 +4030,7 @@
       <c r="C48" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="D48" s="62">
+      <c r="D48" s="44">
         <v>0.9</v>
       </c>
     </row>
@@ -3994,7 +4038,7 @@
       <c r="C49" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D49" s="62">
+      <c r="D49" s="44">
         <v>0.05</v>
       </c>
     </row>
@@ -4002,7 +4046,7 @@
       <c r="C50" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="D50" s="62">
+      <c r="D50" s="44">
         <v>0.05</v>
       </c>
     </row>
@@ -4010,10 +4054,10 @@
       <c r="C51" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="D51" s="62">
+      <c r="D51" s="44">
         <v>1</v>
       </c>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="41" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4114,7 +4158,7 @@
       <c r="F61" s="26">
         <v>0.05</v>
       </c>
-      <c r="H61" s="56" t="s">
+      <c r="H61" s="41" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4145,7 +4189,7 @@
       <c r="F63" s="26">
         <v>0.01</v>
       </c>
-      <c r="H63" s="56" t="s">
+      <c r="H63" s="41" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4164,7 +4208,7 @@
       </c>
     </row>
     <row r="65" spans="3:8" ht="18.75">
-      <c r="H65" s="56" t="s">
+      <c r="H65" s="41" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4223,7 +4267,7 @@
         <v>0.25</v>
       </c>
       <c r="G71" s="9"/>
-      <c r="H71" s="56" t="s">
+      <c r="H71" s="41" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4236,7 +4280,7 @@
       </c>
       <c r="E72" s="7"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="56" t="s">
+      <c r="H72" s="41" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4328,127 +4372,127 @@
       </c>
     </row>
     <row r="83" spans="3:8" ht="18.75">
-      <c r="C83" s="63" t="s">
+      <c r="C83" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="D83" s="63">
+      <c r="D83" s="45">
         <v>0.99</v>
       </c>
-      <c r="E83" s="63" t="s">
+      <c r="E83" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="F83" s="63">
+      <c r="F83" s="45">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="84" spans="3:8" ht="18.75">
-      <c r="C84" s="63" t="s">
+      <c r="C84" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="D84" s="63">
+      <c r="D84" s="45">
         <v>0.6</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="18.75">
-      <c r="C86" s="63" t="s">
+      <c r="C86" s="45" t="s">
         <v>320</v>
       </c>
-      <c r="D86" s="63">
+      <c r="D86" s="45">
         <v>0.25</v>
       </c>
-      <c r="E86" s="63" t="s">
+      <c r="E86" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="F86" s="63">
+      <c r="F86" s="45">
         <v>0.45</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="18.75">
-      <c r="C88" s="63" t="s">
+      <c r="C88" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="D88" s="63">
+      <c r="D88" s="45">
         <v>1</v>
       </c>
-      <c r="E88" s="63" t="s">
+      <c r="E88" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="F88" s="63">
+      <c r="F88" s="45">
         <v>0.8</v>
       </c>
-      <c r="H88" s="63" t="s">
+      <c r="H88" s="45" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="18.75">
-      <c r="C89" s="63" t="s">
+      <c r="C89" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="D89" s="63">
+      <c r="D89" s="45">
         <v>1</v>
       </c>
-      <c r="E89" s="63" t="s">
+      <c r="E89" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="F89" s="63">
+      <c r="F89" s="45">
         <v>0.15</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="18.75">
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="D91" s="63">
+      <c r="D91" s="45">
         <v>0.5</v>
       </c>
-      <c r="E91" s="63" t="s">
+      <c r="E91" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="F91" s="63">
+      <c r="F91" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="3:8" ht="18.75">
-      <c r="C92" s="63" t="s">
+      <c r="C92" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="D92" s="63">
+      <c r="D92" s="45">
         <v>0.4</v>
       </c>
     </row>
     <row r="94" spans="3:8" ht="18.75">
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="D94" s="64">
+      <c r="D94" s="46">
         <v>1</v>
       </c>
-      <c r="E94" s="64" t="s">
+      <c r="E94" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="F94" s="64">
+      <c r="F94" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="18.75">
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="D95" s="64">
+      <c r="D95" s="46">
         <v>0.5</v>
       </c>
-      <c r="E95" s="64" t="s">
+      <c r="E95" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="F95" s="64">
+      <c r="F95" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="3:8" ht="18.75">
-      <c r="C96" s="64" t="s">
+      <c r="C96" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="D96" s="64">
+      <c r="D96" s="46">
         <v>0.25</v>
       </c>
     </row>
@@ -4465,8 +4509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A2:AZ44"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="V58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC66" sqref="BC66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4476,247 +4520,247 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="Y2" s="55" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="Y2" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
-      <c r="AQ2" s="55"/>
-      <c r="AR2" s="55"/>
-      <c r="AS2" s="55"/>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
     </row>
     <row r="3" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="55"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="55"/>
-      <c r="AR3" s="55"/>
-      <c r="AS3" s="55"/>
-      <c r="AT3" s="55"/>
-      <c r="AU3" s="55"/>
-      <c r="AV3" s="55"/>
-      <c r="AW3" s="55"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="55"/>
-      <c r="AZ3" s="55"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
     </row>
     <row r="4" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
     </row>
     <row r="5" spans="1:52" ht="15.75" thickTop="1"/>
     <row r="19" ht="9.75" customHeight="1"/>
     <row r="39" spans="25:52" ht="12" customHeight="1"/>
     <row r="42" spans="25:52">
-      <c r="Y42" s="55" t="s">
+      <c r="Y42" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="55"/>
-      <c r="AG42" s="55"/>
-      <c r="AH42" s="55"/>
-      <c r="AI42" s="55"/>
-      <c r="AJ42" s="55"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="55"/>
-      <c r="AN42" s="55"/>
-      <c r="AO42" s="55"/>
-      <c r="AP42" s="55"/>
-      <c r="AQ42" s="55"/>
-      <c r="AR42" s="55"/>
-      <c r="AS42" s="55"/>
-      <c r="AT42" s="55"/>
-      <c r="AU42" s="55"/>
-      <c r="AV42" s="55"/>
-      <c r="AW42" s="55"/>
-      <c r="AX42" s="55"/>
-      <c r="AY42" s="55"/>
-      <c r="AZ42" s="55"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
+      <c r="AH42" s="50"/>
+      <c r="AI42" s="50"/>
+      <c r="AJ42" s="50"/>
+      <c r="AK42" s="50"/>
+      <c r="AL42" s="50"/>
+      <c r="AM42" s="50"/>
+      <c r="AN42" s="50"/>
+      <c r="AO42" s="50"/>
+      <c r="AP42" s="50"/>
+      <c r="AQ42" s="50"/>
+      <c r="AR42" s="50"/>
+      <c r="AS42" s="50"/>
+      <c r="AT42" s="50"/>
+      <c r="AU42" s="50"/>
+      <c r="AV42" s="50"/>
+      <c r="AW42" s="50"/>
+      <c r="AX42" s="50"/>
+      <c r="AY42" s="50"/>
+      <c r="AZ42" s="50"/>
     </row>
     <row r="43" spans="25:52">
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="55"/>
-      <c r="AA43" s="55"/>
-      <c r="AB43" s="55"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="55"/>
-      <c r="AE43" s="55"/>
-      <c r="AF43" s="55"/>
-      <c r="AG43" s="55"/>
-      <c r="AH43" s="55"/>
-      <c r="AI43" s="55"/>
-      <c r="AJ43" s="55"/>
-      <c r="AK43" s="55"/>
-      <c r="AL43" s="55"/>
-      <c r="AM43" s="55"/>
-      <c r="AN43" s="55"/>
-      <c r="AO43" s="55"/>
-      <c r="AP43" s="55"/>
-      <c r="AQ43" s="55"/>
-      <c r="AR43" s="55"/>
-      <c r="AS43" s="55"/>
-      <c r="AT43" s="55"/>
-      <c r="AU43" s="55"/>
-      <c r="AV43" s="55"/>
-      <c r="AW43" s="55"/>
-      <c r="AX43" s="55"/>
-      <c r="AY43" s="55"/>
-      <c r="AZ43" s="55"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="50"/>
+      <c r="AF43" s="50"/>
+      <c r="AG43" s="50"/>
+      <c r="AH43" s="50"/>
+      <c r="AI43" s="50"/>
+      <c r="AJ43" s="50"/>
+      <c r="AK43" s="50"/>
+      <c r="AL43" s="50"/>
+      <c r="AM43" s="50"/>
+      <c r="AN43" s="50"/>
+      <c r="AO43" s="50"/>
+      <c r="AP43" s="50"/>
+      <c r="AQ43" s="50"/>
+      <c r="AR43" s="50"/>
+      <c r="AS43" s="50"/>
+      <c r="AT43" s="50"/>
+      <c r="AU43" s="50"/>
+      <c r="AV43" s="50"/>
+      <c r="AW43" s="50"/>
+      <c r="AX43" s="50"/>
+      <c r="AY43" s="50"/>
+      <c r="AZ43" s="50"/>
     </row>
     <row r="44" spans="25:52">
-      <c r="Y44" s="55"/>
-      <c r="Z44" s="55"/>
-      <c r="AA44" s="55"/>
-      <c r="AB44" s="55"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="55"/>
-      <c r="AE44" s="55"/>
-      <c r="AF44" s="55"/>
-      <c r="AG44" s="55"/>
-      <c r="AH44" s="55"/>
-      <c r="AI44" s="55"/>
-      <c r="AJ44" s="55"/>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="55"/>
-      <c r="AM44" s="55"/>
-      <c r="AN44" s="55"/>
-      <c r="AO44" s="55"/>
-      <c r="AP44" s="55"/>
-      <c r="AQ44" s="55"/>
-      <c r="AR44" s="55"/>
-      <c r="AS44" s="55"/>
-      <c r="AT44" s="55"/>
-      <c r="AU44" s="55"/>
-      <c r="AV44" s="55"/>
-      <c r="AW44" s="55"/>
-      <c r="AX44" s="55"/>
-      <c r="AY44" s="55"/>
-      <c r="AZ44" s="55"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="50"/>
+      <c r="AA44" s="50"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
+      <c r="AH44" s="50"/>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="50"/>
+      <c r="AK44" s="50"/>
+      <c r="AL44" s="50"/>
+      <c r="AM44" s="50"/>
+      <c r="AN44" s="50"/>
+      <c r="AO44" s="50"/>
+      <c r="AP44" s="50"/>
+      <c r="AQ44" s="50"/>
+      <c r="AR44" s="50"/>
+      <c r="AS44" s="50"/>
+      <c r="AT44" s="50"/>
+      <c r="AU44" s="50"/>
+      <c r="AV44" s="50"/>
+      <c r="AW44" s="50"/>
+      <c r="AX44" s="50"/>
+      <c r="AY44" s="50"/>
+      <c r="AZ44" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4786,7 +4830,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5" ht="18.75">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="41" t="s">
         <v>216</v>
       </c>
       <c r="D3" s="26" t="s">
@@ -4797,7 +4841,7 @@
       </c>
     </row>
     <row r="6" spans="3:5" ht="18.75">
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="41" t="s">
         <v>217</v>
       </c>
       <c r="D6" s="26" t="s">
@@ -4813,7 +4857,7 @@
       </c>
     </row>
     <row r="9" spans="3:5" ht="18.75">
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="41" t="s">
         <v>222</v>
       </c>
       <c r="D9" s="26" t="s">
@@ -4821,7 +4865,7 @@
       </c>
     </row>
     <row r="10" spans="3:5" ht="18.75">
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="41" t="s">
         <v>223</v>
       </c>
       <c r="D10" s="26" t="s">
@@ -4829,7 +4873,7 @@
       </c>
     </row>
     <row r="12" spans="3:5" ht="18.75">
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="41" t="s">
         <v>226</v>
       </c>
       <c r="D12" s="26" t="s">
@@ -4840,7 +4884,7 @@
       </c>
     </row>
     <row r="13" spans="3:5" ht="18.75">
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="41" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4879,49 +4923,49 @@
       <c r="A1" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" ht="21">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="42" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="43" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5097,42 +5141,42 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="21">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="J11" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="L11" s="42" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="43" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5314,39 +5358,39 @@
       <c r="A20" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="42" t="s">
         <v>272</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="42" t="s">
         <v>271</v>
       </c>
       <c r="E20" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="42" t="s">
         <v>265</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="42" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="58" t="s">
+      <c r="H21" s="43" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5441,24 +5485,24 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="21">
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="42" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.75">
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="43" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5561,39 +5605,39 @@
     <row r="1" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="2" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="3" spans="3:21" ht="23.25">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="3:21">
       <c r="C5" s="14" t="s">
@@ -5620,14 +5664,14 @@
       <c r="J5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="L5" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="15" t="s">
@@ -5908,23 +5952,23 @@
       <c r="F13" s="36"/>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="I14" s="47" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="I14" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="L14" s="49" t="s">
+      <c r="J14" s="59"/>
+      <c r="L14" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
     </row>
     <row r="15" spans="3:21">
       <c r="C15" s="16" t="s">
@@ -6239,19 +6283,19 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
@@ -6295,12 +6339,12 @@
       <c r="V24" s="18"/>
     </row>
     <row r="25" spans="3:22" ht="15.75">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="I25" s="15" t="s">
         <v>101</v>
       </c>
@@ -6338,12 +6382,12 @@
       <c r="V25" s="18"/>
     </row>
     <row r="26" spans="3:22" ht="15.75">
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="57"/>
       <c r="I26" s="15" t="s">
         <v>102</v>
       </c>
@@ -7077,19 +7121,19 @@
         <v>300</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="I45" s="49" t="s">
+      <c r="I45" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="50"/>
-      <c r="Q45" s="50"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="50"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
     </row>
     <row r="46" spans="3:19">
       <c r="C46" s="15">
@@ -7188,12 +7232,12 @@
       </c>
     </row>
     <row r="48" spans="3:19">
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="46"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="57"/>
       <c r="I48" s="15" t="s">
         <v>214</v>
       </c>
@@ -7498,12 +7542,12 @@
       <c r="J56" s="15"/>
     </row>
     <row r="57" spans="3:19">
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="46"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="57"/>
       <c r="I57" s="15" t="s">
         <v>3</v>
       </c>
@@ -7730,12 +7774,12 @@
       <c r="S73" s="18"/>
     </row>
     <row r="74" spans="3:19">
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="46"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="57"/>
       <c r="S74" s="18"/>
     </row>
     <row r="75" spans="3:19">
@@ -7788,12 +7832,12 @@
       <c r="F78" s="15"/>
     </row>
     <row r="79" spans="3:19">
-      <c r="C79" s="44" t="s">
+      <c r="C79" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="46"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="57"/>
     </row>
     <row r="80" spans="3:19">
       <c r="C80" s="15" t="s">
@@ -7845,12 +7889,12 @@
       <c r="F83" s="15"/>
     </row>
     <row r="84" spans="3:6">
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="46"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="57"/>
     </row>
     <row r="85" spans="3:6">
       <c r="C85" s="15" t="s">
@@ -7889,12 +7933,12 @@
       <c r="F87" s="15"/>
     </row>
     <row r="88" spans="3:6">
-      <c r="C88" s="44" t="s">
+      <c r="C88" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="46"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="57"/>
     </row>
     <row r="89" spans="3:6">
       <c r="C89" s="15" t="s">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAF0AAE-E7F7-41AC-B82D-92979276AEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F26824-6A56-4634-AB69-539563988DAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0300D31-1C30-4613-A7FA-F68A9EA7C6AF}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="355">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -1093,6 +1094,21 @@
   </si>
   <si>
     <t>Turbo Motor, Stator %</t>
+  </si>
+  <si>
+    <t>Requirements:</t>
+  </si>
+  <si>
+    <t>1500 Iron</t>
+  </si>
+  <si>
+    <t>3300 Water</t>
+  </si>
+  <si>
+    <t>1500 Coal</t>
+  </si>
+  <si>
+    <t>Possible from Local Nodes w/ Mk3 Miners:</t>
   </si>
 </sst>
 </file>
@@ -2374,7 +2390,10 @@
   </sheetPr>
   <dimension ref="C1:U44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2948,6 +2967,7 @@
   <dimension ref="C3:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3102,8 +3122,11 @@
   </sheetPr>
   <dimension ref="C1:V96"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView topLeftCell="B79" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="1">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4509,9 +4532,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A2:AZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC66" sqref="BC66"/>
+    <sheetView tabSelected="1" topLeftCell="AE4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4776,12 +4800,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA0751C-1EB6-4741-8406-B680E49C7543}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4">
+        <v>2040</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5">
+        <v>3120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6">
+        <v>2520</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="E7">
+        <v>900</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -4792,6 +4872,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -4805,6 +4886,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -4818,6 +4900,7 @@
   <dimension ref="C3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4899,6 +4982,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5576,6 +5660,7 @@
   <dimension ref="C1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F26824-6A56-4634-AB69-539563988DAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E131E49-4E21-49AA-9DCC-C29C64E3650A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B0300D31-1C30-4613-A7FA-F68A9EA7C6AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="780" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="352">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -1096,19 +1095,10 @@
     <t>Turbo Motor, Stator %</t>
   </si>
   <si>
-    <t>Requirements:</t>
-  </si>
-  <si>
-    <t>1500 Iron</t>
-  </si>
-  <si>
-    <t>3300 Water</t>
-  </si>
-  <si>
-    <t>1500 Coal</t>
-  </si>
-  <si>
-    <t>Possible from Local Nodes w/ Mk3 Miners:</t>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Miner Multiplier</t>
   </si>
 </sst>
 </file>
@@ -2001,50 +1991,6 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>233480</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>75345</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8824223C-79B9-4F4F-8E87-A7F182E76A1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14192250" y="802821"/>
-          <a:ext cx="17378480" cy="6838095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
@@ -2068,7 +2014,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2077,6 +2023,50 @@
         <a:xfrm>
           <a:off x="14192250" y="8327570"/>
           <a:ext cx="17634857" cy="9476509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D09EB7-C9F6-4E06-9C71-1CE35494ADF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14192250" y="802821"/>
+          <a:ext cx="15757071" cy="6966284"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2393,7 +2383,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2966,8 +2955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A4D7D-2B40-4F26-A6BD-214006A713CE}">
   <dimension ref="C3:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3122,11 +3112,8 @@
   </sheetPr>
   <dimension ref="C1:V96"/>
   <sheetViews>
-    <sheetView topLeftCell="B79" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="K7" workbookViewId="1">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4532,10 +4519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A2:AZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V46" sqref="V46"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA17" sqref="BA17"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4800,68 +4786,524 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA0751C-1EB6-4741-8406-B680E49C7543}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="M2:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+    <row r="2" spans="13:17">
+      <c r="M2" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+    </row>
+    <row r="3" spans="13:17">
+      <c r="M3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="13:17">
+      <c r="M4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="15">
+        <v>6</v>
+      </c>
+      <c r="O4" s="15">
+        <v>1</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="13:17">
+      <c r="M5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1</v>
+      </c>
+      <c r="P5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="13:17">
+      <c r="M6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="13:17">
+      <c r="M7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="15">
+        <f>P18</f>
+        <v>2520</v>
+      </c>
+      <c r="O7" s="15">
+        <f>P23</f>
+        <v>900</v>
+      </c>
+      <c r="P7" s="15">
+        <f>P29</f>
+        <v>2040</v>
+      </c>
+      <c r="Q7" s="15">
+        <f>P37</f>
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="8" spans="13:17">
+      <c r="M8" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+    </row>
+    <row r="9" spans="13:17">
+      <c r="M9" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+    </row>
+    <row r="10" spans="13:17">
+      <c r="M10" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="E4">
+      <c r="P10" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="13:17">
+      <c r="M11" s="15">
+        <v>30</v>
+      </c>
+      <c r="N11" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O11" s="15">
+        <v>4</v>
+      </c>
+      <c r="P11" s="15">
+        <f>M11*N11*O11</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="13:17">
+      <c r="M12" s="15">
+        <v>30</v>
+      </c>
+      <c r="N12" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O12" s="15">
+        <v>4</v>
+      </c>
+      <c r="P12" s="15">
+        <f t="shared" ref="P12:P17" si="0">M12*N12*O12</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="13:17">
+      <c r="M13" s="15">
+        <v>30</v>
+      </c>
+      <c r="N13" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O13" s="15">
+        <v>4</v>
+      </c>
+      <c r="P13" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="13:17">
+      <c r="M14" s="15">
+        <v>30</v>
+      </c>
+      <c r="N14" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O14" s="15">
+        <v>4</v>
+      </c>
+      <c r="P14" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="13:17">
+      <c r="M15" s="15">
+        <v>30</v>
+      </c>
+      <c r="N15" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O15" s="15">
+        <v>4</v>
+      </c>
+      <c r="P15" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="13:17">
+      <c r="M16" s="15">
+        <v>30</v>
+      </c>
+      <c r="N16" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O16" s="15">
+        <v>4</v>
+      </c>
+      <c r="P16" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="13:16">
+      <c r="M17" s="15">
+        <v>120</v>
+      </c>
+      <c r="N17" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="O17" s="15">
+        <v>4</v>
+      </c>
+      <c r="P17" s="15">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="18" spans="13:16">
+      <c r="M18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15">
+        <f>SUM(P11:P17)</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="19" spans="13:16">
+      <c r="M19" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
+    </row>
+    <row r="20" spans="13:16">
+      <c r="M20" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="13:16">
+      <c r="M21" s="15">
+        <v>30</v>
+      </c>
+      <c r="N21" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O21" s="15">
+        <v>4</v>
+      </c>
+      <c r="P21" s="15">
+        <f>M21*N21*O21</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="13:16">
+      <c r="M22" s="15">
+        <v>60</v>
+      </c>
+      <c r="N22" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O22" s="15">
+        <v>4</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" ref="P22" si="1">M22*N22*O22</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="13:16">
+      <c r="M23" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15">
+        <f>SUM(P21:P22)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="13:16">
+      <c r="M24" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="57"/>
+    </row>
+    <row r="25" spans="13:16">
+      <c r="M25" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="13:16">
+      <c r="M26" s="15">
+        <v>60</v>
+      </c>
+      <c r="N26" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O26" s="15">
+        <v>4</v>
+      </c>
+      <c r="P26" s="15">
+        <f>M26*N26*O26</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="13:16">
+      <c r="M27" s="15">
+        <v>120</v>
+      </c>
+      <c r="N27" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="O27" s="15">
+        <v>4</v>
+      </c>
+      <c r="P27" s="15">
+        <f t="shared" ref="P27" si="2">M27*N27*O27</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="28" spans="13:16">
+      <c r="M28" s="15">
+        <v>120</v>
+      </c>
+      <c r="N28" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="O28" s="15">
+        <v>4</v>
+      </c>
+      <c r="P28" s="15">
+        <f t="shared" ref="P28" si="3">M28*N28*O28</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="29" spans="13:16">
+      <c r="M29" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15">
+        <f>SUM(P26:P28)</f>
         <v>2040</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5">
+    </row>
+    <row r="30" spans="13:16">
+      <c r="M30" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="57"/>
+    </row>
+    <row r="31" spans="13:16">
+      <c r="M31" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="13:16">
+      <c r="M32" s="15">
+        <v>60</v>
+      </c>
+      <c r="N32" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O32" s="15">
+        <v>4</v>
+      </c>
+      <c r="P32" s="15">
+        <f>M32*N32*O32</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="13:16">
+      <c r="M33" s="15">
+        <v>60</v>
+      </c>
+      <c r="N33" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O33" s="15">
+        <v>4</v>
+      </c>
+      <c r="P33" s="15">
+        <f t="shared" ref="P33:P34" si="4">M33*N33*O33</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="13:16">
+      <c r="M34" s="15">
+        <v>60</v>
+      </c>
+      <c r="N34" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O34" s="15">
+        <v>4</v>
+      </c>
+      <c r="P34" s="15">
+        <f t="shared" ref="P34:P35" si="5">M34*N34*O34</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="13:16">
+      <c r="M35" s="15">
+        <v>60</v>
+      </c>
+      <c r="N35" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="O35" s="15">
+        <v>4</v>
+      </c>
+      <c r="P35" s="15">
+        <f t="shared" si="5"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="13:16">
+      <c r="M36" s="15">
+        <v>120</v>
+      </c>
+      <c r="N36" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="O36" s="15">
+        <v>4</v>
+      </c>
+      <c r="P36" s="15">
+        <f>M36*N36*O36</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="37" spans="13:16">
+      <c r="M37" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15">
+        <f>SUM(P32:P36)</f>
         <v>3120</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>353</v>
-      </c>
-      <c r="E6">
-        <v>2520</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="E7">
-        <v>900</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -4872,7 +5314,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -4886,7 +5327,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -4899,8 +5339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0353B9-1CC2-4B24-B610-97234758C445}">
   <dimension ref="C3:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4982,7 +5423,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5659,8 +6099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
   <dimension ref="C1:V92"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:F78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5922,7 +6363,7 @@
       </c>
       <c r="H9" s="15">
         <f>E83</f>
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="I9" s="15">
         <f>E92</f>
@@ -6322,9 +6763,8 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="17">
-        <f>SUM(((H9*0.85)/22.5)*37.5)</f>
-        <v>850</v>
+      <c r="D22" s="17" t="s">
+        <v>350</v>
       </c>
       <c r="E22" s="17">
         <f>SUM(((H10*0.85)/22.5)*37.5)</f>
@@ -6351,7 +6791,7 @@
       </c>
       <c r="D23" s="17">
         <f>SUM(((H9*0.15)/37.5)*22.5)</f>
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="E23" s="17">
         <f>SUM(((H10*0.15)/37.5)*22.5)</f>
@@ -6949,9 +7389,9 @@
       <c r="J37" s="32">
         <v>0.5</v>
       </c>
-      <c r="K37" s="32">
+      <c r="K37" s="32" t="e">
         <f>ROUNDDOWN(SUM((D22*0.5)/27.5),0)</f>
-        <v>15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>189</v>
@@ -6963,9 +7403,9 @@
         <f>ROUNDDOWN(SUM((P32*1)/27.5),0)</f>
         <v>21</v>
       </c>
-      <c r="O37" s="32">
+      <c r="O37" s="32" t="e">
         <f>IF(K37&gt;N37,N37,K37)</f>
-        <v>15</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P37" s="32">
         <v>15</v>
@@ -7300,20 +7740,20 @@
       <c r="O47" s="15">
         <v>12.5</v>
       </c>
-      <c r="P47" s="15">
+      <c r="P47" s="15" t="e">
         <f>O37</f>
-        <v>15</v>
-      </c>
-      <c r="Q47" s="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q47" s="15" t="e">
         <f t="shared" ref="Q47:Q52" si="6">O47*P47</f>
-        <v>187.5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R47" s="15">
         <v>15</v>
       </c>
-      <c r="S47" s="15">
+      <c r="S47" s="15" t="e">
         <f t="shared" ref="S47:S52" si="7">Q47-J47</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="3:19">
@@ -7938,27 +8378,27 @@
     </row>
     <row r="81" spans="3:6">
       <c r="C81" s="15">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D81" s="15">
         <v>2.5</v>
       </c>
       <c r="E81" s="15">
         <f>C81*D81</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F81" s="15"/>
     </row>
     <row r="82" spans="3:6">
       <c r="C82" s="15">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D82" s="15">
         <v>2.5</v>
       </c>
       <c r="E82" s="15">
         <f t="shared" ref="E82" si="14">C82*D82</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F82" s="15"/>
     </row>
@@ -7969,7 +8409,7 @@
       <c r="D83" s="15"/>
       <c r="E83" s="15">
         <f>SUM(E81:E82)</f>
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F83" s="15"/>
     </row>

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E131E49-4E21-49AA-9DCC-C29C64E3650A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C68FA4-5241-4BFA-8571-3C16ABB1371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="780" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" tabRatio="780" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -1658,10 +1658,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1670,13 +1673,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1989,23 +1989,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>142008</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>407622</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0987DD-9C07-4DA4-A6E2-EFF6FD59FC14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D09EB7-C9F6-4E06-9C71-1CE35494ADF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,8 +2021,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14192250" y="8327570"/>
-          <a:ext cx="17634857" cy="9476509"/>
+          <a:off x="14163261" y="0"/>
+          <a:ext cx="15771861" cy="6962143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2035,21 +2035,21 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>449035</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>13034</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>45476</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>170500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D09EB7-C9F6-4E06-9C71-1CE35494ADF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6654567-CD7A-46DA-9D85-46A6252CCC30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,8 +2065,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14192250" y="802821"/>
-          <a:ext cx="15757071" cy="6966284"/>
+          <a:off x="14192250" y="8327571"/>
+          <a:ext cx="17190476" cy="7600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4519,8 +4519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A2:AZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA17" sqref="BA17"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK40" sqref="AK40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4788,7 +4788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA0751C-1EB6-4741-8406-B680E49C7543}">
   <dimension ref="M2:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G30" sqref="G30:H30"/>
     </sheetView>
   </sheetViews>
@@ -4803,13 +4803,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="13:17">
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="13:17">
       <c r="M3" s="14" t="s">
@@ -4901,20 +4901,20 @@
       </c>
     </row>
     <row r="8" spans="13:17">
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
     </row>
     <row r="9" spans="13:17">
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="57"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
     </row>
     <row r="10" spans="13:17">
       <c r="M10" s="15" t="s">
@@ -5047,12 +5047,12 @@
       </c>
     </row>
     <row r="19" spans="13:16">
-      <c r="M19" s="55" t="s">
+      <c r="M19" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="53"/>
     </row>
     <row r="20" spans="13:16">
       <c r="M20" s="15" t="s">
@@ -5110,12 +5110,12 @@
       </c>
     </row>
     <row r="24" spans="13:16">
-      <c r="M24" s="55" t="s">
+      <c r="M24" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="57"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="53"/>
     </row>
     <row r="25" spans="13:16">
       <c r="M25" s="15" t="s">
@@ -5188,12 +5188,12 @@
       </c>
     </row>
     <row r="30" spans="13:16">
-      <c r="M30" s="55" t="s">
+      <c r="M30" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="57"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="13:16">
       <c r="M31" s="15" t="s">
@@ -5235,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="P33" s="15">
-        <f t="shared" ref="P33:P34" si="4">M33*N33*O33</f>
+        <f t="shared" ref="P33" si="4">M33*N33*O33</f>
         <v>600</v>
       </c>
     </row>
@@ -5447,11 +5447,11 @@
       <c r="A1" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:12" ht="21">
       <c r="B2" s="42" t="s">
@@ -6099,8 +6099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
   <dimension ref="C1:V92"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:F78"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6131,39 +6131,39 @@
     <row r="1" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="2" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="3" spans="3:21" ht="23.25">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="3:21">
       <c r="C5" s="14" t="s">
@@ -6864,12 +6864,12 @@
       <c r="V24" s="18"/>
     </row>
     <row r="25" spans="3:22" ht="15.75">
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
       <c r="I25" s="15" t="s">
         <v>101</v>
       </c>
@@ -6907,12 +6907,12 @@
       <c r="V25" s="18"/>
     </row>
     <row r="26" spans="3:22" ht="15.75">
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="57"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53"/>
       <c r="I26" s="15" t="s">
         <v>102</v>
       </c>
@@ -7757,12 +7757,12 @@
       </c>
     </row>
     <row r="48" spans="3:19">
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="57"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="53"/>
       <c r="I48" s="15" t="s">
         <v>214</v>
       </c>
@@ -8067,12 +8067,12 @@
       <c r="J56" s="15"/>
     </row>
     <row r="57" spans="3:19">
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="57"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="53"/>
       <c r="I57" s="15" t="s">
         <v>3</v>
       </c>
@@ -8299,12 +8299,12 @@
       <c r="S73" s="18"/>
     </row>
     <row r="74" spans="3:19">
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="57"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="53"/>
       <c r="S74" s="18"/>
     </row>
     <row r="75" spans="3:19">
@@ -8357,12 +8357,12 @@
       <c r="F78" s="15"/>
     </row>
     <row r="79" spans="3:19">
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="57"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="53"/>
     </row>
     <row r="80" spans="3:19">
       <c r="C80" s="15" t="s">
@@ -8414,12 +8414,12 @@
       <c r="F83" s="15"/>
     </row>
     <row r="84" spans="3:6">
-      <c r="C84" s="55" t="s">
+      <c r="C84" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="57"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="53"/>
     </row>
     <row r="85" spans="3:6">
       <c r="C85" s="15" t="s">
@@ -8458,12 +8458,12 @@
       <c r="F87" s="15"/>
     </row>
     <row r="88" spans="3:6">
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="57"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="53"/>
     </row>
     <row r="89" spans="3:6">
       <c r="C89" s="15" t="s">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C68FA4-5241-4BFA-8571-3C16ABB1371B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0B546C-021A-4924-AEED-01FA6C5DC866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" tabRatio="780" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
     <sheet name="TierLocationOrganization" sheetId="1" r:id="rId2"/>
-    <sheet name="Diagrams" sheetId="2" r:id="rId3"/>
+    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId3"/>
     <sheet name="SteelLakeSite" sheetId="17" r:id="rId4"/>
-    <sheet name="OffshoreMegaRefinery" sheetId="16" r:id="rId5"/>
-    <sheet name="SWNitrogenFacility" sheetId="14" r:id="rId6"/>
-    <sheet name="SilicaCaveSite" sheetId="13" r:id="rId7"/>
-    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId8"/>
-    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId9"/>
-    <sheet name="MinerOutputValues" sheetId="5" r:id="rId10"/>
+    <sheet name="SilicaCaveSite" sheetId="13" r:id="rId5"/>
+    <sheet name="OffshoreMegaRefinery" sheetId="16" r:id="rId6"/>
+    <sheet name="QuickwireCoast" sheetId="18" r:id="rId7"/>
+    <sheet name="SWNitrogenFacility" sheetId="14" r:id="rId8"/>
+    <sheet name="Diagrams" sheetId="2" r:id="rId9"/>
+    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId10"/>
+    <sheet name="MinerOutputValues" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="395">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -255,9 +256,6 @@
     <t xml:space="preserve">Concrete Modules </t>
   </si>
   <si>
-    <t>FloorsForMax</t>
-  </si>
-  <si>
     <t>Floor Output</t>
   </si>
   <si>
@@ -318,9 +316,6 @@
     <t>Encased Industrial Pipes</t>
   </si>
   <si>
-    <t xml:space="preserve">Sites to Build , Oil Production Center: </t>
-  </si>
-  <si>
     <t>Copper Sheet</t>
   </si>
   <si>
@@ -396,18 +391,12 @@
     <t>Current Max</t>
   </si>
   <si>
-    <t>Max w/ Mk3 Miners</t>
-  </si>
-  <si>
     <t>Smelting Output Potential</t>
   </si>
   <si>
     <t>CurrentMax</t>
   </si>
   <si>
-    <t>Mk3Max</t>
-  </si>
-  <si>
     <t>Current Miner Production</t>
   </si>
   <si>
@@ -423,9 +412,6 @@
     <t>Current Production</t>
   </si>
   <si>
-    <t>FloorsPer600Line</t>
-  </si>
-  <si>
     <t>IronIngot</t>
   </si>
   <si>
@@ -519,9 +505,6 @@
     <t xml:space="preserve">In </t>
   </si>
   <si>
-    <t>Aluminum Eventually at Oil Fields, Soon, Almost out of Belts</t>
-  </si>
-  <si>
     <t>Heavy Frames</t>
   </si>
   <si>
@@ -672,9 +655,6 @@
     <t>1@160/M</t>
   </si>
   <si>
-    <t>2  @425</t>
-  </si>
-  <si>
     <t>Smelting Hub Train Stations</t>
   </si>
   <si>
@@ -690,9 +670,6 @@
     <t>Encased Beams</t>
   </si>
   <si>
-    <t>Reinforced Plated</t>
-  </si>
-  <si>
     <t>600 Limestone</t>
   </si>
   <si>
@@ -732,21 +709,12 @@
     <t xml:space="preserve">2240 Silica Out </t>
   </si>
   <si>
-    <t>4. Get to and Make Nitrogen Gas Site</t>
-  </si>
-  <si>
-    <t>5. Work Towards Turbo Motors</t>
-  </si>
-  <si>
     <t>Overall Build Diagram</t>
   </si>
   <si>
     <t>Steel Site Diagram</t>
   </si>
   <si>
-    <t>2. Rubber / Aluminum / Battery Off-Shore Site</t>
-  </si>
-  <si>
     <t>1. Coal Lake Steel Site</t>
   </si>
   <si>
@@ -1095,10 +1063,172 @@
     <t>Turbo Motor, Stator %</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>Miner Multiplier</t>
+  </si>
+  <si>
+    <t>T0 Processing</t>
+  </si>
+  <si>
+    <t>Iron Refinery</t>
+  </si>
+  <si>
+    <t>Iron Alloy</t>
+  </si>
+  <si>
+    <t>Copper Refinery</t>
+  </si>
+  <si>
+    <t>Wet Concrete</t>
+  </si>
+  <si>
+    <t>Solid Steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal </t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>OutputBuildings</t>
+  </si>
+  <si>
+    <t>Input 1 Usage</t>
+  </si>
+  <si>
+    <t>Input 2 Usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Ingot Available </t>
+  </si>
+  <si>
+    <t>T0 Available Post Processing</t>
+  </si>
+  <si>
+    <t>Iron Ingot Post Steel</t>
+  </si>
+  <si>
+    <t>Copper Ingot Available</t>
+  </si>
+  <si>
+    <t>Concrete Available</t>
+  </si>
+  <si>
+    <t>Steel Ingot Available</t>
+  </si>
+  <si>
+    <t>Raw Materials Left</t>
+  </si>
+  <si>
+    <t>T1 Processing</t>
+  </si>
+  <si>
+    <t>Iron Plate</t>
+  </si>
+  <si>
+    <t>Iron Wire</t>
+  </si>
+  <si>
+    <t>T1 Available Post Processing</t>
+  </si>
+  <si>
+    <t>T0 Materials Left</t>
+  </si>
+  <si>
+    <t>T2 Processing</t>
+  </si>
+  <si>
+    <t>Steeled Frames</t>
+  </si>
+  <si>
+    <t>Iron Plates</t>
+  </si>
+  <si>
+    <t>R. Plates</t>
+  </si>
+  <si>
+    <t>T2 Available Post Processing</t>
+  </si>
+  <si>
+    <t>T1 Materials Left</t>
+  </si>
+  <si>
+    <t>Encased Pipes</t>
+  </si>
+  <si>
+    <t>R.Plates</t>
+  </si>
+  <si>
+    <t>T3 Processing</t>
+  </si>
+  <si>
+    <t>H. Frames</t>
+  </si>
+  <si>
+    <t>Input 3</t>
+  </si>
+  <si>
+    <t>Input Type 3</t>
+  </si>
+  <si>
+    <t>Input 4</t>
+  </si>
+  <si>
+    <t>Input 4 Type</t>
+  </si>
+  <si>
+    <t>Input 3 Usage</t>
+  </si>
+  <si>
+    <t>Input 4 Usage</t>
+  </si>
+  <si>
+    <t>Final Output Parts</t>
+  </si>
+  <si>
+    <t>Materials Left</t>
+  </si>
+  <si>
+    <t>Processing T2 Output</t>
+  </si>
+  <si>
+    <t>2. Silica Cave Site</t>
+  </si>
+  <si>
+    <t>3. Rubber / Aluminum / Battery Off-Shore Site</t>
+  </si>
+  <si>
+    <t>4. Quickwire Coast Site</t>
+  </si>
+  <si>
+    <t>5. Adjust Outputs</t>
+  </si>
+  <si>
+    <t>6. Computers / High Speed Connectors Site on Ocean Coast</t>
+  </si>
+  <si>
+    <t>7. Radio Controllers Site</t>
+  </si>
+  <si>
+    <t>7. Get to and Make Nitrogen Gas Site</t>
+  </si>
+  <si>
+    <t>8. Work Towards Turbo Motors</t>
+  </si>
+  <si>
+    <t>9. Start Towards Nuclear Power</t>
+  </si>
+  <si>
+    <t># Stations</t>
+  </si>
+  <si>
+    <t>1 @ 180/M</t>
+  </si>
+  <si>
+    <t>2  @750</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1273,12 +1403,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,12 +1730,9 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
@@ -1638,14 +1759,14 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1673,7 +1794,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,6 +1821,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -2381,7 +2503,7 @@
   <dimension ref="C1:U44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2431,7 +2553,7 @@
     </row>
     <row r="3" spans="3:20" ht="19.5" thickTop="1">
       <c r="C3" s="24" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -2452,7 +2574,7 @@
     </row>
     <row r="4" spans="3:20">
       <c r="C4" s="24" t="s">
-        <v>233</v>
+        <v>383</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2472,8 +2594,8 @@
       <c r="T4"/>
     </row>
     <row r="5" spans="3:20">
-      <c r="C5" s="40" t="s">
-        <v>229</v>
+      <c r="C5" s="24" t="s">
+        <v>384</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2493,8 +2615,8 @@
       <c r="T5"/>
     </row>
     <row r="6" spans="3:20">
-      <c r="C6" s="40" t="s">
-        <v>230</v>
+      <c r="C6" s="24" t="s">
+        <v>385</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2514,7 +2636,9 @@
       <c r="T6"/>
     </row>
     <row r="7" spans="3:20">
-      <c r="C7" s="40"/>
+      <c r="C7" s="24" t="s">
+        <v>386</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -2533,6 +2657,9 @@
       <c r="T7"/>
     </row>
     <row r="8" spans="3:20">
+      <c r="C8" s="24" t="s">
+        <v>387</v>
+      </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
@@ -2551,6 +2678,9 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="3:20">
+      <c r="C9" s="24" t="s">
+        <v>388</v>
+      </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -2568,7 +2698,10 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="3:20" ht="19.5" thickBot="1">
+    <row r="10" spans="3:20">
+      <c r="C10" s="39" t="s">
+        <v>389</v>
+      </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -2585,9 +2718,9 @@
       <c r="R10"/>
       <c r="S10"/>
     </row>
-    <row r="11" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C11" s="22" t="s">
-        <v>91</v>
+    <row r="11" spans="3:20">
+      <c r="C11" s="39" t="s">
+        <v>390</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -2602,9 +2735,9 @@
       <c r="O11"/>
       <c r="P11"/>
     </row>
-    <row r="12" spans="3:20" ht="22.5" thickTop="1" thickBot="1">
-      <c r="C12" s="30" t="s">
-        <v>14</v>
+    <row r="12" spans="3:20">
+      <c r="C12" s="39" t="s">
+        <v>391</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2619,10 +2752,8 @@
       <c r="O12"/>
       <c r="P12"/>
     </row>
-    <row r="13" spans="3:20" ht="43.5" thickTop="1" thickBot="1">
-      <c r="C13" s="30" t="s">
-        <v>158</v>
-      </c>
+    <row r="13" spans="3:20">
+      <c r="C13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -2637,6 +2768,7 @@
       <c r="P13"/>
     </row>
     <row r="14" spans="3:20">
+      <c r="C14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -2952,6 +3084,683 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2FA3DA-A5F3-411F-AB6B-7EB05B935F88}">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75">
+      <c r="A1" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+    </row>
+    <row r="2" spans="1:12" ht="21">
+      <c r="B2" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.75">
+      <c r="B3" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75">
+      <c r="B4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75">
+      <c r="B5" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="18.75">
+      <c r="B6" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.75">
+      <c r="B7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75">
+      <c r="B8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75">
+      <c r="B9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="21">
+      <c r="B11" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75">
+      <c r="B12" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75">
+      <c r="B13" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75">
+      <c r="B14" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75">
+      <c r="B15" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75">
+      <c r="B16" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75">
+      <c r="B17" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18.75">
+      <c r="B18" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="21">
+      <c r="A20" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75">
+      <c r="B21" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18.75">
+      <c r="B22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18.75">
+      <c r="B23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18.75">
+      <c r="B24" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75">
+      <c r="B25" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18.75">
+      <c r="B26" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18.75">
+      <c r="B27" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="21">
+      <c r="B29" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18.75">
+      <c r="B30" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18.75">
+      <c r="B31" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18.75">
+      <c r="B32" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="18.75">
+      <c r="B33" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="18.75">
+      <c r="D34" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A4D7D-2B40-4F26-A6BD-214006A713CE}">
   <dimension ref="C3:D21"/>
   <sheetViews>
@@ -2966,16 +3775,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="63"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="12" t="s">
@@ -3010,10 +3819,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="63"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="11" t="s">
@@ -3056,10 +3865,10 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="63"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="11" t="s">
@@ -3112,8 +3921,8 @@
   </sheetPr>
   <dimension ref="C1:V96"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView topLeftCell="N19" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3147,25 +3956,25 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>2</v>
@@ -3174,35 +3983,35 @@
         <v>2</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="Q3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="S3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="U3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -3221,36 +4030,36 @@
         <v>45</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N4" s="26" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="21"/>
       <c r="R4" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="T4" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="V4" s="46" t="s">
-        <v>343</v>
+        <v>154</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="V4" s="45" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -3271,28 +4080,28 @@
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="M5" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>86</v>
       </c>
       <c r="Q5" s="21"/>
       <c r="R5" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="S5" s="21"/>
       <c r="T5" s="27" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="U5" s="21"/>
-      <c r="V5" s="45" t="s">
-        <v>274</v>
+      <c r="V5" s="44" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
@@ -3317,18 +4126,18 @@
         <v>3</v>
       </c>
       <c r="P6" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="21"/>
       <c r="R6" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S6" s="21"/>
       <c r="T6" s="26" t="s">
         <v>20</v>
       </c>
       <c r="U6" s="21"/>
-      <c r="V6" s="45" t="s">
+      <c r="V6" s="44" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3343,19 +4152,19 @@
         <v>39</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>12</v>
@@ -3364,8 +4173,8 @@
       <c r="R7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="T7" s="41" t="s">
-        <v>328</v>
+      <c r="T7" s="40" t="s">
+        <v>317</v>
       </c>
       <c r="V7" s="28" t="s">
         <v>12</v>
@@ -3379,27 +4188,27 @@
         <v>2</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N8" s="21"/>
       <c r="O8" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P8" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="S8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="26" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
@@ -3410,24 +4219,24 @@
         <v>2</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
       <c r="O9" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P9" s="26" t="s">
         <v>20</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="S9" s="21"/>
-      <c r="T9" s="45" t="s">
+      <c r="T9" s="44" t="s">
         <v>46</v>
       </c>
       <c r="U9" s="21"/>
@@ -3446,25 +4255,25 @@
         <v>47</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="27" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="U10" s="21"/>
     </row>
@@ -3480,7 +4289,7 @@
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M11" s="24" t="s">
         <v>16</v>
@@ -3489,11 +4298,11 @@
       <c r="P11" s="22"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="S11" s="21"/>
       <c r="T11" s="27" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="U11" s="21"/>
     </row>
@@ -3505,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -3515,10 +4324,10 @@
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
       <c r="R12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="T12" s="45" t="s">
-        <v>319</v>
+        <v>76</v>
+      </c>
+      <c r="T12" s="44" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="3:22" ht="21.75" thickBot="1">
@@ -3526,19 +4335,19 @@
         <v>37</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K13" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="26" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="24" t="s">
@@ -3546,12 +4355,12 @@
       </c>
       <c r="S13" s="21"/>
       <c r="T13" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U13" s="21"/>
     </row>
     <row r="14" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -3571,7 +4380,7 @@
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M14" s="24" t="s">
         <v>18</v>
@@ -3591,21 +4400,21 @@
       <c r="N15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="27" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="S15" s="21"/>
-      <c r="T15" s="45" t="s">
+      <c r="T15" s="44" t="s">
         <v>47</v>
       </c>
       <c r="U15" s="21"/>
     </row>
     <row r="16" spans="3:22" ht="19.5" thickBot="1">
       <c r="F16" s="25" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="26" t="s">
         <v>20</v>
@@ -3615,14 +4424,14 @@
       </c>
       <c r="Q16" s="21"/>
       <c r="R16" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="T16" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="24" t="s">
@@ -3636,18 +4445,18 @@
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="25" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="3:21" ht="19.5" thickBot="1">
@@ -3660,12 +4469,12 @@
       </c>
       <c r="S18" s="21"/>
       <c r="T18" s="27" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="U18" s="21"/>
     </row>
     <row r="19" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="40" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="24" t="s">
@@ -3675,14 +4484,14 @@
         <v>2</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M19" s="21"/>
       <c r="Q19" s="21"/>
@@ -3693,7 +4502,7 @@
     </row>
     <row r="20" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
       <c r="F20" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>2</v>
@@ -3703,23 +4512,23 @@
       <c r="M20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="27" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="S20" s="21"/>
-      <c r="T20" s="45" t="s">
-        <v>274</v>
+      <c r="T20" s="44" t="s">
+        <v>263</v>
       </c>
       <c r="U20" s="21"/>
     </row>
     <row r="21" spans="3:21" ht="19.5" thickTop="1">
       <c r="F21" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>18</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M21" s="21"/>
       <c r="Q21" s="21"/>
@@ -3738,20 +4547,20 @@
       <c r="M22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S22" s="21"/>
       <c r="T22" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="U22" s="21"/>
     </row>
     <row r="23" spans="3:21" ht="19.5" thickBot="1">
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>2</v>
@@ -3763,7 +4572,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K23" s="25" t="s">
         <v>43</v>
@@ -3772,15 +4581,15 @@
         <v>43</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="R23" s="25" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="S23" s="21"/>
-      <c r="T23" s="41" t="s">
-        <v>332</v>
+      <c r="T23" s="40" t="s">
+        <v>321</v>
       </c>
       <c r="U23" s="21"/>
     </row>
@@ -3803,7 +4612,7 @@
         <v>14</v>
       </c>
       <c r="Q24" s="21"/>
-      <c r="R24" s="41" t="s">
+      <c r="R24" s="40" t="s">
         <v>17</v>
       </c>
       <c r="S24" s="21"/>
@@ -3811,10 +4620,10 @@
     </row>
     <row r="25" spans="3:21" ht="18.75">
       <c r="J25" s="24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M25" s="21"/>
       <c r="Q25" s="21"/>
@@ -3827,10 +4636,10 @@
         <v>35</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="27" t="s">
@@ -3840,7 +4649,7 @@
       <c r="U26" s="21"/>
     </row>
     <row r="27" spans="3:21" ht="19.5" thickBot="1">
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="40" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -3860,7 +4669,7 @@
       </c>
       <c r="N27" s="21"/>
       <c r="R27" s="24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
@@ -3875,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="R28" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="3:21" ht="19.5" thickBot="1">
@@ -3892,68 +4701,68 @@
         <v>19</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="R29" s="25" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="3:21" ht="18.75">
       <c r="M30" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="3:21" ht="18.75">
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="40" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>41</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="3:21" ht="18.75">
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="40" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>42</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="R32" s="26" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="3:18" ht="18.75">
-      <c r="C33" s="41" t="s">
-        <v>144</v>
+      <c r="C33" s="40" t="s">
+        <v>139</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="41" t="s">
-        <v>332</v>
+      <c r="M33" s="40" t="s">
+        <v>321</v>
       </c>
       <c r="R33" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="3:18" ht="18.75">
-      <c r="C34" s="41" t="s">
-        <v>332</v>
+      <c r="C34" s="40" t="s">
+        <v>321</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R34" s="41" t="s">
-        <v>332</v>
+      <c r="R34" s="40" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="3:18" ht="18.75">
@@ -3967,119 +4776,119 @@
       </c>
     </row>
     <row r="39" spans="3:18" ht="30" customHeight="1">
-      <c r="C39" s="47" t="s">
-        <v>282</v>
-      </c>
-      <c r="D39" s="48"/>
+      <c r="C39" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="47"/>
     </row>
     <row r="40" spans="3:18" ht="18.75">
       <c r="C40" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D40" s="44">
+        <v>272</v>
+      </c>
+      <c r="D40" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="3:18" ht="18.75">
       <c r="C41" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="44">
+        <v>168</v>
+      </c>
+      <c r="D41" s="43">
         <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="3:18" ht="18.75">
       <c r="C42" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="44">
+        <v>167</v>
+      </c>
+      <c r="D42" s="43">
         <v>0.35</v>
       </c>
     </row>
     <row r="43" spans="3:18" ht="18.75">
       <c r="C43" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="44">
+        <v>166</v>
+      </c>
+      <c r="D43" s="43">
         <v>0.65</v>
       </c>
     </row>
     <row r="44" spans="3:18" ht="18.75">
       <c r="C44" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="44">
+        <v>165</v>
+      </c>
+      <c r="D44" s="43">
         <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="3:18" ht="18.75">
       <c r="C45" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D45" s="44">
+        <v>164</v>
+      </c>
+      <c r="D45" s="43">
         <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="3:18" ht="18.75">
       <c r="C46" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="44">
+        <v>169</v>
+      </c>
+      <c r="D46" s="43">
         <v>0.85</v>
       </c>
     </row>
     <row r="47" spans="3:18" ht="18.75">
       <c r="C47" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="44">
+        <v>170</v>
+      </c>
+      <c r="D47" s="43">
         <v>0.15</v>
       </c>
     </row>
     <row r="48" spans="3:18" ht="18.75">
       <c r="C48" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="D48" s="44">
+        <v>273</v>
+      </c>
+      <c r="D48" s="43">
         <v>0.9</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="18.75">
       <c r="C49" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="D49" s="44">
+        <v>274</v>
+      </c>
+      <c r="D49" s="43">
         <v>0.05</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="18.75">
       <c r="C50" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="D50" s="44">
+        <v>275</v>
+      </c>
+      <c r="D50" s="43">
         <v>0.05</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="18.75">
       <c r="C51" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D51" s="44">
+        <v>278</v>
+      </c>
+      <c r="D51" s="43">
         <v>1</v>
       </c>
-      <c r="E51" s="41" t="s">
-        <v>290</v>
+      <c r="E51" s="40" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="18.75">
       <c r="C55" s="26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D55" s="26">
         <v>0.5</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F55" s="26">
         <v>1</v>
@@ -4087,13 +4896,13 @@
     </row>
     <row r="56" spans="3:8" ht="18.75">
       <c r="C56" s="26" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D56" s="26">
         <v>0.7</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F56" s="26">
         <v>0.25</v>
@@ -4101,13 +4910,13 @@
     </row>
     <row r="57" spans="3:8" ht="18.75">
       <c r="C57" s="26" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D57" s="26">
         <v>1</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F57" s="26">
         <v>0.15</v>
@@ -4115,13 +4924,13 @@
     </row>
     <row r="58" spans="3:8" ht="18.75">
       <c r="C58" s="26" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D58" s="26">
         <v>0.8</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F58" s="26">
         <v>0.25</v>
@@ -4129,13 +4938,13 @@
     </row>
     <row r="59" spans="3:8" ht="18.75">
       <c r="C59" s="26" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D59" s="26">
         <v>0.2</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F59" s="26">
         <v>0.17</v>
@@ -4143,13 +4952,13 @@
     </row>
     <row r="60" spans="3:8" ht="18.75">
       <c r="C60" s="26" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D60" s="26">
         <v>1</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F60" s="26">
         <v>0.5</v>
@@ -4157,30 +4966,30 @@
     </row>
     <row r="61" spans="3:8" ht="18.75">
       <c r="C61" s="26" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D61" s="26">
         <v>0.05</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F61" s="26">
         <v>0.05</v>
       </c>
-      <c r="H61" s="41" t="s">
-        <v>293</v>
+      <c r="H61" s="40" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="18.75">
       <c r="C62" s="26" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D62" s="26">
         <v>0.25</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F62" s="26">
         <v>0.3</v>
@@ -4188,49 +4997,49 @@
     </row>
     <row r="63" spans="3:8" ht="18.75">
       <c r="C63" s="26" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D63" s="26">
         <v>0.01</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F63" s="26">
         <v>0.01</v>
       </c>
-      <c r="H63" s="41" t="s">
-        <v>298</v>
+      <c r="H63" s="40" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="18.75">
       <c r="C64" s="26" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D64" s="26">
         <v>0.3</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F64" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:8" ht="18.75">
-      <c r="H65" s="41" t="s">
-        <v>302</v>
+      <c r="H65" s="40" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="3:8" ht="18.75">
       <c r="C66" s="27" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D66" s="27">
         <v>0.01</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F66" s="27">
         <v>0.01</v>
@@ -4238,7 +5047,7 @@
     </row>
     <row r="67" spans="3:8" ht="18.75">
       <c r="C67" s="27" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D67" s="27">
         <v>0.05</v>
@@ -4247,13 +5056,13 @@
     <row r="68" spans="3:8" ht="15.75" thickBot="1"/>
     <row r="69" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C69" s="27" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D69" s="27">
         <v>1</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F69" s="27">
         <v>0.25</v>
@@ -4265,33 +5074,33 @@
     </row>
     <row r="71" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C71" s="27" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D71" s="27">
         <v>0.7</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F71" s="27">
         <v>0.25</v>
       </c>
       <c r="G71" s="9"/>
-      <c r="H71" s="41" t="s">
-        <v>317</v>
+      <c r="H71" s="40" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C72" s="27" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D72" s="27">
         <v>0.35</v>
       </c>
       <c r="E72" s="7"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="41" t="s">
-        <v>318</v>
+      <c r="H72" s="40" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="3:8" ht="18" thickTop="1" thickBot="1">
@@ -4300,13 +5109,13 @@
     </row>
     <row r="74" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C74" s="27" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D74" s="27">
         <v>0.3</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F74" s="27">
         <v>0.65</v>
@@ -4315,7 +5124,7 @@
     </row>
     <row r="75" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C75" s="27" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D75" s="27">
         <v>0.5</v>
@@ -4329,13 +5138,13 @@
     </row>
     <row r="77" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C77" s="27" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D77" s="27">
         <v>1</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F77" s="27">
         <v>0.18</v>
@@ -4344,13 +5153,13 @@
     </row>
     <row r="78" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C78" s="27" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D78" s="27">
         <v>1</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F78" s="27">
         <v>0.3</v>
@@ -4361,13 +5170,13 @@
     </row>
     <row r="80" spans="3:8" ht="19.5" thickTop="1">
       <c r="C80" s="27" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D80" s="27">
         <v>0.5</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F80" s="27">
         <v>0.4</v>
@@ -4375,134 +5184,134 @@
     </row>
     <row r="81" spans="3:8" ht="18.75">
       <c r="C81" s="27" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D81" s="27">
         <v>0.3</v>
       </c>
     </row>
     <row r="83" spans="3:8" ht="18.75">
-      <c r="C83" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="D83" s="45">
+      <c r="C83" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D83" s="44">
         <v>0.99</v>
       </c>
-      <c r="E83" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="F83" s="45">
+      <c r="E83" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="F83" s="44">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="84" spans="3:8" ht="18.75">
-      <c r="C84" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="D84" s="45">
+      <c r="C84" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="D84" s="44">
         <v>0.6</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="18.75">
-      <c r="C86" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="D86" s="45">
+      <c r="C86" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" s="44">
         <v>0.25</v>
       </c>
-      <c r="E86" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="F86" s="45">
+      <c r="E86" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="F86" s="44">
         <v>0.45</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="18.75">
-      <c r="C88" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="D88" s="45">
+      <c r="C88" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="D88" s="44">
         <v>1</v>
       </c>
-      <c r="E88" s="45" t="s">
+      <c r="E88" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="F88" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="H88" s="44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="18.75">
+      <c r="C89" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="D89" s="44">
+        <v>1</v>
+      </c>
+      <c r="E89" s="44" t="s">
+        <v>315</v>
+      </c>
+      <c r="F89" s="44">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="18.75">
+      <c r="C91" s="44" t="s">
         <v>325</v>
       </c>
-      <c r="F88" s="45">
-        <v>0.8</v>
-      </c>
-      <c r="H88" s="45" t="s">
+      <c r="D91" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="E91" s="44" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="89" spans="3:8" ht="18.75">
-      <c r="C89" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="D89" s="45">
+      <c r="F91" s="44">
         <v>1</v>
       </c>
-      <c r="E89" s="45" t="s">
+    </row>
+    <row r="92" spans="3:8" ht="18.75">
+      <c r="C92" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="F89" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" ht="18.75">
-      <c r="C91" s="45" t="s">
+      <c r="D92" s="44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="18.75">
+      <c r="C94" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="D94" s="45">
+        <v>1</v>
+      </c>
+      <c r="E94" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="F94" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="18.75">
+      <c r="C95" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="D91" s="45">
+      <c r="D95" s="45">
         <v>0.5</v>
       </c>
-      <c r="E91" s="45" t="s">
+      <c r="E95" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="F95" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="18.75">
+      <c r="C96" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="F91" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="18.75">
-      <c r="C92" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="D92" s="45">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="18.75">
-      <c r="C94" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="D94" s="46">
-        <v>1</v>
-      </c>
-      <c r="E94" s="46" t="s">
-        <v>346</v>
-      </c>
-      <c r="F94" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" ht="18.75">
-      <c r="C95" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="D95" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="E95" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="F95" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" ht="18.75">
-      <c r="C96" s="46" t="s">
-        <v>349</v>
-      </c>
-      <c r="D96" s="46">
+      <c r="D96" s="45">
         <v>0.25</v>
       </c>
     </row>
@@ -4516,1591 +5325,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
-  <dimension ref="A2:AZ44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
+  <dimension ref="C1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK40" sqref="AK40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="Y2" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-    </row>
-    <row r="3" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-    </row>
-    <row r="4" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="50"/>
-    </row>
-    <row r="5" spans="1:52" ht="15.75" thickTop="1"/>
-    <row r="19" ht="9.75" customHeight="1"/>
-    <row r="39" spans="25:52" ht="12" customHeight="1"/>
-    <row r="42" spans="25:52">
-      <c r="Y42" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50"/>
-      <c r="AB42" s="50"/>
-      <c r="AC42" s="50"/>
-      <c r="AD42" s="50"/>
-      <c r="AE42" s="50"/>
-      <c r="AF42" s="50"/>
-      <c r="AG42" s="50"/>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="50"/>
-      <c r="AJ42" s="50"/>
-      <c r="AK42" s="50"/>
-      <c r="AL42" s="50"/>
-      <c r="AM42" s="50"/>
-      <c r="AN42" s="50"/>
-      <c r="AO42" s="50"/>
-      <c r="AP42" s="50"/>
-      <c r="AQ42" s="50"/>
-      <c r="AR42" s="50"/>
-      <c r="AS42" s="50"/>
-      <c r="AT42" s="50"/>
-      <c r="AU42" s="50"/>
-      <c r="AV42" s="50"/>
-      <c r="AW42" s="50"/>
-      <c r="AX42" s="50"/>
-      <c r="AY42" s="50"/>
-      <c r="AZ42" s="50"/>
-    </row>
-    <row r="43" spans="25:52">
-      <c r="Y43" s="50"/>
-      <c r="Z43" s="50"/>
-      <c r="AA43" s="50"/>
-      <c r="AB43" s="50"/>
-      <c r="AC43" s="50"/>
-      <c r="AD43" s="50"/>
-      <c r="AE43" s="50"/>
-      <c r="AF43" s="50"/>
-      <c r="AG43" s="50"/>
-      <c r="AH43" s="50"/>
-      <c r="AI43" s="50"/>
-      <c r="AJ43" s="50"/>
-      <c r="AK43" s="50"/>
-      <c r="AL43" s="50"/>
-      <c r="AM43" s="50"/>
-      <c r="AN43" s="50"/>
-      <c r="AO43" s="50"/>
-      <c r="AP43" s="50"/>
-      <c r="AQ43" s="50"/>
-      <c r="AR43" s="50"/>
-      <c r="AS43" s="50"/>
-      <c r="AT43" s="50"/>
-      <c r="AU43" s="50"/>
-      <c r="AV43" s="50"/>
-      <c r="AW43" s="50"/>
-      <c r="AX43" s="50"/>
-      <c r="AY43" s="50"/>
-      <c r="AZ43" s="50"/>
-    </row>
-    <row r="44" spans="25:52">
-      <c r="Y44" s="50"/>
-      <c r="Z44" s="50"/>
-      <c r="AA44" s="50"/>
-      <c r="AB44" s="50"/>
-      <c r="AC44" s="50"/>
-      <c r="AD44" s="50"/>
-      <c r="AE44" s="50"/>
-      <c r="AF44" s="50"/>
-      <c r="AG44" s="50"/>
-      <c r="AH44" s="50"/>
-      <c r="AI44" s="50"/>
-      <c r="AJ44" s="50"/>
-      <c r="AK44" s="50"/>
-      <c r="AL44" s="50"/>
-      <c r="AM44" s="50"/>
-      <c r="AN44" s="50"/>
-      <c r="AO44" s="50"/>
-      <c r="AP44" s="50"/>
-      <c r="AQ44" s="50"/>
-      <c r="AR44" s="50"/>
-      <c r="AS44" s="50"/>
-      <c r="AT44" s="50"/>
-      <c r="AU44" s="50"/>
-      <c r="AV44" s="50"/>
-      <c r="AW44" s="50"/>
-      <c r="AX44" s="50"/>
-      <c r="AY44" s="50"/>
-      <c r="AZ44" s="50"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:R4"/>
-    <mergeCell ref="Y2:AZ4"/>
-    <mergeCell ref="Y42:AZ44"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA0751C-1EB6-4741-8406-B680E49C7543}">
-  <dimension ref="M2:Q37"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="13:17">
-      <c r="M2" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-    </row>
-    <row r="3" spans="13:17">
-      <c r="M3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="13:17">
-      <c r="M4" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="15">
-        <v>6</v>
-      </c>
-      <c r="O4" s="15">
-        <v>1</v>
-      </c>
-      <c r="P4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="13:17">
-      <c r="M5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="15">
-        <v>1</v>
-      </c>
-      <c r="P5" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="13:17">
-      <c r="M6" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="15">
-        <v>1</v>
-      </c>
-      <c r="O6" s="15">
-        <v>0</v>
-      </c>
-      <c r="P6" s="15">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="13:17">
-      <c r="M7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="15">
-        <f>P18</f>
-        <v>2520</v>
-      </c>
-      <c r="O7" s="15">
-        <f>P23</f>
-        <v>900</v>
-      </c>
-      <c r="P7" s="15">
-        <f>P29</f>
-        <v>2040</v>
-      </c>
-      <c r="Q7" s="15">
-        <f>P37</f>
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="8" spans="13:17">
-      <c r="M8" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-    </row>
-    <row r="9" spans="13:17">
-      <c r="M9" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53"/>
-    </row>
-    <row r="10" spans="13:17">
-      <c r="M10" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="13:17">
-      <c r="M11" s="15">
-        <v>30</v>
-      </c>
-      <c r="N11" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O11" s="15">
-        <v>4</v>
-      </c>
-      <c r="P11" s="15">
-        <f>M11*N11*O11</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="13:17">
-      <c r="M12" s="15">
-        <v>30</v>
-      </c>
-      <c r="N12" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O12" s="15">
-        <v>4</v>
-      </c>
-      <c r="P12" s="15">
-        <f t="shared" ref="P12:P17" si="0">M12*N12*O12</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="13:17">
-      <c r="M13" s="15">
-        <v>30</v>
-      </c>
-      <c r="N13" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O13" s="15">
-        <v>4</v>
-      </c>
-      <c r="P13" s="15">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="13:17">
-      <c r="M14" s="15">
-        <v>30</v>
-      </c>
-      <c r="N14" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O14" s="15">
-        <v>4</v>
-      </c>
-      <c r="P14" s="15">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="13:17">
-      <c r="M15" s="15">
-        <v>30</v>
-      </c>
-      <c r="N15" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O15" s="15">
-        <v>4</v>
-      </c>
-      <c r="P15" s="15">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="13:17">
-      <c r="M16" s="15">
-        <v>30</v>
-      </c>
-      <c r="N16" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O16" s="15">
-        <v>4</v>
-      </c>
-      <c r="P16" s="15">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="13:16">
-      <c r="M17" s="15">
-        <v>120</v>
-      </c>
-      <c r="N17" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="O17" s="15">
-        <v>4</v>
-      </c>
-      <c r="P17" s="15">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="18" spans="13:16">
-      <c r="M18" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15">
-        <f>SUM(P11:P17)</f>
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="19" spans="13:16">
-      <c r="M19" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="53"/>
-    </row>
-    <row r="20" spans="13:16">
-      <c r="M20" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="13:16">
-      <c r="M21" s="15">
-        <v>30</v>
-      </c>
-      <c r="N21" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O21" s="15">
-        <v>4</v>
-      </c>
-      <c r="P21" s="15">
-        <f>M21*N21*O21</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="13:16">
-      <c r="M22" s="15">
-        <v>60</v>
-      </c>
-      <c r="N22" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O22" s="15">
-        <v>4</v>
-      </c>
-      <c r="P22" s="15">
-        <f t="shared" ref="P22" si="1">M22*N22*O22</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="13:16">
-      <c r="M23" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15">
-        <f>SUM(P21:P22)</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="24" spans="13:16">
-      <c r="M24" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="53"/>
-    </row>
-    <row r="25" spans="13:16">
-      <c r="M25" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="13:16">
-      <c r="M26" s="15">
-        <v>60</v>
-      </c>
-      <c r="N26" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O26" s="15">
-        <v>4</v>
-      </c>
-      <c r="P26" s="15">
-        <f>M26*N26*O26</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="13:16">
-      <c r="M27" s="15">
-        <v>120</v>
-      </c>
-      <c r="N27" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="O27" s="15">
-        <v>4</v>
-      </c>
-      <c r="P27" s="15">
-        <f t="shared" ref="P27" si="2">M27*N27*O27</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="28" spans="13:16">
-      <c r="M28" s="15">
-        <v>120</v>
-      </c>
-      <c r="N28" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="O28" s="15">
-        <v>4</v>
-      </c>
-      <c r="P28" s="15">
-        <f t="shared" ref="P28" si="3">M28*N28*O28</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="29" spans="13:16">
-      <c r="M29" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15">
-        <f>SUM(P26:P28)</f>
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="30" spans="13:16">
-      <c r="M30" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
-    </row>
-    <row r="31" spans="13:16">
-      <c r="M31" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="P31" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="13:16">
-      <c r="M32" s="15">
-        <v>60</v>
-      </c>
-      <c r="N32" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O32" s="15">
-        <v>4</v>
-      </c>
-      <c r="P32" s="15">
-        <f>M32*N32*O32</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="13:16">
-      <c r="M33" s="15">
-        <v>60</v>
-      </c>
-      <c r="N33" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O33" s="15">
-        <v>4</v>
-      </c>
-      <c r="P33" s="15">
-        <f t="shared" ref="P33" si="4">M33*N33*O33</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="34" spans="13:16">
-      <c r="M34" s="15">
-        <v>60</v>
-      </c>
-      <c r="N34" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O34" s="15">
-        <v>4</v>
-      </c>
-      <c r="P34" s="15">
-        <f t="shared" ref="P34:P35" si="5">M34*N34*O34</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="35" spans="13:16">
-      <c r="M35" s="15">
-        <v>60</v>
-      </c>
-      <c r="N35" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="O35" s="15">
-        <v>4</v>
-      </c>
-      <c r="P35" s="15">
-        <f t="shared" si="5"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="36" spans="13:16">
-      <c r="M36" s="15">
-        <v>120</v>
-      </c>
-      <c r="N36" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="O36" s="15">
-        <v>4</v>
-      </c>
-      <c r="P36" s="15">
-        <f>M36*N36*O36</f>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="37" spans="13:16">
-      <c r="M37" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15">
-        <f>SUM(P32:P36)</f>
-        <v>3120</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8995F-0120-482A-8124-986E8EA27808}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E9EB0-3E23-4641-A58B-1165AA753DC6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0353B9-1CC2-4B24-B610-97234758C445}">
-  <dimension ref="C3:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" ht="18.75">
-      <c r="C3" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" ht="18.75">
-      <c r="C6" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="18.75">
-      <c r="E7" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="18.75">
-      <c r="C9" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="18.75">
-      <c r="C10" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="18.75">
-      <c r="C12" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="18.75">
-      <c r="C13" s="41" t="s">
-        <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2FA3DA-A5F3-411F-AB6B-7EB05B935F88}">
-  <dimension ref="A1:L34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" customWidth="1"/>
-    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5703125" customWidth="1"/>
-    <col min="14" max="14" width="25.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="J1" s="56" t="s">
-        <v>277</v>
-      </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-    </row>
-    <row r="2" spans="1:12" ht="21">
-      <c r="B2" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75">
-      <c r="B3" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18.75">
-      <c r="B4" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18.75">
-      <c r="B5" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18.75">
-      <c r="B6" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18.75">
-      <c r="B7" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18.75">
-      <c r="B8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18.75">
-      <c r="B9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="21">
-      <c r="B11" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="J11" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="L11" s="42" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18.75">
-      <c r="B12" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18.75">
-      <c r="B13" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18.75">
-      <c r="B14" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18.75">
-      <c r="B15" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18.75">
-      <c r="B16" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18.75">
-      <c r="B17" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18.75">
-      <c r="B18" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="21">
-      <c r="A20" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="18.75">
-      <c r="B21" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18.75">
-      <c r="B22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="18.75">
-      <c r="B23" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="18.75">
-      <c r="B24" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="18.75">
-      <c r="B25" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="18.75">
-      <c r="B26" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="18.75">
-      <c r="B27" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="21">
-      <c r="B29" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18.75">
-      <c r="B30" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18.75">
-      <c r="B31" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="18.75">
-      <c r="B32" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="18.75">
-      <c r="B33" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="18.75">
-      <c r="D34" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
-  <dimension ref="C1:V92"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6131,39 +5360,39 @@
     <row r="1" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="2" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="3" spans="3:21" ht="23.25">
-      <c r="C3" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
+      <c r="C3" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
+      <c r="C4" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
     </row>
     <row r="5" spans="3:21">
       <c r="C5" s="14" t="s">
@@ -6181,23 +5410,21 @@
       <c r="G5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="31" t="s">
+      <c r="H5" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
+      <c r="L5" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="15" t="s">
@@ -6225,22 +5452,16 @@
         <v>0</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="3:21">
@@ -6266,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>69</v>
@@ -6283,14 +5504,6 @@
         <f>E16</f>
         <v>1200</v>
       </c>
-      <c r="P7" s="15">
-        <f>ROUNDDOWN(O7/M7,0)</f>
-        <v>10</v>
-      </c>
-      <c r="Q7" s="15">
-        <f>ROUNDDOWN(600/M7,0)</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="3:21">
       <c r="C8" s="15" t="s">
@@ -6332,14 +5545,6 @@
         <f>E20</f>
         <v>2250</v>
       </c>
-      <c r="P8" s="15">
-        <f>ROUNDDOWN(O8/M8,0)</f>
-        <v>9</v>
-      </c>
-      <c r="Q8" s="15">
-        <f>ROUNDDOWN(O8/M8,0)</f>
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="3:21">
       <c r="C9" s="15" t="s">
@@ -6366,15 +5571,15 @@
         <v>1200</v>
       </c>
       <c r="I9" s="15">
-        <f>E92</f>
+        <f>E93</f>
         <v>1200</v>
       </c>
       <c r="J9" s="15">
-        <f>E87</f>
-        <v>300</v>
+        <f>E88</f>
+        <v>1200</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M9" s="15">
         <f>SUM(15*60)</f>
@@ -6388,12 +5593,10 @@
         <f>E18</f>
         <v>1800</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="3:21">
       <c r="C10" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="15">
         <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (D8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
@@ -6412,19 +5615,19 @@
         <v>1200</v>
       </c>
       <c r="H10" s="15">
-        <f>SUM((H6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (H7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (H8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
-        <v>600</v>
+        <f>E83</f>
+        <v>1200</v>
       </c>
       <c r="I10" s="15">
         <f>SUM((I6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (I7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (I8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
         <v>1200</v>
       </c>
       <c r="J10" s="15">
-        <f>SUM((J6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D20) + (J7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D20) + (J8*MinerOutputValues!D8*MinerOutputValues!D15*MinerOutputValues!D20) )</f>
-        <v>300</v>
+        <f t="shared" ref="J10:J11" si="0">E89</f>
+        <v>0</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M10" s="15">
         <f>SUM(12*100)</f>
@@ -6438,63 +5641,28 @@
         <f>E17</f>
         <v>3000</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-    </row>
-    <row r="11" spans="3:21">
-      <c r="C11" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="15">
-        <f>SUM((D6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (D7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (D8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
-        <v>8400</v>
-      </c>
-      <c r="E11" s="15">
-        <f>SUM((E6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (E7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (E8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
-        <v>3000</v>
-      </c>
-      <c r="F11" s="15">
-        <f>SUM((F6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (F7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (F8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
-        <v>6720</v>
-      </c>
-      <c r="G11" s="15">
-        <f>SUM((G6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (G7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (G8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
-        <v>1440</v>
-      </c>
-      <c r="H11" s="15">
-        <f>SUM((H6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (H7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (H8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
-        <v>1200</v>
-      </c>
-      <c r="I11" s="15">
-        <f>SUM((I6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (I7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (I8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
-        <v>1440</v>
-      </c>
-      <c r="J11" s="15">
-        <f>SUM((J6*MinerOutputValues!D6*MinerOutputValues!D15*MinerOutputValues!D21) + (J7*MinerOutputValues!D7*MinerOutputValues!D15*MinerOutputValues!D21) + (J8*MinerOutputValues!D8*MinerOutputValues!D13*MinerOutputValues!D21) )</f>
-        <v>600</v>
-      </c>
     </row>
     <row r="13" spans="3:21">
-      <c r="F13" s="36"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="I14" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="J14" s="59"/>
-      <c r="L14" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
+      <c r="C14" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="I14" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="L14" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
     </row>
     <row r="15" spans="3:21">
       <c r="C15" s="16" t="s">
@@ -6504,31 +5672,31 @@
         <v>66</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="J15" s="32">
+        <v>116</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="31">
         <v>0.5</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="3:21">
@@ -6543,33 +5711,29 @@
         <f>SUM((F10/45)*15)</f>
         <v>1200</v>
       </c>
-      <c r="F16" s="15">
-        <f>SUM((F11/45)*15)</f>
-        <v>2240</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16">
+      <c r="F16" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="G16" s="37">
         <v>2</v>
       </c>
-      <c r="I16" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="J16" s="32">
+      <c r="I16" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="31">
         <v>0.35</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="3:22">
@@ -6584,20 +5748,16 @@
         <f>SUM((E10/50)*100)</f>
         <v>3000</v>
       </c>
-      <c r="F17" s="15">
-        <f>SUM((E11/50)*100)</f>
-        <v>6000</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17">
+      <c r="F17" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="37">
         <v>4</v>
       </c>
-      <c r="I17" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="J17" s="32">
+      <c r="I17" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="31">
         <v>0.65</v>
       </c>
       <c r="L17" s="15" t="s">
@@ -6625,20 +5785,16 @@
         <f>SUM((G10/40)*60)</f>
         <v>1800</v>
       </c>
-      <c r="F18" s="15">
-        <f>SUM((G11/40)*60)</f>
-        <v>2160</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>205</v>
-      </c>
-      <c r="H18">
+      <c r="F18" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="37">
         <v>2</v>
       </c>
-      <c r="I18" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" s="32">
+      <c r="I18" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" s="31">
         <v>0.8</v>
       </c>
       <c r="L18" s="15" t="s">
@@ -6648,10 +5804,10 @@
         <v>62</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="3:22">
@@ -6666,24 +5822,23 @@
         <f>SUM(D10-(E10/2)-G10)</f>
         <v>2250</v>
       </c>
-      <c r="F19" s="17">
-        <f>SUM(D11-(E11/2)-G11)</f>
-        <v>5460</v>
-      </c>
-      <c r="G19" s="38">
+      <c r="F19" s="37">
         <v>0</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="32">
+      <c r="G19" s="37">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" s="31">
         <v>0.2</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
@@ -6700,20 +5855,16 @@
         <f>SUM((E19/30)*30)</f>
         <v>2250</v>
       </c>
-      <c r="F20" s="17">
-        <f>SUM((F19/30)*30)</f>
-        <v>5460</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20">
+      <c r="F20" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="37">
         <v>4</v>
       </c>
-      <c r="I20" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J20" s="35">
+      <c r="I20" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="34">
         <v>0.85</v>
       </c>
       <c r="L20" s="15" t="s">
@@ -6727,7 +5878,7 @@
     </row>
     <row r="21" spans="3:22">
       <c r="C21" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D21" s="17">
         <f>SUM((I9/45)*15)</f>
@@ -6737,17 +5888,16 @@
         <f>SUM((I10/45)*15)</f>
         <v>400</v>
       </c>
-      <c r="F21" s="15">
-        <f>SUM((I11/45)*15)</f>
-        <v>480</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="J21" s="35">
+      <c r="F21" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" s="34">
         <v>0.15</v>
       </c>
       <c r="L21" s="15" t="s">
@@ -6763,21 +5913,17 @@
       <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>350</v>
+      <c r="D22" s="17">
+        <v>1500</v>
       </c>
       <c r="E22" s="17">
         <f>SUM(((H10*0.85)/22.5)*37.5)</f>
-        <v>850</v>
-      </c>
-      <c r="F22" s="17">
-        <f>SUM(((H11*0.85)/22.5)*37.5)</f>
         <v>1700</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>209</v>
-      </c>
-      <c r="H22">
+      <c r="F22" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="G22" s="37">
         <v>2</v>
       </c>
       <c r="S22" s="18"/>
@@ -6787,7 +5933,7 @@
     </row>
     <row r="23" spans="3:22">
       <c r="C23" s="17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D23" s="17">
         <f>SUM(((H9*0.15)/37.5)*22.5)</f>
@@ -6795,32 +5941,27 @@
       </c>
       <c r="E23" s="17">
         <f>SUM(((H10*0.15)/37.5)*22.5)</f>
-        <v>54</v>
-      </c>
-      <c r="F23" s="17">
-        <f>SUM(((H11*0.15)/37.5)*22.5)</f>
         <v>108</v>
       </c>
-      <c r="G23" s="38">
-        <f t="shared" ref="G23" si="0">ROUND(D23/780,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="F23" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="G23" s="37">
         <v>1</v>
       </c>
-      <c r="I23" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
+      <c r="I23" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
@@ -6830,68 +5971,68 @@
         <v>59</v>
       </c>
       <c r="J24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="Q24" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q24" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="R24" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="S24" s="33" t="s">
-        <v>197</v>
+      <c r="R24" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>191</v>
       </c>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
       <c r="V24" s="18"/>
     </row>
     <row r="25" spans="3:22" ht="15.75">
-      <c r="C25" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="C25" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="I25" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J25" s="15">
         <v>15</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15">
         <v>15</v>
       </c>
-      <c r="O25" s="39">
+      <c r="O25" s="38">
         <v>8</v>
       </c>
       <c r="P25" s="15">
         <f>N25*O25</f>
         <v>120</v>
       </c>
-      <c r="Q25" s="39">
+      <c r="Q25" s="38">
         <v>8</v>
       </c>
       <c r="R25" s="15">
@@ -6907,34 +6048,34 @@
       <c r="V25" s="18"/>
     </row>
     <row r="26" spans="3:22" ht="15.75">
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
       <c r="I26" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J26" s="15">
         <v>120</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15">
         <v>30</v>
       </c>
-      <c r="O26" s="39">
+      <c r="O26" s="38">
         <v>4</v>
       </c>
       <c r="P26" s="15">
         <f>N26*O26</f>
         <v>120</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="38">
         <v>4</v>
       </c>
       <c r="R26" s="15">
@@ -6951,37 +6092,37 @@
     </row>
     <row r="27" spans="3:22" ht="15.75">
       <c r="C27" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F27" s="15"/>
       <c r="I27" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J27" s="15">
         <v>120</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15">
         <v>20</v>
       </c>
-      <c r="O27" s="39">
+      <c r="O27" s="38">
         <v>4</v>
       </c>
       <c r="P27" s="15">
         <f t="shared" ref="P27:P34" si="3">N27*O27</f>
         <v>80</v>
       </c>
-      <c r="Q27" s="39">
+      <c r="Q27" s="38">
         <v>4</v>
       </c>
       <c r="R27" s="15">
@@ -7006,27 +6147,27 @@
       </c>
       <c r="F28" s="15"/>
       <c r="I28" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J28" s="15">
         <v>120</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15">
         <v>50</v>
       </c>
-      <c r="O28" s="39">
+      <c r="O28" s="38">
         <v>10</v>
       </c>
       <c r="P28" s="15">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="Q28" s="39">
+      <c r="Q28" s="38">
         <v>10</v>
       </c>
       <c r="R28" s="15">
@@ -7051,27 +6192,27 @@
       </c>
       <c r="F29" s="15"/>
       <c r="I29" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J29" s="15">
         <v>60</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15">
         <v>5.625</v>
       </c>
-      <c r="O29" s="39">
+      <c r="O29" s="38">
         <f>ROUNDDOWN(SUM(D20/J29),0)</f>
         <v>10</v>
       </c>
       <c r="P29" s="15">
         <v>67</v>
       </c>
-      <c r="Q29" s="39">
+      <c r="Q29" s="38">
         <v>10</v>
       </c>
       <c r="R29" s="15">
@@ -7096,7 +6237,7 @@
       </c>
       <c r="F30" s="15"/>
       <c r="I30" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J30" s="15">
         <v>30</v>
@@ -7109,7 +6250,7 @@
       <c r="N30" s="15">
         <v>20</v>
       </c>
-      <c r="O30" s="39">
+      <c r="O30" s="38">
         <f>ROUNDDOWN(SUM(D18*J18)/J30,0)</f>
         <v>48</v>
       </c>
@@ -7117,7 +6258,7 @@
         <f t="shared" si="3"/>
         <v>960</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="Q30" s="38">
         <v>48</v>
       </c>
       <c r="R30" s="15">
@@ -7142,7 +6283,7 @@
       </c>
       <c r="F31" s="15"/>
       <c r="I31" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J31" s="15">
         <v>60</v>
@@ -7155,7 +6296,7 @@
       <c r="N31" s="15">
         <v>15</v>
       </c>
-      <c r="O31" s="39">
+      <c r="O31" s="38">
         <f>ROUNDDOWN(SUM(D18*J19)/J31,0)</f>
         <v>6</v>
       </c>
@@ -7163,7 +6304,7 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="Q31" s="39">
+      <c r="Q31" s="38">
         <v>5</v>
       </c>
       <c r="R31" s="15">
@@ -7188,7 +6329,7 @@
       </c>
       <c r="F32" s="15"/>
       <c r="I32" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J32" s="15">
         <v>20</v>
@@ -7201,7 +6342,7 @@
       <c r="N32" s="15">
         <v>10</v>
       </c>
-      <c r="O32" s="39">
+      <c r="O32" s="38">
         <f>ROUNDDOWN(SUM(D17*J15)/J32,0)</f>
         <v>60</v>
       </c>
@@ -7209,7 +6350,7 @@
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="Q32" s="39">
+      <c r="Q32" s="38">
         <v>60</v>
       </c>
       <c r="R32" s="15">
@@ -7234,7 +6375,7 @@
       </c>
       <c r="F33" s="15"/>
       <c r="I33" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J33" s="15">
         <v>12</v>
@@ -7246,12 +6387,12 @@
         <v>3</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N33" s="15">
         <v>90</v>
       </c>
-      <c r="O33" s="39">
+      <c r="O33" s="38">
         <f>ROUNDDOWN(SUM(D21*J16)/L33,0)</f>
         <v>46</v>
       </c>
@@ -7259,7 +6400,7 @@
         <f t="shared" si="3"/>
         <v>4140</v>
       </c>
-      <c r="Q33" s="39">
+      <c r="Q33" s="38">
         <v>16</v>
       </c>
       <c r="R33" s="15">
@@ -7284,7 +6425,7 @@
       </c>
       <c r="F34" s="15"/>
       <c r="I34" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J34" s="15">
         <v>37.5</v>
@@ -7296,12 +6437,12 @@
         <v>7.5</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N34" s="15">
         <v>90</v>
       </c>
-      <c r="O34" s="39">
+      <c r="O34" s="38">
         <f>ROUNDDOWN(SUM(D21*J17)/L34,0)</f>
         <v>34</v>
       </c>
@@ -7309,7 +6450,7 @@
         <f t="shared" si="3"/>
         <v>3060</v>
       </c>
-      <c r="Q34" s="39">
+      <c r="Q34" s="38">
         <v>14</v>
       </c>
       <c r="R34" s="15">
@@ -7346,29 +6487,29 @@
         <v>60</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="I36" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="J36" s="32" t="s">
+      <c r="I36" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="N36" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="K36" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="L36" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="M36" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="N36" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="O36" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="P36" s="33" t="s">
-        <v>167</v>
+      <c r="O36" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="P36" s="32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="3:19">
@@ -7383,31 +6524,31 @@
         <v>60</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="I37" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="J37" s="32">
+      <c r="I37" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" s="31">
         <v>0.5</v>
       </c>
-      <c r="K37" s="32" t="e">
+      <c r="K37" s="31">
         <f>ROUNDDOWN(SUM((D22*0.5)/27.5),0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L37" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="M37" s="32">
+        <v>27</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="M37" s="31">
         <v>1</v>
       </c>
-      <c r="N37" s="32">
+      <c r="N37" s="31">
         <f>ROUNDDOWN(SUM((P32*1)/27.5),0)</f>
         <v>21</v>
       </c>
-      <c r="O37" s="32" t="e">
+      <c r="O37" s="31">
         <f>IF(K37&gt;N37,N37,K37)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P37" s="32">
+        <v>21</v>
+      </c>
+      <c r="P37" s="31">
         <v>15</v>
       </c>
     </row>
@@ -7423,31 +6564,31 @@
         <v>120</v>
       </c>
       <c r="F38" s="15"/>
-      <c r="I38" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="J38" s="32">
+      <c r="I38" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="J38" s="31">
         <v>0.7</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K38" s="31">
         <f>ROUNDDOWN(SUM((D16*J38)/20),0)</f>
         <v>16</v>
       </c>
-      <c r="L38" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="M38" s="32">
+      <c r="L38" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="M38" s="31">
         <v>0.25</v>
       </c>
-      <c r="N38" s="32">
+      <c r="N38" s="31">
         <f>ROUNDDOWN(SUM((P30*M38)/28),0)</f>
         <v>8</v>
       </c>
-      <c r="O38" s="32">
+      <c r="O38" s="31">
         <f t="shared" ref="O38:O40" si="5">IF(K38&gt;N38,N38,K38)</f>
         <v>8</v>
       </c>
-      <c r="P38" s="32">
+      <c r="P38" s="31">
         <v>8</v>
       </c>
     </row>
@@ -7463,31 +6604,31 @@
         <v>120</v>
       </c>
       <c r="F39" s="15"/>
-      <c r="I39" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="32">
+      <c r="I39" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="J39" s="31">
         <v>1</v>
       </c>
-      <c r="K39" s="32">
+      <c r="K39" s="31">
         <f>ROUNDDOWN(SUM((R29*1)/2),0)</f>
         <v>28</v>
       </c>
-      <c r="L39" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="M39" s="32">
+      <c r="L39" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="M39" s="31">
         <v>0.15</v>
       </c>
-      <c r="N39" s="32">
+      <c r="N39" s="31">
         <f>ROUNDDOWN(SUM((P30*M39)/10),0)</f>
         <v>14</v>
       </c>
-      <c r="O39" s="32">
+      <c r="O39" s="31">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="P39" s="32">
+      <c r="P39" s="31">
         <v>14</v>
       </c>
     </row>
@@ -7503,31 +6644,31 @@
         <v>120</v>
       </c>
       <c r="F40" s="15"/>
-      <c r="I40" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="J40" s="32">
+      <c r="I40" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J40" s="31">
         <v>0.8</v>
       </c>
-      <c r="K40" s="32">
+      <c r="K40" s="31">
         <f>ROUNDDOWN(SUM((R33*J40)/40),0)</f>
         <v>28</v>
       </c>
-      <c r="L40" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="M40" s="32">
+      <c r="L40" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="M40" s="31">
         <v>0.25</v>
       </c>
-      <c r="N40" s="32">
+      <c r="N40" s="31">
         <f>ROUNDDOWN(SUM((P30*M40)/15),0)</f>
         <v>16</v>
       </c>
-      <c r="O40" s="32">
+      <c r="O40" s="31">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="P40" s="32">
+      <c r="P40" s="31">
         <v>16</v>
       </c>
     </row>
@@ -7543,30 +6684,30 @@
         <v>120</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="I41" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="J41" s="32">
+      <c r="I41" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J41" s="31">
         <v>0.2</v>
       </c>
-      <c r="K41" s="32">
+      <c r="K41" s="31">
         <f>ROUNDDOWN(SUM((R33*J41)/30),0)</f>
         <v>9</v>
       </c>
-      <c r="L41" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="M41" s="32">
+      <c r="L41" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="M41" s="31">
         <v>0.17</v>
       </c>
-      <c r="N41" s="32">
+      <c r="N41" s="31">
         <f>ROUNDDOWN(SUM((P30*M41)/10),0)</f>
         <v>16</v>
       </c>
-      <c r="O41" s="32">
+      <c r="O41" s="31">
         <v>16</v>
       </c>
-      <c r="P41" s="32">
+      <c r="P41" s="31">
         <v>16</v>
       </c>
     </row>
@@ -7582,29 +6723,29 @@
         <v>120</v>
       </c>
       <c r="F42" s="15"/>
-      <c r="I42" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="J42" s="32">
+      <c r="I42" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="31">
         <v>1</v>
       </c>
-      <c r="K42" s="32">
+      <c r="K42" s="31">
         <v>2</v>
       </c>
-      <c r="L42" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="M42" s="32">
+      <c r="L42" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="M42" s="31">
         <v>1</v>
       </c>
-      <c r="N42" s="32">
+      <c r="N42" s="31">
         <f>SUM(O41/2)</f>
         <v>8</v>
       </c>
-      <c r="O42" s="32">
+      <c r="O42" s="31">
         <v>8</v>
       </c>
-      <c r="P42" s="32">
+      <c r="P42" s="31">
         <v>8</v>
       </c>
     </row>
@@ -7646,19 +6787,19 @@
         <v>300</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="I45" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="61"/>
-      <c r="S45" s="61"/>
+      <c r="I45" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
     </row>
     <row r="46" spans="3:19">
       <c r="C46" s="15">
@@ -7675,40 +6816,40 @@
       <c r="I46" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J46" s="33" t="s">
-        <v>168</v>
+      <c r="J46" s="32" t="s">
+        <v>162</v>
       </c>
       <c r="K46" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M46" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O46" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q46" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="R46" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="M46" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="N46" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="O46" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="P46" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q46" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="R46" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="S46" s="33" t="s">
-        <v>197</v>
+      <c r="S46" s="32" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="3:19">
       <c r="C47" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D47" s="15">
         <v>19</v>
@@ -7719,7 +6860,7 @@
       </c>
       <c r="F47" s="15"/>
       <c r="I47" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J47" s="15">
         <f>O47*R47</f>
@@ -7735,36 +6876,36 @@
         <v>27.5</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O47" s="15">
         <v>12.5</v>
       </c>
-      <c r="P47" s="15" t="e">
+      <c r="P47" s="15">
         <f>O37</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q47" s="15" t="e">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="15">
         <f t="shared" ref="Q47:Q52" si="6">O47*P47</f>
-        <v>#VALUE!</v>
+        <v>262.5</v>
       </c>
       <c r="R47" s="15">
         <v>15</v>
       </c>
-      <c r="S47" s="15" t="e">
+      <c r="S47" s="15">
         <f t="shared" ref="S47:S52" si="7">Q47-J47</f>
-        <v>#VALUE!</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="3:19">
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="53"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="52"/>
       <c r="I48" s="15" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="J48" s="15">
         <f>O48*R48</f>
@@ -7803,17 +6944,17 @@
     </row>
     <row r="49" spans="3:19">
       <c r="C49" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F49" s="15"/>
       <c r="I49" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J49" s="15">
         <f>O49*R49</f>
@@ -7829,7 +6970,7 @@
         <v>2</v>
       </c>
       <c r="N49" s="15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O49" s="15">
         <v>3</v>
@@ -7879,7 +7020,7 @@
         <v>40</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O50" s="15">
         <v>5</v>
@@ -7913,7 +7054,7 @@
       </c>
       <c r="F51" s="15"/>
       <c r="I51" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J51" s="15">
         <f>SUM((O51*P51)-(J52*2))</f>
@@ -7929,7 +7070,7 @@
         <v>30</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O51" s="15">
         <v>5</v>
@@ -7973,13 +7114,13 @@
         <v>10</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M52" s="15">
         <v>10</v>
       </c>
       <c r="N52" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="O52" s="15">
         <v>5</v>
@@ -8012,10 +7153,6 @@
         <v>120</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="I53" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J53" s="15"/>
     </row>
     <row r="54" spans="3:19">
       <c r="C54" s="15">
@@ -8029,10 +7166,6 @@
         <v>120</v>
       </c>
       <c r="F54" s="15"/>
-      <c r="I54" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J54" s="15"/>
     </row>
     <row r="55" spans="3:19">
       <c r="C55" s="15">
@@ -8046,14 +7179,10 @@
         <v>240</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="I55" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="J55" s="15"/>
     </row>
     <row r="56" spans="3:19">
       <c r="C56" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
@@ -8061,41 +7190,26 @@
         <v>1200</v>
       </c>
       <c r="F56" s="15"/>
-      <c r="I56" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J56" s="15"/>
     </row>
     <row r="57" spans="3:19">
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="53"/>
-      <c r="I57" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="15">
-        <f>R31</f>
-        <v>75</v>
-      </c>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="52"/>
     </row>
     <row r="58" spans="3:19">
       <c r="C58" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F58" s="15"/>
-      <c r="I58" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="15"/>
     </row>
     <row r="59" spans="3:19">
       <c r="C59" s="15">
@@ -8288,7 +7402,7 @@
     </row>
     <row r="73" spans="3:19">
       <c r="C73" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
@@ -8299,23 +7413,23 @@
       <c r="S73" s="18"/>
     </row>
     <row r="74" spans="3:19">
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="53"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="52"/>
       <c r="S74" s="18"/>
     </row>
     <row r="75" spans="3:19">
       <c r="C75" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F75" s="15"/>
     </row>
@@ -8347,7 +7461,7 @@
     </row>
     <row r="78" spans="3:19">
       <c r="C78" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="15">
@@ -8357,22 +7471,22 @@
       <c r="F78" s="15"/>
     </row>
     <row r="79" spans="3:19">
-      <c r="C79" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="53"/>
+      <c r="C79" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="52"/>
     </row>
     <row r="80" spans="3:19">
       <c r="C80" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F80" s="15"/>
     </row>
@@ -8404,7 +7518,7 @@
     </row>
     <row r="83" spans="3:6">
       <c r="C83" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
@@ -8414,79 +7528,79 @@
       <c r="F83" s="15"/>
     </row>
     <row r="84" spans="3:6">
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="53"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="52"/>
     </row>
     <row r="85" spans="3:6">
       <c r="C85" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F85" s="15"/>
     </row>
     <row r="86" spans="3:6">
       <c r="C86" s="15">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D86" s="15">
         <v>2.5</v>
       </c>
       <c r="E86" s="15">
         <f>C86*D86</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F86" s="15"/>
     </row>
     <row r="87" spans="3:6">
-      <c r="C87" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D87" s="15"/>
+      <c r="C87" s="15">
+        <v>240</v>
+      </c>
+      <c r="D87" s="15">
+        <v>2.5</v>
+      </c>
       <c r="E87" s="15">
-        <f>SUM(E86:E86)</f>
-        <v>300</v>
+        <f>C87*D87</f>
+        <v>600</v>
       </c>
       <c r="F87" s="15"/>
     </row>
     <row r="88" spans="3:6">
-      <c r="C88" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="53"/>
+      <c r="C88" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15">
+        <f>SUM(E86:E87)</f>
+        <v>1200</v>
+      </c>
+      <c r="F88" s="15"/>
     </row>
     <row r="89" spans="3:6">
-      <c r="C89" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E89" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F89" s="15"/>
+      <c r="C89" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="52"/>
     </row>
     <row r="90" spans="3:6">
-      <c r="C90" s="15">
-        <v>240</v>
-      </c>
-      <c r="D90" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="E90" s="15">
-        <f>D90*C90</f>
-        <v>600</v>
+      <c r="C90" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="F90" s="15"/>
     </row>
@@ -8498,28 +7612,42 @@
         <v>2.5</v>
       </c>
       <c r="E91" s="15">
-        <f>C91*D91</f>
+        <f>D91*C91</f>
         <v>600</v>
       </c>
       <c r="F91" s="15"/>
     </row>
     <row r="92" spans="3:6">
-      <c r="C92" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D92" s="15"/>
+      <c r="C92" s="15">
+        <v>240</v>
+      </c>
+      <c r="D92" s="15">
+        <v>2.5</v>
+      </c>
       <c r="E92" s="15">
-        <f>SUM(E90:E91)</f>
+        <f>C92*D92</f>
+        <v>600</v>
+      </c>
+      <c r="F92" s="15"/>
+    </row>
+    <row r="93" spans="3:6">
+      <c r="C93" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15">
+        <f>SUM(E91:E92)</f>
         <v>1200</v>
       </c>
-      <c r="F92" s="15"/>
+      <c r="F93" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L5:O5"/>
     <mergeCell ref="C3:U3"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C89:F89"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="I45:S45"/>
@@ -8531,16 +7659,1883 @@
     <mergeCell ref="C74:F74"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G18" r:id="rId1" xr:uid="{185B9E80-AF4C-40F7-8663-3F514E7F841D}"/>
-    <hyperlink ref="G17" r:id="rId2" xr:uid="{BCAA26CE-D6B5-4194-9ADA-905BDC2DE11F}"/>
-    <hyperlink ref="G16" r:id="rId3" xr:uid="{3BA93377-CEBD-40C0-B62C-1D34448DA57D}"/>
-    <hyperlink ref="G21" r:id="rId4" xr:uid="{F697FE49-1D6A-4933-8E1E-D666F4D62AA0}"/>
+    <hyperlink ref="F18" r:id="rId1" xr:uid="{185B9E80-AF4C-40F7-8663-3F514E7F841D}"/>
+    <hyperlink ref="F17" r:id="rId2" xr:uid="{BCAA26CE-D6B5-4194-9ADA-905BDC2DE11F}"/>
+    <hyperlink ref="F16" r:id="rId3" xr:uid="{3BA93377-CEBD-40C0-B62C-1D34448DA57D}"/>
+    <hyperlink ref="F21" r:id="rId4" xr:uid="{F697FE49-1D6A-4933-8E1E-D666F4D62AA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA0751C-1EB6-4741-8406-B680E49C7543}">
+  <dimension ref="B2:Q60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17">
+      <c r="B2" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="H2" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="P3" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="15">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" s="15">
+        <v>35</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>9999</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="15">
+        <v>65</v>
+      </c>
+      <c r="N4" s="15">
+        <v>48.85</v>
+      </c>
+      <c r="O4" s="15">
+        <f>SUM(I4*N4)</f>
+        <v>1709.75</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15">
+        <f>M4*N4</f>
+        <v>3175.25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>4</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="I5" s="15">
+        <v>20</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>20</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="15">
+        <v>50</v>
+      </c>
+      <c r="N5" s="15">
+        <v>38.28</v>
+      </c>
+      <c r="O5" s="15">
+        <f t="shared" ref="O5:O8" si="0">SUM(I5*N5)</f>
+        <v>765.6</v>
+      </c>
+      <c r="P5" s="15">
+        <f>K5*N5</f>
+        <v>765.6</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" ref="Q5:Q8" si="1">M5*N5</f>
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="I6" s="15">
+        <v>15</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="15">
+        <v>9999</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="M6" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="N6" s="15">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="O6" s="15">
+        <f t="shared" si="0"/>
+        <v>134.25</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15">
+        <f t="shared" si="1"/>
+        <v>335.625</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="15">
+        <f>E18</f>
+        <v>2520</v>
+      </c>
+      <c r="D7" s="15">
+        <f>E23</f>
+        <v>900</v>
+      </c>
+      <c r="E7" s="15">
+        <f>E29</f>
+        <v>2040</v>
+      </c>
+      <c r="F7" s="15">
+        <f>E37</f>
+        <v>3120</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="I7" s="15">
+        <v>120</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="15">
+        <v>9999</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="15">
+        <v>80</v>
+      </c>
+      <c r="N7" s="15">
+        <v>17</v>
+      </c>
+      <c r="O7" s="15">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15">
+        <f t="shared" si="1"/>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="H8" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="I8" s="15">
+        <v>40</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="15">
+        <v>40</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="M8" s="15">
+        <v>60</v>
+      </c>
+      <c r="N8" s="15">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="O8" s="15">
+        <f t="shared" si="0"/>
+        <v>3106</v>
+      </c>
+      <c r="P8" s="15">
+        <f>K8*N8</f>
+        <v>3106</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="1"/>
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="K10" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="54"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="15">
+        <v>30</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4</v>
+      </c>
+      <c r="E11" s="15">
+        <f>B11*C11*D11</f>
+        <v>300</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="I11" s="15">
+        <f>Q4+Q5</f>
+        <v>5089.25</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15">
+        <f>SUM(C7-(O4+O5))</f>
+        <v>44.650000000000091</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="15">
+        <v>30</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" ref="E12:E17" si="2">B12*C12*D12</f>
+        <v>300</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="I12" s="15">
+        <f>I11-P8</f>
+        <v>1983.25</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="15">
+        <f>SUM(D7-(P5+O6))</f>
+        <v>0.14999999999997726</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="15">
+        <v>30</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="I13" s="15">
+        <f>Q6</f>
+        <v>335.625</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="15">
+        <f>SUM(F7-O8)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="15">
+        <v>30</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="15">
+        <v>4</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="I14" s="15">
+        <f>Q7</f>
+        <v>1360</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="15">
+        <f>SUM(E7-O7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="15">
+        <v>30</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="I15" s="15">
+        <f>Q8</f>
+        <v>4659</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="15">
+        <v>30</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="15">
+        <v>4</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="15">
+        <v>120</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="15">
+        <v>4</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>359</v>
+      </c>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
+        <f>SUM(E11:E17)</f>
+        <v>2520</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="H19" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="I19" s="15">
+        <v>30</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="15">
+        <v>20</v>
+      </c>
+      <c r="L19" s="15">
+        <v>45.12</v>
+      </c>
+      <c r="M19" s="15">
+        <f>SUM(I19*L19)</f>
+        <v>1353.6</v>
+      </c>
+      <c r="N19" s="15">
+        <f>K19*L19</f>
+        <v>902.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="I20" s="15">
+        <v>12.5</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="15">
+        <v>22.5</v>
+      </c>
+      <c r="L20" s="15">
+        <v>50.37</v>
+      </c>
+      <c r="M20" s="15">
+        <f>SUM(I20*L20)</f>
+        <v>629.625</v>
+      </c>
+      <c r="N20" s="15">
+        <f>K20*L20</f>
+        <v>1133.325</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="15">
+        <v>30</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D21" s="15">
+        <v>4</v>
+      </c>
+      <c r="E21" s="15">
+        <f>B21*C21*D21</f>
+        <v>300</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I21" s="15">
+        <v>15</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="15">
+        <v>30</v>
+      </c>
+      <c r="L21" s="15">
+        <v>22.39</v>
+      </c>
+      <c r="M21" s="15">
+        <f>SUM(I21*L21)</f>
+        <v>335.85</v>
+      </c>
+      <c r="N21" s="15">
+        <f>K21*L21</f>
+        <v>671.7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="15">
+        <v>60</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D22" s="15">
+        <v>4</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" ref="E22" si="3">B22*C22*D22</f>
+        <v>600</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="64">
+        <v>30</v>
+      </c>
+      <c r="J22" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="64">
+        <v>20</v>
+      </c>
+      <c r="L22" s="64">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="M22" s="15">
+        <f>SUM(I22*L22)</f>
+        <v>4659</v>
+      </c>
+      <c r="N22" s="15">
+        <f>K22*L22</f>
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15">
+        <f>SUM(E21:E22)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="H24" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="K24" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="I25" s="15">
+        <f>N19</f>
+        <v>902.4</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" s="15">
+        <f>SUM(I12-(M19+M20))</f>
+        <v>2.5000000000090949E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="15">
+        <v>60</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="15">
+        <v>4</v>
+      </c>
+      <c r="E26" s="15">
+        <f>B26*C26*D26</f>
+        <v>600</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="15">
+        <f>N20+N21</f>
+        <v>1805.0250000000001</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="15">
+        <f>I13-M21</f>
+        <v>-0.22500000000002274</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="15">
+        <v>120</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="15">
+        <v>4</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" ref="E27" si="4">B27*C27*D27</f>
+        <v>720</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="15">
+        <f>N22</f>
+        <v>3106</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="15">
+        <f>I15-M22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="15">
+        <v>120</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="15">
+        <v>4</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" ref="E28" si="5">B28*C28*D28</f>
+        <v>720</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="15">
+        <f>I14</f>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15">
+        <f>SUM(E26:E28)</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="H30" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q31" s="32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="15">
+        <v>60</v>
+      </c>
+      <c r="C32" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D32" s="15">
+        <v>4</v>
+      </c>
+      <c r="E32" s="15">
+        <f>B32*C32*D32</f>
+        <v>600</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="I32" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="15">
+        <v>18.75</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="M32" s="15">
+        <v>5.625</v>
+      </c>
+      <c r="N32" s="15">
+        <v>48.13</v>
+      </c>
+      <c r="O32" s="15">
+        <f>SUM(I32*N32)</f>
+        <v>1804.875</v>
+      </c>
+      <c r="P32" s="15">
+        <f>K32*N32</f>
+        <v>902.4375</v>
+      </c>
+      <c r="Q32" s="15">
+        <f>M32*N32</f>
+        <v>270.73124999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="15">
+        <v>60</v>
+      </c>
+      <c r="C33" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D33" s="15">
+        <v>4</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" ref="E33" si="6">B33*C33*D33</f>
+        <v>600</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="I33" s="15">
+        <v>2</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="K33" s="15">
+        <v>10</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="15">
+        <v>3</v>
+      </c>
+      <c r="N33" s="15">
+        <v>50.37</v>
+      </c>
+      <c r="O33" s="15">
+        <f t="shared" ref="O33:O34" si="7">SUM(I33*N33)</f>
+        <v>100.74</v>
+      </c>
+      <c r="P33" s="15">
+        <f t="shared" ref="P33:P34" si="8">K33*N33</f>
+        <v>503.7</v>
+      </c>
+      <c r="Q33" s="15">
+        <f t="shared" ref="Q33:Q34" si="9">M33*N33</f>
+        <v>151.10999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="15">
+        <v>60</v>
+      </c>
+      <c r="C34" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D34" s="15">
+        <v>4</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" ref="E34:E35" si="10">B34*C34*D34</f>
+        <v>600</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="15">
+        <v>28</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" s="15">
+        <v>20</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="15">
+        <v>4</v>
+      </c>
+      <c r="N34" s="15">
+        <v>47.22</v>
+      </c>
+      <c r="O34" s="15">
+        <f t="shared" si="7"/>
+        <v>1322.1599999999999</v>
+      </c>
+      <c r="P34" s="15">
+        <f t="shared" si="8"/>
+        <v>944.4</v>
+      </c>
+      <c r="Q34" s="15">
+        <f t="shared" si="9"/>
+        <v>188.88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="15">
+        <v>60</v>
+      </c>
+      <c r="C35" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D35" s="15">
+        <v>4</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="10"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="15">
+        <v>120</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D36" s="15">
+        <v>4</v>
+      </c>
+      <c r="E36" s="15">
+        <f>B36*C36*D36</f>
+        <v>720</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="I36" s="54"/>
+      <c r="K36" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="L36" s="54"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15">
+        <f>SUM(E32:E36)</f>
+        <v>3120</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="I37" s="15">
+        <f>Q32-O33</f>
+        <v>169.99124999999998</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="L37" s="15">
+        <f>I25-P32</f>
+        <v>-3.7500000000022737E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="H38" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="I38" s="15">
+        <f>Q33</f>
+        <v>151.10999999999999</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" s="15">
+        <f>I26-O32</f>
+        <v>0.15000000000009095</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="H39" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="I39" s="15">
+        <f>Q34</f>
+        <v>188.88</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L39" s="15">
+        <f>SUM(I27-(P33+O34))</f>
+        <v>1280.1400000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="K40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="15">
+        <f>L28-P34</f>
+        <v>415.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="N43" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="O43" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="P43" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q43" s="32" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C44" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E44" s="15">
+        <v>9.375</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" s="15">
+        <v>20.625</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="15">
+        <v>33.75</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K44" s="15">
+        <v>2.8125</v>
+      </c>
+      <c r="L44" s="15">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="M44" s="15">
+        <f>SUM(C44*L44)</f>
+        <v>151.125</v>
+      </c>
+      <c r="N44" s="15">
+        <f>E44*L44</f>
+        <v>188.90625</v>
+      </c>
+      <c r="O44" s="15">
+        <f>SUM(G44*L44)</f>
+        <v>415.59374999999994</v>
+      </c>
+      <c r="P44" s="15">
+        <f>I44*L44</f>
+        <v>680.0625</v>
+      </c>
+      <c r="Q44" s="15">
+        <f>K44*L44</f>
+        <v>56.671874999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="E46" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="F46" s="54"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C47" s="15">
+        <f>F60</f>
+        <v>169.99124999999998</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="15">
+        <f>L11</f>
+        <v>44.650000000000091</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="15">
+        <f>F59</f>
+        <v>600.0775000000001</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="15">
+        <f>L12</f>
+        <v>0.14999999999997726</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="15">
+        <f>Q44</f>
+        <v>56.671874999999993</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="15">
+        <f>L13</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="E50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="15">
+        <f>L14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="E51" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="15">
+        <f>L25</f>
+        <v>2.5000000000090949E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="E52" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="15">
+        <f>L26</f>
+        <v>-0.22500000000002274</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="E53" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="15">
+        <f>L27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="E54" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="15">
+        <f>L40-O44</f>
+        <v>6.2500000000795808E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="E55" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="F55" s="15">
+        <f>L37</f>
+        <v>-3.7500000000022737E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="E56" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="15">
+        <f>L38</f>
+        <v>0.15000000000009095</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="E57" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F57" s="15">
+        <f>I38-M44</f>
+        <v>-1.5000000000014779E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="E58" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="F58" s="15">
+        <f>I39-N44</f>
+        <v>-2.6250000000004547E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="E59" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="15">
+        <f>L39-P44</f>
+        <v>600.0775000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="E60" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="F60" s="15">
+        <f>I37</f>
+        <v>169.99124999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0353B9-1CC2-4B24-B610-97234758C445}">
+  <dimension ref="C3:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" ht="18.75">
+      <c r="C3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="18.75">
+      <c r="C6" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="18.75">
+      <c r="E7" s="26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="18.75">
+      <c r="C9" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="18.75">
+      <c r="C10" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="18.75">
+      <c r="C12" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="18.75">
+      <c r="C13" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8995F-0120-482A-8124-986E8EA27808}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D381C1C-12DB-46FB-B008-4F1C0CCE7C2A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E9EB0-3E23-4641-A58B-1165AA753DC6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
+  <dimension ref="A2:AZ44"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK40" sqref="AK40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="1.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="Y2" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+    </row>
+    <row r="3" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+    </row>
+    <row r="4" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+    </row>
+    <row r="5" spans="1:52" ht="15.75" thickTop="1"/>
+    <row r="19" ht="9.75" customHeight="1"/>
+    <row r="39" spans="25:52" ht="12" customHeight="1"/>
+    <row r="42" spans="25:52">
+      <c r="Y42" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z42" s="49"/>
+      <c r="AA42" s="49"/>
+      <c r="AB42" s="49"/>
+      <c r="AC42" s="49"/>
+      <c r="AD42" s="49"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="49"/>
+      <c r="AG42" s="49"/>
+      <c r="AH42" s="49"/>
+      <c r="AI42" s="49"/>
+      <c r="AJ42" s="49"/>
+      <c r="AK42" s="49"/>
+      <c r="AL42" s="49"/>
+      <c r="AM42" s="49"/>
+      <c r="AN42" s="49"/>
+      <c r="AO42" s="49"/>
+      <c r="AP42" s="49"/>
+      <c r="AQ42" s="49"/>
+      <c r="AR42" s="49"/>
+      <c r="AS42" s="49"/>
+      <c r="AT42" s="49"/>
+      <c r="AU42" s="49"/>
+      <c r="AV42" s="49"/>
+      <c r="AW42" s="49"/>
+      <c r="AX42" s="49"/>
+      <c r="AY42" s="49"/>
+      <c r="AZ42" s="49"/>
+    </row>
+    <row r="43" spans="25:52">
+      <c r="Y43" s="49"/>
+      <c r="Z43" s="49"/>
+      <c r="AA43" s="49"/>
+      <c r="AB43" s="49"/>
+      <c r="AC43" s="49"/>
+      <c r="AD43" s="49"/>
+      <c r="AE43" s="49"/>
+      <c r="AF43" s="49"/>
+      <c r="AG43" s="49"/>
+      <c r="AH43" s="49"/>
+      <c r="AI43" s="49"/>
+      <c r="AJ43" s="49"/>
+      <c r="AK43" s="49"/>
+      <c r="AL43" s="49"/>
+      <c r="AM43" s="49"/>
+      <c r="AN43" s="49"/>
+      <c r="AO43" s="49"/>
+      <c r="AP43" s="49"/>
+      <c r="AQ43" s="49"/>
+      <c r="AR43" s="49"/>
+      <c r="AS43" s="49"/>
+      <c r="AT43" s="49"/>
+      <c r="AU43" s="49"/>
+      <c r="AV43" s="49"/>
+      <c r="AW43" s="49"/>
+      <c r="AX43" s="49"/>
+      <c r="AY43" s="49"/>
+      <c r="AZ43" s="49"/>
+    </row>
+    <row r="44" spans="25:52">
+      <c r="Y44" s="49"/>
+      <c r="Z44" s="49"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="49"/>
+      <c r="AC44" s="49"/>
+      <c r="AD44" s="49"/>
+      <c r="AE44" s="49"/>
+      <c r="AF44" s="49"/>
+      <c r="AG44" s="49"/>
+      <c r="AH44" s="49"/>
+      <c r="AI44" s="49"/>
+      <c r="AJ44" s="49"/>
+      <c r="AK44" s="49"/>
+      <c r="AL44" s="49"/>
+      <c r="AM44" s="49"/>
+      <c r="AN44" s="49"/>
+      <c r="AO44" s="49"/>
+      <c r="AP44" s="49"/>
+      <c r="AQ44" s="49"/>
+      <c r="AR44" s="49"/>
+      <c r="AS44" s="49"/>
+      <c r="AT44" s="49"/>
+      <c r="AU44" s="49"/>
+      <c r="AV44" s="49"/>
+      <c r="AW44" s="49"/>
+      <c r="AX44" s="49"/>
+      <c r="AY44" s="49"/>
+      <c r="AZ44" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:R4"/>
+    <mergeCell ref="Y2:AZ4"/>
+    <mergeCell ref="Y42:AZ44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0B546C-021A-4924-AEED-01FA6C5DC866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DE4D52-8CC7-4522-AFF6-5FB0BD1245B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" tabRatio="780" firstSheet="1" activeTab="3" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -1767,17 +1767,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1786,18 +1793,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1812,7 +1807,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyAlignment="1">
@@ -1821,7 +1822,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -3112,11 +3112,11 @@
       <c r="A1" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" ht="21">
       <c r="B2" s="41" t="s">
@@ -3775,16 +3775,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="63"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="12" t="s">
@@ -3819,10 +3819,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="64"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="11" t="s">
@@ -3865,10 +3865,10 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="64"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="11" t="s">
@@ -4776,10 +4776,10 @@
       </c>
     </row>
     <row r="39" spans="3:18" ht="30" customHeight="1">
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40" spans="3:18" ht="18.75">
       <c r="C40" s="24" t="s">
@@ -5328,7 +5328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
   <dimension ref="C1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -5360,39 +5360,39 @@
     <row r="1" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="2" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="3" spans="3:21" ht="23.25">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="3:21">
       <c r="C5" s="14" t="s">
@@ -5419,12 +5419,12 @@
       <c r="J5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="15" t="s">
@@ -5623,7 +5623,7 @@
         <v>1200</v>
       </c>
       <c r="J10" s="15">
-        <f t="shared" ref="J10:J11" si="0">E89</f>
+        <f t="shared" ref="J10" si="0">E89</f>
         <v>0</v>
       </c>
       <c r="L10" s="15" t="s">
@@ -5646,23 +5646,23 @@
       <c r="F13" s="35"/>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="I14" s="57" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="I14" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="L14" s="59" t="s">
+      <c r="J14" s="57"/>
+      <c r="L14" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
     </row>
     <row r="15" spans="3:21">
       <c r="C15" s="16" t="s">
@@ -5949,19 +5949,19 @@
       <c r="G23" s="37">
         <v>1</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
@@ -6005,12 +6005,12 @@
       <c r="V24" s="18"/>
     </row>
     <row r="25" spans="3:22" ht="15.75">
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
       <c r="I25" s="15" t="s">
         <v>99</v>
       </c>
@@ -6048,12 +6048,12 @@
       <c r="V25" s="18"/>
     </row>
     <row r="26" spans="3:22" ht="15.75">
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
       <c r="I26" s="15" t="s">
         <v>100</v>
       </c>
@@ -6787,19 +6787,19 @@
         <v>300</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
     </row>
     <row r="46" spans="3:19">
       <c r="C46" s="15">
@@ -6898,12 +6898,12 @@
       </c>
     </row>
     <row r="48" spans="3:19">
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="52"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="55"/>
       <c r="I48" s="15" t="s">
         <v>207</v>
       </c>
@@ -7192,12 +7192,12 @@
       <c r="F56" s="15"/>
     </row>
     <row r="57" spans="3:19">
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="52"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="55"/>
     </row>
     <row r="58" spans="3:19">
       <c r="C58" s="15" t="s">
@@ -7413,12 +7413,12 @@
       <c r="S73" s="18"/>
     </row>
     <row r="74" spans="3:19">
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="52"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="55"/>
       <c r="S74" s="18"/>
     </row>
     <row r="75" spans="3:19">
@@ -7471,12 +7471,12 @@
       <c r="F78" s="15"/>
     </row>
     <row r="79" spans="3:19">
-      <c r="C79" s="50" t="s">
+      <c r="C79" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="D79" s="51"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="52"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="55"/>
     </row>
     <row r="80" spans="3:19">
       <c r="C80" s="15" t="s">
@@ -7528,12 +7528,12 @@
       <c r="F83" s="15"/>
     </row>
     <row r="84" spans="3:6">
-      <c r="C84" s="50" t="s">
+      <c r="C84" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="51"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="52"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="55"/>
     </row>
     <row r="85" spans="3:6">
       <c r="C85" s="15" t="s">
@@ -7585,12 +7585,12 @@
       <c r="F88" s="15"/>
     </row>
     <row r="89" spans="3:6">
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="52"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="55"/>
     </row>
     <row r="90" spans="3:6">
       <c r="C90" s="15" t="s">
@@ -7676,8 +7676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA0751C-1EB6-4741-8406-B680E49C7543}">
   <dimension ref="B2:Q60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7698,25 +7698,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="H2" s="59" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="H2" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="14" t="s">
@@ -7961,12 +7961,12 @@
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="H8" s="15" t="s">
         <v>345</v>
       </c>
@@ -8002,12 +8002,12 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="15" t="s">
@@ -8022,14 +8022,14 @@
       <c r="E10" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="I10" s="54"/>
-      <c r="K10" s="53" t="s">
+      <c r="I10" s="52"/>
+      <c r="K10" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="15">
@@ -8198,15 +8198,15 @@
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="15" t="s">
@@ -8241,12 +8241,12 @@
       </c>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
       <c r="H19" s="15" t="s">
         <v>360</v>
       </c>
@@ -8360,19 +8360,19 @@
         <f t="shared" ref="E22" si="3">B22*C22*D22</f>
         <v>600</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="46">
         <v>30</v>
       </c>
-      <c r="J22" s="64" t="s">
+      <c r="J22" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="46">
         <v>20</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="46">
         <v>155.30000000000001</v>
       </c>
       <c r="M22" s="15">
@@ -8396,20 +8396,20 @@
       </c>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="H24" s="53" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="H24" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="I24" s="54"/>
-      <c r="K24" s="53" t="s">
+      <c r="I24" s="52"/>
+      <c r="K24" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="L24" s="54"/>
+      <c r="L24" s="52"/>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="15" t="s">
@@ -8531,21 +8531,21 @@
       </c>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="H30" s="59" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="H30" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="15" t="s">
@@ -8764,14 +8764,14 @@
         <f>B36*C36*D36</f>
         <v>720</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="I36" s="54"/>
-      <c r="K36" s="53" t="s">
+      <c r="I36" s="52"/>
+      <c r="K36" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="L36" s="54"/>
+      <c r="L36" s="52"/>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="15" t="s">
@@ -8840,24 +8840,24 @@
       </c>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="14" t="s">
@@ -8965,14 +8965,14 @@
       </c>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="C46" s="54"/>
-      <c r="E46" s="53" t="s">
+      <c r="C46" s="52"/>
+      <c r="E46" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="F46" s="54"/>
+      <c r="F46" s="52"/>
     </row>
     <row r="47" spans="2:17">
       <c r="B47" s="14" t="s">
@@ -9123,24 +9123,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="B42:Q42"/>
     <mergeCell ref="H30:N30"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9275,7 +9275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A2:AZ44"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK40" sqref="AK40"/>
     </sheetView>
   </sheetViews>
@@ -9286,247 +9286,247 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="Y2" s="49" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="Y2" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61"/>
+      <c r="AR2" s="61"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
+      <c r="AY2" s="61"/>
+      <c r="AZ2" s="61"/>
     </row>
     <row r="3" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="49"/>
-      <c r="AR3" s="49"/>
-      <c r="AS3" s="49"/>
-      <c r="AT3" s="49"/>
-      <c r="AU3" s="49"/>
-      <c r="AV3" s="49"/>
-      <c r="AW3" s="49"/>
-      <c r="AX3" s="49"/>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
     </row>
     <row r="4" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="49"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="61"/>
+      <c r="AX4" s="61"/>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="61"/>
     </row>
     <row r="5" spans="1:52" ht="15.75" thickTop="1"/>
     <row r="19" ht="9.75" customHeight="1"/>
     <row r="39" spans="25:52" ht="12" customHeight="1"/>
     <row r="42" spans="25:52">
-      <c r="Y42" s="49" t="s">
+      <c r="Y42" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="Z42" s="49"/>
-      <c r="AA42" s="49"/>
-      <c r="AB42" s="49"/>
-      <c r="AC42" s="49"/>
-      <c r="AD42" s="49"/>
-      <c r="AE42" s="49"/>
-      <c r="AF42" s="49"/>
-      <c r="AG42" s="49"/>
-      <c r="AH42" s="49"/>
-      <c r="AI42" s="49"/>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="49"/>
-      <c r="AL42" s="49"/>
-      <c r="AM42" s="49"/>
-      <c r="AN42" s="49"/>
-      <c r="AO42" s="49"/>
-      <c r="AP42" s="49"/>
-      <c r="AQ42" s="49"/>
-      <c r="AR42" s="49"/>
-      <c r="AS42" s="49"/>
-      <c r="AT42" s="49"/>
-      <c r="AU42" s="49"/>
-      <c r="AV42" s="49"/>
-      <c r="AW42" s="49"/>
-      <c r="AX42" s="49"/>
-      <c r="AY42" s="49"/>
-      <c r="AZ42" s="49"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
+      <c r="AC42" s="61"/>
+      <c r="AD42" s="61"/>
+      <c r="AE42" s="61"/>
+      <c r="AF42" s="61"/>
+      <c r="AG42" s="61"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="61"/>
+      <c r="AJ42" s="61"/>
+      <c r="AK42" s="61"/>
+      <c r="AL42" s="61"/>
+      <c r="AM42" s="61"/>
+      <c r="AN42" s="61"/>
+      <c r="AO42" s="61"/>
+      <c r="AP42" s="61"/>
+      <c r="AQ42" s="61"/>
+      <c r="AR42" s="61"/>
+      <c r="AS42" s="61"/>
+      <c r="AT42" s="61"/>
+      <c r="AU42" s="61"/>
+      <c r="AV42" s="61"/>
+      <c r="AW42" s="61"/>
+      <c r="AX42" s="61"/>
+      <c r="AY42" s="61"/>
+      <c r="AZ42" s="61"/>
     </row>
     <row r="43" spans="25:52">
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="49"/>
-      <c r="AC43" s="49"/>
-      <c r="AD43" s="49"/>
-      <c r="AE43" s="49"/>
-      <c r="AF43" s="49"/>
-      <c r="AG43" s="49"/>
-      <c r="AH43" s="49"/>
-      <c r="AI43" s="49"/>
-      <c r="AJ43" s="49"/>
-      <c r="AK43" s="49"/>
-      <c r="AL43" s="49"/>
-      <c r="AM43" s="49"/>
-      <c r="AN43" s="49"/>
-      <c r="AO43" s="49"/>
-      <c r="AP43" s="49"/>
-      <c r="AQ43" s="49"/>
-      <c r="AR43" s="49"/>
-      <c r="AS43" s="49"/>
-      <c r="AT43" s="49"/>
-      <c r="AU43" s="49"/>
-      <c r="AV43" s="49"/>
-      <c r="AW43" s="49"/>
-      <c r="AX43" s="49"/>
-      <c r="AY43" s="49"/>
-      <c r="AZ43" s="49"/>
+      <c r="Y43" s="61"/>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="61"/>
+      <c r="AL43" s="61"/>
+      <c r="AM43" s="61"/>
+      <c r="AN43" s="61"/>
+      <c r="AO43" s="61"/>
+      <c r="AP43" s="61"/>
+      <c r="AQ43" s="61"/>
+      <c r="AR43" s="61"/>
+      <c r="AS43" s="61"/>
+      <c r="AT43" s="61"/>
+      <c r="AU43" s="61"/>
+      <c r="AV43" s="61"/>
+      <c r="AW43" s="61"/>
+      <c r="AX43" s="61"/>
+      <c r="AY43" s="61"/>
+      <c r="AZ43" s="61"/>
     </row>
     <row r="44" spans="25:52">
-      <c r="Y44" s="49"/>
-      <c r="Z44" s="49"/>
-      <c r="AA44" s="49"/>
-      <c r="AB44" s="49"/>
-      <c r="AC44" s="49"/>
-      <c r="AD44" s="49"/>
-      <c r="AE44" s="49"/>
-      <c r="AF44" s="49"/>
-      <c r="AG44" s="49"/>
-      <c r="AH44" s="49"/>
-      <c r="AI44" s="49"/>
-      <c r="AJ44" s="49"/>
-      <c r="AK44" s="49"/>
-      <c r="AL44" s="49"/>
-      <c r="AM44" s="49"/>
-      <c r="AN44" s="49"/>
-      <c r="AO44" s="49"/>
-      <c r="AP44" s="49"/>
-      <c r="AQ44" s="49"/>
-      <c r="AR44" s="49"/>
-      <c r="AS44" s="49"/>
-      <c r="AT44" s="49"/>
-      <c r="AU44" s="49"/>
-      <c r="AV44" s="49"/>
-      <c r="AW44" s="49"/>
-      <c r="AX44" s="49"/>
-      <c r="AY44" s="49"/>
-      <c r="AZ44" s="49"/>
+      <c r="Y44" s="61"/>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="61"/>
+      <c r="AB44" s="61"/>
+      <c r="AC44" s="61"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="61"/>
+      <c r="AF44" s="61"/>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="61"/>
+      <c r="AJ44" s="61"/>
+      <c r="AK44" s="61"/>
+      <c r="AL44" s="61"/>
+      <c r="AM44" s="61"/>
+      <c r="AN44" s="61"/>
+      <c r="AO44" s="61"/>
+      <c r="AP44" s="61"/>
+      <c r="AQ44" s="61"/>
+      <c r="AR44" s="61"/>
+      <c r="AS44" s="61"/>
+      <c r="AT44" s="61"/>
+      <c r="AU44" s="61"/>
+      <c r="AV44" s="61"/>
+      <c r="AW44" s="61"/>
+      <c r="AX44" s="61"/>
+      <c r="AY44" s="61"/>
+      <c r="AZ44" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DE4D52-8CC7-4522-AFF6-5FB0BD1245B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A242A5C1-AC88-493E-AD19-FE5FE397284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" tabRatio="780" firstSheet="1" activeTab="3" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" tabRatio="780" firstSheet="4" activeTab="8" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -2161,17 +2161,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>45476</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>170500</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>402917</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>56167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6654567-CD7A-46DA-9D85-46A6252CCC30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7913A08F-24A9-4F9F-BC94-5A099D8BE017}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2188,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14192250" y="8327571"/>
-          <a:ext cx="17190476" cy="7600000"/>
+          <a:ext cx="20609524" cy="7866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7676,8 +7676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA0751C-1EB6-4741-8406-B680E49C7543}">
   <dimension ref="B2:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9123,24 +9123,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K36:L36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9275,8 +9275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A2:AZ44"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK40" sqref="AK40"/>
+    <sheetView tabSelected="1" topLeftCell="AJ32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AR89" sqref="AR89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A242A5C1-AC88-493E-AD19-FE5FE397284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C16603B-3E2D-41CE-AA4C-31BADC3C816C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" tabRatio="780" firstSheet="4" activeTab="8" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="780" activeTab="4" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
     <sheet name="TierLocationOrganization" sheetId="1" r:id="rId2"/>
     <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId3"/>
     <sheet name="SteelLakeSite" sheetId="17" r:id="rId4"/>
-    <sheet name="SilicaCaveSite" sheetId="13" r:id="rId5"/>
-    <sheet name="OffshoreMegaRefinery" sheetId="16" r:id="rId6"/>
+    <sheet name="OffshoreMegaRefinery" sheetId="16" r:id="rId5"/>
+    <sheet name="SilicaCaveSite" sheetId="13" r:id="rId6"/>
     <sheet name="QuickwireCoast" sheetId="18" r:id="rId7"/>
     <sheet name="SWNitrogenFacility" sheetId="14" r:id="rId8"/>
     <sheet name="Diagrams" sheetId="2" r:id="rId9"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="397">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -1229,6 +1229,12 @@
   </si>
   <si>
     <t>2  @750</t>
+  </si>
+  <si>
+    <t>Bauxite</t>
+  </si>
+  <si>
+    <t>Oil</t>
   </si>
 </sst>
 </file>
@@ -7676,8 +7682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA0751C-1EB6-4741-8406-B680E49C7543}">
   <dimension ref="B2:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P71" sqref="P71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9123,24 +9129,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="B42:Q42"/>
     <mergeCell ref="H30:N30"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9148,6 +9154,341 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8995F-0120-482A-8124-986E8EA27808}">
+  <dimension ref="B2:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="15">
+        <f>E12</f>
+        <v>600</v>
+      </c>
+      <c r="D7" s="15">
+        <f>E18</f>
+        <v>2160</v>
+      </c>
+      <c r="E7" s="15">
+        <f>E25</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="15">
+        <v>60</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4</v>
+      </c>
+      <c r="E11" s="15">
+        <f>B11*C11*D11</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15">
+        <f>SUM(E11:E11)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="15">
+        <v>60</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="15">
+        <f>B15*C15*D15</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="15">
+        <v>120</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15">
+        <v>4</v>
+      </c>
+      <c r="E16" s="15">
+        <f>B16*C16*D16</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="15">
+        <v>120</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
+      <c r="D17" s="15">
+        <v>4</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" ref="E17" si="0">B17*C17*D17</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
+        <f>SUM(SUM(E15:E17)-360)</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="15">
+        <v>60</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15">
+        <f>B21*C21*D21</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="15">
+        <v>60</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2</v>
+      </c>
+      <c r="E22" s="15">
+        <f>B22*C22*D22</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="15">
+        <v>120</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D23" s="15">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15">
+        <f>B23*C23*D23</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="15">
+        <v>120</v>
+      </c>
+      <c r="C24" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D24" s="15">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" ref="E24" si="1">B24*C24*D24</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15">
+        <f>SUM(E21:E24)</f>
+        <v>1800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B19:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0353B9-1CC2-4B24-B610-97234758C445}">
   <dimension ref="C3:E13"/>
   <sheetViews>
@@ -9225,19 +9566,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8995F-0120-482A-8124-986E8EA27808}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -9275,7 +9603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A2:AZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ32" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="AC8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AR89" sqref="AR89"/>
     </sheetView>
   </sheetViews>

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C16603B-3E2D-41CE-AA4C-31BADC3C816C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C800E0-3BBD-4C1D-B7B9-3CFC90985C10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="780" activeTab="4" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="4" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="420">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -1235,6 +1235,75 @@
   </si>
   <si>
     <t>Oil</t>
+  </si>
+  <si>
+    <t>Pure Copper Refinery</t>
+  </si>
+  <si>
+    <t>Polymer Resin Refinery</t>
+  </si>
+  <si>
+    <t>Output 1</t>
+  </si>
+  <si>
+    <t>OutputPer 1</t>
+  </si>
+  <si>
+    <t>OutputPer 2</t>
+  </si>
+  <si>
+    <t>Output 2</t>
+  </si>
+  <si>
+    <t>Output 1 Type</t>
+  </si>
+  <si>
+    <t>Output 2 Type</t>
+  </si>
+  <si>
+    <t>Polymer Resin</t>
+  </si>
+  <si>
+    <t>Heavy Oil Residue</t>
+  </si>
+  <si>
+    <t>Heavy Oil Refinery</t>
+  </si>
+  <si>
+    <t>Plastic Refinery</t>
+  </si>
+  <si>
+    <t>Sloppy Alumina Refinery</t>
+  </si>
+  <si>
+    <t>Bauxite Ore</t>
+  </si>
+  <si>
+    <t>Aluminia</t>
+  </si>
+  <si>
+    <t>Polymer Resin Available</t>
+  </si>
+  <si>
+    <t>Heavy Oil Available</t>
+  </si>
+  <si>
+    <t>Plastic Available</t>
+  </si>
+  <si>
+    <t>Aluminia Available</t>
+  </si>
+  <si>
+    <t>Polyester Fabric</t>
+  </si>
+  <si>
+    <t>Residual Plastic</t>
+  </si>
+  <si>
+    <t>Petroleum Coke</t>
+  </si>
+  <si>
+    <t>Eelctrode Aluminium Scrap</t>
   </si>
 </sst>
 </file>
@@ -9129,24 +9198,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K36:L36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9155,27 +9224,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8995F-0120-482A-8124-986E8EA27808}">
-  <dimension ref="B2:E25"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:J18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="51" t="s">
+    <row r="2" spans="2:21">
+      <c r="B2" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="H2" s="58" t="s">
+        <v>340</v>
+      </c>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+    </row>
+    <row r="3" spans="2:21">
       <c r="B3" s="14" t="s">
         <v>59</v>
       </c>
@@ -9188,8 +9285,53 @@
       <c r="E3" s="14" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="F3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="U3" s="32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
       <c r="B4" s="15" t="s">
         <v>57</v>
       </c>
@@ -9202,8 +9344,43 @@
       <c r="E4" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="I4" s="15">
+        <v>15</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15">
+        <f>SUM(I4*O4)</f>
+        <v>600</v>
+      </c>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15">
+        <v>40</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="R4" s="15">
+        <f>Q4*O4</f>
+        <v>1500</v>
+      </c>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" s="15" t="s">
         <v>56</v>
       </c>
@@ -9216,8 +9393,50 @@
       <c r="E5" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" s="15">
+        <v>2</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="I5" s="15">
+        <v>60</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15">
+        <f>SUM(I5*O5)</f>
+        <v>738.6</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15">
+        <v>12.31</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>130</v>
+      </c>
+      <c r="R5" s="15">
+        <f>Q5*O5</f>
+        <v>1600.3</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="T5" s="15">
+        <v>20</v>
+      </c>
+      <c r="U5" s="15">
+        <f>T5*O5</f>
+        <v>246.20000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" s="15" t="s">
         <v>55</v>
       </c>
@@ -9230,8 +9449,50 @@
       <c r="E6" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6" s="15">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="I6" s="15">
+        <v>30</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15">
+        <f>SUM(I6*O6)</f>
+        <v>864.3</v>
+      </c>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15">
+        <v>28.81</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>20</v>
+      </c>
+      <c r="R6" s="15">
+        <f>Q6*O6</f>
+        <v>576.19999999999993</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="T6" s="15">
+        <v>40</v>
+      </c>
+      <c r="U6" s="15">
+        <f>T6*O6</f>
+        <v>1152.3999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7" s="15" t="s">
         <v>67</v>
       </c>
@@ -9247,16 +9508,91 @@
         <f>E25</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7" s="15">
+        <f>E30</f>
+        <v>1200</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="I7" s="15">
+        <v>30</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15">
+        <f>SUM(I7*O7)</f>
+        <v>197.10000000000002</v>
+      </c>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15">
+        <v>6.57</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>20</v>
+      </c>
+      <c r="R7" s="15">
+        <f>Q7*O7</f>
+        <v>131.4</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="T7" s="15">
+        <v>10</v>
+      </c>
+      <c r="U7" s="15">
+        <f>T7*O7</f>
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" s="51" t="s">
         <v>117</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="H8" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="I8" s="15">
+        <v>200</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15">
+        <f>SUM(I8*O8)</f>
+        <v>2160</v>
+      </c>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15">
+        <v>10.8</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>240</v>
+      </c>
+      <c r="R8" s="15">
+        <f>Q8*O8</f>
+        <v>2592</v>
+      </c>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9" s="53" t="s">
         <v>24</v>
       </c>
@@ -9264,7 +9600,7 @@
       <c r="D9" s="54"/>
       <c r="E9" s="55"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:21">
       <c r="B10" s="15" t="s">
         <v>118</v>
       </c>
@@ -9277,8 +9613,16 @@
       <c r="E10" s="15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="H10" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="I10" s="52"/>
+      <c r="K10" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" s="15">
         <v>60</v>
       </c>
@@ -9292,8 +9636,22 @@
         <f>B11*C11*D11</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="H11" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="15">
+        <f>R4</f>
+        <v>1500</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="15">
+        <f>SUM(C7-M4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" s="15" t="s">
         <v>111</v>
       </c>
@@ -9303,16 +9661,44 @@
         <f>SUM(E11:E11)</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="H12" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="I12" s="15">
+        <f>R5+R6</f>
+        <v>2176.5</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="15">
+        <f>SUM(E7-(M5+M6+M7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" s="53" t="s">
         <v>395</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
       <c r="E13" s="55"/>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="H13" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="I13" s="15">
+        <f>SUM(U5:U7)</f>
+        <v>1464.3</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="L13" s="15">
+        <f>SUM(D7-M8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14" s="15" t="s">
         <v>118</v>
       </c>
@@ -9325,8 +9711,22 @@
       <c r="E14" s="15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="H14" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="I14" s="15">
+        <f>R7</f>
+        <v>131.4</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="15">
+        <f>F7</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
       <c r="B15" s="15">
         <v>60</v>
       </c>
@@ -9340,8 +9740,15 @@
         <f>B15*C15*D15</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="H15" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="I15" s="15">
+        <f>R8</f>
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
       <c r="B16" s="15">
         <v>120</v>
       </c>
@@ -9356,7 +9763,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:18">
       <c r="B17" s="15">
         <v>120</v>
       </c>
@@ -9370,8 +9777,21 @@
         <f t="shared" ref="E17" si="0">B17*C17*D17</f>
         <v>960</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="H17" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18" s="15" t="s">
         <v>111</v>
       </c>
@@ -9381,16 +9801,78 @@
         <f>SUM(SUM(E15:E17)-360)</f>
         <v>2160</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="H18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="R18" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
       <c r="B19" s="53" t="s">
         <v>396</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="54"/>
       <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="H19" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="I19" s="15">
+        <v>15</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15">
+        <f>SUM(I19*O19)</f>
+        <v>600</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15">
+        <v>40</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="R19" s="15">
+        <f>Q19*O19</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20" s="15" t="s">
         <v>118</v>
       </c>
@@ -9403,8 +9885,37 @@
       <c r="E20" s="15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="H20" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="I20" s="15">
+        <v>60</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15">
+        <f>SUM(I20*O20)</f>
+        <v>738.6</v>
+      </c>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15">
+        <v>12.31</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>130</v>
+      </c>
+      <c r="R20" s="15">
+        <f>Q20*O20</f>
+        <v>1600.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
       <c r="B21" s="15">
         <v>60</v>
       </c>
@@ -9418,8 +9929,37 @@
         <f>B21*C21*D21</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="H21" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="I21" s="15">
+        <v>30</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15">
+        <f>SUM(I21*O21)</f>
+        <v>864.3</v>
+      </c>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15">
+        <v>28.81</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>20</v>
+      </c>
+      <c r="R21" s="15">
+        <f>Q21*O21</f>
+        <v>576.19999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
       <c r="B22" s="15">
         <v>60</v>
       </c>
@@ -9433,8 +9973,37 @@
         <f>B22*C22*D22</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="H22" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="I22" s="15">
+        <v>30</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15">
+        <f>SUM(I22*O22)</f>
+        <v>197.10000000000002</v>
+      </c>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15">
+        <v>6.57</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>20</v>
+      </c>
+      <c r="R22" s="15">
+        <f>Q22*O22</f>
+        <v>131.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
       <c r="B23" s="15">
         <v>120</v>
       </c>
@@ -9448,8 +10017,19 @@
         <f>B23*C23*D23</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24" spans="2:18">
       <c r="B24" s="15">
         <v>120</v>
       </c>
@@ -9464,7 +10044,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:18">
       <c r="B25" s="15" t="s">
         <v>111</v>
       </c>
@@ -9475,12 +10055,80 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="15">
+        <v>60</v>
+      </c>
+      <c r="C28" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D28" s="15">
+        <v>4</v>
+      </c>
+      <c r="E28" s="15">
+        <f>B28*C28*D28</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="15">
+        <v>60</v>
+      </c>
+      <c r="C29" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D29" s="15">
+        <v>4</v>
+      </c>
+      <c r="E29" s="15">
+        <f>B29*C29*D29</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15">
+        <f>SUM(E28:E29)</f>
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="H2:U2"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="H17:R17"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C800E0-3BBD-4C1D-B7B9-3CFC90985C10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F7FE03-DB6B-4591-A382-35BADEFF9DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="4" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" tabRatio="780" activeTab="4" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" activeTab="8" xr2:uid="{0C7C93FB-0C45-43B8-8EB1-F077125D98F6}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="426">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -1304,6 +1305,24 @@
   </si>
   <si>
     <t>Eelctrode Aluminium Scrap</t>
+  </si>
+  <si>
+    <t>1461.6 Water Out</t>
+  </si>
+  <si>
+    <t>Pure Aluminium Ingot</t>
+  </si>
+  <si>
+    <t>Heavy Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scrap </t>
+  </si>
+  <si>
+    <t>Alclad Sheet</t>
+  </si>
+  <si>
+    <t>Diluted Fuel</t>
   </si>
 </sst>
 </file>
@@ -2580,6 +2599,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -3163,6 +3183,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3842,6 +3863,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3999,6 +4021,7 @@
     <sheetView topLeftCell="N19" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5406,6 +5429,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7752,8 +7776,9 @@
   <dimension ref="B2:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F23"/>
+      <selection activeCell="H24" sqref="H24:L28"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9224,23 +9249,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8995F-0120-482A-8124-986E8EA27808}">
-  <dimension ref="B2:U30"/>
+  <dimension ref="B2:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -9357,7 +9383,9 @@
         <v>4</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="L4" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="M4" s="15">
         <f>SUM(I4*O4)</f>
         <v>600</v>
@@ -9569,7 +9597,9 @@
         <v>410</v>
       </c>
       <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="M8" s="15">
         <f>SUM(I8*O8)</f>
         <v>2160</v>
@@ -9763,7 +9793,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="2:19">
       <c r="B17" s="15">
         <v>120</v>
       </c>
@@ -9791,7 +9821,7 @@
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="2:19">
       <c r="B18" s="15" t="s">
         <v>111</v>
       </c>
@@ -9835,7 +9865,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="2:19">
       <c r="B19" s="53" t="s">
         <v>396</v>
       </c>
@@ -9846,33 +9876,35 @@
         <v>416</v>
       </c>
       <c r="I19" s="15">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>4</v>
+        <v>405</v>
       </c>
       <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="M19" s="15">
         <f>SUM(I19*O19)</f>
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="15">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="15">
-        <v>37.5</v>
+        <v>5</v>
       </c>
       <c r="R19" s="15">
         <f>Q19*O19</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20" s="15" t="s">
         <v>118</v>
       </c>
@@ -9892,30 +9924,32 @@
         <v>60</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="L20" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="M20" s="15">
         <f>SUM(I20*O20)</f>
-        <v>738.6</v>
+        <v>576</v>
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="15">
-        <v>12.31</v>
+        <v>9.6</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="15">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="R20" s="15">
         <f>Q20*O20</f>
-        <v>1600.3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
       <c r="B21" s="15">
         <v>60</v>
       </c>
@@ -9933,33 +9967,33 @@
         <v>418</v>
       </c>
       <c r="I21" s="15">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>9</v>
+        <v>406</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15">
         <f>SUM(I21*O21)</f>
-        <v>864.3</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="15">
-        <v>28.81</v>
+        <v>6.96</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="Q21" s="15">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="R21" s="15">
         <f>Q21*O21</f>
-        <v>576.19999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18">
+        <v>835.2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
       <c r="B22" s="15">
         <v>60</v>
       </c>
@@ -9977,33 +10011,43 @@
         <v>419</v>
       </c>
       <c r="I22" s="15">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+        <v>411</v>
+      </c>
+      <c r="K22" s="15">
+        <v>60</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>418</v>
+      </c>
       <c r="M22" s="15">
         <f>SUM(I22*O22)</f>
-        <v>197.10000000000002</v>
-      </c>
-      <c r="N22" s="15"/>
+        <v>2505.6</v>
+      </c>
+      <c r="N22" s="15">
+        <f>K22*O22</f>
+        <v>835.2</v>
+      </c>
       <c r="O22" s="15">
-        <v>6.57</v>
+        <v>13.92</v>
       </c>
       <c r="P22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="15">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="R22" s="15">
         <f>Q22*O22</f>
-        <v>131.4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18">
+        <v>4176</v>
+      </c>
+      <c r="S22" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
       <c r="B23" s="15">
         <v>120</v>
       </c>
@@ -10017,19 +10061,37 @@
         <f>B23*C23*D23</f>
         <v>600</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="I23" s="15">
+        <v>60</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>139</v>
+      </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
+      <c r="M23" s="15">
+        <f>SUM(I23*O23)</f>
+        <v>4176</v>
+      </c>
       <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-    </row>
-    <row r="24" spans="2:18">
+      <c r="O23" s="15">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>30</v>
+      </c>
+      <c r="R23" s="15">
+        <f>Q23*O23</f>
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
       <c r="B24" s="15">
         <v>120</v>
       </c>
@@ -10044,7 +10106,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:19">
       <c r="B25" s="15" t="s">
         <v>111</v>
       </c>
@@ -10054,16 +10116,38 @@
         <f>SUM(E21:E24)</f>
         <v>1800</v>
       </c>
-    </row>
-    <row r="26" spans="2:18">
+      <c r="H25" s="51" t="s">
+        <v>362</v>
+      </c>
+      <c r="I25" s="52"/>
+      <c r="K25" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="L25" s="52"/>
+    </row>
+    <row r="26" spans="2:19">
       <c r="B26" s="53" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="55"/>
-    </row>
-    <row r="27" spans="2:18">
+      <c r="H26" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I26" s="15">
+        <f>R19</f>
+        <v>100</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="L26" s="15">
+        <f>SUM(I12-(M19+M20))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19">
       <c r="B27" s="15" t="s">
         <v>118</v>
       </c>
@@ -10076,8 +10160,22 @@
       <c r="E27" s="15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="2:18">
+      <c r="H27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="15">
+        <f>R20+I14</f>
+        <v>323.39999999999998</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="L27" s="15">
+        <f>I13-M21</f>
+        <v>1185.9000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
       <c r="B28" s="15">
         <v>60</v>
       </c>
@@ -10091,8 +10189,22 @@
         <f>B28*C28*D28</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="29" spans="2:18">
+      <c r="H28" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="15">
+        <f>R23</f>
+        <v>2088</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="L28" s="15">
+        <f>R22-M23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29" s="15">
         <v>60</v>
       </c>
@@ -10106,8 +10218,15 @@
         <f>B29*C29*D29</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="30" spans="2:18">
+      <c r="K29" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="L29" s="15">
+        <f>R21-N22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
       <c r="B30" s="15" t="s">
         <v>111</v>
       </c>
@@ -10117,9 +10236,192 @@
         <f>SUM(E28:E29)</f>
         <v>1200</v>
       </c>
+      <c r="K30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="15">
+        <f>F7</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="K31" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="L31" s="15">
+        <f>I15-M22</f>
+        <v>86.400000000000091</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="K32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="15">
+        <v>1461.6</v>
+      </c>
+    </row>
+    <row r="34" spans="8:18">
+      <c r="H34" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+    </row>
+    <row r="35" spans="8:18">
+      <c r="H35" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="R35" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="8:18">
+      <c r="H36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="15">
+        <v>80</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="15">
+        <f>SUM(I36*O36)</f>
+        <v>1600</v>
+      </c>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15">
+        <v>20</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>5</v>
+      </c>
+      <c r="R36" s="15">
+        <f>Q36*O36</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="8:18">
+      <c r="H37" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+    </row>
+    <row r="38" spans="8:18">
+      <c r="H38" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+    </row>
+    <row r="39" spans="8:18">
+      <c r="H39" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+    </row>
+    <row r="40" spans="8:18">
+      <c r="H40" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+    </row>
+    <row r="41" spans="8:18">
+      <c r="H41" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="H34:R34"/>
     <mergeCell ref="H2:U2"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B2:F2"/>
@@ -10130,6 +10432,8 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B19:E19"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K25:L25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -10143,6 +10447,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10226,6 +10531,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -10239,6 +10545,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -10251,8 +10558,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A2:AZ44"/>
   <sheetViews>
-    <sheetView topLeftCell="AC8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="U41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AR89" sqref="AR89"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="AO19" workbookViewId="1">
+      <selection activeCell="AI90" sqref="AI90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F7FE03-DB6B-4591-A382-35BADEFF9DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643F3C75-D1EC-4D97-AF92-16F831D53EEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" tabRatio="780" activeTab="4" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
-    <workbookView xWindow="28680" yWindow="-12660" windowWidth="16440" windowHeight="28320" activeTab="8" xr2:uid="{0C7C93FB-0C45-43B8-8EB1-F077125D98F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" firstSheet="2" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="438">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -1307,9 +1306,6 @@
     <t>Eelctrode Aluminium Scrap</t>
   </si>
   <si>
-    <t>1461.6 Water Out</t>
-  </si>
-  <si>
     <t>Pure Aluminium Ingot</t>
   </si>
   <si>
@@ -1323,13 +1319,52 @@
   </si>
   <si>
     <t>Diluted Fuel</t>
+  </si>
+  <si>
+    <t>Aluminium Ingot</t>
+  </si>
+  <si>
+    <t>Alclad Sheets</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Input 3 Type</t>
+  </si>
+  <si>
+    <t>Aluminium Casing</t>
+  </si>
+  <si>
+    <t>Aluminia Solution</t>
+  </si>
+  <si>
+    <t>Output Per 2</t>
+  </si>
+  <si>
+    <t>Send to 3.26 Residual Fuel Refineries | 130.4 Fuel Out | Feeds 10.8 Fuel Generators | 1620 mw Power</t>
+  </si>
+  <si>
+    <t>Recycled Rubber</t>
+  </si>
+  <si>
+    <t>Recycled Plastic</t>
+  </si>
+  <si>
+    <t>Plastic to 10 Rec Rubber =&gt; 20 Rec Plastic =&gt; 20.48 Rubber = &gt; 15.51 Rec Plastic | 1538.6 Plastic &amp; 768 Rubber Remain</t>
+  </si>
+  <si>
+    <t>T3 &amp; T4 Processing</t>
+  </si>
+  <si>
+    <t>Total Available Post Processing =&gt; To Train</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1440,6 +1475,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -1537,7 +1588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1756,6 +1807,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1764,7 +1852,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1862,6 +1950,9 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1916,6 +2007,23 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -2599,7 +2707,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -3183,7 +3290,6 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3208,11 +3314,11 @@
       <c r="A1" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" ht="21">
       <c r="B2" s="41" t="s">
@@ -3863,7 +3969,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3872,16 +3977,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="64"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="12" t="s">
@@ -3916,10 +4021,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="64"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="11" t="s">
@@ -3962,10 +4067,10 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="11" t="s">
@@ -4021,7 +4126,6 @@
     <sheetView topLeftCell="N19" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4874,10 +4978,10 @@
       </c>
     </row>
     <row r="39" spans="3:18" ht="30" customHeight="1">
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="D39" s="48"/>
+      <c r="D39" s="49"/>
     </row>
     <row r="40" spans="3:18" ht="18.75">
       <c r="C40" s="24" t="s">
@@ -5426,10 +5530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
   <dimension ref="C1:V93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5459,39 +5562,39 @@
     <row r="1" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="2" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="3" spans="3:21" ht="23.25">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="3:21">
       <c r="C5" s="14" t="s">
@@ -5518,12 +5621,12 @@
       <c r="J5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="15" t="s">
@@ -5745,23 +5848,23 @@
       <c r="F13" s="35"/>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="I14" s="56" t="s">
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="I14" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="L14" s="58" t="s">
+      <c r="J14" s="58"/>
+      <c r="L14" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
     </row>
     <row r="15" spans="3:21">
       <c r="C15" s="16" t="s">
@@ -6048,19 +6151,19 @@
       <c r="G23" s="37">
         <v>1</v>
       </c>
-      <c r="I23" s="58" t="s">
+      <c r="I23" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
@@ -6104,12 +6207,12 @@
       <c r="V24" s="18"/>
     </row>
     <row r="25" spans="3:22" ht="15.75">
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
       <c r="I25" s="15" t="s">
         <v>99</v>
       </c>
@@ -6147,12 +6250,12 @@
       <c r="V25" s="18"/>
     </row>
     <row r="26" spans="3:22" ht="15.75">
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
       <c r="I26" s="15" t="s">
         <v>100</v>
       </c>
@@ -6886,19 +6989,19 @@
         <v>300</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="I45" s="58" t="s">
+      <c r="I45" s="59" t="s">
         <v>382</v>
       </c>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
     </row>
     <row r="46" spans="3:19">
       <c r="C46" s="15">
@@ -6997,12 +7100,12 @@
       </c>
     </row>
     <row r="48" spans="3:19">
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
       <c r="I48" s="15" t="s">
         <v>207</v>
       </c>
@@ -7291,12 +7394,12 @@
       <c r="F56" s="15"/>
     </row>
     <row r="57" spans="3:19">
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="56"/>
     </row>
     <row r="58" spans="3:19">
       <c r="C58" s="15" t="s">
@@ -7512,12 +7615,12 @@
       <c r="S73" s="18"/>
     </row>
     <row r="74" spans="3:19">
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="56"/>
       <c r="S74" s="18"/>
     </row>
     <row r="75" spans="3:19">
@@ -7570,12 +7673,12 @@
       <c r="F78" s="15"/>
     </row>
     <row r="79" spans="3:19">
-      <c r="C79" s="53" t="s">
+      <c r="C79" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="56"/>
     </row>
     <row r="80" spans="3:19">
       <c r="C80" s="15" t="s">
@@ -7627,12 +7730,12 @@
       <c r="F83" s="15"/>
     </row>
     <row r="84" spans="3:6">
-      <c r="C84" s="53" t="s">
+      <c r="C84" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="56"/>
     </row>
     <row r="85" spans="3:6">
       <c r="C85" s="15" t="s">
@@ -7684,12 +7787,12 @@
       <c r="F88" s="15"/>
     </row>
     <row r="89" spans="3:6">
-      <c r="C89" s="53" t="s">
+      <c r="C89" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="56"/>
     </row>
     <row r="90" spans="3:6">
       <c r="C90" s="15" t="s">
@@ -7776,9 +7879,8 @@
   <dimension ref="B2:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:L28"/>
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7798,25 +7900,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="H2" s="58" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="H2" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="14" t="s">
@@ -8061,12 +8163,12 @@
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="H8" s="15" t="s">
         <v>345</v>
       </c>
@@ -8102,12 +8204,12 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="15" t="s">
@@ -8122,14 +8224,14 @@
       <c r="E10" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="H10" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="K10" s="51" t="s">
+      <c r="I10" s="53"/>
+      <c r="K10" s="52" t="s">
         <v>358</v>
       </c>
-      <c r="L10" s="52"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="15">
@@ -8298,15 +8400,15 @@
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="15" t="s">
@@ -8341,12 +8443,12 @@
       </c>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
       <c r="H19" s="15" t="s">
         <v>360</v>
       </c>
@@ -8496,20 +8598,20 @@
       </c>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-      <c r="H24" s="51" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="56"/>
+      <c r="H24" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="K24" s="51" t="s">
+      <c r="I24" s="53"/>
+      <c r="K24" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="L24" s="52"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="15" t="s">
@@ -8631,21 +8733,21 @@
       </c>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="H30" s="58" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="H30" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="15" t="s">
@@ -8864,14 +8966,14 @@
         <f>B36*C36*D36</f>
         <v>720</v>
       </c>
-      <c r="H36" s="51" t="s">
+      <c r="H36" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="K36" s="51" t="s">
+      <c r="I36" s="53"/>
+      <c r="K36" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="L36" s="52"/>
+      <c r="L36" s="53"/>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="15" t="s">
@@ -8940,24 +9042,24 @@
       </c>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="14" t="s">
@@ -9065,14 +9167,14 @@
       </c>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="52" t="s">
         <v>380</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="E46" s="51" t="s">
+      <c r="C46" s="53"/>
+      <c r="E46" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="F46" s="52"/>
+      <c r="F46" s="53"/>
     </row>
     <row r="47" spans="2:17">
       <c r="B47" s="14" t="s">
@@ -9223,24 +9325,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="B42:Q42"/>
     <mergeCell ref="H30:N30"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="K36:L36"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9249,56 +9351,61 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8995F-0120-482A-8124-986E8EA27808}">
-  <dimension ref="B2:U41"/>
+  <dimension ref="B2:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
-      <c r="B2" s="56" t="s">
+    <row r="2" spans="2:22">
+      <c r="B2" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="H2" s="58" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="47"/>
+      <c r="I2" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-    </row>
-    <row r="3" spans="2:21">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+    </row>
+    <row r="3" spans="2:22">
       <c r="B3" s="14" t="s">
         <v>59</v>
       </c>
@@ -9314,50 +9421,53 @@
       <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="O3" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="S3" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="V3" s="32" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:22">
       <c r="B4" s="15" t="s">
         <v>57</v>
       </c>
@@ -9373,42 +9483,48 @@
       <c r="F4" s="15">
         <v>0</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="15"/>
+      <c r="I4" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="I4" s="15">
+      <c r="J4" s="15">
         <v>15</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="15">
         <v>10</v>
       </c>
-      <c r="M4" s="15">
-        <f>SUM(I4*O4)</f>
+      <c r="M4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="15">
+        <f>SUM(J4*P4)</f>
         <v>600</v>
       </c>
-      <c r="N4" s="15"/>
       <c r="O4" s="15">
+        <f>L4*R4</f>
+        <v>375</v>
+      </c>
+      <c r="P4" s="15">
         <v>40</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="R4" s="15">
         <v>37.5</v>
       </c>
-      <c r="R4" s="15">
-        <f>Q4*O4</f>
+      <c r="S4" s="15">
+        <f>R4*P4</f>
         <v>1500</v>
       </c>
-      <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
-    </row>
-    <row r="5" spans="2:21">
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="2:22">
       <c r="B5" s="15" t="s">
         <v>56</v>
       </c>
@@ -9424,47 +9540,50 @@
       <c r="F5" s="15">
         <v>2</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="15">
+        <v>36</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="I5" s="15">
+      <c r="J5" s="15">
         <v>60</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="15">
-        <f>SUM(I5*O5)</f>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15">
+        <f>SUM(J5*P5)</f>
         <v>738.6</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15">
+      <c r="O5" s="15"/>
+      <c r="P5" s="15">
         <v>12.31</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="R5" s="15">
         <v>130</v>
       </c>
-      <c r="R5" s="15">
-        <f>Q5*O5</f>
+      <c r="S5" s="15">
+        <f>R5*P5</f>
         <v>1600.3</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="T5" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="T5" s="15">
+      <c r="U5" s="15">
         <v>20</v>
       </c>
-      <c r="U5" s="15">
-        <f>T5*O5</f>
+      <c r="V5" s="15">
+        <f>U5*P5</f>
         <v>246.20000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:22">
       <c r="B6" s="15" t="s">
         <v>55</v>
       </c>
@@ -9478,49 +9597,50 @@
         <v>2</v>
       </c>
       <c r="F6" s="15">
-        <v>2</v>
-      </c>
-      <c r="H6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="I6" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="I6" s="15">
+      <c r="J6" s="15">
         <v>30</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="15">
-        <f>SUM(I6*O6)</f>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15">
+        <f>SUM(J6*P6)</f>
         <v>864.3</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15">
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
         <v>28.81</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="R6" s="15">
         <v>20</v>
       </c>
-      <c r="R6" s="15">
-        <f>Q6*O6</f>
+      <c r="S6" s="15">
+        <f>R6*P6</f>
         <v>576.19999999999993</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="T6" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="T6" s="15">
+      <c r="U6" s="15">
         <v>40</v>
       </c>
-      <c r="U6" s="15">
-        <f>T6*O6</f>
+      <c r="V6" s="15">
+        <f>U6*P6</f>
         <v>1152.3999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:22">
       <c r="B7" s="15" t="s">
         <v>67</v>
       </c>
@@ -9540,97 +9660,105 @@
         <f>E30</f>
         <v>1200</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="15">
+        <v>4320</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="I7" s="15">
+      <c r="J7" s="15">
         <v>30</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="15"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="15">
-        <f>SUM(I7*O7)</f>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15">
+        <f>SUM(J7*P7)</f>
         <v>197.10000000000002</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15">
+      <c r="O7" s="15"/>
+      <c r="P7" s="15">
         <v>6.57</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="Q7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="R7" s="15">
         <v>20</v>
       </c>
-      <c r="R7" s="15">
-        <f>Q7*O7</f>
+      <c r="S7" s="15">
+        <f>R7*P7</f>
         <v>131.4</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="T7" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="T7" s="15">
+      <c r="U7" s="15">
         <v>10</v>
       </c>
-      <c r="U7" s="15">
-        <f>T7*O7</f>
+      <c r="V7" s="15">
+        <f>U7*P7</f>
         <v>65.7</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
-      <c r="B8" s="51" t="s">
+    <row r="8" spans="2:22">
+      <c r="B8" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="H8" s="15" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="I8" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="I8" s="15">
+      <c r="J8" s="15">
         <v>200</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="15">
+        <v>200</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="15">
-        <f>SUM(I8*O8)</f>
+      <c r="N8" s="15">
+        <f>SUM(J8*P8)</f>
         <v>2160</v>
       </c>
-      <c r="N8" s="15"/>
       <c r="O8" s="15">
+        <f>L8*P8</f>
+        <v>2160</v>
+      </c>
+      <c r="P8" s="15">
         <v>10.8</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Q8" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="R8" s="15">
         <v>240</v>
       </c>
-      <c r="R8" s="15">
-        <f>Q8*O8</f>
+      <c r="S8" s="15">
+        <f>R8*P8</f>
         <v>2592</v>
       </c>
-      <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="B9" s="53" t="s">
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-    </row>
-    <row r="10" spans="2:21">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+    </row>
+    <row r="10" spans="2:22">
       <c r="B10" s="15" t="s">
         <v>118</v>
       </c>
@@ -9643,16 +9771,16 @@
       <c r="E10" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="I10" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="K10" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="L10" s="52"/>
-    </row>
-    <row r="11" spans="2:21">
+      <c r="J10" s="53"/>
+      <c r="L10" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="2:22">
       <c r="B11" s="15">
         <v>60</v>
       </c>
@@ -9666,22 +9794,22 @@
         <f>B11*C11*D11</f>
         <v>600</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="I11" s="15">
-        <f>R4</f>
+      <c r="J11" s="15">
+        <f>S4</f>
         <v>1500</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="15">
-        <f>SUM(C7-M4)</f>
+      <c r="M11" s="15">
+        <f>SUM(C7-N4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:22">
       <c r="B12" s="15" t="s">
         <v>111</v>
       </c>
@@ -9691,44 +9819,44 @@
         <f>SUM(E11:E11)</f>
         <v>600</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="I12" s="15">
-        <f>R5+R6</f>
+      <c r="J12" s="15">
+        <f>S5+S6</f>
         <v>2176.5</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="15">
-        <f>SUM(E7-(M5+M6+M7))</f>
+      <c r="M12" s="15">
+        <f>SUM(E7-(N5+N6+N7))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:21">
-      <c r="B13" s="53" t="s">
+    <row r="13" spans="2:22">
+      <c r="B13" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="55"/>
-      <c r="H13" s="14" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="I13" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="I13" s="15">
-        <f>SUM(U5:U7)</f>
+      <c r="J13" s="15">
+        <f>SUM(V5:V7)</f>
         <v>1464.3</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="L13" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="L13" s="15">
-        <f>SUM(D7-M8)</f>
+      <c r="M13" s="15">
+        <f>SUM(D7-N8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:22">
       <c r="B14" s="15" t="s">
         <v>118</v>
       </c>
@@ -9741,22 +9869,22 @@
       <c r="E14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="I14" s="15">
-        <f>R7</f>
+      <c r="J14" s="15">
+        <f>S7</f>
         <v>131.4</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="L14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="15">
+      <c r="M14" s="15">
         <f>F7</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:22">
       <c r="B15" s="15">
         <v>60</v>
       </c>
@@ -9770,15 +9898,22 @@
         <f>B15*C15*D15</f>
         <v>600</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="I15" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="I15" s="15">
-        <f>R8</f>
+      <c r="J15" s="15">
+        <f>S8</f>
         <v>2592</v>
       </c>
-    </row>
-    <row r="16" spans="2:21">
+      <c r="L15" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="15">
+        <f>SUM(G7-(O4+O8))</f>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
       <c r="B16" s="15">
         <v>120</v>
       </c>
@@ -9793,7 +9928,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:22">
       <c r="B17" s="15">
         <v>120</v>
       </c>
@@ -9807,21 +9942,24 @@
         <f t="shared" ref="E17" si="0">B17*C17*D17</f>
         <v>960</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="I17" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-    </row>
-    <row r="18" spans="2:19">
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+    </row>
+    <row r="18" spans="2:22">
       <c r="B18" s="15" t="s">
         <v>111</v>
       </c>
@@ -9831,80 +9969,97 @@
         <f>SUM(SUM(E15:E17)-360)</f>
         <v>2160</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="I18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="J18" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="K18" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="L18" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="M18" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="M18" s="16" t="s">
+      <c r="N18" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="N18" s="32" t="s">
+      <c r="O18" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="P18" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="Q18" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="Q18" s="16" t="s">
+      <c r="R18" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="R18" s="32" t="s">
+      <c r="S18" s="32" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="B19" s="53" t="s">
+      <c r="T18" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="U18" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="V18" s="32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="H19" s="15" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="I19" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="I19" s="15">
+      <c r="J19" s="15">
         <v>80</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="K19" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="15">
+        <v>50</v>
+      </c>
+      <c r="M19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="15">
-        <f>SUM(I19*O19)</f>
+      <c r="N19" s="15">
+        <f>SUM(J19*P19)</f>
         <v>1600</v>
       </c>
-      <c r="N19" s="15"/>
       <c r="O19" s="15">
+        <f>L19*P19</f>
+        <v>1000</v>
+      </c>
+      <c r="P19" s="15">
         <v>20</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="Q19" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="R19" s="15">
         <v>5</v>
       </c>
-      <c r="R19" s="15">
-        <f>Q19*O19</f>
+      <c r="S19" s="15">
+        <f>R19*P19</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="2:19">
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="2:22">
       <c r="B20" s="15" t="s">
         <v>118</v>
       </c>
@@ -9917,39 +10072,47 @@
       <c r="E20" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="I20" s="15">
+      <c r="J20" s="15">
         <v>60</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="K20" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="15">
+        <v>20</v>
+      </c>
+      <c r="M20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="15">
-        <f>SUM(I20*O20)</f>
+      <c r="N20" s="15">
+        <f>SUM(J20*P20)</f>
         <v>576</v>
       </c>
-      <c r="N20" s="15"/>
       <c r="O20" s="15">
+        <f>L20*P20</f>
+        <v>192</v>
+      </c>
+      <c r="P20" s="15">
         <v>9.6</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="Q20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="R20" s="15">
         <v>20</v>
       </c>
-      <c r="R20" s="15">
-        <f>Q20*O20</f>
+      <c r="S20" s="15">
+        <f>R20*P20</f>
         <v>192</v>
       </c>
-    </row>
-    <row r="21" spans="2:19">
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+    </row>
+    <row r="21" spans="2:22">
       <c r="B21" s="15">
         <v>60</v>
       </c>
@@ -9963,37 +10126,40 @@
         <f>B21*C21*D21</f>
         <v>300</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="I21" s="15">
+      <c r="J21" s="15">
         <v>40</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="K21" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="15">
-        <f>SUM(I21*O21)</f>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15">
+        <f>SUM(J21*P21)</f>
         <v>278.39999999999998</v>
       </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15">
+      <c r="O21" s="15"/>
+      <c r="P21" s="15">
         <v>6.96</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="Q21" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="R21" s="15">
         <v>120</v>
       </c>
-      <c r="R21" s="15">
-        <f>Q21*O21</f>
+      <c r="S21" s="15">
+        <f>R21*P21</f>
         <v>835.2</v>
       </c>
-    </row>
-    <row r="22" spans="2:19">
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+    </row>
+    <row r="22" spans="2:22">
       <c r="B22" s="15">
         <v>60</v>
       </c>
@@ -10007,47 +10173,54 @@
         <f>B22*C22*D22</f>
         <v>300</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="I22" s="15">
+      <c r="J22" s="15">
         <v>180</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="K22" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="K22" s="15">
+      <c r="L22" s="15">
         <v>60</v>
       </c>
-      <c r="L22" s="15" t="s">
+      <c r="M22" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="M22" s="15">
-        <f>SUM(I22*O22)</f>
+      <c r="N22" s="15">
+        <f>SUM(J22*P22)</f>
         <v>2505.6</v>
       </c>
-      <c r="N22" s="15">
-        <f>K22*O22</f>
+      <c r="O22" s="15">
+        <f>L22*P22</f>
         <v>835.2</v>
       </c>
-      <c r="O22" s="15">
+      <c r="P22" s="15">
         <v>13.92</v>
       </c>
-      <c r="P22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="R22" s="15">
         <v>300</v>
       </c>
-      <c r="R22" s="15">
-        <f>Q22*O22</f>
+      <c r="S22" s="15">
+        <f>R22*P22</f>
         <v>4176</v>
       </c>
-      <c r="S22" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19">
+      <c r="T22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="15">
+        <v>105</v>
+      </c>
+      <c r="V22" s="15">
+        <f>P22*U22</f>
+        <v>1461.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
       <c r="B23" s="15">
         <v>120</v>
       </c>
@@ -10061,37 +10234,40 @@
         <f>B23*C23*D23</f>
         <v>600</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="I23" s="15">
+      <c r="I23" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="J23" s="15">
         <v>60</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="K23" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="15">
-        <f>SUM(I23*O23)</f>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15">
+        <f>SUM(J23*P23)</f>
         <v>4176</v>
       </c>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15">
+      <c r="O23" s="15"/>
+      <c r="P23" s="15">
         <v>69.599999999999994</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="Q23" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="R23" s="15">
         <v>30</v>
       </c>
-      <c r="R23" s="15">
-        <f>Q23*O23</f>
+      <c r="S23" s="15">
+        <f>R23*P23</f>
         <v>2088</v>
       </c>
-    </row>
-    <row r="24" spans="2:19">
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="2:22">
       <c r="B24" s="15">
         <v>120</v>
       </c>
@@ -10106,7 +10282,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:22">
       <c r="B25" s="15" t="s">
         <v>111</v>
       </c>
@@ -10116,38 +10292,38 @@
         <f>SUM(E21:E24)</f>
         <v>1800</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="I25" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="I25" s="52"/>
-      <c r="K25" s="51" t="s">
-        <v>363</v>
-      </c>
-      <c r="L25" s="52"/>
-    </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="53" t="s">
+      <c r="J25" s="53"/>
+      <c r="L25" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="M25" s="53"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-      <c r="H26" s="14" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="56"/>
+      <c r="I26" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="15">
-        <f>R19</f>
+      <c r="J26" s="15">
+        <f>S19</f>
         <v>100</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="L26" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="L26" s="15">
-        <f>SUM(I12-(M19+M20))</f>
+      <c r="M26" s="15">
+        <f>SUM(J12-(N19+N20))</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:22">
       <c r="B27" s="15" t="s">
         <v>118</v>
       </c>
@@ -10160,22 +10336,22 @@
       <c r="E27" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="I27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="15">
-        <f>R20+I14</f>
+      <c r="J27" s="15">
+        <f>S20+J14</f>
         <v>323.39999999999998</v>
       </c>
-      <c r="K27" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="L27" s="15">
-        <f>I13-M21</f>
+      <c r="L27" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="M27" s="15">
+        <f>J13-N21</f>
         <v>1185.9000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:22">
       <c r="B28" s="15">
         <v>60</v>
       </c>
@@ -10189,22 +10365,22 @@
         <f>B28*C28*D28</f>
         <v>600</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="I28" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="I28" s="15">
-        <f>R23</f>
+      <c r="J28" s="15">
+        <f>S23</f>
         <v>2088</v>
       </c>
-      <c r="K28" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="L28" s="15">
-        <f>R22-M23</f>
+      <c r="L28" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="M28" s="15">
+        <f>S22-N23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:19">
+    <row r="29" spans="2:22">
       <c r="B29" s="15">
         <v>60</v>
       </c>
@@ -10218,15 +10394,15 @@
         <f>B29*C29*D29</f>
         <v>600</v>
       </c>
-      <c r="K29" s="14" t="s">
+      <c r="L29" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="L29" s="15">
-        <f>R21-N22</f>
+      <c r="M29" s="15">
+        <f>S21-O22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:19">
+    <row r="30" spans="2:22">
       <c r="B30" s="15" t="s">
         <v>111</v>
       </c>
@@ -10236,204 +10412,887 @@
         <f>SUM(E28:E29)</f>
         <v>1200</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="L30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="15">
+      <c r="M30" s="15">
         <f>F7</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="31" spans="2:19">
-      <c r="K31" s="14" t="s">
+    <row r="31" spans="2:22">
+      <c r="L31" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="L31" s="15">
-        <f>I15-M22</f>
+      <c r="M31" s="15">
+        <f>J15-N22</f>
         <v>86.400000000000091</v>
       </c>
     </row>
-    <row r="32" spans="2:19">
-      <c r="K32" s="14" t="s">
+    <row r="32" spans="2:22">
+      <c r="L32" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L32" s="15">
-        <v>1461.6</v>
-      </c>
-    </row>
-    <row r="34" spans="8:18">
-      <c r="H34" s="58" t="s">
+      <c r="M32" s="15">
+        <f>SUM(M15+V22-(O19+O20))</f>
+        <v>2054.6</v>
+      </c>
+    </row>
+    <row r="33" spans="9:25">
+      <c r="L33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="15">
+        <f>J11</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="9:25">
+      <c r="I35" s="59" t="s">
         <v>364</v>
       </c>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-    </row>
-    <row r="35" spans="8:18">
-      <c r="H35" s="14" t="s">
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+    </row>
+    <row r="36" spans="9:25">
+      <c r="I36" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="J36" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="K36" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="L36" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="M36" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="M35" s="16" t="s">
+      <c r="N36" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="P36" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="N35" s="32" t="s">
+      <c r="Q36" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="O35" s="16" t="s">
+      <c r="R36" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="S36" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="P35" s="16" t="s">
+      <c r="T36" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="Q35" s="16" t="s">
+      <c r="U36" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="R35" s="32" t="s">
+      <c r="V36" s="32" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="36" spans="8:18">
-      <c r="H36" s="15" t="s">
+      <c r="W36" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="X36" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y36" s="32" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="9:25">
+      <c r="I37" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I36" s="15">
-        <v>80</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15" t="s">
+      <c r="J37" s="15">
+        <v>50</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="15">
+        <v>50</v>
+      </c>
+      <c r="M37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="15">
-        <f>SUM(I36*O36)</f>
-        <v>1600</v>
-      </c>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15">
-        <v>20</v>
-      </c>
-      <c r="P36" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q36" s="15">
-        <v>5</v>
-      </c>
-      <c r="R36" s="15">
-        <f>Q36*O36</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="8:18">
-      <c r="H37" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-    </row>
-    <row r="38" spans="8:18">
-      <c r="H38" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
+      <c r="P37" s="15">
+        <f>SUM(J37*S37)</f>
+        <v>120</v>
+      </c>
+      <c r="Q37" s="15">
+        <f>L37*S37</f>
+        <v>120</v>
+      </c>
+      <c r="R37" s="15">
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37" s="15">
+        <v>50</v>
+      </c>
+      <c r="V37" s="15">
+        <f>U37*S37</f>
+        <v>120</v>
+      </c>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+    </row>
+    <row r="38" spans="9:25">
+      <c r="I38" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="15">
+        <v>90</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>425</v>
+      </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-    </row>
-    <row r="39" spans="8:18">
-      <c r="H39" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
+      <c r="P38" s="15">
+        <f>SUM(J38*S38)</f>
+        <v>64.8</v>
+      </c>
+      <c r="Q38" s="15">
+        <f>L38*S38</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="15">
+        <v>0</v>
+      </c>
+      <c r="S38" s="15">
+        <v>0.72</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="U38" s="15">
+        <v>60</v>
+      </c>
+      <c r="V38" s="15">
+        <f>U38*S38</f>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+    </row>
+    <row r="39" spans="9:25">
+      <c r="I39" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="J39" s="15">
+        <v>30</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="L39" s="15">
+        <v>10</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-    </row>
-    <row r="40" spans="8:18">
-      <c r="H40" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
+      <c r="P39" s="15">
+        <f>SUM(J39*S39)</f>
+        <v>1260</v>
+      </c>
+      <c r="Q39" s="15">
+        <f>L39*S39</f>
+        <v>420</v>
+      </c>
+      <c r="R39" s="15">
+        <v>0</v>
+      </c>
+      <c r="S39" s="15">
+        <v>42</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="U39" s="15">
+        <v>30</v>
+      </c>
+      <c r="V39" s="15">
+        <f>U39*S39</f>
+        <v>1260</v>
+      </c>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+    </row>
+    <row r="40" spans="9:25">
+      <c r="I40" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="15">
+        <v>15</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="15">
+        <v>0</v>
+      </c>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-    </row>
-    <row r="41" spans="8:18">
-      <c r="H41" s="15" t="s">
+      <c r="P40" s="15">
+        <f>SUM(J40*S40)</f>
+        <v>1080</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>0</v>
+      </c>
+      <c r="R40" s="15">
+        <v>0</v>
+      </c>
+      <c r="S40" s="15">
+        <v>72</v>
+      </c>
+      <c r="T40" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="U40" s="15">
+        <v>30</v>
+      </c>
+      <c r="V40" s="15">
+        <f>U40*S40</f>
+        <v>2160</v>
+      </c>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+    </row>
+    <row r="41" spans="9:25">
+      <c r="I41" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
+      <c r="J41" s="15">
+        <v>50</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="15">
+        <v>20</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="N41" s="15">
+        <v>40</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="P41" s="15">
+        <f>SUM(J41*S41)</f>
+        <v>108</v>
+      </c>
+      <c r="Q41" s="15">
+        <f>L41*S41</f>
+        <v>43.2</v>
+      </c>
+      <c r="R41" s="15">
+        <f>S41*N41</f>
+        <v>86.4</v>
+      </c>
+      <c r="S41" s="15">
+        <v>2.16</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="U41" s="15">
+        <v>20</v>
+      </c>
+      <c r="V41" s="15">
+        <f>U41*S41</f>
+        <v>43.2</v>
+      </c>
+      <c r="W41" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="X41" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y41" s="15">
+        <f>S41*X41</f>
+        <v>64.800000000000011</v>
+      </c>
+    </row>
+    <row r="42" spans="9:25">
+      <c r="I42" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="J42" s="15">
+        <v>50</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="L42" s="15">
+        <v>100</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15">
+        <f>SUM(J42*S42)</f>
+        <v>990</v>
+      </c>
+      <c r="Q42" s="15">
+        <f>L42*S42</f>
+        <v>1980</v>
+      </c>
+      <c r="R42" s="15">
+        <v>0</v>
+      </c>
+      <c r="S42" s="15">
+        <v>19.8</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="U42" s="15">
+        <v>100</v>
+      </c>
+      <c r="V42" s="15">
+        <f>U42*S42</f>
+        <v>1980</v>
+      </c>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+    </row>
+    <row r="44" spans="9:25">
+      <c r="I44" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="J44" s="53"/>
+      <c r="L44" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" s="53"/>
+    </row>
+    <row r="45" spans="9:25" ht="15.75" thickBot="1">
+      <c r="I45" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J45" s="15">
+        <f>J26</f>
+        <v>100</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="15">
+        <f>SUM(M32-Q37+Y41-Q42)</f>
+        <v>19.399999999999864</v>
+      </c>
+    </row>
+    <row r="46" spans="9:25" ht="15.75" thickBot="1">
+      <c r="I46" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="15">
+        <f>J27</f>
+        <v>323.39999999999998</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="M46" s="72">
+        <f>M27-P42</f>
+        <v>195.90000000000009</v>
+      </c>
+      <c r="N46" s="69" t="s">
+        <v>432</v>
+      </c>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="71"/>
+    </row>
+    <row r="47" spans="9:25">
+      <c r="I47" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J47" s="15">
+        <f>J28-P38-P39</f>
+        <v>763.2</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="M47" s="15">
+        <f>M31-R41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:25">
+      <c r="I48" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J48" s="15">
+        <f>V40</f>
+        <v>2160</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="15">
+        <f>SUM(M32+Y41-Q37-Q42)</f>
+        <v>19.400000000000091</v>
+      </c>
+    </row>
+    <row r="49" spans="9:25">
+      <c r="I49" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J49" s="15">
+        <f>V41</f>
+        <v>43.2</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M49" s="15">
+        <f>M33-P40-Q39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:25">
+      <c r="I50" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="J50" s="15">
+        <f>V42</f>
+        <v>1980</v>
+      </c>
+      <c r="L50" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="M50" s="15">
+        <f>V37-P41</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="9:25">
+      <c r="I51" s="66" t="s">
+        <v>423</v>
+      </c>
+      <c r="J51" s="15">
+        <f>V39</f>
+        <v>1260</v>
+      </c>
+      <c r="L51" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="M51" s="15">
+        <f>V38-Q41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:25" ht="15.75" thickBot="1">
+      <c r="I52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="15">
+        <f>M30-P37</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="53" spans="9:25" ht="15.75" thickBot="1">
+      <c r="N53" s="69" t="s">
+        <v>435</v>
+      </c>
+      <c r="O53" s="70"/>
+      <c r="P53" s="70"/>
+      <c r="Q53" s="70"/>
+      <c r="R53" s="70"/>
+      <c r="S53" s="70"/>
+      <c r="T53" s="71"/>
+    </row>
+    <row r="54" spans="9:25">
+      <c r="I54" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="60"/>
+      <c r="Y54" s="60"/>
+    </row>
+    <row r="55" spans="9:25">
+      <c r="I55" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="O55" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="R55" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="S55" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="T55" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="U55" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="V55" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="W55" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="X55" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y55" s="32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="9:25">
+      <c r="I56" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="J56" s="15">
+        <v>30</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="15">
+        <v>30</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15">
+        <f>SUM(J56*V56)</f>
+        <v>914.4</v>
+      </c>
+      <c r="S56" s="15">
+        <f>L56*V56</f>
+        <v>914.4</v>
+      </c>
+      <c r="T56" s="15">
+        <v>0</v>
+      </c>
+      <c r="U56" s="15">
+        <v>0</v>
+      </c>
+      <c r="V56" s="15">
+        <v>30.48</v>
+      </c>
+      <c r="W56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X56" s="15">
+        <v>60</v>
+      </c>
+      <c r="Y56" s="15">
+        <f>X56*V56</f>
+        <v>1828.8</v>
+      </c>
+    </row>
+    <row r="57" spans="9:25">
+      <c r="I57" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="J57" s="15">
+        <v>30</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="15">
+        <v>30</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15">
+        <f>SUM(J57*V57)</f>
+        <v>1065.3</v>
+      </c>
+      <c r="S57" s="15">
+        <f>L57*V57</f>
+        <v>1065.3</v>
+      </c>
+      <c r="T57" s="15">
+        <v>0</v>
+      </c>
+      <c r="U57" s="15">
+        <v>0</v>
+      </c>
+      <c r="V57" s="15">
+        <v>35.51</v>
+      </c>
+      <c r="W57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X57" s="15">
+        <v>60</v>
+      </c>
+      <c r="Y57" s="15">
+        <f>X57*V57</f>
+        <v>2130.6</v>
+      </c>
+    </row>
+    <row r="58" spans="9:25">
+      <c r="I58" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="J58" s="15">
+        <v>45</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="15">
+        <v>52.5</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="N58" s="15">
+        <v>60</v>
+      </c>
+      <c r="O58" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P58" s="15">
+        <v>90</v>
+      </c>
+      <c r="Q58" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="R58" s="15">
+        <f>V58*J58</f>
+        <v>1080</v>
+      </c>
+      <c r="S58" s="15">
+        <f>L58*V58</f>
+        <v>1260</v>
+      </c>
+      <c r="T58" s="15">
+        <f>V58*N58</f>
+        <v>1440</v>
+      </c>
+      <c r="U58" s="15">
+        <f>V58*P58</f>
+        <v>2160</v>
+      </c>
+      <c r="V58" s="15">
+        <v>24</v>
+      </c>
+      <c r="W58" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="X58" s="15">
+        <v>30</v>
+      </c>
+      <c r="Y58" s="15">
+        <f>X58*V58</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="60" spans="9:25">
+      <c r="I60" s="67" t="s">
+        <v>437</v>
+      </c>
+      <c r="J60" s="68"/>
+      <c r="L60" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="M60" s="53"/>
+    </row>
+    <row r="61" spans="9:25">
+      <c r="I61" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J61" s="15">
+        <f>J45</f>
+        <v>100</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M61" s="15">
+        <f>J48-U58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="9:25">
+      <c r="I62" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="15">
+        <f>Y56-R57</f>
+        <v>763.5</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="M62" s="15">
+        <f>J51-S58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="9:25">
+      <c r="I63" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J63" s="15">
+        <f>J47</f>
+        <v>763.2</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" s="15">
+        <f>J52-R58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="9:25">
+      <c r="I64" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J64" s="15">
+        <f>V41+Y58</f>
+        <v>763.2</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="M64" s="15">
+        <f>J50-R56-R57</f>
+        <v>0.29999999999995453</v>
+      </c>
+    </row>
+    <row r="65" spans="9:13">
+      <c r="I65" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="15">
+        <f>J46+Y57-R56-T58</f>
+        <v>99.599999999999909</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" s="15">
+        <f>J54-R60</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="H34:R34"/>
-    <mergeCell ref="H2:U2"/>
+  <mergeCells count="20">
+    <mergeCell ref="I54:Y54"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="N53:T53"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I35:Y35"/>
+    <mergeCell ref="I17:V17"/>
+    <mergeCell ref="N46:T46"/>
+    <mergeCell ref="I2:V2"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="H17:R17"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -10447,7 +11306,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10531,7 +11389,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -10545,7 +11402,6 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -10561,9 +11417,6 @@
     <sheetView topLeftCell="U41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AR89" sqref="AR89"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="AO19" workbookViewId="1">
-      <selection activeCell="AI90" sqref="AI90"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10572,247 +11425,247 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="Y2" s="61" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="Y2" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="61"/>
-      <c r="AS2" s="61"/>
-      <c r="AT2" s="61"/>
-      <c r="AU2" s="61"/>
-      <c r="AV2" s="61"/>
-      <c r="AW2" s="61"/>
-      <c r="AX2" s="61"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="62"/>
+      <c r="AT2" s="62"/>
+      <c r="AU2" s="62"/>
+      <c r="AV2" s="62"/>
+      <c r="AW2" s="62"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="62"/>
     </row>
     <row r="3" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
     </row>
     <row r="4" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="62"/>
+      <c r="AZ4" s="62"/>
     </row>
     <row r="5" spans="1:52" ht="15.75" thickTop="1"/>
     <row r="19" ht="9.75" customHeight="1"/>
     <row r="39" spans="25:52" ht="12" customHeight="1"/>
     <row r="42" spans="25:52">
-      <c r="Y42" s="61" t="s">
+      <c r="Y42" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="61"/>
-      <c r="AB42" s="61"/>
-      <c r="AC42" s="61"/>
-      <c r="AD42" s="61"/>
-      <c r="AE42" s="61"/>
-      <c r="AF42" s="61"/>
-      <c r="AG42" s="61"/>
-      <c r="AH42" s="61"/>
-      <c r="AI42" s="61"/>
-      <c r="AJ42" s="61"/>
-      <c r="AK42" s="61"/>
-      <c r="AL42" s="61"/>
-      <c r="AM42" s="61"/>
-      <c r="AN42" s="61"/>
-      <c r="AO42" s="61"/>
-      <c r="AP42" s="61"/>
-      <c r="AQ42" s="61"/>
-      <c r="AR42" s="61"/>
-      <c r="AS42" s="61"/>
-      <c r="AT42" s="61"/>
-      <c r="AU42" s="61"/>
-      <c r="AV42" s="61"/>
-      <c r="AW42" s="61"/>
-      <c r="AX42" s="61"/>
-      <c r="AY42" s="61"/>
-      <c r="AZ42" s="61"/>
+      <c r="Z42" s="62"/>
+      <c r="AA42" s="62"/>
+      <c r="AB42" s="62"/>
+      <c r="AC42" s="62"/>
+      <c r="AD42" s="62"/>
+      <c r="AE42" s="62"/>
+      <c r="AF42" s="62"/>
+      <c r="AG42" s="62"/>
+      <c r="AH42" s="62"/>
+      <c r="AI42" s="62"/>
+      <c r="AJ42" s="62"/>
+      <c r="AK42" s="62"/>
+      <c r="AL42" s="62"/>
+      <c r="AM42" s="62"/>
+      <c r="AN42" s="62"/>
+      <c r="AO42" s="62"/>
+      <c r="AP42" s="62"/>
+      <c r="AQ42" s="62"/>
+      <c r="AR42" s="62"/>
+      <c r="AS42" s="62"/>
+      <c r="AT42" s="62"/>
+      <c r="AU42" s="62"/>
+      <c r="AV42" s="62"/>
+      <c r="AW42" s="62"/>
+      <c r="AX42" s="62"/>
+      <c r="AY42" s="62"/>
+      <c r="AZ42" s="62"/>
     </row>
     <row r="43" spans="25:52">
-      <c r="Y43" s="61"/>
-      <c r="Z43" s="61"/>
-      <c r="AA43" s="61"/>
-      <c r="AB43" s="61"/>
-      <c r="AC43" s="61"/>
-      <c r="AD43" s="61"/>
-      <c r="AE43" s="61"/>
-      <c r="AF43" s="61"/>
-      <c r="AG43" s="61"/>
-      <c r="AH43" s="61"/>
-      <c r="AI43" s="61"/>
-      <c r="AJ43" s="61"/>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="61"/>
-      <c r="AM43" s="61"/>
-      <c r="AN43" s="61"/>
-      <c r="AO43" s="61"/>
-      <c r="AP43" s="61"/>
-      <c r="AQ43" s="61"/>
-      <c r="AR43" s="61"/>
-      <c r="AS43" s="61"/>
-      <c r="AT43" s="61"/>
-      <c r="AU43" s="61"/>
-      <c r="AV43" s="61"/>
-      <c r="AW43" s="61"/>
-      <c r="AX43" s="61"/>
-      <c r="AY43" s="61"/>
-      <c r="AZ43" s="61"/>
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="62"/>
+      <c r="AA43" s="62"/>
+      <c r="AB43" s="62"/>
+      <c r="AC43" s="62"/>
+      <c r="AD43" s="62"/>
+      <c r="AE43" s="62"/>
+      <c r="AF43" s="62"/>
+      <c r="AG43" s="62"/>
+      <c r="AH43" s="62"/>
+      <c r="AI43" s="62"/>
+      <c r="AJ43" s="62"/>
+      <c r="AK43" s="62"/>
+      <c r="AL43" s="62"/>
+      <c r="AM43" s="62"/>
+      <c r="AN43" s="62"/>
+      <c r="AO43" s="62"/>
+      <c r="AP43" s="62"/>
+      <c r="AQ43" s="62"/>
+      <c r="AR43" s="62"/>
+      <c r="AS43" s="62"/>
+      <c r="AT43" s="62"/>
+      <c r="AU43" s="62"/>
+      <c r="AV43" s="62"/>
+      <c r="AW43" s="62"/>
+      <c r="AX43" s="62"/>
+      <c r="AY43" s="62"/>
+      <c r="AZ43" s="62"/>
     </row>
     <row r="44" spans="25:52">
-      <c r="Y44" s="61"/>
-      <c r="Z44" s="61"/>
-      <c r="AA44" s="61"/>
-      <c r="AB44" s="61"/>
-      <c r="AC44" s="61"/>
-      <c r="AD44" s="61"/>
-      <c r="AE44" s="61"/>
-      <c r="AF44" s="61"/>
-      <c r="AG44" s="61"/>
-      <c r="AH44" s="61"/>
-      <c r="AI44" s="61"/>
-      <c r="AJ44" s="61"/>
-      <c r="AK44" s="61"/>
-      <c r="AL44" s="61"/>
-      <c r="AM44" s="61"/>
-      <c r="AN44" s="61"/>
-      <c r="AO44" s="61"/>
-      <c r="AP44" s="61"/>
-      <c r="AQ44" s="61"/>
-      <c r="AR44" s="61"/>
-      <c r="AS44" s="61"/>
-      <c r="AT44" s="61"/>
-      <c r="AU44" s="61"/>
-      <c r="AV44" s="61"/>
-      <c r="AW44" s="61"/>
-      <c r="AX44" s="61"/>
-      <c r="AY44" s="61"/>
-      <c r="AZ44" s="61"/>
+      <c r="Y44" s="62"/>
+      <c r="Z44" s="62"/>
+      <c r="AA44" s="62"/>
+      <c r="AB44" s="62"/>
+      <c r="AC44" s="62"/>
+      <c r="AD44" s="62"/>
+      <c r="AE44" s="62"/>
+      <c r="AF44" s="62"/>
+      <c r="AG44" s="62"/>
+      <c r="AH44" s="62"/>
+      <c r="AI44" s="62"/>
+      <c r="AJ44" s="62"/>
+      <c r="AK44" s="62"/>
+      <c r="AL44" s="62"/>
+      <c r="AM44" s="62"/>
+      <c r="AN44" s="62"/>
+      <c r="AO44" s="62"/>
+      <c r="AP44" s="62"/>
+      <c r="AQ44" s="62"/>
+      <c r="AR44" s="62"/>
+      <c r="AS44" s="62"/>
+      <c r="AT44" s="62"/>
+      <c r="AU44" s="62"/>
+      <c r="AV44" s="62"/>
+      <c r="AW44" s="62"/>
+      <c r="AX44" s="62"/>
+      <c r="AY44" s="62"/>
+      <c r="AZ44" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wolfenstyne\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643F3C75-D1EC-4D97-AF92-16F831D53EEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8603A242-24F3-4664-9D24-F8B555B49502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" firstSheet="2" activeTab="2" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="780" firstSheet="2" activeTab="7" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="447">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -715,9 +715,6 @@
     <t>Steel Site Diagram</t>
   </si>
   <si>
-    <t>1. Coal Lake Steel Site</t>
-  </si>
-  <si>
     <t>High Speed Connectors</t>
   </si>
   <si>
@@ -1198,30 +1195,6 @@
     <t>2. Silica Cave Site</t>
   </si>
   <si>
-    <t>3. Rubber / Aluminum / Battery Off-Shore Site</t>
-  </si>
-  <si>
-    <t>4. Quickwire Coast Site</t>
-  </si>
-  <si>
-    <t>5. Adjust Outputs</t>
-  </si>
-  <si>
-    <t>6. Computers / High Speed Connectors Site on Ocean Coast</t>
-  </si>
-  <si>
-    <t>7. Radio Controllers Site</t>
-  </si>
-  <si>
-    <t>7. Get to and Make Nitrogen Gas Site</t>
-  </si>
-  <si>
-    <t>8. Work Towards Turbo Motors</t>
-  </si>
-  <si>
-    <t>9. Start Towards Nuclear Power</t>
-  </si>
-  <si>
     <t># Stations</t>
   </si>
   <si>
@@ -1358,6 +1331,60 @@
   </si>
   <si>
     <t>Total Available Post Processing =&gt; To Train</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>1. Adjust Outputs</t>
+  </si>
+  <si>
+    <t>3. Quickwire Coast Site</t>
+  </si>
+  <si>
+    <t>4. Computers / High Speed Connectors Site on Ocean Coast</t>
+  </si>
+  <si>
+    <t>5. Radio Controllers Site</t>
+  </si>
+  <si>
+    <t>6. Get to and Make Nitrogen Gas Site</t>
+  </si>
+  <si>
+    <t>7. Work Towards Turbo Motors</t>
+  </si>
+  <si>
+    <t>8. Wasteless Nuclear Power</t>
+  </si>
+  <si>
+    <t>rubber</t>
+  </si>
+  <si>
+    <t>a ingot in</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>heavy frame</t>
+  </si>
+  <si>
+    <t>nitrogen gas on site</t>
+  </si>
+  <si>
+    <t>heat sinks</t>
+  </si>
+  <si>
+    <t>aluminum casing</t>
+  </si>
+  <si>
+    <t>fused modular frame</t>
+  </si>
+  <si>
+    <t>cooling system</t>
+  </si>
+  <si>
+    <t>packaged nitrogen (just some)</t>
   </si>
 </sst>
 </file>
@@ -1953,6 +1980,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1992,6 +2021,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,23 +2051,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -2316,13 +2343,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>407622</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>120708</xdr:rowOff>
+      <xdr:rowOff>128991</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2345,7 +2372,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14163261" y="0"/>
+          <a:off x="14163261" y="8283"/>
           <a:ext cx="15771861" cy="6962143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2705,7 +2732,7 @@
   <dimension ref="C1:U44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2739,6 +2766,9 @@
       <c r="M1"/>
     </row>
     <row r="2" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
+      <c r="C2" s="24" t="s">
+        <v>430</v>
+      </c>
       <c r="D2" s="22"/>
       <c r="E2"/>
       <c r="F2"/>
@@ -2755,7 +2785,7 @@
     </row>
     <row r="3" spans="3:20" ht="19.5" thickTop="1">
       <c r="C3" s="24" t="s">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -2776,7 +2806,7 @@
     </row>
     <row r="4" spans="3:20">
       <c r="C4" s="24" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2797,7 +2827,7 @@
     </row>
     <row r="5" spans="3:20">
       <c r="C5" s="24" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2818,7 +2848,7 @@
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="24" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2838,8 +2868,8 @@
       <c r="T6"/>
     </row>
     <row r="7" spans="3:20">
-      <c r="C7" s="24" t="s">
-        <v>386</v>
+      <c r="C7" s="39" t="s">
+        <v>434</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2859,8 +2889,8 @@
       <c r="T7"/>
     </row>
     <row r="8" spans="3:20">
-      <c r="C8" s="24" t="s">
-        <v>387</v>
+      <c r="C8" s="39" t="s">
+        <v>435</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2880,8 +2910,8 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="3:20">
-      <c r="C9" s="24" t="s">
-        <v>388</v>
+      <c r="C9" s="39" t="s">
+        <v>436</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -2901,9 +2931,6 @@
       <c r="T9"/>
     </row>
     <row r="10" spans="3:20">
-      <c r="C10" s="39" t="s">
-        <v>389</v>
-      </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -2921,9 +2948,6 @@
       <c r="S10"/>
     </row>
     <row r="11" spans="3:20">
-      <c r="C11" s="39" t="s">
-        <v>390</v>
-      </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -2938,9 +2962,6 @@
       <c r="P11"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="C12" s="39" t="s">
-        <v>391</v>
-      </c>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -3289,7 +3310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2FA3DA-A5F3-411F-AB6B-7EB05B935F88}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3312,32 +3335,32 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="63" t="s">
-        <v>266</v>
-      </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="21">
       <c r="B2" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="H2" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="J2" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="J2" s="41" t="s">
+      <c r="L2" s="41" t="s">
         <v>243</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75">
@@ -3467,13 +3490,13 @@
         <v>125</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>43</v>
+        <v>417</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>143</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>43</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
@@ -3496,10 +3519,10 @@
         <v>16</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
@@ -3533,22 +3556,22 @@
     </row>
     <row r="11" spans="1:12" ht="21">
       <c r="B11" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="F11" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="H11" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="H11" s="41" t="s">
-        <v>249</v>
-      </c>
       <c r="J11" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L11" s="41" t="s">
         <v>255</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
@@ -3573,13 +3596,13 @@
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="B13" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>135</v>
@@ -3678,13 +3701,13 @@
         <v>12</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>143</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
@@ -3707,13 +3730,13 @@
         <v>84</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>143</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18.75">
@@ -3736,39 +3759,39 @@
         <v>20</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>143</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="21">
       <c r="A20" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75">
@@ -3847,43 +3870,43 @@
         <v>138</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75">
       <c r="B26" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18.75">
       <c r="B27" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="21">
       <c r="B29" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="F29" s="41" t="s">
         <v>232</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.75">
@@ -3977,16 +4000,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="71"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="72"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="12" t="s">
@@ -4021,10 +4044,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="72"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="11" t="s">
@@ -4067,10 +4090,10 @@
       </c>
     </row>
     <row r="17" spans="3:4">
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="65"/>
+      <c r="D17" s="72"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="11" t="s">
@@ -4123,8 +4146,8 @@
   </sheetPr>
   <dimension ref="C1:V96"/>
   <sheetViews>
-    <sheetView topLeftCell="N19" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4158,25 +4181,25 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>91</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>2</v>
@@ -4185,31 +4208,31 @@
         <v>2</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O3" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="P3" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>227</v>
       </c>
       <c r="Q3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
@@ -4254,10 +4277,10 @@
         <v>154</v>
       </c>
       <c r="T4" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="V4" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
@@ -4299,11 +4322,11 @@
       </c>
       <c r="S5" s="21"/>
       <c r="T5" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U5" s="21"/>
       <c r="V5" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
@@ -4376,7 +4399,7 @@
         <v>14</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V7" s="28" t="s">
         <v>12</v>
@@ -4390,7 +4413,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="25" t="s">
@@ -4410,7 +4433,7 @@
       <c r="S8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
@@ -4421,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -4475,7 +4498,7 @@
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U10" s="21"/>
     </row>
@@ -4516,7 +4539,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -4529,7 +4552,7 @@
         <v>76</v>
       </c>
       <c r="T12" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="3:22" ht="21.75" thickBot="1">
@@ -4537,7 +4560,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>96</v>
@@ -4602,7 +4625,7 @@
       <c r="N15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S15" s="21"/>
       <c r="T15" s="44" t="s">
@@ -4612,7 +4635,7 @@
     </row>
     <row r="16" spans="3:22" ht="19.5" thickBot="1">
       <c r="F16" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="26" t="s">
@@ -4658,7 +4681,7 @@
         <v>130</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="3:21" ht="19.5" thickBot="1">
@@ -4671,7 +4694,7 @@
       </c>
       <c r="S18" s="21"/>
       <c r="T18" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U18" s="21"/>
     </row>
@@ -4714,11 +4737,11 @@
       <c r="M20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S20" s="21"/>
       <c r="T20" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U20" s="21"/>
     </row>
@@ -4783,15 +4806,15 @@
         <v>43</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="R23" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S23" s="21"/>
       <c r="T23" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U23" s="21"/>
     </row>
@@ -4825,7 +4848,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M25" s="21"/>
       <c r="Q25" s="21"/>
@@ -4841,7 +4864,7 @@
         <v>140</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="27" t="s">
@@ -4903,10 +4926,10 @@
         <v>19</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R29" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="3:21" ht="18.75">
@@ -4922,7 +4945,7 @@
         <v>41</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="3:21" ht="18.75">
@@ -4933,13 +4956,13 @@
         <v>42</v>
       </c>
       <c r="M32" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="N32" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="N32" s="26" t="s">
-        <v>329</v>
-      </c>
       <c r="R32" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="3:18" ht="18.75">
@@ -4950,7 +4973,7 @@
         <v>43</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R33" s="28" t="s">
         <v>12</v>
@@ -4958,13 +4981,13 @@
     </row>
     <row r="34" spans="3:18" ht="18.75">
       <c r="C34" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>44</v>
       </c>
       <c r="R34" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="3:18" ht="18.75">
@@ -4978,14 +5001,14 @@
       </c>
     </row>
     <row r="39" spans="3:18" ht="30" customHeight="1">
-      <c r="C39" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" s="49"/>
+      <c r="C39" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="51"/>
     </row>
     <row r="40" spans="3:18" ht="18.75">
       <c r="C40" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D40" s="43">
         <v>1</v>
@@ -5049,7 +5072,7 @@
     </row>
     <row r="48" spans="3:18" ht="18.75">
       <c r="C48" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D48" s="43">
         <v>0.9</v>
@@ -5057,7 +5080,7 @@
     </row>
     <row r="49" spans="3:8" ht="18.75">
       <c r="C49" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D49" s="43">
         <v>0.05</v>
@@ -5065,7 +5088,7 @@
     </row>
     <row r="50" spans="3:8" ht="18.75">
       <c r="C50" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D50" s="43">
         <v>0.05</v>
@@ -5073,13 +5096,13 @@
     </row>
     <row r="51" spans="3:8" ht="18.75">
       <c r="C51" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D51" s="43">
         <v>1</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="18.75">
@@ -5168,30 +5191,30 @@
     </row>
     <row r="61" spans="3:8" ht="18.75">
       <c r="C61" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D61" s="26">
         <v>0.05</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F61" s="26">
         <v>0.05</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="18.75">
       <c r="C62" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D62" s="26">
         <v>0.25</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F62" s="26">
         <v>0.3</v>
@@ -5199,30 +5222,30 @@
     </row>
     <row r="63" spans="3:8" ht="18.75">
       <c r="C63" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D63" s="26">
         <v>0.01</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F63" s="26">
         <v>0.01</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="18.75">
       <c r="C64" s="26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D64" s="26">
         <v>0.3</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F64" s="26">
         <v>1</v>
@@ -5230,18 +5253,18 @@
     </row>
     <row r="65" spans="3:8" ht="18.75">
       <c r="H65" s="40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="3:8" ht="18.75">
       <c r="C66" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D66" s="27">
         <v>0.01</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F66" s="27">
         <v>0.01</v>
@@ -5249,7 +5272,7 @@
     </row>
     <row r="67" spans="3:8" ht="18.75">
       <c r="C67" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D67" s="27">
         <v>0.05</v>
@@ -5258,13 +5281,13 @@
     <row r="68" spans="3:8" ht="15.75" thickBot="1"/>
     <row r="69" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C69" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D69" s="27">
         <v>1</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F69" s="27">
         <v>0.25</v>
@@ -5276,25 +5299,25 @@
     </row>
     <row r="71" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C71" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D71" s="27">
         <v>0.7</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F71" s="27">
         <v>0.25</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C72" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D72" s="27">
         <v>0.35</v>
@@ -5302,7 +5325,7 @@
       <c r="E72" s="7"/>
       <c r="G72" s="9"/>
       <c r="H72" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="3:8" ht="18" thickTop="1" thickBot="1">
@@ -5311,13 +5334,13 @@
     </row>
     <row r="74" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C74" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D74" s="27">
         <v>0.3</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F74" s="27">
         <v>0.65</v>
@@ -5326,7 +5349,7 @@
     </row>
     <row r="75" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C75" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D75" s="27">
         <v>0.5</v>
@@ -5340,13 +5363,13 @@
     </row>
     <row r="77" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C77" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D77" s="27">
         <v>1</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F77" s="27">
         <v>0.18</v>
@@ -5355,13 +5378,13 @@
     </row>
     <row r="78" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C78" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D78" s="27">
         <v>1</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F78" s="27">
         <v>0.3</v>
@@ -5372,13 +5395,13 @@
     </row>
     <row r="80" spans="3:8" ht="19.5" thickTop="1">
       <c r="C80" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D80" s="27">
         <v>0.5</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F80" s="27">
         <v>0.4</v>
@@ -5386,7 +5409,7 @@
     </row>
     <row r="81" spans="3:8" ht="18.75">
       <c r="C81" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D81" s="27">
         <v>0.3</v>
@@ -5394,13 +5417,13 @@
     </row>
     <row r="83" spans="3:8" ht="18.75">
       <c r="C83" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D83" s="44">
         <v>0.99</v>
       </c>
       <c r="E83" s="44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F83" s="44">
         <v>0.55000000000000004</v>
@@ -5408,7 +5431,7 @@
     </row>
     <row r="84" spans="3:8" ht="18.75">
       <c r="C84" s="44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D84" s="44">
         <v>0.6</v>
@@ -5416,13 +5439,13 @@
     </row>
     <row r="86" spans="3:8" ht="18.75">
       <c r="C86" s="44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D86" s="44">
         <v>0.25</v>
       </c>
       <c r="E86" s="44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F86" s="44">
         <v>0.45</v>
@@ -5430,30 +5453,30 @@
     </row>
     <row r="88" spans="3:8" ht="18.75">
       <c r="C88" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D88" s="44">
         <v>1</v>
       </c>
       <c r="E88" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F88" s="44">
         <v>0.8</v>
       </c>
       <c r="H88" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="18.75">
       <c r="C89" s="44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D89" s="44">
         <v>1</v>
       </c>
       <c r="E89" s="44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F89" s="44">
         <v>0.15</v>
@@ -5461,13 +5484,13 @@
     </row>
     <row r="91" spans="3:8" ht="18.75">
       <c r="C91" s="44" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D91" s="44">
         <v>0.5</v>
       </c>
       <c r="E91" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F91" s="44">
         <v>1</v>
@@ -5475,7 +5498,7 @@
     </row>
     <row r="92" spans="3:8" ht="18.75">
       <c r="C92" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D92" s="44">
         <v>0.4</v>
@@ -5483,13 +5506,13 @@
     </row>
     <row r="94" spans="3:8" ht="18.75">
       <c r="C94" s="45" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D94" s="45">
         <v>1</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F94" s="45">
         <v>1</v>
@@ -5497,13 +5520,13 @@
     </row>
     <row r="95" spans="3:8" ht="18.75">
       <c r="C95" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D95" s="45">
         <v>0.5</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F95" s="45">
         <v>1</v>
@@ -5511,7 +5534,7 @@
     </row>
     <row r="96" spans="3:8" ht="18.75">
       <c r="C96" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D96" s="45">
         <v>0.25</v>
@@ -5530,7 +5553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3AA81C-BDE0-4633-9B14-45484F776F72}">
   <dimension ref="C1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+    <sheetView topLeftCell="G18" workbookViewId="0">
       <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
@@ -5562,39 +5585,39 @@
     <row r="1" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="2" spans="3:21" ht="8.25" customHeight="1"/>
     <row r="3" spans="3:21" ht="23.25">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
     </row>
     <row r="4" spans="3:21">
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
     </row>
     <row r="5" spans="3:21">
       <c r="C5" s="14" t="s">
@@ -5621,12 +5644,12 @@
       <c r="J5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="L5" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
     </row>
     <row r="6" spans="3:21">
       <c r="C6" s="15" t="s">
@@ -5848,23 +5871,23 @@
       <c r="F13" s="35"/>
     </row>
     <row r="14" spans="3:21">
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="I14" s="57" t="s">
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="I14" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="L14" s="59" t="s">
+      <c r="J14" s="60"/>
+      <c r="L14" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
     </row>
     <row r="15" spans="3:21">
       <c r="C15" s="16" t="s">
@@ -5880,7 +5903,7 @@
         <v>197</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>168</v>
@@ -6123,7 +6146,7 @@
         <v>1700</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G22" s="37">
         <v>2</v>
@@ -6146,24 +6169,24 @@
         <v>108</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G23" s="37">
         <v>1</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
@@ -6207,12 +6230,12 @@
       <c r="V24" s="18"/>
     </row>
     <row r="25" spans="3:22" ht="15.75">
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
       <c r="I25" s="15" t="s">
         <v>99</v>
       </c>
@@ -6250,12 +6273,12 @@
       <c r="V25" s="18"/>
     </row>
     <row r="26" spans="3:22" ht="15.75">
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
       <c r="I26" s="15" t="s">
         <v>100</v>
       </c>
@@ -6989,19 +7012,19 @@
         <v>300</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="I45" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="J45" s="60"/>
-      <c r="K45" s="60"/>
-      <c r="L45" s="60"/>
-      <c r="M45" s="60"/>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
+      <c r="I45" s="61" t="s">
+        <v>381</v>
+      </c>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="62"/>
     </row>
     <row r="46" spans="3:19">
       <c r="C46" s="15">
@@ -7100,12 +7123,12 @@
       </c>
     </row>
     <row r="48" spans="3:19">
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="56"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="58"/>
       <c r="I48" s="15" t="s">
         <v>207</v>
       </c>
@@ -7394,12 +7417,12 @@
       <c r="F56" s="15"/>
     </row>
     <row r="57" spans="3:19">
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="56"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="58"/>
     </row>
     <row r="58" spans="3:19">
       <c r="C58" s="15" t="s">
@@ -7615,12 +7638,12 @@
       <c r="S73" s="18"/>
     </row>
     <row r="74" spans="3:19">
-      <c r="C74" s="54" t="s">
+      <c r="C74" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="56"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="58"/>
       <c r="S74" s="18"/>
     </row>
     <row r="75" spans="3:19">
@@ -7673,12 +7696,12 @@
       <c r="F78" s="15"/>
     </row>
     <row r="79" spans="3:19">
-      <c r="C79" s="54" t="s">
+      <c r="C79" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="56"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="58"/>
     </row>
     <row r="80" spans="3:19">
       <c r="C80" s="15" t="s">
@@ -7730,12 +7753,12 @@
       <c r="F83" s="15"/>
     </row>
     <row r="84" spans="3:6">
-      <c r="C84" s="54" t="s">
+      <c r="C84" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="56"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="58"/>
     </row>
     <row r="85" spans="3:6">
       <c r="C85" s="15" t="s">
@@ -7787,12 +7810,12 @@
       <c r="F88" s="15"/>
     </row>
     <row r="89" spans="3:6">
-      <c r="C89" s="54" t="s">
+      <c r="C89" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="56"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="58"/>
     </row>
     <row r="90" spans="3:6">
       <c r="C90" s="15" t="s">
@@ -7900,25 +7923,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="H2" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="H2" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="14" t="s">
@@ -7955,16 +7978,16 @@
         <v>112</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="P3" s="32" t="s">
-        <v>351</v>
-      </c>
       <c r="Q3" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="2:17">
@@ -7984,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I4" s="15">
         <v>35</v>
@@ -8031,7 +8054,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I5" s="15">
         <v>20</v>
@@ -8081,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I6" s="15">
         <v>15</v>
@@ -8093,7 +8116,7 @@
         <v>9999</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M6" s="15">
         <v>37.5</v>
@@ -8132,7 +8155,7 @@
         <v>3120</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I7" s="15">
         <v>120</v>
@@ -8163,14 +8186,14 @@
       </c>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="H8" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I8" s="15">
         <v>40</v>
@@ -8182,7 +8205,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M8" s="15">
         <v>60</v>
@@ -8204,12 +8227,12 @@
       </c>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="15" t="s">
@@ -8219,19 +8242,19 @@
         <v>119</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="52" t="s">
-        <v>353</v>
-      </c>
-      <c r="I10" s="53"/>
-      <c r="K10" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="L10" s="53"/>
+      <c r="H10" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="55"/>
+      <c r="K10" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="15">
@@ -8248,7 +8271,7 @@
         <v>300</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I11" s="15">
         <f>Q4+Q5</f>
@@ -8277,7 +8300,7 @@
         <v>300</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I12" s="15">
         <f>I11-P8</f>
@@ -8306,7 +8329,7 @@
         <v>300</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I13" s="15">
         <f>Q6</f>
@@ -8335,7 +8358,7 @@
         <v>300</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I14" s="15">
         <f>Q7</f>
@@ -8364,7 +8387,7 @@
         <v>300</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I15" s="15">
         <f>Q8</f>
@@ -8400,15 +8423,15 @@
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="H17" s="59" t="s">
-        <v>359</v>
-      </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
+      <c r="H17" s="61" t="s">
+        <v>358</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="15" t="s">
@@ -8433,24 +8456,24 @@
         <v>112</v>
       </c>
       <c r="L18" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="M18" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="M18" s="16" t="s">
-        <v>350</v>
-      </c>
       <c r="N18" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="H19" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I19" s="15">
         <v>30</v>
@@ -8481,13 +8504,13 @@
         <v>119</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>120</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I20" s="15">
         <v>12.5</v>
@@ -8598,20 +8621,20 @@
       </c>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="H24" s="52" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="H24" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="K24" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="I24" s="53"/>
-      <c r="K24" s="52" t="s">
-        <v>363</v>
-      </c>
-      <c r="L24" s="53"/>
+      <c r="L24" s="55"/>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="15" t="s">
@@ -8621,13 +8644,13 @@
         <v>119</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>120</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I25" s="15">
         <f>N19</f>
@@ -8733,21 +8756,21 @@
       </c>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="56"/>
-      <c r="H30" s="59" t="s">
-        <v>364</v>
-      </c>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="H30" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="15" t="s">
@@ -8757,7 +8780,7 @@
         <v>119</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>120</v>
@@ -8781,16 +8804,16 @@
         <v>112</v>
       </c>
       <c r="N31" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="O31" s="16" t="s">
+      <c r="P31" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>351</v>
-      </c>
       <c r="Q31" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -8808,7 +8831,7 @@
         <v>600</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I32" s="15">
         <v>37.5</v>
@@ -8820,7 +8843,7 @@
         <v>18.75</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M32" s="15">
         <v>5.625</v>
@@ -8856,13 +8879,13 @@
         <v>600</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I33" s="15">
         <v>2</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K33" s="15">
         <v>10</v>
@@ -8966,14 +8989,14 @@
         <f>B36*C36*D36</f>
         <v>720</v>
       </c>
-      <c r="H36" s="52" t="s">
+      <c r="H36" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="I36" s="55"/>
+      <c r="K36" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="I36" s="53"/>
-      <c r="K36" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="L36" s="53"/>
+      <c r="L36" s="55"/>
     </row>
     <row r="37" spans="2:17">
       <c r="B37" s="15" t="s">
@@ -8986,14 +9009,14 @@
         <v>3120</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I37" s="15">
         <f>Q32-O33</f>
         <v>169.99124999999998</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L37" s="15">
         <f>I25-P32</f>
@@ -9002,7 +9025,7 @@
     </row>
     <row r="38" spans="2:17">
       <c r="H38" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I38" s="15">
         <f>Q33</f>
@@ -9018,7 +9041,7 @@
     </row>
     <row r="39" spans="2:17">
       <c r="H39" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I39" s="15">
         <f>Q34</f>
@@ -9042,24 +9065,24 @@
       </c>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="59" t="s">
-        <v>372</v>
-      </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="60"/>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
+      <c r="B42" s="61" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="14" t="s">
@@ -9078,54 +9101,54 @@
         <v>158</v>
       </c>
       <c r="G43" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="I43" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="J43" s="16" t="s">
         <v>376</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>377</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>112</v>
       </c>
       <c r="L43" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="M43" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="M43" s="16" t="s">
+      <c r="N43" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="N43" s="32" t="s">
-        <v>351</v>
-      </c>
       <c r="O43" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="P43" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="P43" s="32" t="s">
-        <v>379</v>
-      </c>
       <c r="Q43" s="32" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="2:17">
       <c r="B44" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C44" s="15">
         <v>7.5</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E44" s="15">
         <v>9.375</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G44" s="15">
         <v>20.625</v>
@@ -9167,18 +9190,18 @@
       </c>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="E46" s="54" t="s">
         <v>380</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="E46" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="F46" s="53"/>
+      <c r="F46" s="55"/>
     </row>
     <row r="47" spans="2:17">
       <c r="B47" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C47" s="15">
         <f>F60</f>
@@ -9271,7 +9294,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="E55" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F55" s="15">
         <f>L37</f>
@@ -9289,7 +9312,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="E57" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F57" s="15">
         <f>I38-M44</f>
@@ -9298,7 +9321,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="E58" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F58" s="15">
         <f>I39-N44</f>
@@ -9316,7 +9339,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="E60" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F60" s="15">
         <f>I37</f>
@@ -9353,8 +9376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8995F-0120-482A-8124-986E8EA27808}">
   <dimension ref="B2:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9380,30 +9403,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
       <c r="G2" s="47"/>
-      <c r="I2" s="59" t="s">
-        <v>340</v>
-      </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
+      <c r="I2" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
     </row>
     <row r="3" spans="2:22">
       <c r="B3" s="14" t="s">
@@ -9413,10 +9436,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>17</v>
@@ -9440,31 +9463,31 @@
         <v>158</v>
       </c>
       <c r="N3" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="O3" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="O3" s="32" t="s">
-        <v>351</v>
-      </c>
       <c r="P3" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="2:22">
@@ -9485,7 +9508,7 @@
       </c>
       <c r="G4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="J4" s="15">
         <v>15</v>
@@ -9544,7 +9567,7 @@
         <v>36</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="J5" s="15">
         <v>60</v>
@@ -9563,7 +9586,7 @@
         <v>12.31</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="R5" s="15">
         <v>130</v>
@@ -9573,7 +9596,7 @@
         <v>1600.3</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="U5" s="15">
         <v>20</v>
@@ -9601,7 +9624,7 @@
       </c>
       <c r="G6" s="15"/>
       <c r="I6" s="15" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="J6" s="15">
         <v>30</v>
@@ -9620,7 +9643,7 @@
         <v>28.81</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="R6" s="15">
         <v>20</v>
@@ -9630,7 +9653,7 @@
         <v>576.19999999999993</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="U6" s="15">
         <v>40</v>
@@ -9664,7 +9687,7 @@
         <v>4320</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="J7" s="15">
         <v>30</v>
@@ -9693,7 +9716,7 @@
         <v>131.4</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="U7" s="15">
         <v>10</v>
@@ -9704,20 +9727,20 @@
       </c>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="I8" s="15" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="J8" s="15">
         <v>200</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L8" s="15">
         <v>200</v>
@@ -9737,7 +9760,7 @@
         <v>10.8</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="R8" s="15">
         <v>240</v>
@@ -9751,12 +9774,12 @@
       <c r="V8" s="15"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" spans="2:22">
       <c r="B10" s="15" t="s">
@@ -9766,19 +9789,19 @@
         <v>119</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="52" t="s">
-        <v>353</v>
-      </c>
-      <c r="J10" s="53"/>
-      <c r="L10" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="M10" s="53"/>
+      <c r="I10" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="J10" s="55"/>
+      <c r="L10" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="M10" s="55"/>
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="15">
@@ -9795,7 +9818,7 @@
         <v>600</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J11" s="15">
         <f>S4</f>
@@ -9820,7 +9843,7 @@
         <v>600</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="J12" s="15">
         <f>S5+S6</f>
@@ -9835,21 +9858,21 @@
       </c>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
+      <c r="B13" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="I13" s="14" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="J13" s="15">
         <f>SUM(V5:V7)</f>
         <v>1464.3</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="M13" s="15">
         <f>SUM(D7-N8)</f>
@@ -9864,13 +9887,13 @@
         <v>119</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>120</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="J14" s="15">
         <f>S7</f>
@@ -9899,13 +9922,13 @@
         <v>600</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="J15" s="15">
         <f>S8</f>
         <v>2592</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="48" t="s">
         <v>10</v>
       </c>
       <c r="M15" s="15">
@@ -9942,22 +9965,22 @@
         <f t="shared" ref="E17" si="0">B17*C17*D17</f>
         <v>960</v>
       </c>
-      <c r="I17" s="59" t="s">
-        <v>359</v>
-      </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
+      <c r="I17" s="61" t="s">
+        <v>358</v>
+      </c>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="15" t="s">
@@ -9985,48 +10008,48 @@
         <v>158</v>
       </c>
       <c r="N18" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="O18" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="O18" s="32" t="s">
-        <v>351</v>
-      </c>
       <c r="P18" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="T18" s="32" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="V18" s="32" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="B19" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="I19" s="15" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="J19" s="15">
         <v>80</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="L19" s="15">
         <v>50</v>
@@ -10067,19 +10090,19 @@
         <v>119</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>120</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="J20" s="15">
         <v>60</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="L20" s="15">
         <v>20</v>
@@ -10127,13 +10150,13 @@
         <v>300</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="J21" s="15">
         <v>40</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -10146,7 +10169,7 @@
         <v>6.96</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="R21" s="15">
         <v>120</v>
@@ -10174,19 +10197,19 @@
         <v>300</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="J22" s="15">
         <v>180</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L22" s="15">
         <v>60</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="N22" s="15">
         <f>SUM(J22*P22)</f>
@@ -10235,7 +10258,7 @@
         <v>600</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="J23" s="15">
         <v>60</v>
@@ -10292,22 +10315,22 @@
         <f>SUM(E21:E24)</f>
         <v>1800</v>
       </c>
-      <c r="I25" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="J25" s="53"/>
-      <c r="L25" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="M25" s="53"/>
+      <c r="I25" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="J25" s="55"/>
+      <c r="L25" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="M25" s="55"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
       <c r="I26" s="14" t="s">
         <v>127</v>
       </c>
@@ -10316,7 +10339,7 @@
         <v>100</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M26" s="15">
         <f>SUM(J12-(N19+N20))</f>
@@ -10331,7 +10354,7 @@
         <v>119</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>120</v>
@@ -10344,7 +10367,7 @@
         <v>323.39999999999998</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M27" s="15">
         <f>J13-N21</f>
@@ -10373,7 +10396,7 @@
         <v>2088</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="M28" s="15">
         <f>S22-N23</f>
@@ -10395,7 +10418,7 @@
         <v>600</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M29" s="15">
         <f>S21-O22</f>
@@ -10422,7 +10445,7 @@
     </row>
     <row r="31" spans="2:22">
       <c r="L31" s="14" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="M31" s="15">
         <f>J15-N22</f>
@@ -10448,25 +10471,25 @@
       </c>
     </row>
     <row r="35" spans="9:25">
-      <c r="I35" s="59" t="s">
-        <v>364</v>
-      </c>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
+      <c r="I35" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
     </row>
     <row r="36" spans="9:25">
       <c r="I36" s="14" t="s">
@@ -10485,40 +10508,40 @@
         <v>158</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="P36" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q36" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="Q36" s="32" t="s">
-        <v>351</v>
-      </c>
       <c r="R36" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="S36" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="V36" s="32" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="W36" s="32" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="X36" s="32" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="Y36" s="32" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="9:25">
@@ -10540,7 +10563,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
       <c r="P37" s="15">
-        <f>SUM(J37*S37)</f>
+        <f t="shared" ref="P37:P42" si="2">SUM(J37*S37)</f>
         <v>120</v>
       </c>
       <c r="Q37" s="15">
@@ -10560,7 +10583,7 @@
         <v>50</v>
       </c>
       <c r="V37" s="15">
-        <f>U37*S37</f>
+        <f t="shared" ref="V37:V42" si="3">U37*S37</f>
         <v>120</v>
       </c>
       <c r="W37" s="15"/>
@@ -10575,14 +10598,14 @@
         <v>90</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
       <c r="P38" s="15">
-        <f>SUM(J38*S38)</f>
+        <f t="shared" si="2"/>
         <v>64.8</v>
       </c>
       <c r="Q38" s="15">
@@ -10602,7 +10625,7 @@
         <v>60</v>
       </c>
       <c r="V38" s="15">
-        <f>U38*S38</f>
+        <f t="shared" si="3"/>
         <v>43.199999999999996</v>
       </c>
       <c r="W38" s="15"/>
@@ -10611,13 +10634,13 @@
     </row>
     <row r="39" spans="9:25">
       <c r="I39" s="15" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="J39" s="15">
         <v>30</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L39" s="15">
         <v>10</v>
@@ -10628,7 +10651,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
       <c r="P39" s="15">
-        <f>SUM(J39*S39)</f>
+        <f t="shared" si="2"/>
         <v>1260</v>
       </c>
       <c r="Q39" s="15">
@@ -10642,13 +10665,13 @@
         <v>42</v>
       </c>
       <c r="T39" s="15" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="U39" s="15">
         <v>30</v>
       </c>
       <c r="V39" s="15">
-        <f>U39*S39</f>
+        <f t="shared" si="3"/>
         <v>1260</v>
       </c>
       <c r="W39" s="15"/>
@@ -10672,7 +10695,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15">
-        <f>SUM(J40*S40)</f>
+        <f t="shared" si="2"/>
         <v>1080</v>
       </c>
       <c r="Q40" s="15">
@@ -10691,7 +10714,7 @@
         <v>30</v>
       </c>
       <c r="V40" s="15">
-        <f>U40*S40</f>
+        <f t="shared" si="3"/>
         <v>2160</v>
       </c>
       <c r="W40" s="15"/>
@@ -10700,7 +10723,7 @@
     </row>
     <row r="41" spans="9:25">
       <c r="I41" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J41" s="15">
         <v>50</v>
@@ -10712,38 +10735,38 @@
         <v>20</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="N41" s="15">
         <v>40</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="P41" s="15">
-        <f>SUM(J41*S41)</f>
-        <v>108</v>
-      </c>
-      <c r="Q41" s="15">
+        <v>421</v>
+      </c>
+      <c r="P41" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q41" s="15" t="e">
         <f>L41*S41</f>
-        <v>43.2</v>
-      </c>
-      <c r="R41" s="15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R41" s="15" t="e">
         <f>S41*N41</f>
-        <v>86.4</v>
-      </c>
-      <c r="S41" s="15">
-        <v>2.16</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S41" s="15" t="s">
+        <v>429</v>
       </c>
       <c r="T41" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U41" s="15">
         <v>20</v>
       </c>
-      <c r="V41" s="15">
-        <f>U41*S41</f>
-        <v>43.2</v>
+      <c r="V41" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
       <c r="W41" s="15" t="s">
         <v>10</v>
@@ -10751,20 +10774,20 @@
       <c r="X41" s="15">
         <v>30</v>
       </c>
-      <c r="Y41" s="15">
+      <c r="Y41" s="15" t="e">
         <f>S41*X41</f>
-        <v>64.800000000000011</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="9:25">
       <c r="I42" s="15" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="J42" s="15">
         <v>50</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L42" s="15">
         <v>100</v>
@@ -10775,42 +10798,42 @@
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15">
-        <f>SUM(J42*S42)</f>
-        <v>990</v>
+        <f t="shared" si="2"/>
+        <v>999.49999999999989</v>
       </c>
       <c r="Q42" s="15">
         <f>L42*S42</f>
-        <v>1980</v>
+        <v>1998.9999999999998</v>
       </c>
       <c r="R42" s="15">
         <v>0</v>
       </c>
       <c r="S42" s="15">
-        <v>19.8</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="T42" s="15" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="U42" s="15">
         <v>100</v>
       </c>
       <c r="V42" s="15">
-        <f>U42*S42</f>
-        <v>1980</v>
+        <f t="shared" si="3"/>
+        <v>1998.9999999999998</v>
       </c>
       <c r="W42" s="15"/>
       <c r="X42" s="15"/>
       <c r="Y42" s="15"/>
     </row>
     <row r="44" spans="9:25">
-      <c r="I44" s="52" t="s">
-        <v>368</v>
-      </c>
-      <c r="J44" s="53"/>
-      <c r="L44" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="M44" s="53"/>
+      <c r="I44" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="J44" s="55"/>
+      <c r="L44" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="M44" s="55"/>
     </row>
     <row r="45" spans="9:25" ht="15.75" thickBot="1">
       <c r="I45" s="14" t="s">
@@ -10823,9 +10846,9 @@
       <c r="L45" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="15" t="e">
         <f>SUM(M32-Q37+Y41-Q42)</f>
-        <v>19.399999999999864</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="9:25" ht="15.75" thickBot="1">
@@ -10837,21 +10860,21 @@
         <v>323.39999999999998</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="M46" s="72">
+        <v>412</v>
+      </c>
+      <c r="M46" s="49">
         <f>M27-P42</f>
-        <v>195.90000000000009</v>
-      </c>
-      <c r="N46" s="69" t="s">
-        <v>432</v>
-      </c>
-      <c r="O46" s="70"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="70"/>
-      <c r="S46" s="70"/>
-      <c r="T46" s="71"/>
+        <v>186.4000000000002</v>
+      </c>
+      <c r="N46" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="T46" s="65"/>
     </row>
     <row r="47" spans="9:25">
       <c r="I47" s="14" t="s">
@@ -10862,11 +10885,11 @@
         <v>763.2</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="M47" s="15">
+        <v>406</v>
+      </c>
+      <c r="M47" s="15" t="e">
         <f>M31-R41</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="9:25">
@@ -10880,18 +10903,18 @@
       <c r="L48" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="15">
+      <c r="M48" s="15" t="e">
         <f>SUM(M32+Y41-Q37-Q42)</f>
-        <v>19.400000000000091</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="9:25">
       <c r="I49" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="J49" s="15">
+        <v>244</v>
+      </c>
+      <c r="J49" s="15" t="e">
         <f>V41</f>
-        <v>43.2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L49" s="14" t="s">
         <v>65</v>
@@ -10903,34 +10926,34 @@
     </row>
     <row r="50" spans="9:25">
       <c r="I50" s="14" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="J50" s="15">
         <f>V42</f>
-        <v>1980</v>
-      </c>
-      <c r="L50" s="66" t="s">
+        <v>1998.9999999999998</v>
+      </c>
+      <c r="L50" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="15">
+      <c r="M50" s="15" t="e">
         <f>V37-P41</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="9:25">
-      <c r="I51" s="66" t="s">
-        <v>423</v>
+      <c r="I51" s="48" t="s">
+        <v>414</v>
       </c>
       <c r="J51" s="15">
         <f>V39</f>
         <v>1260</v>
       </c>
-      <c r="L51" s="66" t="s">
+      <c r="L51" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="M51" s="15">
+      <c r="M51" s="15" t="e">
         <f>V38-Q41</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="9:25" ht="15.75" thickBot="1">
@@ -10943,36 +10966,36 @@
       </c>
     </row>
     <row r="53" spans="9:25" ht="15.75" thickBot="1">
-      <c r="N53" s="69" t="s">
-        <v>435</v>
-      </c>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="71"/>
+      <c r="N53" s="63" t="s">
+        <v>426</v>
+      </c>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="T53" s="65"/>
     </row>
     <row r="54" spans="9:25">
-      <c r="I54" s="59" t="s">
-        <v>436</v>
-      </c>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="60"/>
-      <c r="T54" s="60"/>
-      <c r="U54" s="60"/>
-      <c r="V54" s="60"/>
-      <c r="W54" s="60"/>
-      <c r="X54" s="60"/>
-      <c r="Y54" s="60"/>
+      <c r="I54" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="62"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="62"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="62"/>
     </row>
     <row r="55" spans="9:25">
       <c r="I55" s="14" t="s">
@@ -10991,45 +11014,45 @@
         <v>158</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="P55" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q55" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="Q55" s="16" t="s">
+      <c r="R55" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="S55" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="T55" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="R55" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="S55" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="T55" s="32" t="s">
+      <c r="U55" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="U55" s="32" t="s">
-        <v>379</v>
-      </c>
       <c r="V55" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W55" s="16" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="X55" s="16" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Y55" s="32" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="9:25">
       <c r="I56" s="15" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="J56" s="15">
         <v>30</v>
@@ -11041,7 +11064,7 @@
         <v>30</v>
       </c>
       <c r="M56" s="15" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="N56" s="15"/>
       <c r="O56" s="15"/>
@@ -11077,7 +11100,7 @@
     </row>
     <row r="57" spans="9:25">
       <c r="I57" s="15" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="J57" s="15">
         <v>30</v>
@@ -11089,7 +11112,7 @@
         <v>30</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="N57" s="15"/>
       <c r="O57" s="15"/>
@@ -11125,7 +11148,7 @@
     </row>
     <row r="58" spans="9:25">
       <c r="I58" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J58" s="15">
         <v>45</v>
@@ -11137,7 +11160,7 @@
         <v>52.5</v>
       </c>
       <c r="M58" s="15" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="N58" s="15">
         <v>60</v>
@@ -11171,7 +11194,7 @@
         <v>24</v>
       </c>
       <c r="W58" s="15" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="X58" s="15">
         <v>30</v>
@@ -11182,14 +11205,14 @@
       </c>
     </row>
     <row r="60" spans="9:25">
-      <c r="I60" s="67" t="s">
-        <v>437</v>
-      </c>
-      <c r="J60" s="68"/>
-      <c r="L60" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="M60" s="53"/>
+      <c r="I60" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="J60" s="67"/>
+      <c r="L60" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="M60" s="55"/>
     </row>
     <row r="61" spans="9:25">
       <c r="I61" s="14" t="s">
@@ -11216,7 +11239,7 @@
         <v>763.5</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="M62" s="15">
         <f>J51-S58</f>
@@ -11241,18 +11264,18 @@
     </row>
     <row r="64" spans="9:25">
       <c r="I64" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="J64" s="15">
+        <v>244</v>
+      </c>
+      <c r="J64" s="15" t="e">
         <f>V41+Y58</f>
-        <v>763.2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="M64" s="15">
         <f>J50-R56-R57</f>
-        <v>0.29999999999995453</v>
+        <v>19.299999999999955</v>
       </c>
     </row>
     <row r="65" spans="9:13">
@@ -11399,12 +11422,78 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E9EB0-3E23-4641-A58B-1165AA753DC6}">
-  <dimension ref="A1"/>
+  <dimension ref="K5:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="11:11">
+      <c r="K5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="11:11">
+      <c r="K6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="11:11">
+      <c r="K7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="11:11">
+      <c r="K8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="11:11">
+      <c r="K9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="11:11">
+      <c r="K10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="11:11">
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="11:11">
+      <c r="K15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="11:11">
+      <c r="K16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -11414,7 +11503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A2:AZ44"/>
   <sheetViews>
-    <sheetView topLeftCell="U41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AR89" sqref="AR89"/>
     </sheetView>
   </sheetViews>
@@ -11425,247 +11514,247 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="Y2" s="62" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="Y2" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
     </row>
     <row r="3" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
     </row>
     <row r="4" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="62"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="62"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="62"/>
-      <c r="AR4" s="62"/>
-      <c r="AS4" s="62"/>
-      <c r="AT4" s="62"/>
-      <c r="AU4" s="62"/>
-      <c r="AV4" s="62"/>
-      <c r="AW4" s="62"/>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="62"/>
-      <c r="AZ4" s="62"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
     </row>
     <row r="5" spans="1:52" ht="15.75" thickTop="1"/>
     <row r="19" ht="9.75" customHeight="1"/>
     <row r="39" spans="25:52" ht="12" customHeight="1"/>
     <row r="42" spans="25:52">
-      <c r="Y42" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="62"/>
-      <c r="AE42" s="62"/>
-      <c r="AF42" s="62"/>
-      <c r="AG42" s="62"/>
-      <c r="AH42" s="62"/>
-      <c r="AI42" s="62"/>
-      <c r="AJ42" s="62"/>
-      <c r="AK42" s="62"/>
-      <c r="AL42" s="62"/>
-      <c r="AM42" s="62"/>
-      <c r="AN42" s="62"/>
-      <c r="AO42" s="62"/>
-      <c r="AP42" s="62"/>
-      <c r="AQ42" s="62"/>
-      <c r="AR42" s="62"/>
-      <c r="AS42" s="62"/>
-      <c r="AT42" s="62"/>
-      <c r="AU42" s="62"/>
-      <c r="AV42" s="62"/>
-      <c r="AW42" s="62"/>
-      <c r="AX42" s="62"/>
-      <c r="AY42" s="62"/>
-      <c r="AZ42" s="62"/>
+      <c r="Y42" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z42" s="69"/>
+      <c r="AA42" s="69"/>
+      <c r="AB42" s="69"/>
+      <c r="AC42" s="69"/>
+      <c r="AD42" s="69"/>
+      <c r="AE42" s="69"/>
+      <c r="AF42" s="69"/>
+      <c r="AG42" s="69"/>
+      <c r="AH42" s="69"/>
+      <c r="AI42" s="69"/>
+      <c r="AJ42" s="69"/>
+      <c r="AK42" s="69"/>
+      <c r="AL42" s="69"/>
+      <c r="AM42" s="69"/>
+      <c r="AN42" s="69"/>
+      <c r="AO42" s="69"/>
+      <c r="AP42" s="69"/>
+      <c r="AQ42" s="69"/>
+      <c r="AR42" s="69"/>
+      <c r="AS42" s="69"/>
+      <c r="AT42" s="69"/>
+      <c r="AU42" s="69"/>
+      <c r="AV42" s="69"/>
+      <c r="AW42" s="69"/>
+      <c r="AX42" s="69"/>
+      <c r="AY42" s="69"/>
+      <c r="AZ42" s="69"/>
     </row>
     <row r="43" spans="25:52">
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="62"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="62"/>
-      <c r="AL43" s="62"/>
-      <c r="AM43" s="62"/>
-      <c r="AN43" s="62"/>
-      <c r="AO43" s="62"/>
-      <c r="AP43" s="62"/>
-      <c r="AQ43" s="62"/>
-      <c r="AR43" s="62"/>
-      <c r="AS43" s="62"/>
-      <c r="AT43" s="62"/>
-      <c r="AU43" s="62"/>
-      <c r="AV43" s="62"/>
-      <c r="AW43" s="62"/>
-      <c r="AX43" s="62"/>
-      <c r="AY43" s="62"/>
-      <c r="AZ43" s="62"/>
+      <c r="Y43" s="69"/>
+      <c r="Z43" s="69"/>
+      <c r="AA43" s="69"/>
+      <c r="AB43" s="69"/>
+      <c r="AC43" s="69"/>
+      <c r="AD43" s="69"/>
+      <c r="AE43" s="69"/>
+      <c r="AF43" s="69"/>
+      <c r="AG43" s="69"/>
+      <c r="AH43" s="69"/>
+      <c r="AI43" s="69"/>
+      <c r="AJ43" s="69"/>
+      <c r="AK43" s="69"/>
+      <c r="AL43" s="69"/>
+      <c r="AM43" s="69"/>
+      <c r="AN43" s="69"/>
+      <c r="AO43" s="69"/>
+      <c r="AP43" s="69"/>
+      <c r="AQ43" s="69"/>
+      <c r="AR43" s="69"/>
+      <c r="AS43" s="69"/>
+      <c r="AT43" s="69"/>
+      <c r="AU43" s="69"/>
+      <c r="AV43" s="69"/>
+      <c r="AW43" s="69"/>
+      <c r="AX43" s="69"/>
+      <c r="AY43" s="69"/>
+      <c r="AZ43" s="69"/>
     </row>
     <row r="44" spans="25:52">
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="62"/>
-      <c r="AH44" s="62"/>
-      <c r="AI44" s="62"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="62"/>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="62"/>
-      <c r="AN44" s="62"/>
-      <c r="AO44" s="62"/>
-      <c r="AP44" s="62"/>
-      <c r="AQ44" s="62"/>
-      <c r="AR44" s="62"/>
-      <c r="AS44" s="62"/>
-      <c r="AT44" s="62"/>
-      <c r="AU44" s="62"/>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="62"/>
-      <c r="AX44" s="62"/>
-      <c r="AY44" s="62"/>
-      <c r="AZ44" s="62"/>
+      <c r="Y44" s="69"/>
+      <c r="Z44" s="69"/>
+      <c r="AA44" s="69"/>
+      <c r="AB44" s="69"/>
+      <c r="AC44" s="69"/>
+      <c r="AD44" s="69"/>
+      <c r="AE44" s="69"/>
+      <c r="AF44" s="69"/>
+      <c r="AG44" s="69"/>
+      <c r="AH44" s="69"/>
+      <c r="AI44" s="69"/>
+      <c r="AJ44" s="69"/>
+      <c r="AK44" s="69"/>
+      <c r="AL44" s="69"/>
+      <c r="AM44" s="69"/>
+      <c r="AN44" s="69"/>
+      <c r="AO44" s="69"/>
+      <c r="AP44" s="69"/>
+      <c r="AQ44" s="69"/>
+      <c r="AR44" s="69"/>
+      <c r="AS44" s="69"/>
+      <c r="AT44" s="69"/>
+      <c r="AU44" s="69"/>
+      <c r="AV44" s="69"/>
+      <c r="AW44" s="69"/>
+      <c r="AX44" s="69"/>
+      <c r="AY44" s="69"/>
+      <c r="AZ44" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wolfenstyne\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8603A242-24F3-4664-9D24-F8B555B49502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AE4103-A8F5-4B48-BA7B-6F322017AAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="780" firstSheet="2" activeTab="7" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="780" firstSheet="2" activeTab="5" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="438">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -670,45 +670,6 @@
     <t>Encased Beams</t>
   </si>
   <si>
-    <t>600 Limestone</t>
-  </si>
-  <si>
-    <t>1200 Quartz</t>
-  </si>
-  <si>
-    <t>1 Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 to 3 Balance </t>
-  </si>
-  <si>
-    <t>1 Line to Cheap Silica</t>
-  </si>
-  <si>
-    <t>2 Lines to Silica</t>
-  </si>
-  <si>
-    <t>37 Constructors</t>
-  </si>
-  <si>
-    <t>32 Assemblers</t>
-  </si>
-  <si>
-    <t>5 Floors of 8</t>
-  </si>
-  <si>
-    <t>4 Floors of 8</t>
-  </si>
-  <si>
-    <t>2 Lines out</t>
-  </si>
-  <si>
-    <t>4 to 3 Balancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2240 Silica Out </t>
-  </si>
-  <si>
     <t>Overall Build Diagram</t>
   </si>
   <si>
@@ -1385,6 +1346,18 @@
   </si>
   <si>
     <t>packaged nitrogen (just some)</t>
+  </si>
+  <si>
+    <t>Quarts</t>
+  </si>
+  <si>
+    <t>Cheap Silica</t>
+  </si>
+  <si>
+    <t>Pure Quartz Crystal</t>
+  </si>
+  <si>
+    <t>Raw Quarts</t>
   </si>
 </sst>
 </file>
@@ -2021,6 +1994,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2028,12 +2007,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
@@ -2767,7 +2740,7 @@
     </row>
     <row r="2" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
       <c r="C2" s="24" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2"/>
@@ -2785,7 +2758,7 @@
     </row>
     <row r="3" spans="3:20" ht="19.5" thickTop="1">
       <c r="C3" s="24" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -2806,7 +2779,7 @@
     </row>
     <row r="4" spans="3:20">
       <c r="C4" s="24" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2827,7 +2800,7 @@
     </row>
     <row r="5" spans="3:20">
       <c r="C5" s="24" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2848,7 +2821,7 @@
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="24" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2869,7 +2842,7 @@
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="39" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2890,7 +2863,7 @@
     </row>
     <row r="8" spans="3:20">
       <c r="C8" s="39" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2911,7 +2884,7 @@
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="39" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -3335,32 +3308,32 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="27" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="J1" s="70" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:12" ht="21">
       <c r="B2" s="41" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H2" s="41" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.75">
@@ -3490,13 +3463,13 @@
         <v>125</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="K7" s="20" t="s">
         <v>143</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
@@ -3519,10 +3492,10 @@
         <v>16</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
@@ -3556,22 +3529,22 @@
     </row>
     <row r="11" spans="1:12" ht="21">
       <c r="B11" s="41" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
@@ -3596,13 +3569,13 @@
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="B13" s="25" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>135</v>
@@ -3701,13 +3674,13 @@
         <v>12</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>143</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
@@ -3730,13 +3703,13 @@
         <v>84</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>143</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18.75">
@@ -3759,39 +3732,39 @@
         <v>20</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>143</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="21">
       <c r="A20" s="27" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75">
@@ -3870,43 +3843,43 @@
         <v>138</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75">
       <c r="B26" s="26" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18.75">
       <c r="B27" s="28" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="21">
       <c r="B29" s="41" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18.75">
@@ -4181,25 +4154,25 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>91</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="L3" s="23" t="s">
         <v>2</v>
@@ -4208,31 +4181,31 @@
         <v>2</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="Q3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="S3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="U3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="V3" s="29" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
@@ -4277,10 +4250,10 @@
         <v>154</v>
       </c>
       <c r="T4" s="44" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="V4" s="45" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
@@ -4322,11 +4295,11 @@
       </c>
       <c r="S5" s="21"/>
       <c r="T5" s="27" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="U5" s="21"/>
       <c r="V5" s="44" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
@@ -4399,7 +4372,7 @@
         <v>14</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="V7" s="28" t="s">
         <v>12</v>
@@ -4413,7 +4386,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="25" t="s">
@@ -4433,7 +4406,7 @@
       <c r="S8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="26" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="3:22" ht="20.25" thickTop="1" thickBot="1">
@@ -4444,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -4498,7 +4471,7 @@
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="27" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="U10" s="21"/>
     </row>
@@ -4539,7 +4512,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -4552,7 +4525,7 @@
         <v>76</v>
       </c>
       <c r="T12" s="44" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="3:22" ht="21.75" thickBot="1">
@@ -4560,7 +4533,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>96</v>
@@ -4625,7 +4598,7 @@
       <c r="N15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="27" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="S15" s="21"/>
       <c r="T15" s="44" t="s">
@@ -4635,7 +4608,7 @@
     </row>
     <row r="16" spans="3:22" ht="19.5" thickBot="1">
       <c r="F16" s="25" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="26" t="s">
@@ -4681,7 +4654,7 @@
         <v>130</v>
       </c>
       <c r="T17" s="26" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="3:21" ht="19.5" thickBot="1">
@@ -4694,7 +4667,7 @@
       </c>
       <c r="S18" s="21"/>
       <c r="T18" s="27" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="U18" s="21"/>
     </row>
@@ -4737,11 +4710,11 @@
       <c r="M20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="27" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="S20" s="21"/>
       <c r="T20" s="44" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="U20" s="21"/>
     </row>
@@ -4806,15 +4779,15 @@
         <v>43</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="R23" s="25" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="S23" s="21"/>
       <c r="T23" s="40" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="U23" s="21"/>
     </row>
@@ -4848,7 +4821,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="M25" s="21"/>
       <c r="Q25" s="21"/>
@@ -4864,7 +4837,7 @@
         <v>140</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="Q26" s="21"/>
       <c r="R26" s="27" t="s">
@@ -4926,10 +4899,10 @@
         <v>19</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="R29" s="25" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="3:21" ht="18.75">
@@ -4945,7 +4918,7 @@
         <v>41</v>
       </c>
       <c r="R31" s="27" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="3:21" ht="18.75">
@@ -4956,13 +4929,13 @@
         <v>42</v>
       </c>
       <c r="M32" s="25" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="R32" s="26" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="3:18" ht="18.75">
@@ -4973,7 +4946,7 @@
         <v>43</v>
       </c>
       <c r="M33" s="40" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="R33" s="28" t="s">
         <v>12</v>
@@ -4981,13 +4954,13 @@
     </row>
     <row r="34" spans="3:18" ht="18.75">
       <c r="C34" s="40" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>44</v>
       </c>
       <c r="R34" s="40" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="3:18" ht="18.75">
@@ -5002,13 +4975,13 @@
     </row>
     <row r="39" spans="3:18" ht="30" customHeight="1">
       <c r="C39" s="50" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D39" s="51"/>
     </row>
     <row r="40" spans="3:18" ht="18.75">
       <c r="C40" s="24" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D40" s="43">
         <v>1</v>
@@ -5072,7 +5045,7 @@
     </row>
     <row r="48" spans="3:18" ht="18.75">
       <c r="C48" s="24" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D48" s="43">
         <v>0.9</v>
@@ -5080,7 +5053,7 @@
     </row>
     <row r="49" spans="3:8" ht="18.75">
       <c r="C49" s="24" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D49" s="43">
         <v>0.05</v>
@@ -5088,7 +5061,7 @@
     </row>
     <row r="50" spans="3:8" ht="18.75">
       <c r="C50" s="24" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D50" s="43">
         <v>0.05</v>
@@ -5096,13 +5069,13 @@
     </row>
     <row r="51" spans="3:8" ht="18.75">
       <c r="C51" s="24" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D51" s="43">
         <v>1</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="18.75">
@@ -5191,30 +5164,30 @@
     </row>
     <row r="61" spans="3:8" ht="18.75">
       <c r="C61" s="26" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D61" s="26">
         <v>0.05</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F61" s="26">
         <v>0.05</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="18.75">
       <c r="C62" s="26" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D62" s="26">
         <v>0.25</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F62" s="26">
         <v>0.3</v>
@@ -5222,30 +5195,30 @@
     </row>
     <row r="63" spans="3:8" ht="18.75">
       <c r="C63" s="26" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D63" s="26">
         <v>0.01</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F63" s="26">
         <v>0.01</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="18.75">
       <c r="C64" s="26" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D64" s="26">
         <v>0.3</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F64" s="26">
         <v>1</v>
@@ -5253,18 +5226,18 @@
     </row>
     <row r="65" spans="3:8" ht="18.75">
       <c r="H65" s="40" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="3:8" ht="18.75">
       <c r="C66" s="27" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="D66" s="27">
         <v>0.01</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F66" s="27">
         <v>0.01</v>
@@ -5272,7 +5245,7 @@
     </row>
     <row r="67" spans="3:8" ht="18.75">
       <c r="C67" s="27" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D67" s="27">
         <v>0.05</v>
@@ -5281,13 +5254,13 @@
     <row r="68" spans="3:8" ht="15.75" thickBot="1"/>
     <row r="69" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C69" s="27" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D69" s="27">
         <v>1</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F69" s="27">
         <v>0.25</v>
@@ -5299,25 +5272,25 @@
     </row>
     <row r="71" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C71" s="27" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D71" s="27">
         <v>0.7</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F71" s="27">
         <v>0.25</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="40" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C72" s="27" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D72" s="27">
         <v>0.35</v>
@@ -5325,7 +5298,7 @@
       <c r="E72" s="7"/>
       <c r="G72" s="9"/>
       <c r="H72" s="40" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="3:8" ht="18" thickTop="1" thickBot="1">
@@ -5334,13 +5307,13 @@
     </row>
     <row r="74" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C74" s="27" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D74" s="27">
         <v>0.3</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F74" s="27">
         <v>0.65</v>
@@ -5349,7 +5322,7 @@
     </row>
     <row r="75" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C75" s="27" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="D75" s="27">
         <v>0.5</v>
@@ -5363,13 +5336,13 @@
     </row>
     <row r="77" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C77" s="27" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D77" s="27">
         <v>1</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F77" s="27">
         <v>0.18</v>
@@ -5378,13 +5351,13 @@
     </row>
     <row r="78" spans="3:8" ht="20.25" thickTop="1" thickBot="1">
       <c r="C78" s="27" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D78" s="27">
         <v>1</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F78" s="27">
         <v>0.3</v>
@@ -5395,13 +5368,13 @@
     </row>
     <row r="80" spans="3:8" ht="19.5" thickTop="1">
       <c r="C80" s="27" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="D80" s="27">
         <v>0.5</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F80" s="27">
         <v>0.4</v>
@@ -5409,7 +5382,7 @@
     </row>
     <row r="81" spans="3:8" ht="18.75">
       <c r="C81" s="27" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="D81" s="27">
         <v>0.3</v>
@@ -5417,13 +5390,13 @@
     </row>
     <row r="83" spans="3:8" ht="18.75">
       <c r="C83" s="44" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D83" s="44">
         <v>0.99</v>
       </c>
       <c r="E83" s="44" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F83" s="44">
         <v>0.55000000000000004</v>
@@ -5431,7 +5404,7 @@
     </row>
     <row r="84" spans="3:8" ht="18.75">
       <c r="C84" s="44" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="D84" s="44">
         <v>0.6</v>
@@ -5439,13 +5412,13 @@
     </row>
     <row r="86" spans="3:8" ht="18.75">
       <c r="C86" s="44" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D86" s="44">
         <v>0.25</v>
       </c>
       <c r="E86" s="44" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F86" s="44">
         <v>0.45</v>
@@ -5453,30 +5426,30 @@
     </row>
     <row r="88" spans="3:8" ht="18.75">
       <c r="C88" s="44" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="D88" s="44">
         <v>1</v>
       </c>
       <c r="E88" s="44" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F88" s="44">
         <v>0.8</v>
       </c>
       <c r="H88" s="44" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="18.75">
       <c r="C89" s="44" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D89" s="44">
         <v>1</v>
       </c>
       <c r="E89" s="44" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F89" s="44">
         <v>0.15</v>
@@ -5484,13 +5457,13 @@
     </row>
     <row r="91" spans="3:8" ht="18.75">
       <c r="C91" s="44" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D91" s="44">
         <v>0.5</v>
       </c>
       <c r="E91" s="44" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="F91" s="44">
         <v>1</v>
@@ -5498,7 +5471,7 @@
     </row>
     <row r="92" spans="3:8" ht="18.75">
       <c r="C92" s="44" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D92" s="44">
         <v>0.4</v>
@@ -5506,13 +5479,13 @@
     </row>
     <row r="94" spans="3:8" ht="18.75">
       <c r="C94" s="45" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="D94" s="45">
         <v>1</v>
       </c>
       <c r="E94" s="45" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F94" s="45">
         <v>1</v>
@@ -5520,13 +5493,13 @@
     </row>
     <row r="95" spans="3:8" ht="18.75">
       <c r="C95" s="45" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D95" s="45">
         <v>0.5</v>
       </c>
       <c r="E95" s="45" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="F95" s="45">
         <v>1</v>
@@ -5534,7 +5507,7 @@
     </row>
     <row r="96" spans="3:8" ht="18.75">
       <c r="C96" s="45" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D96" s="45">
         <v>0.25</v>
@@ -5903,7 +5876,7 @@
         <v>197</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>168</v>
@@ -6146,7 +6119,7 @@
         <v>1700</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G22" s="37">
         <v>2</v>
@@ -6169,7 +6142,7 @@
         <v>108</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G23" s="37">
         <v>1</v>
@@ -7013,7 +6986,7 @@
       </c>
       <c r="F45" s="15"/>
       <c r="I45" s="61" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="J45" s="62"/>
       <c r="K45" s="62"/>
@@ -7931,7 +7904,7 @@
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
       <c r="H2" s="61" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
@@ -7978,16 +7951,16 @@
         <v>112</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="P3" s="32" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="2:17">
@@ -8007,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="I4" s="15">
         <v>35</v>
@@ -8054,7 +8027,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="I5" s="15">
         <v>20</v>
@@ -8104,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="I6" s="15">
         <v>15</v>
@@ -8116,7 +8089,7 @@
         <v>9999</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="M6" s="15">
         <v>37.5</v>
@@ -8155,7 +8128,7 @@
         <v>3120</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="I7" s="15">
         <v>120</v>
@@ -8193,7 +8166,7 @@
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="H8" s="15" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="I8" s="15">
         <v>40</v>
@@ -8205,7 +8178,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="M8" s="15">
         <v>60</v>
@@ -8242,17 +8215,17 @@
         <v>119</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>120</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="I10" s="55"/>
       <c r="K10" s="54" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="L10" s="55"/>
     </row>
@@ -8271,7 +8244,7 @@
         <v>300</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="I11" s="15">
         <f>Q4+Q5</f>
@@ -8300,7 +8273,7 @@
         <v>300</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="I12" s="15">
         <f>I11-P8</f>
@@ -8329,7 +8302,7 @@
         <v>300</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I13" s="15">
         <f>Q6</f>
@@ -8358,7 +8331,7 @@
         <v>300</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="I14" s="15">
         <f>Q7</f>
@@ -8387,7 +8360,7 @@
         <v>300</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I15" s="15">
         <f>Q8</f>
@@ -8424,7 +8397,7 @@
         <v>720</v>
       </c>
       <c r="H17" s="61" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="62"/>
@@ -8456,13 +8429,13 @@
         <v>112</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="2:17">
@@ -8473,7 +8446,7 @@
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
       <c r="H19" s="15" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="I19" s="15">
         <v>30</v>
@@ -8504,13 +8477,13 @@
         <v>119</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>120</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="I20" s="15">
         <v>12.5</v>
@@ -8628,11 +8601,11 @@
       <c r="D24" s="57"/>
       <c r="E24" s="58"/>
       <c r="H24" s="54" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="I24" s="55"/>
       <c r="K24" s="54" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="L24" s="55"/>
     </row>
@@ -8644,13 +8617,13 @@
         <v>119</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>120</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="I25" s="15">
         <f>N19</f>
@@ -8763,7 +8736,7 @@
       <c r="D30" s="57"/>
       <c r="E30" s="58"/>
       <c r="H30" s="61" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="I30" s="62"/>
       <c r="J30" s="62"/>
@@ -8780,7 +8753,7 @@
         <v>119</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>120</v>
@@ -8804,16 +8777,16 @@
         <v>112</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="Q31" s="32" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="2:17">
@@ -8831,7 +8804,7 @@
         <v>600</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="I32" s="15">
         <v>37.5</v>
@@ -8843,7 +8816,7 @@
         <v>18.75</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="M32" s="15">
         <v>5.625</v>
@@ -8879,13 +8852,13 @@
         <v>600</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="I33" s="15">
         <v>2</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="K33" s="15">
         <v>10</v>
@@ -8990,11 +8963,11 @@
         <v>720</v>
       </c>
       <c r="H36" s="54" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="I36" s="55"/>
       <c r="K36" s="54" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="L36" s="55"/>
     </row>
@@ -9009,14 +8982,14 @@
         <v>3120</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="I37" s="15">
         <f>Q32-O33</f>
         <v>169.99124999999998</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="L37" s="15">
         <f>I25-P32</f>
@@ -9025,7 +8998,7 @@
     </row>
     <row r="38" spans="2:17">
       <c r="H38" s="14" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="I38" s="15">
         <f>Q33</f>
@@ -9041,7 +9014,7 @@
     </row>
     <row r="39" spans="2:17">
       <c r="H39" s="14" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I39" s="15">
         <f>Q34</f>
@@ -9066,7 +9039,7 @@
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="61" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
@@ -9101,54 +9074,54 @@
         <v>158</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>112</v>
       </c>
       <c r="L43" s="16" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="O43" s="16" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="P43" s="32" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="Q43" s="32" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="2:17">
       <c r="B44" s="15" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C44" s="15">
         <v>7.5</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E44" s="15">
         <v>9.375</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="G44" s="15">
         <v>20.625</v>
@@ -9191,17 +9164,17 @@
     </row>
     <row r="46" spans="2:17">
       <c r="B46" s="54" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C46" s="55"/>
       <c r="E46" s="54" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="F46" s="55"/>
     </row>
     <row r="47" spans="2:17">
       <c r="B47" s="14" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C47" s="15">
         <f>F60</f>
@@ -9294,7 +9267,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="E55" s="14" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="F55" s="15">
         <f>L37</f>
@@ -9312,7 +9285,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="E57" s="14" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="F57" s="15">
         <f>I38-M44</f>
@@ -9321,7 +9294,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="E58" s="14" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="F58" s="15">
         <f>I39-N44</f>
@@ -9339,7 +9312,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="E60" s="14" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="F60" s="15">
         <f>I37</f>
@@ -9348,24 +9321,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B42:Q42"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B42:Q42"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K36:L36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9376,8 +9349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8995F-0120-482A-8124-986E8EA27808}">
   <dimension ref="B2:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9412,7 +9385,7 @@
       <c r="F2" s="60"/>
       <c r="G2" s="47"/>
       <c r="I2" s="61" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="J2" s="62"/>
       <c r="K2" s="62"/>
@@ -9436,10 +9409,10 @@
         <v>24</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>17</v>
@@ -9463,31 +9436,31 @@
         <v>158</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="S3" s="32" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="2:22">
@@ -9508,7 +9481,7 @@
       </c>
       <c r="G4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="J4" s="15">
         <v>15</v>
@@ -9567,7 +9540,7 @@
         <v>36</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="J5" s="15">
         <v>60</v>
@@ -9586,7 +9559,7 @@
         <v>12.31</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="R5" s="15">
         <v>130</v>
@@ -9596,7 +9569,7 @@
         <v>1600.3</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="U5" s="15">
         <v>20</v>
@@ -9624,7 +9597,7 @@
       </c>
       <c r="G6" s="15"/>
       <c r="I6" s="15" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="J6" s="15">
         <v>30</v>
@@ -9643,7 +9616,7 @@
         <v>28.81</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="R6" s="15">
         <v>20</v>
@@ -9653,7 +9626,7 @@
         <v>576.19999999999993</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="U6" s="15">
         <v>40</v>
@@ -9687,7 +9660,7 @@
         <v>4320</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="J7" s="15">
         <v>30</v>
@@ -9716,7 +9689,7 @@
         <v>131.4</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="U7" s="15">
         <v>10</v>
@@ -9734,13 +9707,13 @@
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
       <c r="I8" s="15" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="J8" s="15">
         <v>200</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="L8" s="15">
         <v>200</v>
@@ -9760,7 +9733,7 @@
         <v>10.8</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="R8" s="15">
         <v>240</v>
@@ -9789,17 +9762,17 @@
         <v>119</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>120</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="J10" s="55"/>
       <c r="L10" s="54" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="M10" s="55"/>
     </row>
@@ -9818,7 +9791,7 @@
         <v>600</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="J11" s="15">
         <f>S4</f>
@@ -9843,7 +9816,7 @@
         <v>600</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="J12" s="15">
         <f>S5+S6</f>
@@ -9859,20 +9832,20 @@
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="56" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="58"/>
       <c r="I13" s="14" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="J13" s="15">
         <f>SUM(V5:V7)</f>
         <v>1464.3</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M13" s="15">
         <f>SUM(D7-N8)</f>
@@ -9887,13 +9860,13 @@
         <v>119</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>120</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="J14" s="15">
         <f>S7</f>
@@ -9922,7 +9895,7 @@
         <v>600</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="J15" s="15">
         <f>S8</f>
@@ -9966,7 +9939,7 @@
         <v>960</v>
       </c>
       <c r="I17" s="61" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="J17" s="62"/>
       <c r="K17" s="62"/>
@@ -10008,48 +9981,48 @@
         <v>158</v>
       </c>
       <c r="N18" s="16" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="S18" s="32" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="T18" s="32" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="V18" s="32" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="56" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
       <c r="I19" s="15" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="J19" s="15">
         <v>80</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="L19" s="15">
         <v>50</v>
@@ -10090,19 +10063,19 @@
         <v>119</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>120</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="J20" s="15">
         <v>60</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="L20" s="15">
         <v>20</v>
@@ -10150,13 +10123,13 @@
         <v>300</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="J21" s="15">
         <v>40</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -10169,7 +10142,7 @@
         <v>6.96</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="R21" s="15">
         <v>120</v>
@@ -10197,19 +10170,19 @@
         <v>300</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="J22" s="15">
         <v>180</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="L22" s="15">
         <v>60</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="N22" s="15">
         <f>SUM(J22*P22)</f>
@@ -10258,7 +10231,7 @@
         <v>600</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="J23" s="15">
         <v>60</v>
@@ -10316,11 +10289,11 @@
         <v>1800</v>
       </c>
       <c r="I25" s="54" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="J25" s="55"/>
       <c r="L25" s="54" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="M25" s="55"/>
     </row>
@@ -10339,7 +10312,7 @@
         <v>100</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="M26" s="15">
         <f>SUM(J12-(N19+N20))</f>
@@ -10354,7 +10327,7 @@
         <v>119</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>120</v>
@@ -10367,7 +10340,7 @@
         <v>323.39999999999998</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="M27" s="15">
         <f>J13-N21</f>
@@ -10396,7 +10369,7 @@
         <v>2088</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="M28" s="15">
         <f>S22-N23</f>
@@ -10418,7 +10391,7 @@
         <v>600</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="M29" s="15">
         <f>S21-O22</f>
@@ -10445,7 +10418,7 @@
     </row>
     <row r="31" spans="2:22">
       <c r="L31" s="14" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="M31" s="15">
         <f>J15-N22</f>
@@ -10472,7 +10445,7 @@
     </row>
     <row r="35" spans="9:25">
       <c r="I35" s="61" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="J35" s="62"/>
       <c r="K35" s="62"/>
@@ -10508,40 +10481,40 @@
         <v>158</v>
       </c>
       <c r="N36" s="16" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="P36" s="16" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="Q36" s="32" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="R36" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="S36" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="T36" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="V36" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="S36" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="T36" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="U36" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="V36" s="32" t="s">
-        <v>390</v>
-      </c>
       <c r="W36" s="32" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="X36" s="32" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="Y36" s="32" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="9:25">
@@ -10598,7 +10571,7 @@
         <v>90</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
@@ -10634,13 +10607,13 @@
     </row>
     <row r="39" spans="9:25">
       <c r="I39" s="15" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J39" s="15">
         <v>30</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="L39" s="15">
         <v>10</v>
@@ -10665,7 +10638,7 @@
         <v>42</v>
       </c>
       <c r="T39" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="U39" s="15">
         <v>30</v>
@@ -10723,7 +10696,7 @@
     </row>
     <row r="41" spans="9:25">
       <c r="I41" s="15" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="J41" s="15">
         <v>50</v>
@@ -10735,13 +10708,13 @@
         <v>20</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="N41" s="15">
         <v>40</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="P41" s="15" t="e">
         <f t="shared" si="2"/>
@@ -10756,10 +10729,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="T41" s="15" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="U41" s="15">
         <v>20</v>
@@ -10781,13 +10754,13 @@
     </row>
     <row r="42" spans="9:25">
       <c r="I42" s="15" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="J42" s="15">
         <v>50</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="L42" s="15">
         <v>100</v>
@@ -10812,7 +10785,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="T42" s="15" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="U42" s="15">
         <v>100</v>
@@ -10827,11 +10800,11 @@
     </row>
     <row r="44" spans="9:25">
       <c r="I44" s="54" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="J44" s="55"/>
       <c r="L44" s="54" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="M44" s="55"/>
     </row>
@@ -10860,21 +10833,21 @@
         <v>323.39999999999998</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="M46" s="49">
         <f>M27-P42</f>
         <v>186.4000000000002</v>
       </c>
-      <c r="N46" s="63" t="s">
-        <v>423</v>
-      </c>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="64"/>
-      <c r="S46" s="64"/>
-      <c r="T46" s="65"/>
+      <c r="N46" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="O46" s="66"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="66"/>
+      <c r="S46" s="66"/>
+      <c r="T46" s="67"/>
     </row>
     <row r="47" spans="9:25">
       <c r="I47" s="14" t="s">
@@ -10885,7 +10858,7 @@
         <v>763.2</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="M47" s="15" t="e">
         <f>M31-R41</f>
@@ -10910,7 +10883,7 @@
     </row>
     <row r="49" spans="9:25">
       <c r="I49" s="14" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="J49" s="15" t="e">
         <f>V41</f>
@@ -10926,7 +10899,7 @@
     </row>
     <row r="50" spans="9:25">
       <c r="I50" s="14" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="J50" s="15">
         <f>V42</f>
@@ -10942,7 +10915,7 @@
     </row>
     <row r="51" spans="9:25">
       <c r="I51" s="48" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="J51" s="15">
         <f>V39</f>
@@ -10966,19 +10939,19 @@
       </c>
     </row>
     <row r="53" spans="9:25" ht="15.75" thickBot="1">
-      <c r="N53" s="63" t="s">
-        <v>426</v>
-      </c>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="64"/>
-      <c r="R53" s="64"/>
-      <c r="S53" s="64"/>
-      <c r="T53" s="65"/>
+      <c r="N53" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="O53" s="66"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="66"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="66"/>
+      <c r="T53" s="67"/>
     </row>
     <row r="54" spans="9:25">
       <c r="I54" s="61" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="J54" s="62"/>
       <c r="K54" s="62"/>
@@ -11014,45 +10987,45 @@
         <v>158</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="R55" s="16" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="S55" s="32" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="T55" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="U55" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="V55" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="W55" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="X55" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y55" s="32" t="s">
         <v>377</v>
-      </c>
-      <c r="U55" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="V55" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="W55" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="X55" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y55" s="32" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="56" spans="9:25">
       <c r="I56" s="15" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="J56" s="15">
         <v>30</v>
@@ -11064,7 +11037,7 @@
         <v>30</v>
       </c>
       <c r="M56" s="15" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="N56" s="15"/>
       <c r="O56" s="15"/>
@@ -11100,7 +11073,7 @@
     </row>
     <row r="57" spans="9:25">
       <c r="I57" s="15" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="J57" s="15">
         <v>30</v>
@@ -11112,7 +11085,7 @@
         <v>30</v>
       </c>
       <c r="M57" s="15" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="N57" s="15"/>
       <c r="O57" s="15"/>
@@ -11148,7 +11121,7 @@
     </row>
     <row r="58" spans="9:25">
       <c r="I58" s="15" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="J58" s="15">
         <v>45</v>
@@ -11160,7 +11133,7 @@
         <v>52.5</v>
       </c>
       <c r="M58" s="15" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="N58" s="15">
         <v>60</v>
@@ -11194,7 +11167,7 @@
         <v>24</v>
       </c>
       <c r="W58" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="X58" s="15">
         <v>30</v>
@@ -11205,12 +11178,12 @@
       </c>
     </row>
     <row r="60" spans="9:25">
-      <c r="I60" s="66" t="s">
-        <v>428</v>
-      </c>
-      <c r="J60" s="67"/>
+      <c r="I60" s="63" t="s">
+        <v>415</v>
+      </c>
+      <c r="J60" s="64"/>
       <c r="L60" s="54" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="M60" s="55"/>
     </row>
@@ -11239,7 +11212,7 @@
         <v>763.5</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="M62" s="15">
         <f>J51-S58</f>
@@ -11264,14 +11237,14 @@
     </row>
     <row r="64" spans="9:25">
       <c r="I64" s="14" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="J64" s="15" t="e">
         <f>V41+Y58</f>
         <v>#VALUE!</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="M64" s="15">
         <f>J50-R56-R57</f>
@@ -11296,12 +11269,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I54:Y54"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="N53:T53"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="I44:J44"/>
     <mergeCell ref="I35:Y35"/>
     <mergeCell ref="I17:V17"/>
     <mergeCell ref="N46:T46"/>
@@ -11316,6 +11283,12 @@
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="L25:M25"/>
+    <mergeCell ref="I54:Y54"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="N53:T53"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="I44:J44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -11324,82 +11297,400 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0353B9-1CC2-4B24-B610-97234758C445}">
-  <dimension ref="C3:E13"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="18.75">
-      <c r="C3" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" ht="18.75">
-      <c r="C6" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="18.75">
-      <c r="E7" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="18.75">
-      <c r="C9" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="18.75">
-      <c r="C10" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="18.75">
-      <c r="C12" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="18.75">
-      <c r="C13" s="40" t="s">
-        <v>218</v>
+    <row r="2" spans="2:5">
+      <c r="B2" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="15">
+        <f>E13</f>
+        <v>782.4</v>
+      </c>
+      <c r="D7" s="15">
+        <f>E18</f>
+        <v>1564.8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="15">
+        <v>120</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1.63</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15">
+        <f>B12*C12*D12</f>
+        <v>782.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15">
+        <f>SUM(E12:E12)</f>
+        <v>782.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="15">
+        <v>120</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1.63</v>
+      </c>
+      <c r="D16" s="15">
+        <v>4</v>
+      </c>
+      <c r="E16" s="15">
+        <f>B16*C16*D16</f>
+        <v>782.4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="15">
+        <v>120</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.63</v>
+      </c>
+      <c r="D17" s="15">
+        <v>4</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" ref="E17" si="0">B17*C17*D17</f>
+        <v>782.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
+        <f>SUM(SUM(E16:E17))</f>
+        <v>1564.8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="C22" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="15">
+        <v>18.75</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="15">
+        <f>SUM(C22*I22)</f>
+        <v>468</v>
+      </c>
+      <c r="H22" s="15">
+        <f>E22*I22</f>
+        <v>780</v>
+      </c>
+      <c r="I22" s="15">
+        <v>41.6</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="15">
+        <v>26.25</v>
+      </c>
+      <c r="L22" s="15">
+        <f>K22*I22</f>
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="15">
+        <v>22.5</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15">
+        <f>SUM(C23*I23)</f>
+        <v>188.32499999999999</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="L23" s="15">
+        <f>K23*I23</f>
+        <v>313.87499999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C24" s="15">
+        <v>67.5</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="15">
+        <v>37.5</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="15">
+        <f>SUM(C24*I24)</f>
+        <v>903.82500000000005</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" ref="H23:H24" si="1">E24*I24</f>
+        <v>502.125</v>
+      </c>
+      <c r="I24" s="15">
+        <v>13.39</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" s="15">
+        <v>52.5</v>
+      </c>
+      <c r="L24" s="15">
+        <f>K24*I24</f>
+        <v>702.97500000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" s="55"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="15">
+        <f>L23+L22</f>
+        <v>1405.875</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="15">
+        <f>L24</f>
+        <v>702.97500000000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B20:L20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -11424,7 +11715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E9EB0-3E23-4641-A58B-1165AA753DC6}">
   <dimension ref="K5:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -11440,27 +11731,27 @@
     </row>
     <row r="6" spans="11:11">
       <c r="K6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="11:11">
       <c r="K7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="11:11">
       <c r="K8" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="11:11">
       <c r="K9" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="11:11">
       <c r="K10" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="11:11">
@@ -11470,27 +11761,27 @@
     </row>
     <row r="15" spans="11:11">
       <c r="K15" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="11:11">
       <c r="K17" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="11:11">
       <c r="K19" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -11515,7 +11806,7 @@
   <sheetData>
     <row r="2" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="68" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B2" s="68"/>
       <c r="C2" s="68"/>
@@ -11535,7 +11826,7 @@
       <c r="Q2" s="68"/>
       <c r="R2" s="68"/>
       <c r="Y2" s="69" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="Z2" s="69"/>
       <c r="AA2" s="69"/>
@@ -11666,7 +11957,7 @@
     <row r="39" spans="25:52" ht="12" customHeight="1"/>
     <row r="42" spans="25:52">
       <c r="Y42" s="69" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="Z42" s="69"/>
       <c r="AA42" s="69"/>

--- a/Documents/SSSS.xlsx
+++ b/Documents/SSSS.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8768EA01-0258-4E65-900B-026AC927FD34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60AEF5F-67E6-44BF-A44E-48DAAE795B4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="4" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="780" activeTab="5" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
   <sheets>
     <sheet name="AgendaToDo" sheetId="8" r:id="rId1"/>
     <sheet name="OverallResources" sheetId="19" r:id="rId2"/>
-    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId3"/>
-    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId4"/>
-    <sheet name="QuickwireCoast" sheetId="18" r:id="rId5"/>
-    <sheet name="SteelLakeSite" sheetId="17" r:id="rId6"/>
-    <sheet name="OffshoreMegaRefinery" sheetId="16" r:id="rId7"/>
-    <sheet name="SilicaCaveSite" sheetId="13" r:id="rId8"/>
-    <sheet name="SWNitrogenFacility" sheetId="14" r:id="rId9"/>
-    <sheet name="Diagrams" sheetId="2" r:id="rId10"/>
-    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId11"/>
-    <sheet name="MinerOutputValues" sheetId="5" r:id="rId12"/>
+    <sheet name="SwampNuclearRegion" sheetId="20" r:id="rId3"/>
+    <sheet name="TierLocationOrganization" sheetId="1" r:id="rId4"/>
+    <sheet name="GrasslandRegionalProduction" sheetId="6" r:id="rId5"/>
+    <sheet name="QuickwireCoast" sheetId="18" r:id="rId6"/>
+    <sheet name="SteelLakeSite" sheetId="17" r:id="rId7"/>
+    <sheet name="OffshoreMegaRefinery" sheetId="16" r:id="rId8"/>
+    <sheet name="SilicaCaveSite" sheetId="13" r:id="rId9"/>
+    <sheet name="SWNitrogenFacility" sheetId="14" r:id="rId10"/>
+    <sheet name="Diagrams" sheetId="2" r:id="rId11"/>
+    <sheet name="GrasslandTrainHubStations" sheetId="9" r:id="rId12"/>
+    <sheet name="MinerOutputValues" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="459">
   <si>
     <t>Raw Materials</t>
   </si>
@@ -1250,9 +1251,6 @@
     <t>Total Available Post Processing =&gt; To Train</t>
   </si>
   <si>
-    <t>1. Adjust Outputs</t>
-  </si>
-  <si>
     <t>3. Quickwire Coast Site</t>
   </si>
   <si>
@@ -1331,18 +1329,6 @@
     <t>Miner Mult</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Silica Available</t>
   </si>
   <si>
@@ -1431,6 +1417,12 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>Bring by Drone:</t>
   </si>
 </sst>
 </file>
@@ -2038,19 +2030,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2068,10 +2071,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2081,12 +2087,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyAlignment="1">
@@ -2104,14 +2104,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -2793,7 +2785,7 @@
   <dimension ref="C1:U44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2815,7 +2807,9 @@
     <col min="16" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" ht="19.5" thickBot="1">
+    <row r="1" spans="3:20">
+      <c r="C1"/>
+      <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
@@ -2826,11 +2820,9 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="3:20" ht="20.25" thickTop="1" thickBot="1">
-      <c r="C2" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="D2" s="21"/>
+    <row r="2" spans="3:20">
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -2844,7 +2836,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="3:20" ht="19.5" thickTop="1">
+    <row r="3" spans="3:20">
       <c r="C3"/>
       <c r="E3"/>
       <c r="F3"/>
@@ -2865,7 +2857,7 @@
     </row>
     <row r="4" spans="3:20">
       <c r="C4" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2886,7 +2878,7 @@
     </row>
     <row r="5" spans="3:20">
       <c r="C5" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2907,7 +2899,7 @@
     </row>
     <row r="6" spans="3:20">
       <c r="C6" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2928,7 +2920,7 @@
     </row>
     <row r="7" spans="3:20">
       <c r="C7" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2949,7 +2941,7 @@
     </row>
     <row r="8" spans="3:20">
       <c r="C8" s="38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2970,7 +2962,7 @@
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -3366,6 +3358,85 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4E9EB0-3E23-4641-A58B-1165AA753DC6}">
+  <dimension ref="K5:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="11:11">
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="11:11">
+      <c r="K6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="11:11">
+      <c r="K7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="11:11">
+      <c r="K8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="11:11">
+      <c r="K9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="11:11">
+      <c r="K10" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="11:11">
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="11:11">
+      <c r="K15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="11:11">
+      <c r="K16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031799F3-40C0-4069-9E55-C2D3A52CF011}">
   <dimension ref="A2:AZ44"/>
   <sheetViews>
@@ -3380,247 +3451,247 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="Y2" s="67" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="Y2" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
     </row>
     <row r="3" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
     </row>
     <row r="4" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="67"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AQ4" s="73"/>
+      <c r="AR4" s="73"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="AX4" s="73"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
     </row>
     <row r="5" spans="1:52" ht="15.75" thickTop="1"/>
     <row r="19" ht="9.75" customHeight="1"/>
     <row r="39" spans="25:52" ht="12" customHeight="1"/>
     <row r="42" spans="25:52">
-      <c r="Y42" s="67" t="s">
+      <c r="Y42" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="67"/>
-      <c r="AB42" s="67"/>
-      <c r="AC42" s="67"/>
-      <c r="AD42" s="67"/>
-      <c r="AE42" s="67"/>
-      <c r="AF42" s="67"/>
-      <c r="AG42" s="67"/>
-      <c r="AH42" s="67"/>
-      <c r="AI42" s="67"/>
-      <c r="AJ42" s="67"/>
-      <c r="AK42" s="67"/>
-      <c r="AL42" s="67"/>
-      <c r="AM42" s="67"/>
-      <c r="AN42" s="67"/>
-      <c r="AO42" s="67"/>
-      <c r="AP42" s="67"/>
-      <c r="AQ42" s="67"/>
-      <c r="AR42" s="67"/>
-      <c r="AS42" s="67"/>
-      <c r="AT42" s="67"/>
-      <c r="AU42" s="67"/>
-      <c r="AV42" s="67"/>
-      <c r="AW42" s="67"/>
-      <c r="AX42" s="67"/>
-      <c r="AY42" s="67"/>
-      <c r="AZ42" s="67"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
+      <c r="AB42" s="73"/>
+      <c r="AC42" s="73"/>
+      <c r="AD42" s="73"/>
+      <c r="AE42" s="73"/>
+      <c r="AF42" s="73"/>
+      <c r="AG42" s="73"/>
+      <c r="AH42" s="73"/>
+      <c r="AI42" s="73"/>
+      <c r="AJ42" s="73"/>
+      <c r="AK42" s="73"/>
+      <c r="AL42" s="73"/>
+      <c r="AM42" s="73"/>
+      <c r="AN42" s="73"/>
+      <c r="AO42" s="73"/>
+      <c r="AP42" s="73"/>
+      <c r="AQ42" s="73"/>
+      <c r="AR42" s="73"/>
+      <c r="AS42" s="73"/>
+      <c r="AT42" s="73"/>
+      <c r="AU42" s="73"/>
+      <c r="AV42" s="73"/>
+      <c r="AW42" s="73"/>
+      <c r="AX42" s="73"/>
+      <c r="AY42" s="73"/>
+      <c r="AZ42" s="73"/>
     </row>
     <row r="43" spans="25:52">
-      <c r="Y43" s="67"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="67"/>
-      <c r="AB43" s="67"/>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="67"/>
-      <c r="AF43" s="67"/>
-      <c r="AG43" s="67"/>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="67"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="67"/>
-      <c r="AM43" s="67"/>
-      <c r="AN43" s="67"/>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="67"/>
-      <c r="AR43" s="67"/>
-      <c r="AS43" s="67"/>
-      <c r="AT43" s="67"/>
-      <c r="AU43" s="67"/>
-      <c r="AV43" s="67"/>
-      <c r="AW43" s="67"/>
-      <c r="AX43" s="67"/>
-      <c r="AY43" s="67"/>
-      <c r="AZ43" s="67"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="73"/>
+      <c r="AC43" s="73"/>
+      <c r="AD43" s="73"/>
+      <c r="AE43" s="73"/>
+      <c r="AF43" s="73"/>
+      <c r="AG43" s="73"/>
+      <c r="AH43" s="73"/>
+      <c r="AI43" s="73"/>
+      <c r="AJ43" s="73"/>
+      <c r="AK43" s="73"/>
+      <c r="AL43" s="73"/>
+      <c r="AM43" s="73"/>
+      <c r="AN43" s="73"/>
+      <c r="AO43" s="73"/>
+      <c r="AP43" s="73"/>
+      <c r="AQ43" s="73"/>
+      <c r="AR43" s="73"/>
+      <c r="AS43" s="73"/>
+      <c r="AT43" s="73"/>
+      <c r="AU43" s="73"/>
+      <c r="AV43" s="73"/>
+      <c r="AW43" s="73"/>
+      <c r="AX43" s="73"/>
+      <c r="AY43" s="73"/>
+      <c r="AZ43" s="73"/>
     </row>
     <row r="44" spans="25:52">
-      <c r="Y44" s="67"/>
-      <c r="Z44" s="67"/>
-      <c r="AA44" s="67"/>
-      <c r="AB44" s="67"/>
-      <c r="AC44" s="67"/>
-      <c r="AD44" s="67"/>
-      <c r="AE44" s="67"/>
-      <c r="AF44" s="67"/>
-      <c r="AG44" s="67"/>
-      <c r="AH44" s="67"/>
-      <c r="AI44" s="67"/>
-      <c r="AJ44" s="67"/>
-      <c r="AK44" s="67"/>
-      <c r="AL44" s="67"/>
-      <c r="AM44" s="67"/>
-      <c r="AN44" s="67"/>
-      <c r="AO44" s="67"/>
-      <c r="AP44" s="67"/>
-      <c r="AQ44" s="67"/>
-      <c r="AR44" s="67"/>
-      <c r="AS44" s="67"/>
-      <c r="AT44" s="67"/>
-      <c r="AU44" s="67"/>
-      <c r="AV44" s="67"/>
-      <c r="AW44" s="67"/>
-      <c r="AX44" s="67"/>
-      <c r="AY44" s="67"/>
-      <c r="AZ44" s="67"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="73"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="73"/>
+      <c r="AF44" s="73"/>
+      <c r="AG44" s="73"/>
+      <c r="AH44" s="73"/>
+      <c r="AI44" s="73"/>
+      <c r="AJ44" s="73"/>
+      <c r="AK44" s="73"/>
+      <c r="AL44" s="73"/>
+      <c r="AM44" s="73"/>
+      <c r="AN44" s="73"/>
+      <c r="AO44" s="73"/>
+      <c r="AP44" s="73"/>
+      <c r="AQ44" s="73"/>
+      <c r="AR44" s="73"/>
+      <c r="AS44" s="73"/>
+      <c r="AT44" s="73"/>
+      <c r="AU44" s="73"/>
+      <c r="AV44" s="73"/>
+      <c r="AW44" s="73"/>
+      <c r="AX44" s="73"/>
+      <c r="AY44" s="73"/>
+      <c r="AZ44" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3634,7 +3705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2FA3DA-A5F3-411F-AB6B-7EB05B935F88}">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -3665,11 +3736,11 @@
       <c r="A1" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12" ht="21">
       <c r="B2" s="40" t="s">
@@ -4313,7 +4384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33A4D7D-2B40-4F26-A6BD-214006A713CE}">
   <dimension ref="C3:D21"/>
   <sheetViews>
@@ -4328,16 +4399,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="20.25" thickBot="1">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="75"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1">
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="76"/>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="12" t="s">
@@ -4372,10 +4443,10 @@
       </c>
     </row>
     <row r="10" spans="3:4">
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="76"/>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="11" t="s">
@@ -4418,10 +4489,10 @@
       </c>
     </row>
     <row r="